--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:H304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,25 +446,30 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>iata</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>lat</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>lon</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>cca2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
@@ -481,23 +486,28 @@
           <t>Accra, Ghana</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ACC</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
         <v>5.614818</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>-0.205874</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>GH</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Accra</t>
         </is>
@@ -514,23 +524,28 @@
           <t>Algiers, Algeria</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ALG</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
         <v>36.6910018921</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>3.2154099941</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>DZ</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>Algiers</t>
         </is>
@@ -547,23 +562,28 @@
           <t>Annaba, Algeria</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>AAE</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
         <v>36.85596</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>7.79207</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>DZ</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>Annaba</t>
         </is>
@@ -580,23 +600,28 @@
           <t>Antananarivo, Madagascar</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>TNR</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
         <v>-18.91368</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>47.53613</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>MG</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>Antananarivo</t>
         </is>
@@ -613,23 +638,28 @@
           <t>Cape Town, South Africa</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CPT</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
         <v>-33.9648017883</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>18.6016998291</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>Cape Town</t>
         </is>
@@ -646,23 +676,28 @@
           <t>Casablanca, Morocco</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CMN</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
         <v>33.3675003052</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>-7.5899701118</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>MA</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>Casablanca</t>
         </is>
@@ -679,23 +714,28 @@
           <t>Dakar, Senegal</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>DKR</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
         <v>14.7412099</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>-17.4889771</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>SN</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Dakar</t>
         </is>
@@ -712,23 +752,28 @@
           <t>Dar Es Salaam, Tanzania</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>DAR</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
         <v>-6.8781099319</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>39.2025985718</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>TZ</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>Dar es Salaam</t>
         </is>
@@ -745,23 +790,28 @@
           <t>Djibouti City, Djibouti</t>
         </is>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>JIB</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
         <v>11.5473003387</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>43.1595001221</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>DJ</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>Djibouti</t>
         </is>
@@ -778,23 +828,28 @@
           <t>Durban, South Africa</t>
         </is>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>DUR</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
         <v>-29.6144444444</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>31.1197222222</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>Durban</t>
         </is>
@@ -811,23 +866,28 @@
           <t>Gaborone, Botswana</t>
         </is>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>GBE</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
         <v>-24.6282</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>25.9231</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>BW</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Gaborone</t>
         </is>
@@ -844,23 +904,28 @@
           <t>Harare, Zimbabwe</t>
         </is>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>HRE</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
         <v>-17.9318008423</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>31.0928001404</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>ZW</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Harare</t>
         </is>
@@ -877,23 +942,28 @@
           <t>Johannesburg, South Africa</t>
         </is>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>JNB</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
         <v>-26.133333</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>28.25</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>ZA</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>Johannesburg</t>
         </is>
@@ -910,23 +980,28 @@
           <t>Kigali, Rwanda</t>
         </is>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>KGL</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
         <v>-1.9686299563</v>
       </c>
-      <c r="D15" t="n">
+      <c r="E15" t="n">
         <v>30.1394996643</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>RW</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Kigali</t>
         </is>
@@ -943,23 +1018,28 @@
           <t>Lagos, Nigeria</t>
         </is>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>LOS</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
         <v>6.5773701668</v>
       </c>
-      <c r="D16" t="n">
+      <c r="E16" t="n">
         <v>3.321160078</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>NG</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>Lagos</t>
         </is>
@@ -976,23 +1056,28 @@
           <t>Luanda, Angola</t>
         </is>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>LAD</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
         <v>-8.858369827300001</v>
       </c>
-      <c r="D17" t="n">
+      <c r="E17" t="n">
         <v>13.2312002182</v>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>AO</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>Luanda</t>
         </is>
@@ -1009,23 +1094,28 @@
           <t>Maputo, Mozambique</t>
         </is>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>MPM</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
         <v>-25.9207992554</v>
       </c>
-      <c r="D18" t="n">
+      <c r="E18" t="n">
         <v>32.5726013184</v>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>MZ</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>Maputo</t>
         </is>
@@ -1042,23 +1132,28 @@
           <t>Mombasa, Kenya</t>
         </is>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MBA</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
         <v>-4.0348300934</v>
       </c>
-      <c r="D19" t="n">
+      <c r="E19" t="n">
         <v>39.5942001343</v>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>KE</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Mombasa</t>
         </is>
@@ -1075,23 +1170,28 @@
           <t>Nairobi, Kenya</t>
         </is>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NBO</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
         <v>-1.319239974</v>
       </c>
-      <c r="D20" t="n">
+      <c r="E20" t="n">
         <v>36.9277992249</v>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>KE</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>Nairobi</t>
         </is>
@@ -1108,23 +1208,28 @@
           <t>Oran, Algeria</t>
         </is>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ORN</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
         <v>35.6911</v>
       </c>
-      <c r="D21" t="n">
+      <c r="E21" t="n">
         <v>-0.6415999999999999</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>DZ</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>Oran</t>
         </is>
@@ -1141,23 +1246,28 @@
           <t>Ouagadougou, Burkina Faso</t>
         </is>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>OUA</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
         <v>12.3531999588</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>-1.5124200583</v>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>BF</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>Ouagadougou</t>
         </is>
@@ -1174,23 +1284,28 @@
           <t>Port Louis, Mauritius</t>
         </is>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MRU</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
         <v>-20.4302005768</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>57.6836013794</v>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>Port Louis</t>
         </is>
@@ -1207,23 +1322,28 @@
           <t>Réunion, France</t>
         </is>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>RUN</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
         <v>-20.8871002197</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>55.5102996826</v>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>RE</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>Saint-Denis</t>
         </is>
@@ -1240,23 +1360,28 @@
           <t>Tunis, Tunisia</t>
         </is>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>TUN</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
         <v>36.8510017395</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>10.2271995544</v>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>TN</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>Tunis</t>
         </is>
@@ -1273,23 +1398,28 @@
           <t>Kinshasa, DR Congo</t>
         </is>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>FIH</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
         <v>-4.3857498169</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>15.4446001053</v>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>CD</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Africa</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>Kinshasa</t>
         </is>
@@ -1306,23 +1436,28 @@
           <t>Ahmedabad, India</t>
         </is>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
         <v>23.0225</v>
       </c>
-      <c r="D27" t="n">
+      <c r="E27" t="n">
         <v>72.5714</v>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>Ahmedabad</t>
         </is>
@@ -1339,23 +1474,28 @@
           <t>Almaty, Kazakhstan</t>
         </is>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>ALA</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
         <v>43.3521003723</v>
       </c>
-      <c r="D28" t="n">
+      <c r="E28" t="n">
         <v>77.0404968262</v>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>KZ</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>Almaty</t>
         </is>
@@ -1372,23 +1512,28 @@
           <t>Bangalore, India</t>
         </is>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>BLR</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
         <v>13.7835719</v>
       </c>
-      <c r="D29" t="n">
+      <c r="E29" t="n">
         <v>76.6165937</v>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>Bangalore</t>
         </is>
@@ -1405,23 +1550,28 @@
           <t>Bangkok, Thailand</t>
         </is>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>BKK</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
         <v>13.6810998917</v>
       </c>
-      <c r="D30" t="n">
+      <c r="E30" t="n">
         <v>100.747001648</v>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>TH</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>Bangkok</t>
         </is>
@@ -1438,23 +1588,28 @@
           <t>Bandar Seri Begawan, Brunei</t>
         </is>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>BWN</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
         <v>4.903052</v>
       </c>
-      <c r="D31" t="n">
+      <c r="E31" t="n">
         <v>114.939819</v>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>BN</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>Bandar Seri Begawan</t>
         </is>
@@ -1476,6 +1631,7 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
@@ -1488,23 +1644,28 @@
           <t>Bhubaneswar, India</t>
         </is>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>BBI</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
         <v>20.2961</v>
       </c>
-      <c r="D33" t="n">
+      <c r="E33" t="n">
         <v>85.8245</v>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>Bhubaneswar</t>
         </is>
@@ -1521,23 +1682,28 @@
           <t>Cebu, Philippines</t>
         </is>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CEB</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
         <v>10.3074998856</v>
       </c>
-      <c r="D34" t="n">
+      <c r="E34" t="n">
         <v>123.978996277</v>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>Cebu</t>
         </is>
@@ -1554,23 +1720,28 @@
           <t>Chandigarh, India</t>
         </is>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>IXC</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
         <v>30.673500061</v>
       </c>
-      <c r="D35" t="n">
+      <c r="E35" t="n">
         <v>76.7884979248</v>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>Chandigarh</t>
         </is>
@@ -1592,6 +1763,7 @@
       <c r="E36" t="inlineStr"/>
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr"/>
+      <c r="H36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
@@ -1604,23 +1776,28 @@
           <t>Chennai, India</t>
         </is>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>MAA</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
         <v>12.9900054932</v>
       </c>
-      <c r="D37" t="n">
+      <c r="E37" t="n">
         <v>80.16929626460001</v>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>Chennai</t>
         </is>
@@ -1637,23 +1814,28 @@
           <t>Chiang Mai, Thailand</t>
         </is>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CNX</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
         <v>18.7667999268</v>
       </c>
-      <c r="D38" t="n">
+      <c r="E38" t="n">
         <v>98.962600708</v>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>TH</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>Chiang Mai</t>
         </is>
@@ -1670,23 +1852,28 @@
           <t>Chittagong, Bangladesh</t>
         </is>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CGP</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
         <v>22.2495995</v>
       </c>
-      <c r="D39" t="n">
+      <c r="E39" t="n">
         <v>91.8133011</v>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>Chittagong</t>
         </is>
@@ -1703,23 +1890,28 @@
           <t>Colombo, Sri Lanka</t>
         </is>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CMB</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
         <v>7.1807599068</v>
       </c>
-      <c r="D40" t="n">
+      <c r="E40" t="n">
         <v>79.8841018677</v>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>LK</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>Colombo</t>
         </is>
@@ -1736,23 +1928,28 @@
           <t>Dhaka, Bangladesh</t>
         </is>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>DAC</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
         <v>23.843347</v>
       </c>
-      <c r="D41" t="n">
+      <c r="E41" t="n">
         <v>90.397783</v>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>Dhaka</t>
         </is>
@@ -1774,6 +1971,7 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
+      <c r="H42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
@@ -1786,23 +1984,28 @@
           <t>Fukuoka, Japan</t>
         </is>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>FUK</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
         <v>33.5902</v>
       </c>
-      <c r="D43" t="n">
+      <c r="E43" t="n">
         <v>130.4017</v>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>Fukuoka</t>
         </is>
@@ -1824,6 +2027,7 @@
       <c r="E44" t="inlineStr"/>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
+      <c r="H44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
@@ -1841,6 +2045,7 @@
       <c r="E45" t="inlineStr"/>
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
+      <c r="H45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
@@ -1858,6 +2063,7 @@
       <c r="E46" t="inlineStr"/>
       <c r="F46" t="inlineStr"/>
       <c r="G46" t="inlineStr"/>
+      <c r="H46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
@@ -1870,23 +2076,28 @@
           <t>Hanoi, Vietnam</t>
         </is>
       </c>
-      <c r="C47" t="n">
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>HAN</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
         <v>21.221200943</v>
       </c>
-      <c r="D47" t="n">
+      <c r="E47" t="n">
         <v>105.806999206</v>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>Hanoi</t>
         </is>
@@ -1908,6 +2119,7 @@
       <c r="E48" t="inlineStr"/>
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr"/>
+      <c r="H48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
@@ -1920,23 +2132,28 @@
           <t>Ho Chi Minh City, Vietnam</t>
         </is>
       </c>
-      <c r="C49" t="n">
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>SGN</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
         <v>10.8187999725</v>
       </c>
-      <c r="D49" t="n">
+      <c r="E49" t="n">
         <v>106.652000427</v>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>VN</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>Ho Chi Minh City</t>
         </is>
@@ -1953,23 +2170,28 @@
           <t>Hong Kong</t>
         </is>
       </c>
-      <c r="C50" t="n">
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>HKG</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
         <v>22.3089008331</v>
       </c>
-      <c r="D50" t="n">
+      <c r="E50" t="n">
         <v>113.915000916</v>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>HK</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>Hong Kong</t>
         </is>
@@ -1986,23 +2208,28 @@
           <t>Hyderabad, India</t>
         </is>
       </c>
-      <c r="C51" t="n">
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>HYD</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
         <v>17.2313175201</v>
       </c>
-      <c r="D51" t="n">
+      <c r="E51" t="n">
         <v>78.42985534669999</v>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>Hyderabad</t>
         </is>
@@ -2019,23 +2246,28 @@
           <t>Islamabad, Pakistan</t>
         </is>
       </c>
-      <c r="C52" t="n">
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>ISB</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
         <v>33.6166992188</v>
       </c>
-      <c r="D52" t="n">
+      <c r="E52" t="n">
         <v>73.0991973877</v>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>Islamabad</t>
         </is>
@@ -2052,23 +2284,28 @@
           <t>Jakarta, Indonesia</t>
         </is>
       </c>
-      <c r="C53" t="n">
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CGK</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
         <v>-6.1275229</v>
       </c>
-      <c r="D53" t="n">
+      <c r="E53" t="n">
         <v>106.6515118</v>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>Jakarta</t>
         </is>
@@ -2085,23 +2322,28 @@
           <t>Jashore, Bangladesh</t>
         </is>
       </c>
-      <c r="C54" t="n">
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>JSR</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
         <v>23.1837997437</v>
       </c>
-      <c r="D54" t="n">
+      <c r="E54" t="n">
         <v>89.1607971191</v>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>BD</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>Jashore</t>
         </is>
@@ -2123,6 +2365,7 @@
       <c r="E55" t="inlineStr"/>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr"/>
+      <c r="H55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
@@ -2135,23 +2378,28 @@
           <t>Johor Bahru, Malaysia</t>
         </is>
       </c>
-      <c r="C56" t="n">
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>JHB</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
         <v>1.635848</v>
       </c>
-      <c r="D56" t="n">
+      <c r="E56" t="n">
         <v>103.665943</v>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>MY</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>Johor Bahru</t>
         </is>
@@ -2168,23 +2416,28 @@
           <t>Kanpur, India</t>
         </is>
       </c>
-      <c r="C57" t="n">
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>KNU</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
         <v>26.4499</v>
       </c>
-      <c r="D57" t="n">
+      <c r="E57" t="n">
         <v>80.3319</v>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>Kanpur</t>
         </is>
@@ -2201,23 +2454,28 @@
           <t>Kaohsiung City, Taiwan</t>
         </is>
       </c>
-      <c r="C58" t="n">
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>KHH</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
         <v>22.5771007538</v>
       </c>
-      <c r="D58" t="n">
+      <c r="E58" t="n">
         <v>120.3499984741</v>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>Kaohsiung City</t>
         </is>
@@ -2234,23 +2492,28 @@
           <t>Karachi, Pakistan</t>
         </is>
       </c>
-      <c r="C59" t="n">
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>KHI</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
         <v>24.9064998627</v>
       </c>
-      <c r="D59" t="n">
+      <c r="E59" t="n">
         <v>67.1607971191</v>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="F59" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="H59" t="inlineStr">
         <is>
           <t>Karachi</t>
         </is>
@@ -2267,23 +2530,28 @@
           <t>Kathmandu, Nepal</t>
         </is>
       </c>
-      <c r="C60" t="n">
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>KTM</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
         <v>27.6965999603</v>
       </c>
-      <c r="D60" t="n">
+      <c r="E60" t="n">
         <v>85.3591003418</v>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>NP</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>Kathmandu</t>
         </is>
@@ -2300,23 +2568,28 @@
           <t>Khabarovsk, Russia</t>
         </is>
       </c>
-      <c r="C61" t="n">
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>KHV</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
         <v>48.5279998779</v>
       </c>
-      <c r="D61" t="n">
+      <c r="E61" t="n">
         <v>135.18800354</v>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>Khabarovsk</t>
         </is>
@@ -2333,23 +2606,28 @@
           <t>Kolkata, India</t>
         </is>
       </c>
-      <c r="C62" t="n">
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CCU</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
         <v>22.6476933</v>
       </c>
-      <c r="D62" t="n">
+      <c r="E62" t="n">
         <v>88.4349249</v>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>Kolkata</t>
         </is>
@@ -2366,23 +2644,28 @@
           <t>Krasnoyarsk, Russia</t>
         </is>
       </c>
-      <c r="C63" t="n">
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>KJA</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
         <v>56.0153</v>
       </c>
-      <c r="D63" t="n">
+      <c r="E63" t="n">
         <v>92.89319999999999</v>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>Krasnoyarsk</t>
         </is>
@@ -2399,23 +2682,28 @@
           <t>Kuala Lumpur, Malaysia</t>
         </is>
       </c>
-      <c r="C64" t="n">
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>KUL</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
         <v>2.745579958</v>
       </c>
-      <c r="D64" t="n">
+      <c r="E64" t="n">
         <v>101.709999084</v>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>MY</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>Kuala Lumpur</t>
         </is>
@@ -2432,23 +2720,28 @@
           <t>Lahore, Pakistan</t>
         </is>
       </c>
-      <c r="C65" t="n">
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>LHE</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
         <v>31.5216007233</v>
       </c>
-      <c r="D65" t="n">
+      <c r="E65" t="n">
         <v>74.4036026001</v>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>PK</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>Lahore</t>
         </is>
@@ -2470,6 +2763,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
+      <c r="H66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
@@ -2487,6 +2781,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
+      <c r="H67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
@@ -2504,6 +2799,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr"/>
       <c r="G68" t="inlineStr"/>
+      <c r="H68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
@@ -2516,23 +2812,28 @@
           <t>Macau</t>
         </is>
       </c>
-      <c r="C69" t="n">
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>MFM</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
         <v>22.1495990753</v>
       </c>
-      <c r="D69" t="n">
+      <c r="E69" t="n">
         <v>113.592002869</v>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>MO</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>Macau</t>
         </is>
@@ -2549,23 +2850,28 @@
           <t>Malé, Maldives</t>
         </is>
       </c>
-      <c r="C70" t="n">
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>MLE</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
         <v>4.1748</v>
       </c>
-      <c r="D70" t="n">
+      <c r="E70" t="n">
         <v>73.50888</v>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>MV</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -2582,23 +2888,28 @@
           <t>Mandalay, Myanmar</t>
         </is>
       </c>
-      <c r="C71" t="n">
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>MDL</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
         <v>21.7051697</v>
       </c>
-      <c r="D71" t="n">
+      <c r="E71" t="n">
         <v>95.9695206</v>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>MM</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>Mandalay</t>
         </is>
@@ -2615,23 +2926,28 @@
           <t>Manila, Philippines</t>
         </is>
       </c>
-      <c r="C72" t="n">
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>MNL</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
         <v>14.508600235</v>
       </c>
-      <c r="D72" t="n">
+      <c r="E72" t="n">
         <v>121.019996643</v>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>Manila</t>
         </is>
@@ -2648,23 +2964,28 @@
           <t>Mumbai, India</t>
         </is>
       </c>
-      <c r="C73" t="n">
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>BOM</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
         <v>19.0886993408</v>
       </c>
-      <c r="D73" t="n">
+      <c r="E73" t="n">
         <v>72.8678970337</v>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>Mumbai</t>
         </is>
@@ -2681,23 +3002,28 @@
           <t>Nagpur, India</t>
         </is>
       </c>
-      <c r="C74" t="n">
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>NAG</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
         <v>21.1610714</v>
       </c>
-      <c r="D74" t="n">
+      <c r="E74" t="n">
         <v>79.0024702</v>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>Nagpur</t>
         </is>
@@ -2714,23 +3040,28 @@
           <t>Naha, Japan</t>
         </is>
       </c>
-      <c r="C75" t="n">
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>OKA</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
         <v>26.1958</v>
       </c>
-      <c r="D75" t="n">
+      <c r="E75" t="n">
         <v>127.646</v>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>Naha</t>
         </is>
@@ -2747,23 +3078,28 @@
           <t>New Delhi, India</t>
         </is>
       </c>
-      <c r="C76" t="n">
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>DEL</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
         <v>28.5664997101</v>
       </c>
-      <c r="D76" t="n">
+      <c r="E76" t="n">
         <v>77.1031036377</v>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>New Delhi</t>
         </is>
@@ -2780,23 +3116,28 @@
           <t>Osaka, Japan</t>
         </is>
       </c>
-      <c r="C77" t="n">
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>KIX</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
         <v>34.4272994995</v>
       </c>
-      <c r="D77" t="n">
+      <c r="E77" t="n">
         <v>135.244003296</v>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>Osaka</t>
         </is>
@@ -2813,23 +3154,28 @@
           <t>Patna, India</t>
         </is>
       </c>
-      <c r="C78" t="n">
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>PAT</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
         <v>25.591299057</v>
       </c>
-      <c r="D78" t="n">
+      <c r="E78" t="n">
         <v>85.0879974365</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G78" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>Patna</t>
         </is>
@@ -2846,23 +3192,28 @@
           <t>Phnom Penh, Cambodia</t>
         </is>
       </c>
-      <c r="C79" t="n">
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>PNH</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
         <v>11.5466003418</v>
       </c>
-      <c r="D79" t="n">
+      <c r="E79" t="n">
         <v>104.84400177</v>
       </c>
-      <c r="E79" t="inlineStr">
+      <c r="F79" t="inlineStr">
         <is>
           <t>KH</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
+      <c r="G79" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G79" t="inlineStr">
+      <c r="H79" t="inlineStr">
         <is>
           <t>Phnom Penh</t>
         </is>
@@ -2884,6 +3235,7 @@
       <c r="E80" t="inlineStr"/>
       <c r="F80" t="inlineStr"/>
       <c r="G80" t="inlineStr"/>
+      <c r="H80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
@@ -2896,23 +3248,28 @@
           <t>Seoul, South Korea</t>
         </is>
       </c>
-      <c r="C81" t="n">
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>ICN</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
         <v>37.4691009521</v>
       </c>
-      <c r="D81" t="n">
+      <c r="E81" t="n">
         <v>126.450996399</v>
       </c>
-      <c r="E81" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>KR</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G81" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>Seoul</t>
         </is>
@@ -2934,6 +3291,7 @@
       <c r="E82" t="inlineStr"/>
       <c r="F82" t="inlineStr"/>
       <c r="G82" t="inlineStr"/>
+      <c r="H82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
@@ -2946,23 +3304,28 @@
           <t>Singapore, Singapore</t>
         </is>
       </c>
-      <c r="C83" t="n">
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>SIN</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
         <v>1.3501900434</v>
       </c>
-      <c r="D83" t="n">
+      <c r="E83" t="n">
         <v>103.994003296</v>
       </c>
-      <c r="E83" t="inlineStr">
+      <c r="F83" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
+      <c r="G83" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G83" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>Singapore</t>
         </is>
@@ -2979,23 +3342,28 @@
           <t>Surat Thani, Thailand</t>
         </is>
       </c>
-      <c r="C84" t="n">
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>URT</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
         <v>9.1325998306</v>
       </c>
-      <c r="D84" t="n">
+      <c r="E84" t="n">
         <v>99.135597229</v>
       </c>
-      <c r="E84" t="inlineStr">
+      <c r="F84" t="inlineStr">
         <is>
           <t>TH</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
+      <c r="G84" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G84" t="inlineStr">
+      <c r="H84" t="inlineStr">
         <is>
           <t>Surat Thani</t>
         </is>
@@ -3012,23 +3380,28 @@
           <t>Taipei</t>
         </is>
       </c>
-      <c r="C85" t="n">
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>TPE</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
         <v>25.0776996613</v>
       </c>
-      <c r="D85" t="n">
+      <c r="E85" t="n">
         <v>121.233001709</v>
       </c>
-      <c r="E85" t="inlineStr">
+      <c r="F85" t="inlineStr">
         <is>
           <t>TW</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
+      <c r="G85" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G85" t="inlineStr">
+      <c r="H85" t="inlineStr">
         <is>
           <t>Taipei</t>
         </is>
@@ -3045,23 +3418,28 @@
           <t>Tashkent, Uzbekistan</t>
         </is>
       </c>
-      <c r="C86" t="n">
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>TAS</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
         <v>41.257900238</v>
       </c>
-      <c r="D86" t="n">
+      <c r="E86" t="n">
         <v>69.2811965942</v>
       </c>
-      <c r="E86" t="inlineStr">
+      <c r="F86" t="inlineStr">
         <is>
           <t>UZ</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
+      <c r="G86" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G86" t="inlineStr">
+      <c r="H86" t="inlineStr">
         <is>
           <t>Tashkent</t>
         </is>
@@ -3078,23 +3456,28 @@
           <t>Thimphu, Bhutan</t>
         </is>
       </c>
-      <c r="C87" t="n">
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>PBH</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
         <v>27.4712</v>
       </c>
-      <c r="D87" t="n">
+      <c r="E87" t="n">
         <v>89.6339</v>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>BT</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
+      <c r="G87" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G87" t="inlineStr">
+      <c r="H87" t="inlineStr">
         <is>
           <t>Thimphu</t>
         </is>
@@ -3116,6 +3499,7 @@
       <c r="E88" t="inlineStr"/>
       <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
+      <c r="H88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="inlineStr">
@@ -3128,23 +3512,28 @@
           <t>Tokyo, Japan</t>
         </is>
       </c>
-      <c r="C89" t="n">
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>NRT</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
         <v>35.7647018433</v>
       </c>
-      <c r="D89" t="n">
+      <c r="E89" t="n">
         <v>140.386001587</v>
       </c>
-      <c r="E89" t="inlineStr">
+      <c r="F89" t="inlineStr">
         <is>
           <t>JP</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G89" t="inlineStr">
+      <c r="H89" t="inlineStr">
         <is>
           <t>Tokyo</t>
         </is>
@@ -3161,23 +3550,28 @@
           <t>Ulaanbaatar, Mongolia</t>
         </is>
       </c>
-      <c r="C90" t="n">
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>ULN</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
         <v>47.8431015015</v>
       </c>
-      <c r="D90" t="n">
+      <c r="E90" t="n">
         <v>106.766998291</v>
       </c>
-      <c r="E90" t="inlineStr">
+      <c r="F90" t="inlineStr">
         <is>
           <t>MN</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
+      <c r="G90" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G90" t="inlineStr">
+      <c r="H90" t="inlineStr">
         <is>
           <t>Ulaanbaatar</t>
         </is>
@@ -3194,23 +3588,28 @@
           <t>Vientiane, Laos</t>
         </is>
       </c>
-      <c r="C91" t="n">
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>VTE</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
         <v>17.9757</v>
       </c>
-      <c r="D91" t="n">
+      <c r="E91" t="n">
         <v>102.5683</v>
       </c>
-      <c r="E91" t="inlineStr">
+      <c r="F91" t="inlineStr">
         <is>
           <t>LA</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
+      <c r="G91" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G91" t="inlineStr">
+      <c r="H91" t="inlineStr">
         <is>
           <t>Vientiane</t>
         </is>
@@ -3232,6 +3631,7 @@
       <c r="E92" t="inlineStr"/>
       <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
+      <c r="H92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="inlineStr">
@@ -3244,23 +3644,28 @@
           <t>Yangon, Myanmar</t>
         </is>
       </c>
-      <c r="C93" t="n">
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>RGN</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
         <v>16.9073009491</v>
       </c>
-      <c r="D93" t="n">
+      <c r="E93" t="n">
         <v>96.1332015991</v>
       </c>
-      <c r="E93" t="inlineStr">
+      <c r="F93" t="inlineStr">
         <is>
           <t>MM</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
+      <c r="G93" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G93" t="inlineStr">
+      <c r="H93" t="inlineStr">
         <is>
           <t>Yangon</t>
         </is>
@@ -3277,23 +3682,28 @@
           <t>Yerevan, Armenia</t>
         </is>
       </c>
-      <c r="C94" t="n">
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>EVN</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
         <v>40.1473007202</v>
       </c>
-      <c r="D94" t="n">
+      <c r="E94" t="n">
         <v>44.3959007263</v>
       </c>
-      <c r="E94" t="inlineStr">
+      <c r="F94" t="inlineStr">
         <is>
           <t>AM</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
+      <c r="G94" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G94" t="inlineStr">
+      <c r="H94" t="inlineStr">
         <is>
           <t>Yerevan</t>
         </is>
@@ -3310,23 +3720,28 @@
           <t>Yogyakarta, Indonesia</t>
         </is>
       </c>
-      <c r="C95" t="n">
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>JOG</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
         <v>-7.7881798744</v>
       </c>
-      <c r="D95" t="n">
+      <c r="E95" t="n">
         <v>110.4319992065</v>
       </c>
-      <c r="E95" t="inlineStr">
+      <c r="F95" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
+      <c r="G95" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G95" t="inlineStr">
+      <c r="H95" t="inlineStr">
         <is>
           <t>Yogyakarta</t>
         </is>
@@ -3348,6 +3763,7 @@
       <c r="E96" t="inlineStr"/>
       <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
+      <c r="H96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="inlineStr">
@@ -3365,6 +3781,7 @@
       <c r="E97" t="inlineStr"/>
       <c r="F97" t="inlineStr"/>
       <c r="G97" t="inlineStr"/>
+      <c r="H97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="inlineStr">
@@ -3382,6 +3799,7 @@
       <c r="E98" t="inlineStr"/>
       <c r="F98" t="inlineStr"/>
       <c r="G98" t="inlineStr"/>
+      <c r="H98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="inlineStr">
@@ -3394,23 +3812,28 @@
           <t>Cagayan de Oro, Philippines</t>
         </is>
       </c>
-      <c r="C99" t="n">
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>CGY</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
         <v>8.415619850200001</v>
       </c>
-      <c r="D99" t="n">
+      <c r="E99" t="n">
         <v>124.611000061</v>
       </c>
-      <c r="E99" t="inlineStr">
+      <c r="F99" t="inlineStr">
         <is>
           <t>PH</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
+      <c r="G99" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G99" t="inlineStr">
+      <c r="H99" t="inlineStr">
         <is>
           <t>Cagayan de Oro</t>
         </is>
@@ -3432,6 +3855,7 @@
       <c r="E100" t="inlineStr"/>
       <c r="F100" t="inlineStr"/>
       <c r="G100" t="inlineStr"/>
+      <c r="H100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="inlineStr">
@@ -3449,6 +3873,7 @@
       <c r="E101" t="inlineStr"/>
       <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
+      <c r="H101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="inlineStr">
@@ -3466,6 +3891,7 @@
       <c r="E102" t="inlineStr"/>
       <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
+      <c r="H102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="inlineStr">
@@ -3478,23 +3904,28 @@
           <t>Kochi, India</t>
         </is>
       </c>
-      <c r="C103" t="n">
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>COK</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
         <v>9.9312</v>
       </c>
-      <c r="D103" t="n">
+      <c r="E103" t="n">
         <v>76.26730000000001</v>
       </c>
-      <c r="E103" t="inlineStr">
+      <c r="F103" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
+      <c r="G103" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G103" t="inlineStr">
+      <c r="H103" t="inlineStr">
         <is>
           <t>Kochi</t>
         </is>
@@ -3516,6 +3947,7 @@
       <c r="E104" t="inlineStr"/>
       <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
+      <c r="H104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="inlineStr">
@@ -3528,23 +3960,28 @@
           <t>Denpasar, Indonesia</t>
         </is>
       </c>
-      <c r="C105" t="n">
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>DPS</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
         <v>-8.748169899000001</v>
       </c>
-      <c r="D105" t="n">
+      <c r="E105" t="n">
         <v>115.1669998169</v>
       </c>
-      <c r="E105" t="inlineStr">
+      <c r="F105" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="F105" t="inlineStr">
+      <c r="G105" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr">
+      <c r="H105" t="inlineStr">
         <is>
           <t>Denpasar</t>
         </is>
@@ -3561,23 +3998,28 @@
           <t>Kannur, India</t>
         </is>
       </c>
-      <c r="C106" t="n">
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>CNN</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
         <v>11.915858</v>
       </c>
-      <c r="D106" t="n">
+      <c r="E106" t="n">
         <v>75.55094</v>
       </c>
-      <c r="E106" t="inlineStr">
+      <c r="F106" t="inlineStr">
         <is>
           <t>IN</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
+      <c r="G106" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr">
+      <c r="H106" t="inlineStr">
         <is>
           <t>Kannur</t>
         </is>
@@ -3599,6 +4041,7 @@
       <c r="E107" t="inlineStr"/>
       <c r="F107" t="inlineStr"/>
       <c r="G107" t="inlineStr"/>
+      <c r="H107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="inlineStr">
@@ -3616,6 +4059,7 @@
       <c r="E108" t="inlineStr"/>
       <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
+      <c r="H108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="inlineStr">
@@ -3633,6 +4077,7 @@
       <c r="E109" t="inlineStr"/>
       <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
+      <c r="H109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
@@ -3645,23 +4090,28 @@
           <t>Amsterdam, Netherlands</t>
         </is>
       </c>
-      <c r="C110" t="n">
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>AMS</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
         <v>52.3086013794</v>
       </c>
-      <c r="D110" t="n">
+      <c r="E110" t="n">
         <v>4.7638897896</v>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>NL</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G110" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>Amsterdam</t>
         </is>
@@ -3678,23 +4128,28 @@
           <t>Athens, Greece</t>
         </is>
       </c>
-      <c r="C111" t="n">
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>ATH</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
         <v>37.9364013672</v>
       </c>
-      <c r="D111" t="n">
+      <c r="E111" t="n">
         <v>23.9444999695</v>
       </c>
-      <c r="E111" t="inlineStr">
+      <c r="F111" t="inlineStr">
         <is>
           <t>GR</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
+      <c r="G111" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G111" t="inlineStr">
+      <c r="H111" t="inlineStr">
         <is>
           <t>Athens</t>
         </is>
@@ -3711,23 +4166,28 @@
           <t>Barcelona, Spain</t>
         </is>
       </c>
-      <c r="C112" t="n">
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>BCN</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
         <v>41.2971000671</v>
       </c>
-      <c r="D112" t="n">
+      <c r="E112" t="n">
         <v>2.0784599781</v>
       </c>
-      <c r="E112" t="inlineStr">
+      <c r="F112" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
+      <c r="G112" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr">
+      <c r="H112" t="inlineStr">
         <is>
           <t>Barcelona</t>
         </is>
@@ -3744,23 +4204,28 @@
           <t>Belgrade, Serbia</t>
         </is>
       </c>
-      <c r="C113" t="n">
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>BEG</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
         <v>44.8184013367</v>
       </c>
-      <c r="D113" t="n">
+      <c r="E113" t="n">
         <v>20.3090991974</v>
       </c>
-      <c r="E113" t="inlineStr">
+      <c r="F113" t="inlineStr">
         <is>
           <t>RS</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
+      <c r="G113" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr">
+      <c r="H113" t="inlineStr">
         <is>
           <t>Belgrade</t>
         </is>
@@ -3777,23 +4242,28 @@
           <t>Berlin, Germany</t>
         </is>
       </c>
-      <c r="C114" t="n">
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>TXL</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
         <v>52.5597000122</v>
       </c>
-      <c r="D114" t="n">
+      <c r="E114" t="n">
         <v>13.2876996994</v>
       </c>
-      <c r="E114" t="inlineStr">
+      <c r="F114" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
+      <c r="G114" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr">
+      <c r="H114" t="inlineStr">
         <is>
           <t>Berlin</t>
         </is>
@@ -3810,23 +4280,28 @@
           <t>Bratislava, Slovakia</t>
         </is>
       </c>
-      <c r="C115" t="n">
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>BTS</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
         <v>48.1486</v>
       </c>
-      <c r="D115" t="n">
+      <c r="E115" t="n">
         <v>17.1077</v>
       </c>
-      <c r="E115" t="inlineStr">
+      <c r="F115" t="inlineStr">
         <is>
           <t>SK</t>
         </is>
       </c>
-      <c r="F115" t="inlineStr">
+      <c r="G115" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G115" t="inlineStr">
+      <c r="H115" t="inlineStr">
         <is>
           <t>Bratislava</t>
         </is>
@@ -3843,23 +4318,28 @@
           <t>Brussels, Belgium</t>
         </is>
       </c>
-      <c r="C116" t="n">
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>BRU</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
         <v>50.9014015198</v>
       </c>
-      <c r="D116" t="n">
+      <c r="E116" t="n">
         <v>4.4844398499</v>
       </c>
-      <c r="E116" t="inlineStr">
+      <c r="F116" t="inlineStr">
         <is>
           <t>BE</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
+      <c r="G116" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G116" t="inlineStr">
+      <c r="H116" t="inlineStr">
         <is>
           <t>Brussels</t>
         </is>
@@ -3876,23 +4356,28 @@
           <t>Bucharest, Romania</t>
         </is>
       </c>
-      <c r="C117" t="n">
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>OTP</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
         <v>44.5722007751</v>
       </c>
-      <c r="D117" t="n">
+      <c r="E117" t="n">
         <v>26.1021995544</v>
       </c>
-      <c r="E117" t="inlineStr">
+      <c r="F117" t="inlineStr">
         <is>
           <t>RO</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
+      <c r="G117" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G117" t="inlineStr">
+      <c r="H117" t="inlineStr">
         <is>
           <t>Bucharest</t>
         </is>
@@ -3909,23 +4394,28 @@
           <t>Budapest, Hungary</t>
         </is>
       </c>
-      <c r="C118" t="n">
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>BUD</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
         <v>47.4369010925</v>
       </c>
-      <c r="D118" t="n">
+      <c r="E118" t="n">
         <v>19.2555999756</v>
       </c>
-      <c r="E118" t="inlineStr">
+      <c r="F118" t="inlineStr">
         <is>
           <t>HU</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
+      <c r="G118" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G118" t="inlineStr">
+      <c r="H118" t="inlineStr">
         <is>
           <t>Budapest</t>
         </is>
@@ -3942,23 +4432,28 @@
           <t>Chișinău, Moldova</t>
         </is>
       </c>
-      <c r="C119" t="n">
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>KIV</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
         <v>46.9277000427</v>
       </c>
-      <c r="D119" t="n">
+      <c r="E119" t="n">
         <v>28.9309997559</v>
       </c>
-      <c r="E119" t="inlineStr">
+      <c r="F119" t="inlineStr">
         <is>
           <t>MD</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
+      <c r="G119" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G119" t="inlineStr">
+      <c r="H119" t="inlineStr">
         <is>
           <t>Chișinău</t>
         </is>
@@ -3975,23 +4470,28 @@
           <t>Copenhagen, Denmark</t>
         </is>
       </c>
-      <c r="C120" t="n">
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>CPH</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
         <v>55.6179008484</v>
       </c>
-      <c r="D120" t="n">
+      <c r="E120" t="n">
         <v>12.6560001373</v>
       </c>
-      <c r="E120" t="inlineStr">
+      <c r="F120" t="inlineStr">
         <is>
           <t>DK</t>
         </is>
       </c>
-      <c r="F120" t="inlineStr">
+      <c r="G120" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G120" t="inlineStr">
+      <c r="H120" t="inlineStr">
         <is>
           <t>Copenhagen</t>
         </is>
@@ -4008,23 +4508,28 @@
           <t>Cork, Ireland</t>
         </is>
       </c>
-      <c r="C121" t="n">
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>ORK</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
         <v>51.8413009644</v>
       </c>
-      <c r="D121" t="n">
+      <c r="E121" t="n">
         <v>-8.491109848000001</v>
       </c>
-      <c r="E121" t="inlineStr">
+      <c r="F121" t="inlineStr">
         <is>
           <t>IE</t>
         </is>
       </c>
-      <c r="F121" t="inlineStr">
+      <c r="G121" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G121" t="inlineStr">
+      <c r="H121" t="inlineStr">
         <is>
           <t>Cork</t>
         </is>
@@ -4041,23 +4546,28 @@
           <t>Dublin, Ireland</t>
         </is>
       </c>
-      <c r="C122" t="n">
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>DUB</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
         <v>53.4212989807</v>
       </c>
-      <c r="D122" t="n">
+      <c r="E122" t="n">
         <v>-6.270070076</v>
       </c>
-      <c r="E122" t="inlineStr">
+      <c r="F122" t="inlineStr">
         <is>
           <t>IE</t>
         </is>
       </c>
-      <c r="F122" t="inlineStr">
+      <c r="G122" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G122" t="inlineStr">
+      <c r="H122" t="inlineStr">
         <is>
           <t>Dublin</t>
         </is>
@@ -4074,23 +4584,28 @@
           <t>Düsseldorf, Germany</t>
         </is>
       </c>
-      <c r="C123" t="n">
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>DUS</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
         <v>51.2895011902</v>
       </c>
-      <c r="D123" t="n">
+      <c r="E123" t="n">
         <v>6.7667798996</v>
       </c>
-      <c r="E123" t="inlineStr">
+      <c r="F123" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="F123" t="inlineStr">
+      <c r="G123" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G123" t="inlineStr">
+      <c r="H123" t="inlineStr">
         <is>
           <t>Düsseldorf</t>
         </is>
@@ -4107,23 +4622,28 @@
           <t>Edinburgh, United Kingdom</t>
         </is>
       </c>
-      <c r="C124" t="n">
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>EDI</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
         <v>55.9500007629</v>
       </c>
-      <c r="D124" t="n">
+      <c r="E124" t="n">
         <v>-3.3724999428</v>
       </c>
-      <c r="E124" t="inlineStr">
+      <c r="F124" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="F124" t="inlineStr">
+      <c r="G124" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G124" t="inlineStr">
+      <c r="H124" t="inlineStr">
         <is>
           <t>Edinburgh</t>
         </is>
@@ -4140,23 +4660,28 @@
           <t>Frankfurt, Germany</t>
         </is>
       </c>
-      <c r="C125" t="n">
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>FRA</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
         <v>50.0264015198</v>
       </c>
-      <c r="D125" t="n">
+      <c r="E125" t="n">
         <v>8.543129921</v>
       </c>
-      <c r="E125" t="inlineStr">
+      <c r="F125" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="F125" t="inlineStr">
+      <c r="G125" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G125" t="inlineStr">
+      <c r="H125" t="inlineStr">
         <is>
           <t>Frankfurt</t>
         </is>
@@ -4173,23 +4698,28 @@
           <t>Geneva, Switzerland</t>
         </is>
       </c>
-      <c r="C126" t="n">
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>GVA</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
         <v>46.2380981445</v>
       </c>
-      <c r="D126" t="n">
+      <c r="E126" t="n">
         <v>6.1089501381</v>
       </c>
-      <c r="E126" t="inlineStr">
+      <c r="F126" t="inlineStr">
         <is>
           <t>CH</t>
         </is>
       </c>
-      <c r="F126" t="inlineStr">
+      <c r="G126" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G126" t="inlineStr">
+      <c r="H126" t="inlineStr">
         <is>
           <t>Geneva</t>
         </is>
@@ -4206,23 +4736,28 @@
           <t>Gothenburg, Sweden</t>
         </is>
       </c>
-      <c r="C127" t="n">
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>GOT</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
         <v>57.6627998352</v>
       </c>
-      <c r="D127" t="n">
+      <c r="E127" t="n">
         <v>12.279800415</v>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="F127" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="G127" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="H127" t="inlineStr">
         <is>
           <t>Gothenburg</t>
         </is>
@@ -4239,23 +4774,28 @@
           <t>Hamburg, Germany</t>
         </is>
       </c>
-      <c r="C128" t="n">
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>HAM</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
         <v>53.6304016113</v>
       </c>
-      <c r="D128" t="n">
+      <c r="E128" t="n">
         <v>9.9882297516</v>
       </c>
-      <c r="E128" t="inlineStr">
+      <c r="F128" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="F128" t="inlineStr">
+      <c r="G128" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G128" t="inlineStr">
+      <c r="H128" t="inlineStr">
         <is>
           <t>Hamburg</t>
         </is>
@@ -4272,23 +4812,28 @@
           <t>Helsinki, Finland</t>
         </is>
       </c>
-      <c r="C129" t="n">
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>HEL</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
         <v>60.317199707</v>
       </c>
-      <c r="D129" t="n">
+      <c r="E129" t="n">
         <v>24.963300705</v>
       </c>
-      <c r="E129" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>FI</t>
         </is>
       </c>
-      <c r="F129" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G129" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>Helsinki</t>
         </is>
@@ -4305,23 +4850,28 @@
           <t>Istanbul, Turkey</t>
         </is>
       </c>
-      <c r="C130" t="n">
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>IST</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
         <v>40.9768981934</v>
       </c>
-      <c r="D130" t="n">
+      <c r="E130" t="n">
         <v>28.8145999908</v>
       </c>
-      <c r="E130" t="inlineStr">
+      <c r="F130" t="inlineStr">
         <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="F130" t="inlineStr">
+      <c r="G130" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G130" t="inlineStr">
+      <c r="H130" t="inlineStr">
         <is>
           <t>Istanbul</t>
         </is>
@@ -4338,23 +4888,28 @@
           <t>Izmir, Turkey</t>
         </is>
       </c>
-      <c r="C131" t="n">
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>ADB</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
         <v>38.32377</v>
       </c>
-      <c r="D131" t="n">
+      <c r="E131" t="n">
         <v>27.14317</v>
       </c>
-      <c r="E131" t="inlineStr">
+      <c r="F131" t="inlineStr">
         <is>
           <t>TR</t>
         </is>
       </c>
-      <c r="F131" t="inlineStr">
+      <c r="G131" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G131" t="inlineStr">
+      <c r="H131" t="inlineStr">
         <is>
           <t>Izmir</t>
         </is>
@@ -4371,23 +4926,28 @@
           <t>Kyiv, Ukraine</t>
         </is>
       </c>
-      <c r="C132" t="n">
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>KBP</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
         <v>50.3450012207</v>
       </c>
-      <c r="D132" t="n">
+      <c r="E132" t="n">
         <v>30.8946990967</v>
       </c>
-      <c r="E132" t="inlineStr">
+      <c r="F132" t="inlineStr">
         <is>
           <t>UA</t>
         </is>
       </c>
-      <c r="F132" t="inlineStr">
+      <c r="G132" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G132" t="inlineStr">
+      <c r="H132" t="inlineStr">
         <is>
           <t>Kyiv</t>
         </is>
@@ -4404,23 +4964,28 @@
           <t>Lisbon, Portugal</t>
         </is>
       </c>
-      <c r="C133" t="n">
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>LIS</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
         <v>38.7812995911</v>
       </c>
-      <c r="D133" t="n">
+      <c r="E133" t="n">
         <v>-9.135919570900001</v>
       </c>
-      <c r="E133" t="inlineStr">
+      <c r="F133" t="inlineStr">
         <is>
           <t>PT</t>
         </is>
       </c>
-      <c r="F133" t="inlineStr">
+      <c r="G133" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G133" t="inlineStr">
+      <c r="H133" t="inlineStr">
         <is>
           <t>Lisbon</t>
         </is>
@@ -4437,23 +5002,28 @@
           <t>London, United Kingdom</t>
         </is>
       </c>
-      <c r="C134" t="n">
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>LHR</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
         <v>51.4706001282</v>
       </c>
-      <c r="D134" t="n">
+      <c r="E134" t="n">
         <v>-0.4619410038</v>
       </c>
-      <c r="E134" t="inlineStr">
+      <c r="F134" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="F134" t="inlineStr">
+      <c r="G134" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G134" t="inlineStr">
+      <c r="H134" t="inlineStr">
         <is>
           <t>London</t>
         </is>
@@ -4470,23 +5040,28 @@
           <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
-      <c r="C135" t="n">
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>LUX</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
         <v>49.6265983582</v>
       </c>
-      <c r="D135" t="n">
+      <c r="E135" t="n">
         <v>6.211520195</v>
       </c>
-      <c r="E135" t="inlineStr">
+      <c r="F135" t="inlineStr">
         <is>
           <t>LU</t>
         </is>
       </c>
-      <c r="F135" t="inlineStr">
+      <c r="G135" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G135" t="inlineStr">
+      <c r="H135" t="inlineStr">
         <is>
           <t>Luxembourg City</t>
         </is>
@@ -4503,23 +5078,28 @@
           <t>Madrid, Spain</t>
         </is>
       </c>
-      <c r="C136" t="n">
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>MAD</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
         <v>40.4936</v>
       </c>
-      <c r="D136" t="n">
+      <c r="E136" t="n">
         <v>-3.56676</v>
       </c>
-      <c r="E136" t="inlineStr">
+      <c r="F136" t="inlineStr">
         <is>
           <t>ES</t>
         </is>
       </c>
-      <c r="F136" t="inlineStr">
+      <c r="G136" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G136" t="inlineStr">
+      <c r="H136" t="inlineStr">
         <is>
           <t>Madrid</t>
         </is>
@@ -4536,23 +5116,28 @@
           <t>Manchester, United Kingdom</t>
         </is>
       </c>
-      <c r="C137" t="n">
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>MAN</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
         <v>53.3536987305</v>
       </c>
-      <c r="D137" t="n">
+      <c r="E137" t="n">
         <v>-2.2749500275</v>
       </c>
-      <c r="E137" t="inlineStr">
+      <c r="F137" t="inlineStr">
         <is>
           <t>GB</t>
         </is>
       </c>
-      <c r="F137" t="inlineStr">
+      <c r="G137" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G137" t="inlineStr">
+      <c r="H137" t="inlineStr">
         <is>
           <t>Manchester</t>
         </is>
@@ -4569,23 +5154,28 @@
           <t>Marseille, France</t>
         </is>
       </c>
-      <c r="C138" t="n">
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>MRS</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
         <v>43.439271922</v>
       </c>
-      <c r="D138" t="n">
+      <c r="E138" t="n">
         <v>5.2214241028</v>
       </c>
-      <c r="E138" t="inlineStr">
+      <c r="F138" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="F138" t="inlineStr">
+      <c r="G138" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G138" t="inlineStr">
+      <c r="H138" t="inlineStr">
         <is>
           <t>Marseille</t>
         </is>
@@ -4602,23 +5192,28 @@
           <t>Milan, Italy</t>
         </is>
       </c>
-      <c r="C139" t="n">
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>MXP</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
         <v>45.6305999756</v>
       </c>
-      <c r="D139" t="n">
+      <c r="E139" t="n">
         <v>8.7281103134</v>
       </c>
-      <c r="E139" t="inlineStr">
+      <c r="F139" t="inlineStr">
         <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="F139" t="inlineStr">
+      <c r="G139" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G139" t="inlineStr">
+      <c r="H139" t="inlineStr">
         <is>
           <t>Milan</t>
         </is>
@@ -4635,23 +5230,28 @@
           <t>Minsk, Belarus</t>
         </is>
       </c>
-      <c r="C140" t="n">
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>MSQ</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
         <v>53.9006</v>
       </c>
-      <c r="D140" t="n">
+      <c r="E140" t="n">
         <v>27.599</v>
       </c>
-      <c r="E140" t="inlineStr">
+      <c r="F140" t="inlineStr">
         <is>
           <t>BY</t>
         </is>
       </c>
-      <c r="F140" t="inlineStr">
+      <c r="G140" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G140" t="inlineStr">
+      <c r="H140" t="inlineStr">
         <is>
           <t>Minsk</t>
         </is>
@@ -4668,23 +5268,28 @@
           <t>Moscow, Russia</t>
         </is>
       </c>
-      <c r="C141" t="n">
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>DME</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
         <v>55.4087982178</v>
       </c>
-      <c r="D141" t="n">
+      <c r="E141" t="n">
         <v>37.9062995911</v>
       </c>
-      <c r="E141" t="inlineStr">
+      <c r="F141" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="F141" t="inlineStr">
+      <c r="G141" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G141" t="inlineStr">
+      <c r="H141" t="inlineStr">
         <is>
           <t>Moscow</t>
         </is>
@@ -4701,23 +5306,28 @@
           <t>Munich, Germany</t>
         </is>
       </c>
-      <c r="C142" t="n">
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>MUC</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
         <v>48.3538017273</v>
       </c>
-      <c r="D142" t="n">
+      <c r="E142" t="n">
         <v>11.7861003876</v>
       </c>
-      <c r="E142" t="inlineStr">
+      <c r="F142" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="F142" t="inlineStr">
+      <c r="G142" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G142" t="inlineStr">
+      <c r="H142" t="inlineStr">
         <is>
           <t>Munich</t>
         </is>
@@ -4734,23 +5344,28 @@
           <t>Nicosia, Cyprus</t>
         </is>
       </c>
-      <c r="C143" t="n">
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>LCA</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
         <v>34.8750991821</v>
       </c>
-      <c r="D143" t="n">
+      <c r="E143" t="n">
         <v>33.6249008179</v>
       </c>
-      <c r="E143" t="inlineStr">
+      <c r="F143" t="inlineStr">
         <is>
           <t>CY</t>
         </is>
       </c>
-      <c r="F143" t="inlineStr">
+      <c r="G143" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G143" t="inlineStr">
+      <c r="H143" t="inlineStr">
         <is>
           <t>Nicosia</t>
         </is>
@@ -4767,23 +5382,28 @@
           <t>Oslo, Norway</t>
         </is>
       </c>
-      <c r="C144" t="n">
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>OSL</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
         <v>60.193901062</v>
       </c>
-      <c r="D144" t="n">
+      <c r="E144" t="n">
         <v>11.100399971</v>
       </c>
-      <c r="E144" t="inlineStr">
+      <c r="F144" t="inlineStr">
         <is>
           <t>NO</t>
         </is>
       </c>
-      <c r="F144" t="inlineStr">
+      <c r="G144" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G144" t="inlineStr">
+      <c r="H144" t="inlineStr">
         <is>
           <t>Oslo</t>
         </is>
@@ -4800,23 +5420,28 @@
           <t>Palermo, Italy</t>
         </is>
       </c>
-      <c r="C145" t="n">
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>PMO</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
         <v>38.16114</v>
       </c>
-      <c r="D145" t="n">
+      <c r="E145" t="n">
         <v>13.31546</v>
       </c>
-      <c r="E145" t="inlineStr">
+      <c r="F145" t="inlineStr">
         <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="F145" t="inlineStr">
+      <c r="G145" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G145" t="inlineStr">
+      <c r="H145" t="inlineStr">
         <is>
           <t>Palermo</t>
         </is>
@@ -4833,23 +5458,28 @@
           <t>Paris, France</t>
         </is>
       </c>
-      <c r="C146" t="n">
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>CDG</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
         <v>49.0127983093</v>
       </c>
-      <c r="D146" t="n">
+      <c r="E146" t="n">
         <v>2.5499999523</v>
       </c>
-      <c r="E146" t="inlineStr">
+      <c r="F146" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="F146" t="inlineStr">
+      <c r="G146" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr">
+      <c r="H146" t="inlineStr">
         <is>
           <t>Paris</t>
         </is>
@@ -4866,23 +5496,28 @@
           <t>Prague, Czech Republic</t>
         </is>
       </c>
-      <c r="C147" t="n">
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>PRG</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
         <v>50.1007995605</v>
       </c>
-      <c r="D147" t="n">
+      <c r="E147" t="n">
         <v>14.2600002289</v>
       </c>
-      <c r="E147" t="inlineStr">
+      <c r="F147" t="inlineStr">
         <is>
           <t>CZ</t>
         </is>
       </c>
-      <c r="F147" t="inlineStr">
+      <c r="G147" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G147" t="inlineStr">
+      <c r="H147" t="inlineStr">
         <is>
           <t>Prague</t>
         </is>
@@ -4899,23 +5534,28 @@
           <t>Reykjavík, Iceland</t>
         </is>
       </c>
-      <c r="C148" t="n">
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>KEF</t>
+        </is>
+      </c>
+      <c r="D148" t="n">
         <v>63.9850006104</v>
       </c>
-      <c r="D148" t="n">
+      <c r="E148" t="n">
         <v>-22.6056003571</v>
       </c>
-      <c r="E148" t="inlineStr">
+      <c r="F148" t="inlineStr">
         <is>
           <t>IS</t>
         </is>
       </c>
-      <c r="F148" t="inlineStr">
+      <c r="G148" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G148" t="inlineStr">
+      <c r="H148" t="inlineStr">
         <is>
           <t>Reykjavík</t>
         </is>
@@ -4932,23 +5572,28 @@
           <t>Riga, Latvia</t>
         </is>
       </c>
-      <c r="C149" t="n">
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>RIX</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
         <v>56.9235992432</v>
       </c>
-      <c r="D149" t="n">
+      <c r="E149" t="n">
         <v>23.9710998535</v>
       </c>
-      <c r="E149" t="inlineStr">
+      <c r="F149" t="inlineStr">
         <is>
           <t>LV</t>
         </is>
       </c>
-      <c r="F149" t="inlineStr">
+      <c r="G149" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G149" t="inlineStr">
+      <c r="H149" t="inlineStr">
         <is>
           <t>Riga</t>
         </is>
@@ -4965,23 +5610,28 @@
           <t>Rome, Italy</t>
         </is>
       </c>
-      <c r="C150" t="n">
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>FCO</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
         <v>41.8045005798</v>
       </c>
-      <c r="D150" t="n">
+      <c r="E150" t="n">
         <v>12.2508001328</v>
       </c>
-      <c r="E150" t="inlineStr">
+      <c r="F150" t="inlineStr">
         <is>
           <t>IT</t>
         </is>
       </c>
-      <c r="F150" t="inlineStr">
+      <c r="G150" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G150" t="inlineStr">
+      <c r="H150" t="inlineStr">
         <is>
           <t>Rome</t>
         </is>
@@ -4998,23 +5648,28 @@
           <t>Saint Petersburg, Russia</t>
         </is>
       </c>
-      <c r="C151" t="n">
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>LED</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
         <v>59.8003005981</v>
       </c>
-      <c r="D151" t="n">
+      <c r="E151" t="n">
         <v>30.2625007629</v>
       </c>
-      <c r="E151" t="inlineStr">
+      <c r="F151" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="F151" t="inlineStr">
+      <c r="G151" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G151" t="inlineStr">
+      <c r="H151" t="inlineStr">
         <is>
           <t>Saint Petersburg</t>
         </is>
@@ -5031,23 +5686,28 @@
           <t>Sofia, Bulgaria</t>
         </is>
       </c>
-      <c r="C152" t="n">
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>SOF</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
         <v>42.6966934204</v>
       </c>
-      <c r="D152" t="n">
+      <c r="E152" t="n">
         <v>23.4114360809</v>
       </c>
-      <c r="E152" t="inlineStr">
+      <c r="F152" t="inlineStr">
         <is>
           <t>BG</t>
         </is>
       </c>
-      <c r="F152" t="inlineStr">
+      <c r="G152" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G152" t="inlineStr">
+      <c r="H152" t="inlineStr">
         <is>
           <t>Sofia</t>
         </is>
@@ -5064,23 +5724,28 @@
           <t>Stockholm, Sweden</t>
         </is>
       </c>
-      <c r="C153" t="n">
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>ARN</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
         <v>59.6519012451</v>
       </c>
-      <c r="D153" t="n">
+      <c r="E153" t="n">
         <v>17.9186000824</v>
       </c>
-      <c r="E153" t="inlineStr">
+      <c r="F153" t="inlineStr">
         <is>
           <t>SE</t>
         </is>
       </c>
-      <c r="F153" t="inlineStr">
+      <c r="G153" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G153" t="inlineStr">
+      <c r="H153" t="inlineStr">
         <is>
           <t>Stockholm</t>
         </is>
@@ -5097,23 +5762,28 @@
           <t>Stuttgart, Germany</t>
         </is>
       </c>
-      <c r="C154" t="n">
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>STR</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
         <v>48.783333</v>
       </c>
-      <c r="D154" t="n">
+      <c r="E154" t="n">
         <v>9.183332999999999</v>
       </c>
-      <c r="E154" t="inlineStr">
+      <c r="F154" t="inlineStr">
         <is>
           <t>DE</t>
         </is>
       </c>
-      <c r="F154" t="inlineStr">
+      <c r="G154" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G154" t="inlineStr">
+      <c r="H154" t="inlineStr">
         <is>
           <t>Stuttgart</t>
         </is>
@@ -5130,23 +5800,28 @@
           <t>Tallinn, Estonia</t>
         </is>
       </c>
-      <c r="C155" t="n">
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>TLL</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
         <v>59.4132995605</v>
       </c>
-      <c r="D155" t="n">
+      <c r="E155" t="n">
         <v>24.8327999115</v>
       </c>
-      <c r="E155" t="inlineStr">
+      <c r="F155" t="inlineStr">
         <is>
           <t>EE</t>
         </is>
       </c>
-      <c r="F155" t="inlineStr">
+      <c r="G155" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G155" t="inlineStr">
+      <c r="H155" t="inlineStr">
         <is>
           <t>Tallinn</t>
         </is>
@@ -5163,23 +5838,28 @@
           <t>Tbilisi, Georgia</t>
         </is>
       </c>
-      <c r="C156" t="n">
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>TBS</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
         <v>41.6692008972</v>
       </c>
-      <c r="D156" t="n">
+      <c r="E156" t="n">
         <v>44.95470047</v>
       </c>
-      <c r="E156" t="inlineStr">
+      <c r="F156" t="inlineStr">
         <is>
           <t>GE</t>
         </is>
       </c>
-      <c r="F156" t="inlineStr">
+      <c r="G156" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G156" t="inlineStr">
+      <c r="H156" t="inlineStr">
         <is>
           <t>Tbilisi</t>
         </is>
@@ -5196,23 +5876,28 @@
           <t>Thessaloniki, Greece</t>
         </is>
       </c>
-      <c r="C157" t="n">
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>SKG</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
         <v>40.5196990967</v>
       </c>
-      <c r="D157" t="n">
+      <c r="E157" t="n">
         <v>22.9708995819</v>
       </c>
-      <c r="E157" t="inlineStr">
+      <c r="F157" t="inlineStr">
         <is>
           <t>GR</t>
         </is>
       </c>
-      <c r="F157" t="inlineStr">
+      <c r="G157" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G157" t="inlineStr">
+      <c r="H157" t="inlineStr">
         <is>
           <t>Thessaloniki</t>
         </is>
@@ -5229,23 +5914,28 @@
           <t>Tirana, Albania</t>
         </is>
       </c>
-      <c r="C158" t="n">
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>TIA</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
         <v>41.4146995544</v>
       </c>
-      <c r="D158" t="n">
+      <c r="E158" t="n">
         <v>19.7206001282</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>AL</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="G158" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G158" t="inlineStr">
+      <c r="H158" t="inlineStr">
         <is>
           <t>Tirana</t>
         </is>
@@ -5262,23 +5952,28 @@
           <t>Tver, Russian Federation</t>
         </is>
       </c>
-      <c r="C159" t="n">
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>KLD</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
         <v>56.8587</v>
       </c>
-      <c r="D159" t="n">
+      <c r="E159" t="n">
         <v>35.9176</v>
       </c>
-      <c r="E159" t="inlineStr">
+      <c r="F159" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="F159" t="inlineStr">
+      <c r="G159" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G159" t="inlineStr">
+      <c r="H159" t="inlineStr">
         <is>
           <t>Tver</t>
         </is>
@@ -5295,23 +5990,28 @@
           <t>Vienna, Austria</t>
         </is>
       </c>
-      <c r="C160" t="n">
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>VIE</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
         <v>48.1102981567</v>
       </c>
-      <c r="D160" t="n">
+      <c r="E160" t="n">
         <v>16.5697002411</v>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="F160" t="inlineStr">
         <is>
           <t>AT</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
+      <c r="G160" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G160" t="inlineStr">
+      <c r="H160" t="inlineStr">
         <is>
           <t>Vienna</t>
         </is>
@@ -5328,23 +6028,28 @@
           <t>Vilnius, Lithuania</t>
         </is>
       </c>
-      <c r="C161" t="n">
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>VNO</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
         <v>54.6341018677</v>
       </c>
-      <c r="D161" t="n">
+      <c r="E161" t="n">
         <v>25.2858009338</v>
       </c>
-      <c r="E161" t="inlineStr">
+      <c r="F161" t="inlineStr">
         <is>
           <t>LT</t>
         </is>
       </c>
-      <c r="F161" t="inlineStr">
+      <c r="G161" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G161" t="inlineStr">
+      <c r="H161" t="inlineStr">
         <is>
           <t>Vilnius</t>
         </is>
@@ -5361,23 +6066,28 @@
           <t>Warsaw, Poland</t>
         </is>
       </c>
-      <c r="C162" t="n">
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>WAW</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
         <v>52.1656990051</v>
       </c>
-      <c r="D162" t="n">
+      <c r="E162" t="n">
         <v>20.9671001434</v>
       </c>
-      <c r="E162" t="inlineStr">
+      <c r="F162" t="inlineStr">
         <is>
           <t>PL</t>
         </is>
       </c>
-      <c r="F162" t="inlineStr">
+      <c r="G162" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G162" t="inlineStr">
+      <c r="H162" t="inlineStr">
         <is>
           <t>Warsaw</t>
         </is>
@@ -5394,23 +6104,28 @@
           <t>Yekaterinburg, Russia</t>
         </is>
       </c>
-      <c r="C163" t="n">
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>SVX</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
         <v>56.8431</v>
       </c>
-      <c r="D163" t="n">
+      <c r="E163" t="n">
         <v>60.6454</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="F163" t="inlineStr">
         <is>
           <t>RU</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
+      <c r="G163" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G163" t="inlineStr">
+      <c r="H163" t="inlineStr">
         <is>
           <t>Yekaterinburg</t>
         </is>
@@ -5427,23 +6142,28 @@
           <t>Zagreb, Croatia</t>
         </is>
       </c>
-      <c r="C164" t="n">
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>ZAG</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
         <v>45.7429008484</v>
       </c>
-      <c r="D164" t="n">
+      <c r="E164" t="n">
         <v>16.0687999725</v>
       </c>
-      <c r="E164" t="inlineStr">
+      <c r="F164" t="inlineStr">
         <is>
           <t>HR</t>
         </is>
       </c>
-      <c r="F164" t="inlineStr">
+      <c r="G164" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G164" t="inlineStr">
+      <c r="H164" t="inlineStr">
         <is>
           <t>Zagreb</t>
         </is>
@@ -5460,23 +6180,28 @@
           <t>Zürich, Switzerland</t>
         </is>
       </c>
-      <c r="C165" t="n">
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>ZRH</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
         <v>47.4646987915</v>
       </c>
-      <c r="D165" t="n">
+      <c r="E165" t="n">
         <v>8.549169540399999</v>
       </c>
-      <c r="E165" t="inlineStr">
+      <c r="F165" t="inlineStr">
         <is>
           <t>CH</t>
         </is>
       </c>
-      <c r="F165" t="inlineStr">
+      <c r="G165" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G165" t="inlineStr">
+      <c r="H165" t="inlineStr">
         <is>
           <t>Zurich</t>
         </is>
@@ -5493,23 +6218,28 @@
           <t>Lyon, France</t>
         </is>
       </c>
-      <c r="C166" t="n">
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>LYS</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
         <v>45.7263</v>
       </c>
-      <c r="D166" t="n">
+      <c r="E166" t="n">
         <v>5.0908</v>
       </c>
-      <c r="E166" t="inlineStr">
+      <c r="F166" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="F166" t="inlineStr">
+      <c r="G166" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G166" t="inlineStr">
+      <c r="H166" t="inlineStr">
         <is>
           <t>Lyon</t>
         </is>
@@ -5526,23 +6256,28 @@
           <t>Bordeaux, France</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>BOD</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
         <v>44.82946</v>
       </c>
-      <c r="D167" t="n">
+      <c r="E167" t="n">
         <v>-0.58355</v>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="F167" t="inlineStr">
         <is>
           <t>FR</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
+      <c r="G167" t="inlineStr">
         <is>
           <t>Europe</t>
         </is>
       </c>
-      <c r="G167" t="inlineStr">
+      <c r="H167" t="inlineStr">
         <is>
           <t>Bordeaux</t>
         </is>
@@ -5559,23 +6294,28 @@
           <t>Americana, Brazil</t>
         </is>
       </c>
-      <c r="C168" t="n">
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>QWJ</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
         <v>-22.738</v>
       </c>
-      <c r="D168" t="n">
+      <c r="E168" t="n">
         <v>-47.334</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="G168" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G168" t="inlineStr">
+      <c r="H168" t="inlineStr">
         <is>
           <t>Americana</t>
         </is>
@@ -5592,23 +6332,28 @@
           <t>Arica, Chile</t>
         </is>
       </c>
-      <c r="C169" t="n">
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>ARI</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
         <v>-18.348611</v>
       </c>
-      <c r="D169" t="n">
+      <c r="E169" t="n">
         <v>-70.33888899999999</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="F169" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
+      <c r="G169" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G169" t="inlineStr">
+      <c r="H169" t="inlineStr">
         <is>
           <t>Arica</t>
         </is>
@@ -5625,23 +6370,28 @@
           <t>Asunción, Paraguay</t>
         </is>
       </c>
-      <c r="C170" t="n">
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>ASU</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
         <v>-25.2399997711</v>
       </c>
-      <c r="D170" t="n">
+      <c r="E170" t="n">
         <v>-57.5200004578</v>
       </c>
-      <c r="E170" t="inlineStr">
+      <c r="F170" t="inlineStr">
         <is>
           <t>PY</t>
         </is>
       </c>
-      <c r="F170" t="inlineStr">
+      <c r="G170" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G170" t="inlineStr">
+      <c r="H170" t="inlineStr">
         <is>
           <t>Asunción</t>
         </is>
@@ -5658,23 +6408,28 @@
           <t>Belém, Brazil</t>
         </is>
       </c>
-      <c r="C171" t="n">
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>BEL</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
         <v>-1.4563</v>
       </c>
-      <c r="D171" t="n">
+      <c r="E171" t="n">
         <v>-48.5013</v>
       </c>
-      <c r="E171" t="inlineStr">
+      <c r="F171" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F171" t="inlineStr">
+      <c r="G171" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G171" t="inlineStr">
+      <c r="H171" t="inlineStr">
         <is>
           <t>Belém</t>
         </is>
@@ -5691,23 +6446,28 @@
           <t>Belo Horizonte, Brazil</t>
         </is>
       </c>
-      <c r="C172" t="n">
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>CNF</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
         <v>-19.624444</v>
       </c>
-      <c r="D172" t="n">
+      <c r="E172" t="n">
         <v>-43.971944</v>
       </c>
-      <c r="E172" t="inlineStr">
+      <c r="F172" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F172" t="inlineStr">
+      <c r="G172" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G172" t="inlineStr">
+      <c r="H172" t="inlineStr">
         <is>
           <t>Belo Horizonte</t>
         </is>
@@ -5724,23 +6484,28 @@
           <t>Blumenau, Brazil</t>
         </is>
       </c>
-      <c r="C173" t="n">
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>BNU</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
         <v>-26.89245</v>
       </c>
-      <c r="D173" t="n">
+      <c r="E173" t="n">
         <v>-49.07696</v>
       </c>
-      <c r="E173" t="inlineStr">
+      <c r="F173" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F173" t="inlineStr">
+      <c r="G173" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G173" t="inlineStr">
+      <c r="H173" t="inlineStr">
         <is>
           <t>Blumenau</t>
         </is>
@@ -5757,23 +6522,28 @@
           <t>Bogotá, Colombia</t>
         </is>
       </c>
-      <c r="C174" t="n">
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>BOG</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
         <v>4.70159</v>
       </c>
-      <c r="D174" t="n">
+      <c r="E174" t="n">
         <v>-74.1469</v>
       </c>
-      <c r="E174" t="inlineStr">
+      <c r="F174" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="F174" t="inlineStr">
+      <c r="G174" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G174" t="inlineStr">
+      <c r="H174" t="inlineStr">
         <is>
           <t>Bogotá</t>
         </is>
@@ -5790,23 +6560,28 @@
           <t>Brasilia, Brazil</t>
         </is>
       </c>
-      <c r="C175" t="n">
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>BSB</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
         <v>-15.79824</v>
       </c>
-      <c r="D175" t="n">
+      <c r="E175" t="n">
         <v>-47.90859</v>
       </c>
-      <c r="E175" t="inlineStr">
+      <c r="F175" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F175" t="inlineStr">
+      <c r="G175" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G175" t="inlineStr">
+      <c r="H175" t="inlineStr">
         <is>
           <t>Brasilia</t>
         </is>
@@ -5823,23 +6598,28 @@
           <t>Buenos Aires, Argentina</t>
         </is>
       </c>
-      <c r="C176" t="n">
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>EZE</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
         <v>-34.8222</v>
       </c>
-      <c r="D176" t="n">
+      <c r="E176" t="n">
         <v>-58.5358</v>
       </c>
-      <c r="E176" t="inlineStr">
+      <c r="F176" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="F176" t="inlineStr">
+      <c r="G176" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G176" t="inlineStr">
+      <c r="H176" t="inlineStr">
         <is>
           <t>Buenos Aires</t>
         </is>
@@ -5856,23 +6636,28 @@
           <t>Caçador, Brazil</t>
         </is>
       </c>
-      <c r="C177" t="n">
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>CFC</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
         <v>-26.7762</v>
       </c>
-      <c r="D177" t="n">
+      <c r="E177" t="n">
         <v>-51.0125</v>
       </c>
-      <c r="E177" t="inlineStr">
+      <c r="F177" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F177" t="inlineStr">
+      <c r="G177" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G177" t="inlineStr">
+      <c r="H177" t="inlineStr">
         <is>
           <t>Cacador</t>
         </is>
@@ -5889,23 +6674,28 @@
           <t>Campinas, Brazil</t>
         </is>
       </c>
-      <c r="C178" t="n">
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>VCP</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
         <v>-22.90662</v>
       </c>
-      <c r="D178" t="n">
+      <c r="E178" t="n">
         <v>-47.08576</v>
       </c>
-      <c r="E178" t="inlineStr">
+      <c r="F178" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F178" t="inlineStr">
+      <c r="G178" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G178" t="inlineStr">
+      <c r="H178" t="inlineStr">
         <is>
           <t>Campinas</t>
         </is>
@@ -5922,23 +6712,28 @@
           <t>Córdoba, Argentina</t>
         </is>
       </c>
-      <c r="C179" t="n">
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>COR</t>
+        </is>
+      </c>
+      <c r="D179" t="n">
         <v>-31.31</v>
       </c>
-      <c r="D179" t="n">
+      <c r="E179" t="n">
         <v>-64.208333</v>
       </c>
-      <c r="E179" t="inlineStr">
+      <c r="F179" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="F179" t="inlineStr">
+      <c r="G179" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G179" t="inlineStr">
+      <c r="H179" t="inlineStr">
         <is>
           <t>Córdoba</t>
         </is>
@@ -5955,23 +6750,28 @@
           <t>Cuiabá, Brazil</t>
         </is>
       </c>
-      <c r="C180" t="n">
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>CGB</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
         <v>-15.59611</v>
       </c>
-      <c r="D180" t="n">
+      <c r="E180" t="n">
         <v>-56.09667</v>
       </c>
-      <c r="E180" t="inlineStr">
+      <c r="F180" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F180" t="inlineStr">
+      <c r="G180" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G180" t="inlineStr">
+      <c r="H180" t="inlineStr">
         <is>
           <t>Cuiaba</t>
         </is>
@@ -5988,23 +6788,28 @@
           <t>Curitiba, Brazil</t>
         </is>
       </c>
-      <c r="C181" t="n">
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>CWB</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
         <v>-25.5284996033</v>
       </c>
-      <c r="D181" t="n">
+      <c r="E181" t="n">
         <v>-49.1758003235</v>
       </c>
-      <c r="E181" t="inlineStr">
+      <c r="F181" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F181" t="inlineStr">
+      <c r="G181" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G181" t="inlineStr">
+      <c r="H181" t="inlineStr">
         <is>
           <t>Curitiba</t>
         </is>
@@ -6021,23 +6826,28 @@
           <t>Florianopolis, Brazil</t>
         </is>
       </c>
-      <c r="C182" t="n">
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>FLN</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
         <v>-27.6702785492</v>
       </c>
-      <c r="D182" t="n">
+      <c r="E182" t="n">
         <v>-48.5525016785</v>
       </c>
-      <c r="E182" t="inlineStr">
+      <c r="F182" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F182" t="inlineStr">
+      <c r="G182" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G182" t="inlineStr">
+      <c r="H182" t="inlineStr">
         <is>
           <t>Florianopolis</t>
         </is>
@@ -6054,23 +6864,28 @@
           <t>Fortaleza, Brazil</t>
         </is>
       </c>
-      <c r="C183" t="n">
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>FOR</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
         <v>-3.7762799263</v>
       </c>
-      <c r="D183" t="n">
+      <c r="E183" t="n">
         <v>-38.5326004028</v>
       </c>
-      <c r="E183" t="inlineStr">
+      <c r="F183" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F183" t="inlineStr">
+      <c r="G183" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G183" t="inlineStr">
+      <c r="H183" t="inlineStr">
         <is>
           <t>Fortaleza</t>
         </is>
@@ -6087,23 +6902,28 @@
           <t>Georgetown, Guyana</t>
         </is>
       </c>
-      <c r="C184" t="n">
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>GEO</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
         <v>6.825648</v>
       </c>
-      <c r="D184" t="n">
+      <c r="E184" t="n">
         <v>-58.163756</v>
       </c>
-      <c r="E184" t="inlineStr">
+      <c r="F184" t="inlineStr">
         <is>
           <t>GY</t>
         </is>
       </c>
-      <c r="F184" t="inlineStr">
+      <c r="G184" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G184" t="inlineStr">
+      <c r="H184" t="inlineStr">
         <is>
           <t>Georgetown</t>
         </is>
@@ -6120,23 +6940,28 @@
           <t>Goiânia, Brazil</t>
         </is>
       </c>
-      <c r="C185" t="n">
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>GYN</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
         <v>-16.69727</v>
       </c>
-      <c r="D185" t="n">
+      <c r="E185" t="n">
         <v>-49.26851</v>
       </c>
-      <c r="E185" t="inlineStr">
+      <c r="F185" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F185" t="inlineStr">
+      <c r="G185" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G185" t="inlineStr">
+      <c r="H185" t="inlineStr">
         <is>
           <t>Goiania</t>
         </is>
@@ -6153,23 +6978,28 @@
           <t>Guatemala City, Guatemala</t>
         </is>
       </c>
-      <c r="C186" t="n">
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>GUA</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
         <v>14.5832996368</v>
       </c>
-      <c r="D186" t="n">
+      <c r="E186" t="n">
         <v>-90.5274963379</v>
       </c>
-      <c r="E186" t="inlineStr">
+      <c r="F186" t="inlineStr">
         <is>
           <t>GT</t>
         </is>
       </c>
-      <c r="F186" t="inlineStr">
+      <c r="G186" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G186" t="inlineStr">
+      <c r="H186" t="inlineStr">
         <is>
           <t>Guatemala City</t>
         </is>
@@ -6186,23 +7016,28 @@
           <t>Guayaquil, Ecuador</t>
         </is>
       </c>
-      <c r="C187" t="n">
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>GYE</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
         <v>-2.1894</v>
       </c>
-      <c r="D187" t="n">
+      <c r="E187" t="n">
         <v>-79.8891</v>
       </c>
-      <c r="E187" t="inlineStr">
+      <c r="F187" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="F187" t="inlineStr">
+      <c r="G187" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G187" t="inlineStr">
+      <c r="H187" t="inlineStr">
         <is>
           <t>Guayaquil</t>
         </is>
@@ -6219,23 +7054,28 @@
           <t>Itajaí, Brazil</t>
         </is>
       </c>
-      <c r="C188" t="n">
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>ITJ</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
         <v>-27.6116676331</v>
       </c>
-      <c r="D188" t="n">
+      <c r="E188" t="n">
         <v>-48.6727790833</v>
       </c>
-      <c r="E188" t="inlineStr">
+      <c r="F188" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F188" t="inlineStr">
+      <c r="G188" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G188" t="inlineStr">
+      <c r="H188" t="inlineStr">
         <is>
           <t>Itajai</t>
         </is>
@@ -6252,23 +7092,28 @@
           <t>Joinville, Brazil</t>
         </is>
       </c>
-      <c r="C189" t="n">
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>JOI</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
         <v>-26.304408</v>
       </c>
-      <c r="D189" t="n">
+      <c r="E189" t="n">
         <v>-48.846383</v>
       </c>
-      <c r="E189" t="inlineStr">
+      <c r="F189" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F189" t="inlineStr">
+      <c r="G189" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G189" t="inlineStr">
+      <c r="H189" t="inlineStr">
         <is>
           <t>Joinville</t>
         </is>
@@ -6285,23 +7130,28 @@
           <t>Juazeiro do Norte, Brazil</t>
         </is>
       </c>
-      <c r="C190" t="n">
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>JDO</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
         <v>-7.2242</v>
       </c>
-      <c r="D190" t="n">
+      <c r="E190" t="n">
         <v>-39.313</v>
       </c>
-      <c r="E190" t="inlineStr">
+      <c r="F190" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F190" t="inlineStr">
+      <c r="G190" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G190" t="inlineStr">
+      <c r="H190" t="inlineStr">
         <is>
           <t>Juazeiro do Norte</t>
         </is>
@@ -6318,23 +7168,28 @@
           <t>Lima, Peru</t>
         </is>
       </c>
-      <c r="C191" t="n">
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>LIM</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
         <v>-12.021900177</v>
       </c>
-      <c r="D191" t="n">
+      <c r="E191" t="n">
         <v>-77.1143035889</v>
       </c>
-      <c r="E191" t="inlineStr">
+      <c r="F191" t="inlineStr">
         <is>
           <t>PE</t>
         </is>
       </c>
-      <c r="F191" t="inlineStr">
+      <c r="G191" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G191" t="inlineStr">
+      <c r="H191" t="inlineStr">
         <is>
           <t>Lima</t>
         </is>
@@ -6351,23 +7206,28 @@
           <t>Manaus, Brazil</t>
         </is>
       </c>
-      <c r="C192" t="n">
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>MAO</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
         <v>-3.11286</v>
       </c>
-      <c r="D192" t="n">
+      <c r="E192" t="n">
         <v>-60.01949</v>
       </c>
-      <c r="E192" t="inlineStr">
+      <c r="F192" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F192" t="inlineStr">
+      <c r="G192" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G192" t="inlineStr">
+      <c r="H192" t="inlineStr">
         <is>
           <t>Manaus</t>
         </is>
@@ -6384,23 +7244,28 @@
           <t>Medellín, Colombia</t>
         </is>
       </c>
-      <c r="C193" t="n">
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>MDE</t>
+        </is>
+      </c>
+      <c r="D193" t="n">
         <v>6.16454</v>
       </c>
-      <c r="D193" t="n">
+      <c r="E193" t="n">
         <v>-75.42310000000001</v>
       </c>
-      <c r="E193" t="inlineStr">
+      <c r="F193" t="inlineStr">
         <is>
           <t>CO</t>
         </is>
       </c>
-      <c r="F193" t="inlineStr">
+      <c r="G193" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G193" t="inlineStr">
+      <c r="H193" t="inlineStr">
         <is>
           <t>Medellín</t>
         </is>
@@ -6417,23 +7282,28 @@
           <t>Neuquén, Argentina</t>
         </is>
       </c>
-      <c r="C194" t="n">
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>NQN</t>
+        </is>
+      </c>
+      <c r="D194" t="n">
         <v>-38.9490013123</v>
       </c>
-      <c r="D194" t="n">
+      <c r="E194" t="n">
         <v>-68.1557006836</v>
       </c>
-      <c r="E194" t="inlineStr">
+      <c r="F194" t="inlineStr">
         <is>
           <t>AR</t>
         </is>
       </c>
-      <c r="F194" t="inlineStr">
+      <c r="G194" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G194" t="inlineStr">
+      <c r="H194" t="inlineStr">
         <is>
           <t>Neuquen</t>
         </is>
@@ -6450,23 +7320,28 @@
           <t>Panama City, Panama</t>
         </is>
       </c>
-      <c r="C195" t="n">
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>PTY</t>
+        </is>
+      </c>
+      <c r="D195" t="n">
         <v>9.0713596344</v>
       </c>
-      <c r="D195" t="n">
+      <c r="E195" t="n">
         <v>-79.3834991455</v>
       </c>
-      <c r="E195" t="inlineStr">
+      <c r="F195" t="inlineStr">
         <is>
           <t>PA</t>
         </is>
       </c>
-      <c r="F195" t="inlineStr">
+      <c r="G195" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G195" t="inlineStr">
+      <c r="H195" t="inlineStr">
         <is>
           <t>Panama City</t>
         </is>
@@ -6483,23 +7358,28 @@
           <t>Paramaribo, Suriname</t>
         </is>
       </c>
-      <c r="C196" t="n">
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>PBM</t>
+        </is>
+      </c>
+      <c r="D196" t="n">
         <v>5.452831</v>
       </c>
-      <c r="D196" t="n">
+      <c r="E196" t="n">
         <v>-55.187783</v>
       </c>
-      <c r="E196" t="inlineStr">
+      <c r="F196" t="inlineStr">
         <is>
           <t>SR</t>
         </is>
       </c>
-      <c r="F196" t="inlineStr">
+      <c r="G196" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G196" t="inlineStr">
+      <c r="H196" t="inlineStr">
         <is>
           <t>Paramaribo</t>
         </is>
@@ -6516,23 +7396,28 @@
           <t>Porto Alegre, Brazil</t>
         </is>
       </c>
-      <c r="C197" t="n">
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>POA</t>
+        </is>
+      </c>
+      <c r="D197" t="n">
         <v>-29.9944000244</v>
       </c>
-      <c r="D197" t="n">
+      <c r="E197" t="n">
         <v>-51.1713981628</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="G197" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G197" t="inlineStr">
+      <c r="H197" t="inlineStr">
         <is>
           <t>Porto Alegre</t>
         </is>
@@ -6549,23 +7434,28 @@
           <t>Quito, Ecuador</t>
         </is>
       </c>
-      <c r="C198" t="n">
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>UIO</t>
+        </is>
+      </c>
+      <c r="D198" t="n">
         <v>-0.1291666667</v>
       </c>
-      <c r="D198" t="n">
+      <c r="E198" t="n">
         <v>-78.3575</v>
       </c>
-      <c r="E198" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>EC</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="G198" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G198" t="inlineStr">
+      <c r="H198" t="inlineStr">
         <is>
           <t>Quito</t>
         </is>
@@ -6582,23 +7472,28 @@
           <t>Recife, Brazil</t>
         </is>
       </c>
-      <c r="C199" t="n">
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>REC</t>
+        </is>
+      </c>
+      <c r="D199" t="n">
         <v>-8.126489639300001</v>
       </c>
-      <c r="D199" t="n">
+      <c r="E199" t="n">
         <v>-34.9235992432</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="F199" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
+      <c r="G199" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G199" t="inlineStr">
+      <c r="H199" t="inlineStr">
         <is>
           <t>Recife</t>
         </is>
@@ -6615,23 +7510,28 @@
           <t>Ribeirao Preto, Brazil</t>
         </is>
       </c>
-      <c r="C200" t="n">
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>RAO</t>
+        </is>
+      </c>
+      <c r="D200" t="n">
         <v>-21.1363887787</v>
       </c>
-      <c r="D200" t="n">
+      <c r="E200" t="n">
         <v>-47.7766685486</v>
       </c>
-      <c r="E200" t="inlineStr">
+      <c r="F200" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F200" t="inlineStr">
+      <c r="G200" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G200" t="inlineStr">
+      <c r="H200" t="inlineStr">
         <is>
           <t>Ribeirao Preto</t>
         </is>
@@ -6648,23 +7548,28 @@
           <t>Rio de Janeiro, Brazil</t>
         </is>
       </c>
-      <c r="C201" t="n">
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>GIG</t>
+        </is>
+      </c>
+      <c r="D201" t="n">
         <v>-22.8099994659</v>
       </c>
-      <c r="D201" t="n">
+      <c r="E201" t="n">
         <v>-43.2505569458</v>
       </c>
-      <c r="E201" t="inlineStr">
+      <c r="F201" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F201" t="inlineStr">
+      <c r="G201" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G201" t="inlineStr">
+      <c r="H201" t="inlineStr">
         <is>
           <t>Rio de Janeiro</t>
         </is>
@@ -6681,23 +7586,28 @@
           <t>Salvador, Brazil</t>
         </is>
       </c>
-      <c r="C202" t="n">
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>SSA</t>
+        </is>
+      </c>
+      <c r="D202" t="n">
         <v>-12.9086112976</v>
       </c>
-      <c r="D202" t="n">
+      <c r="E202" t="n">
         <v>-38.3224983215</v>
       </c>
-      <c r="E202" t="inlineStr">
+      <c r="F202" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F202" t="inlineStr">
+      <c r="G202" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G202" t="inlineStr">
+      <c r="H202" t="inlineStr">
         <is>
           <t>Salvador</t>
         </is>
@@ -6714,23 +7624,28 @@
           <t>San José, Costa Rica</t>
         </is>
       </c>
-      <c r="C203" t="n">
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>SJO</t>
+        </is>
+      </c>
+      <c r="D203" t="n">
         <v>9.9938602448</v>
       </c>
-      <c r="D203" t="n">
+      <c r="E203" t="n">
         <v>-84.2088012695</v>
       </c>
-      <c r="E203" t="inlineStr">
+      <c r="F203" t="inlineStr">
         <is>
           <t>CR</t>
         </is>
       </c>
-      <c r="F203" t="inlineStr">
+      <c r="G203" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G203" t="inlineStr">
+      <c r="H203" t="inlineStr">
         <is>
           <t>San José</t>
         </is>
@@ -6747,23 +7662,28 @@
           <t>Santiago, Chile</t>
         </is>
       </c>
-      <c r="C204" t="n">
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>SCL</t>
+        </is>
+      </c>
+      <c r="D204" t="n">
         <v>-33.3930015564</v>
       </c>
-      <c r="D204" t="n">
+      <c r="E204" t="n">
         <v>-70.7857971191</v>
       </c>
-      <c r="E204" t="inlineStr">
+      <c r="F204" t="inlineStr">
         <is>
           <t>CL</t>
         </is>
       </c>
-      <c r="F204" t="inlineStr">
+      <c r="G204" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G204" t="inlineStr">
+      <c r="H204" t="inlineStr">
         <is>
           <t>Santiago</t>
         </is>
@@ -6780,23 +7700,28 @@
           <t>Santo Domingo, Dominican Republic</t>
         </is>
       </c>
-      <c r="C205" t="n">
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>SDQ</t>
+        </is>
+      </c>
+      <c r="D205" t="n">
         <v>18.4297008514</v>
       </c>
-      <c r="D205" t="n">
+      <c r="E205" t="n">
         <v>-69.6688995361</v>
       </c>
-      <c r="E205" t="inlineStr">
+      <c r="F205" t="inlineStr">
         <is>
           <t>DO</t>
         </is>
       </c>
-      <c r="F205" t="inlineStr">
+      <c r="G205" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G205" t="inlineStr">
+      <c r="H205" t="inlineStr">
         <is>
           <t>Santo Domingo</t>
         </is>
@@ -6813,23 +7738,28 @@
           <t>São José do Rio Preto, Brazil</t>
         </is>
       </c>
-      <c r="C206" t="n">
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>SJP</t>
+        </is>
+      </c>
+      <c r="D206" t="n">
         <v>-20.807157</v>
       </c>
-      <c r="D206" t="n">
+      <c r="E206" t="n">
         <v>-49.378994</v>
       </c>
-      <c r="E206" t="inlineStr">
+      <c r="F206" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F206" t="inlineStr">
+      <c r="G206" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G206" t="inlineStr">
+      <c r="H206" t="inlineStr">
         <is>
           <t>São José do Rio Preto</t>
         </is>
@@ -6846,23 +7776,28 @@
           <t>São José dos Campos, Brazil</t>
         </is>
       </c>
-      <c r="C207" t="n">
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>SJK</t>
+        </is>
+      </c>
+      <c r="D207" t="n">
         <v>-23.1791</v>
       </c>
-      <c r="D207" t="n">
+      <c r="E207" t="n">
         <v>-45.8872</v>
       </c>
-      <c r="E207" t="inlineStr">
+      <c r="F207" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F207" t="inlineStr">
+      <c r="G207" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G207" t="inlineStr">
+      <c r="H207" t="inlineStr">
         <is>
           <t>São José dos Campos</t>
         </is>
@@ -6879,23 +7814,28 @@
           <t>São Paulo, Brazil</t>
         </is>
       </c>
-      <c r="C208" t="n">
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>GRU</t>
+        </is>
+      </c>
+      <c r="D208" t="n">
         <v>-23.4355564117</v>
       </c>
-      <c r="D208" t="n">
+      <c r="E208" t="n">
         <v>-46.4730567932</v>
       </c>
-      <c r="E208" t="inlineStr">
+      <c r="F208" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F208" t="inlineStr">
+      <c r="G208" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G208" t="inlineStr">
+      <c r="H208" t="inlineStr">
         <is>
           <t>São Paulo</t>
         </is>
@@ -6912,23 +7852,28 @@
           <t>Sorocaba, Brazil</t>
         </is>
       </c>
-      <c r="C209" t="n">
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>SOD</t>
+        </is>
+      </c>
+      <c r="D209" t="n">
         <v>-23.54389</v>
       </c>
-      <c r="D209" t="n">
+      <c r="E209" t="n">
         <v>-46.63445</v>
       </c>
-      <c r="E209" t="inlineStr">
+      <c r="F209" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F209" t="inlineStr">
+      <c r="G209" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G209" t="inlineStr">
+      <c r="H209" t="inlineStr">
         <is>
           <t>Sorocaba</t>
         </is>
@@ -6945,23 +7890,28 @@
           <t>St. George's, Grenada</t>
         </is>
       </c>
-      <c r="C210" t="n">
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>GND</t>
+        </is>
+      </c>
+      <c r="D210" t="n">
         <v>12.007116</v>
       </c>
-      <c r="D210" t="n">
+      <c r="E210" t="n">
         <v>-61.7882288</v>
       </c>
-      <c r="E210" t="inlineStr">
+      <c r="F210" t="inlineStr">
         <is>
           <t>GD</t>
         </is>
       </c>
-      <c r="F210" t="inlineStr">
+      <c r="G210" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G210" t="inlineStr">
+      <c r="H210" t="inlineStr">
         <is>
           <t>St. George's</t>
         </is>
@@ -6978,23 +7928,28 @@
           <t>Tegucigalpa, Honduras</t>
         </is>
       </c>
-      <c r="C211" t="n">
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>TGU</t>
+        </is>
+      </c>
+      <c r="D211" t="n">
         <v>14.0608</v>
       </c>
-      <c r="D211" t="n">
+      <c r="E211" t="n">
         <v>-87.21720000000001</v>
       </c>
-      <c r="E211" t="inlineStr">
+      <c r="F211" t="inlineStr">
         <is>
           <t>HN</t>
         </is>
       </c>
-      <c r="F211" t="inlineStr">
+      <c r="G211" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G211" t="inlineStr">
+      <c r="H211" t="inlineStr">
         <is>
           <t>Tegucigalpa</t>
         </is>
@@ -7011,23 +7966,28 @@
           <t>Timbó, Brazil</t>
         </is>
       </c>
-      <c r="C212" t="n">
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>NVT</t>
+        </is>
+      </c>
+      <c r="D212" t="n">
         <v>-26.8251</v>
       </c>
-      <c r="D212" t="n">
+      <c r="E212" t="n">
         <v>-49.2695</v>
       </c>
-      <c r="E212" t="inlineStr">
+      <c r="F212" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F212" t="inlineStr">
+      <c r="G212" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G212" t="inlineStr">
+      <c r="H212" t="inlineStr">
         <is>
           <t>Timbo</t>
         </is>
@@ -7044,23 +8004,28 @@
           <t>Uberlândia, Brazil</t>
         </is>
       </c>
-      <c r="C213" t="n">
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>UDI</t>
+        </is>
+      </c>
+      <c r="D213" t="n">
         <v>-18.8836116791</v>
       </c>
-      <c r="D213" t="n">
+      <c r="E213" t="n">
         <v>-48.225276947</v>
       </c>
-      <c r="E213" t="inlineStr">
+      <c r="F213" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F213" t="inlineStr">
+      <c r="G213" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G213" t="inlineStr">
+      <c r="H213" t="inlineStr">
         <is>
           <t>Uberlandia</t>
         </is>
@@ -7077,23 +8042,28 @@
           <t>Vitoria, Brazil</t>
         </is>
       </c>
-      <c r="C214" t="n">
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>VIX</t>
+        </is>
+      </c>
+      <c r="D214" t="n">
         <v>-20.64871</v>
       </c>
-      <c r="D214" t="n">
+      <c r="E214" t="n">
         <v>-41.90857</v>
       </c>
-      <c r="E214" t="inlineStr">
+      <c r="F214" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F214" t="inlineStr">
+      <c r="G214" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G214" t="inlineStr">
+      <c r="H214" t="inlineStr">
         <is>
           <t>Vitoria</t>
         </is>
@@ -7110,23 +8080,28 @@
           <t>Willemstad, Curaçao</t>
         </is>
       </c>
-      <c r="C215" t="n">
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>CUR</t>
+        </is>
+      </c>
+      <c r="D215" t="n">
         <v>12.1888999939</v>
       </c>
-      <c r="D215" t="n">
+      <c r="E215" t="n">
         <v>-68.95980072019999</v>
       </c>
-      <c r="E215" t="inlineStr">
+      <c r="F215" t="inlineStr">
         <is>
           <t>CW</t>
         </is>
       </c>
-      <c r="F215" t="inlineStr">
+      <c r="G215" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G215" t="inlineStr">
+      <c r="H215" t="inlineStr">
         <is>
           <t>Willemstad</t>
         </is>
@@ -7143,23 +8118,28 @@
           <t>Campos dos Goytacazes, Brazil</t>
         </is>
       </c>
-      <c r="C216" t="n">
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>CAW</t>
+        </is>
+      </c>
+      <c r="D216" t="n">
         <v>-21.698299408</v>
       </c>
-      <c r="D216" t="n">
+      <c r="E216" t="n">
         <v>-41.301700592</v>
       </c>
-      <c r="E216" t="inlineStr">
+      <c r="F216" t="inlineStr">
         <is>
           <t>BR</t>
         </is>
       </c>
-      <c r="F216" t="inlineStr">
+      <c r="G216" t="inlineStr">
         <is>
           <t>South America</t>
         </is>
       </c>
-      <c r="G216" t="inlineStr">
+      <c r="H216" t="inlineStr">
         <is>
           <t>Campos dos Goytacazes</t>
         </is>
@@ -7176,23 +8156,28 @@
           <t>Amman, Jordan</t>
         </is>
       </c>
-      <c r="C217" t="n">
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>AMM</t>
+        </is>
+      </c>
+      <c r="D217" t="n">
         <v>31.7226009369</v>
       </c>
-      <c r="D217" t="n">
+      <c r="E217" t="n">
         <v>35.9931983948</v>
       </c>
-      <c r="E217" t="inlineStr">
+      <c r="F217" t="inlineStr">
         <is>
           <t>JO</t>
         </is>
       </c>
-      <c r="F217" t="inlineStr">
+      <c r="G217" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G217" t="inlineStr">
+      <c r="H217" t="inlineStr">
         <is>
           <t>Amman</t>
         </is>
@@ -7209,23 +8194,28 @@
           <t>Astara, Azerbaijan</t>
         </is>
       </c>
-      <c r="C218" t="n">
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>LLK</t>
+        </is>
+      </c>
+      <c r="D218" t="n">
         <v>38.7463989258</v>
       </c>
-      <c r="D218" t="n">
+      <c r="E218" t="n">
         <v>48.8180007935</v>
       </c>
-      <c r="E218" t="inlineStr">
+      <c r="F218" t="inlineStr">
         <is>
           <t>AZ</t>
         </is>
       </c>
-      <c r="F218" t="inlineStr">
+      <c r="G218" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G218" t="inlineStr">
+      <c r="H218" t="inlineStr">
         <is>
           <t>Astara</t>
         </is>
@@ -7242,23 +8232,28 @@
           <t>Baghdad, Iraq</t>
         </is>
       </c>
-      <c r="C219" t="n">
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>BGW</t>
+        </is>
+      </c>
+      <c r="D219" t="n">
         <v>33.2625007629</v>
       </c>
-      <c r="D219" t="n">
+      <c r="E219" t="n">
         <v>44.2346000671</v>
       </c>
-      <c r="E219" t="inlineStr">
+      <c r="F219" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="F219" t="inlineStr">
+      <c r="G219" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G219" t="inlineStr">
+      <c r="H219" t="inlineStr">
         <is>
           <t>Baghdad</t>
         </is>
@@ -7275,23 +8270,28 @@
           <t>Baku, Azerbaijan</t>
         </is>
       </c>
-      <c r="C220" t="n">
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>GYD</t>
+        </is>
+      </c>
+      <c r="D220" t="n">
         <v>40.4674987793</v>
       </c>
-      <c r="D220" t="n">
+      <c r="E220" t="n">
         <v>50.0466995239</v>
       </c>
-      <c r="E220" t="inlineStr">
+      <c r="F220" t="inlineStr">
         <is>
           <t>AZ</t>
         </is>
       </c>
-      <c r="F220" t="inlineStr">
+      <c r="G220" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G220" t="inlineStr">
+      <c r="H220" t="inlineStr">
         <is>
           <t>Baku</t>
         </is>
@@ -7308,23 +8308,28 @@
           <t>Basra, Iraq</t>
         </is>
       </c>
-      <c r="C221" t="n">
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>BSR</t>
+        </is>
+      </c>
+      <c r="D221" t="n">
         <v>30.5491008759</v>
       </c>
-      <c r="D221" t="n">
+      <c r="E221" t="n">
         <v>47.6621017456</v>
       </c>
-      <c r="E221" t="inlineStr">
+      <c r="F221" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="F221" t="inlineStr">
+      <c r="G221" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G221" t="inlineStr">
+      <c r="H221" t="inlineStr">
         <is>
           <t>Basra</t>
         </is>
@@ -7341,23 +8346,28 @@
           <t>Beirut, Lebanon</t>
         </is>
       </c>
-      <c r="C222" t="n">
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>BEY</t>
+        </is>
+      </c>
+      <c r="D222" t="n">
         <v>33.8208999634</v>
       </c>
-      <c r="D222" t="n">
+      <c r="E222" t="n">
         <v>35.4883995056</v>
       </c>
-      <c r="E222" t="inlineStr">
+      <c r="F222" t="inlineStr">
         <is>
           <t>LB</t>
         </is>
       </c>
-      <c r="F222" t="inlineStr">
+      <c r="G222" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G222" t="inlineStr">
+      <c r="H222" t="inlineStr">
         <is>
           <t>Beirut</t>
         </is>
@@ -7374,23 +8384,28 @@
           <t>Dammam, Saudi Arabia</t>
         </is>
       </c>
-      <c r="C223" t="n">
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>DMM</t>
+        </is>
+      </c>
+      <c r="D223" t="n">
         <v>26.471200943</v>
       </c>
-      <c r="D223" t="n">
+      <c r="E223" t="n">
         <v>49.7979011536</v>
       </c>
-      <c r="E223" t="inlineStr">
+      <c r="F223" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F223" t="inlineStr">
+      <c r="G223" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G223" t="inlineStr">
+      <c r="H223" t="inlineStr">
         <is>
           <t>Dammam</t>
         </is>
@@ -7407,23 +8422,28 @@
           <t>Doha, Qatar</t>
         </is>
       </c>
-      <c r="C224" t="n">
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>DOH</t>
+        </is>
+      </c>
+      <c r="D224" t="n">
         <v>25.2605946</v>
       </c>
-      <c r="D224" t="n">
+      <c r="E224" t="n">
         <v>51.6137665</v>
       </c>
-      <c r="E224" t="inlineStr">
+      <c r="F224" t="inlineStr">
         <is>
           <t>QA</t>
         </is>
       </c>
-      <c r="F224" t="inlineStr">
+      <c r="G224" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G224" t="inlineStr">
+      <c r="H224" t="inlineStr">
         <is>
           <t>Doha</t>
         </is>
@@ -7440,23 +8460,28 @@
           <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
-      <c r="C225" t="n">
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>DXB</t>
+        </is>
+      </c>
+      <c r="D225" t="n">
         <v>25.2527999878</v>
       </c>
-      <c r="D225" t="n">
+      <c r="E225" t="n">
         <v>55.3643989563</v>
       </c>
-      <c r="E225" t="inlineStr">
+      <c r="F225" t="inlineStr">
         <is>
           <t>AE</t>
         </is>
       </c>
-      <c r="F225" t="inlineStr">
+      <c r="G225" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G225" t="inlineStr">
+      <c r="H225" t="inlineStr">
         <is>
           <t>Dubai</t>
         </is>
@@ -7473,23 +8498,28 @@
           <t>Erbil, Iraq</t>
         </is>
       </c>
-      <c r="C226" t="n">
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>EBL</t>
+        </is>
+      </c>
+      <c r="D226" t="n">
         <v>36.1901</v>
       </c>
-      <c r="D226" t="n">
+      <c r="E226" t="n">
         <v>43.993</v>
       </c>
-      <c r="E226" t="inlineStr">
+      <c r="F226" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="F226" t="inlineStr">
+      <c r="G226" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G226" t="inlineStr">
+      <c r="H226" t="inlineStr">
         <is>
           <t>Erbil</t>
         </is>
@@ -7506,23 +8536,28 @@
           <t>Haifa, Israel</t>
         </is>
       </c>
-      <c r="C227" t="n">
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>HFA</t>
+        </is>
+      </c>
+      <c r="D227" t="n">
         <v>32.78492</v>
       </c>
-      <c r="D227" t="n">
+      <c r="E227" t="n">
         <v>34.96069</v>
       </c>
-      <c r="E227" t="inlineStr">
+      <c r="F227" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="F227" t="inlineStr">
+      <c r="G227" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G227" t="inlineStr">
+      <c r="H227" t="inlineStr">
         <is>
           <t>Haifa</t>
         </is>
@@ -7539,23 +8574,28 @@
           <t>Jeddah, Saudi Arabia</t>
         </is>
       </c>
-      <c r="C228" t="n">
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>JED</t>
+        </is>
+      </c>
+      <c r="D228" t="n">
         <v>21.679599762</v>
       </c>
-      <c r="D228" t="n">
+      <c r="E228" t="n">
         <v>39.15650177</v>
       </c>
-      <c r="E228" t="inlineStr">
+      <c r="F228" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F228" t="inlineStr">
+      <c r="G228" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G228" t="inlineStr">
+      <c r="H228" t="inlineStr">
         <is>
           <t>Jeddah</t>
         </is>
@@ -7572,23 +8612,28 @@
           <t>Kuwait City, Kuwait</t>
         </is>
       </c>
-      <c r="C229" t="n">
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>KWI</t>
+        </is>
+      </c>
+      <c r="D229" t="n">
         <v>29.226600647</v>
       </c>
-      <c r="D229" t="n">
+      <c r="E229" t="n">
         <v>47.9688987732</v>
       </c>
-      <c r="E229" t="inlineStr">
+      <c r="F229" t="inlineStr">
         <is>
           <t>KW</t>
         </is>
       </c>
-      <c r="F229" t="inlineStr">
+      <c r="G229" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G229" t="inlineStr">
+      <c r="H229" t="inlineStr">
         <is>
           <t>Kuwait City</t>
         </is>
@@ -7605,23 +8650,28 @@
           <t>Manama, Bahrain</t>
         </is>
       </c>
-      <c r="C230" t="n">
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>BAH</t>
+        </is>
+      </c>
+      <c r="D230" t="n">
         <v>26.2707996368</v>
       </c>
-      <c r="D230" t="n">
+      <c r="E230" t="n">
         <v>50.6335983276</v>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>BH</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="G230" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G230" t="inlineStr">
+      <c r="H230" t="inlineStr">
         <is>
           <t>Manama</t>
         </is>
@@ -7638,23 +8688,28 @@
           <t>Muscat, Oman</t>
         </is>
       </c>
-      <c r="C231" t="n">
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>MCT</t>
+        </is>
+      </c>
+      <c r="D231" t="n">
         <v>23.5932998657</v>
       </c>
-      <c r="D231" t="n">
+      <c r="E231" t="n">
         <v>58.2844009399</v>
       </c>
-      <c r="E231" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>OM</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="G231" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G231" t="inlineStr">
+      <c r="H231" t="inlineStr">
         <is>
           <t>Muscat</t>
         </is>
@@ -7671,23 +8726,28 @@
           <t>Najaf, Iraq</t>
         </is>
       </c>
-      <c r="C232" t="n">
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>NJF</t>
+        </is>
+      </c>
+      <c r="D232" t="n">
         <v>31.989722</v>
       </c>
-      <c r="D232" t="n">
+      <c r="E232" t="n">
         <v>44.404167</v>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="G232" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G232" t="inlineStr">
+      <c r="H232" t="inlineStr">
         <is>
           <t>Najaf</t>
         </is>
@@ -7704,23 +8764,28 @@
           <t>Nasiriyah, Iraq</t>
         </is>
       </c>
-      <c r="C233" t="n">
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>XNH</t>
+        </is>
+      </c>
+      <c r="D233" t="n">
         <v>30.9358005524</v>
       </c>
-      <c r="D233" t="n">
+      <c r="E233" t="n">
         <v>46.0900993347</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="F233" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="G233" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G233" t="inlineStr">
+      <c r="H233" t="inlineStr">
         <is>
           <t>Nasiriyah</t>
         </is>
@@ -7737,23 +8802,28 @@
           <t>Ramallah</t>
         </is>
       </c>
-      <c r="C234" t="n">
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>ZDM</t>
+        </is>
+      </c>
+      <c r="D234" t="n">
         <v>32.2719</v>
       </c>
-      <c r="D234" t="n">
+      <c r="E234" t="n">
         <v>35.0194</v>
       </c>
-      <c r="E234" t="inlineStr">
+      <c r="F234" t="inlineStr">
         <is>
           <t>PS</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="G234" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G234" t="inlineStr">
+      <c r="H234" t="inlineStr">
         <is>
           <t>Ramallah</t>
         </is>
@@ -7770,23 +8840,28 @@
           <t>Riyadh, Saudi Arabia</t>
         </is>
       </c>
-      <c r="C235" t="n">
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>RUH</t>
+        </is>
+      </c>
+      <c r="D235" t="n">
         <v>24.9575996399</v>
       </c>
-      <c r="D235" t="n">
+      <c r="E235" t="n">
         <v>46.6987991333</v>
       </c>
-      <c r="E235" t="inlineStr">
+      <c r="F235" t="inlineStr">
         <is>
           <t>SA</t>
         </is>
       </c>
-      <c r="F235" t="inlineStr">
+      <c r="G235" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G235" t="inlineStr">
+      <c r="H235" t="inlineStr">
         <is>
           <t>Riyadh</t>
         </is>
@@ -7803,23 +8878,28 @@
           <t>Sulaymaniyah, Iraq</t>
         </is>
       </c>
-      <c r="C236" t="n">
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>ISU</t>
+        </is>
+      </c>
+      <c r="D236" t="n">
         <v>35.5668</v>
       </c>
-      <c r="D236" t="n">
+      <c r="E236" t="n">
         <v>45.4161</v>
       </c>
-      <c r="E236" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>IQ</t>
         </is>
       </c>
-      <c r="F236" t="inlineStr">
+      <c r="G236" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G236" t="inlineStr">
+      <c r="H236" t="inlineStr">
         <is>
           <t>Sulaymaniyah</t>
         </is>
@@ -7836,23 +8916,28 @@
           <t>Tel Aviv, Israel</t>
         </is>
       </c>
-      <c r="C237" t="n">
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>TLV</t>
+        </is>
+      </c>
+      <c r="D237" t="n">
         <v>32.0113983154</v>
       </c>
-      <c r="D237" t="n">
+      <c r="E237" t="n">
         <v>34.8866996765</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>IL</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="G237" t="inlineStr">
         <is>
           <t>Middle East</t>
         </is>
       </c>
-      <c r="G237" t="inlineStr">
+      <c r="H237" t="inlineStr">
         <is>
           <t>Tel Aviv</t>
         </is>
@@ -7869,23 +8954,28 @@
           <t>Ashburn, VA, United States</t>
         </is>
       </c>
-      <c r="C238" t="n">
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>IAD</t>
+        </is>
+      </c>
+      <c r="D238" t="n">
         <v>38.94449997</v>
       </c>
-      <c r="D238" t="n">
+      <c r="E238" t="n">
         <v>-77.45580292</v>
       </c>
-      <c r="E238" t="inlineStr">
+      <c r="F238" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F238" t="inlineStr">
+      <c r="G238" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G238" t="inlineStr">
+      <c r="H238" t="inlineStr">
         <is>
           <t>Ashburn</t>
         </is>
@@ -7902,23 +8992,28 @@
           <t>Atlanta, GA, United States</t>
         </is>
       </c>
-      <c r="C239" t="n">
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>ATL</t>
+        </is>
+      </c>
+      <c r="D239" t="n">
         <v>33.6366996765</v>
       </c>
-      <c r="D239" t="n">
+      <c r="E239" t="n">
         <v>-84.4281005859</v>
       </c>
-      <c r="E239" t="inlineStr">
+      <c r="F239" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F239" t="inlineStr">
+      <c r="G239" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G239" t="inlineStr">
+      <c r="H239" t="inlineStr">
         <is>
           <t>Atlanta</t>
         </is>
@@ -7935,23 +9030,28 @@
           <t>Boston, MA, United States</t>
         </is>
       </c>
-      <c r="C240" t="n">
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>BOS</t>
+        </is>
+      </c>
+      <c r="D240" t="n">
         <v>42.36429977</v>
       </c>
-      <c r="D240" t="n">
+      <c r="E240" t="n">
         <v>-71.00520324999999</v>
       </c>
-      <c r="E240" t="inlineStr">
+      <c r="F240" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F240" t="inlineStr">
+      <c r="G240" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G240" t="inlineStr">
+      <c r="H240" t="inlineStr">
         <is>
           <t>Boston</t>
         </is>
@@ -7968,23 +9068,28 @@
           <t>Buffalo, NY, United States</t>
         </is>
       </c>
-      <c r="C241" t="n">
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>BUF</t>
+        </is>
+      </c>
+      <c r="D241" t="n">
         <v>42.94049835</v>
       </c>
-      <c r="D241" t="n">
+      <c r="E241" t="n">
         <v>-78.73220062</v>
       </c>
-      <c r="E241" t="inlineStr">
+      <c r="F241" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F241" t="inlineStr">
+      <c r="G241" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G241" t="inlineStr">
+      <c r="H241" t="inlineStr">
         <is>
           <t>Buffalo</t>
         </is>
@@ -8001,23 +9106,28 @@
           <t>Calgary, AB, Canada</t>
         </is>
       </c>
-      <c r="C242" t="n">
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>YYC</t>
+        </is>
+      </c>
+      <c r="D242" t="n">
         <v>51.113899231</v>
       </c>
-      <c r="D242" t="n">
+      <c r="E242" t="n">
         <v>-114.019996643</v>
       </c>
-      <c r="E242" t="inlineStr">
+      <c r="F242" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F242" t="inlineStr">
+      <c r="G242" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G242" t="inlineStr">
+      <c r="H242" t="inlineStr">
         <is>
           <t>Calgary</t>
         </is>
@@ -8034,23 +9144,28 @@
           <t>Charlotte, NC, United States</t>
         </is>
       </c>
-      <c r="C243" t="n">
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>CLT</t>
+        </is>
+      </c>
+      <c r="D243" t="n">
         <v>35.2140007019</v>
       </c>
-      <c r="D243" t="n">
+      <c r="E243" t="n">
         <v>-80.94309997560001</v>
       </c>
-      <c r="E243" t="inlineStr">
+      <c r="F243" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F243" t="inlineStr">
+      <c r="G243" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G243" t="inlineStr">
+      <c r="H243" t="inlineStr">
         <is>
           <t>Charlotte</t>
         </is>
@@ -8067,23 +9182,28 @@
           <t>Chicago, IL, United States</t>
         </is>
       </c>
-      <c r="C244" t="n">
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>ORD</t>
+        </is>
+      </c>
+      <c r="D244" t="n">
         <v>41.97859955</v>
       </c>
-      <c r="D244" t="n">
+      <c r="E244" t="n">
         <v>-87.90480042</v>
       </c>
-      <c r="E244" t="inlineStr">
+      <c r="F244" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F244" t="inlineStr">
+      <c r="G244" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G244" t="inlineStr">
+      <c r="H244" t="inlineStr">
         <is>
           <t>Chicago</t>
         </is>
@@ -8100,23 +9220,28 @@
           <t>Columbus, OH, United States</t>
         </is>
       </c>
-      <c r="C245" t="n">
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>CMH</t>
+        </is>
+      </c>
+      <c r="D245" t="n">
         <v>39.9980010986</v>
       </c>
-      <c r="D245" t="n">
+      <c r="E245" t="n">
         <v>-82.89189910890001</v>
       </c>
-      <c r="E245" t="inlineStr">
+      <c r="F245" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F245" t="inlineStr">
+      <c r="G245" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G245" t="inlineStr">
+      <c r="H245" t="inlineStr">
         <is>
           <t>Columbus</t>
         </is>
@@ -8133,23 +9258,28 @@
           <t>Dallas, TX, United States</t>
         </is>
       </c>
-      <c r="C246" t="n">
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>DFW</t>
+        </is>
+      </c>
+      <c r="D246" t="n">
         <v>32.8968009949</v>
       </c>
-      <c r="D246" t="n">
+      <c r="E246" t="n">
         <v>-97.0380020142</v>
       </c>
-      <c r="E246" t="inlineStr">
+      <c r="F246" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F246" t="inlineStr">
+      <c r="G246" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G246" t="inlineStr">
+      <c r="H246" t="inlineStr">
         <is>
           <t>Dallas</t>
         </is>
@@ -8166,23 +9296,28 @@
           <t>Denver, CO, United States</t>
         </is>
       </c>
-      <c r="C247" t="n">
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>DEN</t>
+        </is>
+      </c>
+      <c r="D247" t="n">
         <v>39.8616981506</v>
       </c>
-      <c r="D247" t="n">
+      <c r="E247" t="n">
         <v>-104.672996521</v>
       </c>
-      <c r="E247" t="inlineStr">
+      <c r="F247" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F247" t="inlineStr">
+      <c r="G247" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G247" t="inlineStr">
+      <c r="H247" t="inlineStr">
         <is>
           <t>Denver</t>
         </is>
@@ -8199,23 +9334,28 @@
           <t>Detroit, MI, United States</t>
         </is>
       </c>
-      <c r="C248" t="n">
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>DTW</t>
+        </is>
+      </c>
+      <c r="D248" t="n">
         <v>42.2123985291</v>
       </c>
-      <c r="D248" t="n">
+      <c r="E248" t="n">
         <v>-83.35340118409999</v>
       </c>
-      <c r="E248" t="inlineStr">
+      <c r="F248" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F248" t="inlineStr">
+      <c r="G248" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G248" t="inlineStr">
+      <c r="H248" t="inlineStr">
         <is>
           <t>Detroit</t>
         </is>
@@ -8232,23 +9372,28 @@
           <t>Honolulu, HI, United States</t>
         </is>
       </c>
-      <c r="C249" t="n">
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>HNL</t>
+        </is>
+      </c>
+      <c r="D249" t="n">
         <v>21.3187007904</v>
       </c>
-      <c r="D249" t="n">
+      <c r="E249" t="n">
         <v>-157.9219970703</v>
       </c>
-      <c r="E249" t="inlineStr">
+      <c r="F249" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F249" t="inlineStr">
+      <c r="G249" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G249" t="inlineStr">
+      <c r="H249" t="inlineStr">
         <is>
           <t>Honolulu</t>
         </is>
@@ -8265,23 +9410,28 @@
           <t>Houston, TX, United States</t>
         </is>
       </c>
-      <c r="C250" t="n">
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>IAH</t>
+        </is>
+      </c>
+      <c r="D250" t="n">
         <v>29.9843997955</v>
       </c>
-      <c r="D250" t="n">
+      <c r="E250" t="n">
         <v>-95.34140014650001</v>
       </c>
-      <c r="E250" t="inlineStr">
+      <c r="F250" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F250" t="inlineStr">
+      <c r="G250" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G250" t="inlineStr">
+      <c r="H250" t="inlineStr">
         <is>
           <t>Houston</t>
         </is>
@@ -8298,23 +9448,28 @@
           <t>Indianapolis, IN, United States</t>
         </is>
       </c>
-      <c r="C251" t="n">
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>IND</t>
+        </is>
+      </c>
+      <c r="D251" t="n">
         <v>39.717300415</v>
       </c>
-      <c r="D251" t="n">
+      <c r="E251" t="n">
         <v>-86.2944030762</v>
       </c>
-      <c r="E251" t="inlineStr">
+      <c r="F251" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F251" t="inlineStr">
+      <c r="G251" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G251" t="inlineStr">
+      <c r="H251" t="inlineStr">
         <is>
           <t>Indianapolis</t>
         </is>
@@ -8331,23 +9486,28 @@
           <t>Jacksonville, FL, United States</t>
         </is>
       </c>
-      <c r="C252" t="n">
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>JAX</t>
+        </is>
+      </c>
+      <c r="D252" t="n">
         <v>30.4941005707</v>
       </c>
-      <c r="D252" t="n">
+      <c r="E252" t="n">
         <v>-81.68789672849999</v>
       </c>
-      <c r="E252" t="inlineStr">
+      <c r="F252" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F252" t="inlineStr">
+      <c r="G252" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G252" t="inlineStr">
+      <c r="H252" t="inlineStr">
         <is>
           <t>Jacksonville</t>
         </is>
@@ -8364,23 +9524,28 @@
           <t>Kansas City, MO, United States</t>
         </is>
       </c>
-      <c r="C253" t="n">
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="D253" t="n">
         <v>39.2975997925</v>
       </c>
-      <c r="D253" t="n">
+      <c r="E253" t="n">
         <v>-94.7138977051</v>
       </c>
-      <c r="E253" t="inlineStr">
+      <c r="F253" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F253" t="inlineStr">
+      <c r="G253" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G253" t="inlineStr">
+      <c r="H253" t="inlineStr">
         <is>
           <t>Kansas City</t>
         </is>
@@ -8397,23 +9562,28 @@
           <t>Las Vegas, NV, United States</t>
         </is>
       </c>
-      <c r="C254" t="n">
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>LAS</t>
+        </is>
+      </c>
+      <c r="D254" t="n">
         <v>36.08010101</v>
       </c>
-      <c r="D254" t="n">
+      <c r="E254" t="n">
         <v>-115.1520004</v>
       </c>
-      <c r="E254" t="inlineStr">
+      <c r="F254" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F254" t="inlineStr">
+      <c r="G254" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G254" t="inlineStr">
+      <c r="H254" t="inlineStr">
         <is>
           <t>Las Vegas</t>
         </is>
@@ -8430,23 +9600,28 @@
           <t>Los Angeles, CA, United States</t>
         </is>
       </c>
-      <c r="C255" t="n">
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>LAX</t>
+        </is>
+      </c>
+      <c r="D255" t="n">
         <v>33.94250107</v>
       </c>
-      <c r="D255" t="n">
+      <c r="E255" t="n">
         <v>-118.4079971</v>
       </c>
-      <c r="E255" t="inlineStr">
+      <c r="F255" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F255" t="inlineStr">
+      <c r="G255" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G255" t="inlineStr">
+      <c r="H255" t="inlineStr">
         <is>
           <t>Los Angeles</t>
         </is>
@@ -8463,23 +9638,28 @@
           <t>McAllen, TX, United States</t>
         </is>
       </c>
-      <c r="C256" t="n">
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>MFE</t>
+        </is>
+      </c>
+      <c r="D256" t="n">
         <v>26.17580032</v>
       </c>
-      <c r="D256" t="n">
+      <c r="E256" t="n">
         <v>-98.23860168</v>
       </c>
-      <c r="E256" t="inlineStr">
+      <c r="F256" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F256" t="inlineStr">
+      <c r="G256" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G256" t="inlineStr">
+      <c r="H256" t="inlineStr">
         <is>
           <t>McAllen</t>
         </is>
@@ -8496,23 +9676,28 @@
           <t>Memphis, TN, United States</t>
         </is>
       </c>
-      <c r="C257" t="n">
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>MEM</t>
+        </is>
+      </c>
+      <c r="D257" t="n">
         <v>35.0424003601</v>
       </c>
-      <c r="D257" t="n">
+      <c r="E257" t="n">
         <v>-89.9766998291</v>
       </c>
-      <c r="E257" t="inlineStr">
+      <c r="F257" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F257" t="inlineStr">
+      <c r="G257" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G257" t="inlineStr">
+      <c r="H257" t="inlineStr">
         <is>
           <t>Memphis</t>
         </is>
@@ -8529,23 +9714,28 @@
           <t>Mexico City, Mexico</t>
         </is>
       </c>
-      <c r="C258" t="n">
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>MEX</t>
+        </is>
+      </c>
+      <c r="D258" t="n">
         <v>19.4363002777</v>
       </c>
-      <c r="D258" t="n">
+      <c r="E258" t="n">
         <v>-99.07209777830001</v>
       </c>
-      <c r="E258" t="inlineStr">
+      <c r="F258" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="F258" t="inlineStr">
+      <c r="G258" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G258" t="inlineStr">
+      <c r="H258" t="inlineStr">
         <is>
           <t>Mexico City</t>
         </is>
@@ -8562,23 +9752,28 @@
           <t>Miami, FL, United States</t>
         </is>
       </c>
-      <c r="C259" t="n">
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>MIA</t>
+        </is>
+      </c>
+      <c r="D259" t="n">
         <v>25.7931995392</v>
       </c>
-      <c r="D259" t="n">
+      <c r="E259" t="n">
         <v>-80.2906036377</v>
       </c>
-      <c r="E259" t="inlineStr">
+      <c r="F259" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr">
+      <c r="G259" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G259" t="inlineStr">
+      <c r="H259" t="inlineStr">
         <is>
           <t>Miami</t>
         </is>
@@ -8595,23 +9790,28 @@
           <t>Minneapolis, MN, United States</t>
         </is>
       </c>
-      <c r="C260" t="n">
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>MSP</t>
+        </is>
+      </c>
+      <c r="D260" t="n">
         <v>44.8819999695</v>
       </c>
-      <c r="D260" t="n">
+      <c r="E260" t="n">
         <v>-93.22180175779999</v>
       </c>
-      <c r="E260" t="inlineStr">
+      <c r="F260" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F260" t="inlineStr">
+      <c r="G260" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G260" t="inlineStr">
+      <c r="H260" t="inlineStr">
         <is>
           <t>Minneapolis</t>
         </is>
@@ -8628,23 +9828,28 @@
           <t>Montgomery, AL, United States</t>
         </is>
       </c>
-      <c r="C261" t="n">
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>MGM</t>
+        </is>
+      </c>
+      <c r="D261" t="n">
         <v>32.30059814</v>
       </c>
-      <c r="D261" t="n">
+      <c r="E261" t="n">
         <v>-86.39399718999999</v>
       </c>
-      <c r="E261" t="inlineStr">
+      <c r="F261" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F261" t="inlineStr">
+      <c r="G261" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G261" t="inlineStr">
+      <c r="H261" t="inlineStr">
         <is>
           <t>Montgomery</t>
         </is>
@@ -8661,23 +9866,28 @@
           <t>Montréal, QC, Canada</t>
         </is>
       </c>
-      <c r="C262" t="n">
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>YUL</t>
+        </is>
+      </c>
+      <c r="D262" t="n">
         <v>45.4706001282</v>
       </c>
-      <c r="D262" t="n">
+      <c r="E262" t="n">
         <v>-73.7407989502</v>
       </c>
-      <c r="E262" t="inlineStr">
+      <c r="F262" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F262" t="inlineStr">
+      <c r="G262" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G262" t="inlineStr">
+      <c r="H262" t="inlineStr">
         <is>
           <t>Montréal</t>
         </is>
@@ -8694,23 +9904,28 @@
           <t>Nashville, United States</t>
         </is>
       </c>
-      <c r="C263" t="n">
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>BNA</t>
+        </is>
+      </c>
+      <c r="D263" t="n">
         <v>36.1245002747</v>
       </c>
-      <c r="D263" t="n">
+      <c r="E263" t="n">
         <v>-86.6781997681</v>
       </c>
-      <c r="E263" t="inlineStr">
+      <c r="F263" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F263" t="inlineStr">
+      <c r="G263" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G263" t="inlineStr">
+      <c r="H263" t="inlineStr">
         <is>
           <t>Nashville</t>
         </is>
@@ -8727,23 +9942,28 @@
           <t>Newark, NJ, United States</t>
         </is>
       </c>
-      <c r="C264" t="n">
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>EWR</t>
+        </is>
+      </c>
+      <c r="D264" t="n">
         <v>40.6925010681</v>
       </c>
-      <c r="D264" t="n">
+      <c r="E264" t="n">
         <v>-74.1687011719</v>
       </c>
-      <c r="E264" t="inlineStr">
+      <c r="F264" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F264" t="inlineStr">
+      <c r="G264" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G264" t="inlineStr">
+      <c r="H264" t="inlineStr">
         <is>
           <t>Newark</t>
         </is>
@@ -8760,23 +9980,28 @@
           <t>Norfolk, VA, United States</t>
         </is>
       </c>
-      <c r="C265" t="n">
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>ORF</t>
+        </is>
+      </c>
+      <c r="D265" t="n">
         <v>36.8945999146</v>
       </c>
-      <c r="D265" t="n">
+      <c r="E265" t="n">
         <v>-76.2012023926</v>
       </c>
-      <c r="E265" t="inlineStr">
+      <c r="F265" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F265" t="inlineStr">
+      <c r="G265" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G265" t="inlineStr">
+      <c r="H265" t="inlineStr">
         <is>
           <t>Norfolk</t>
         </is>
@@ -8793,23 +10018,28 @@
           <t>Omaha, NE, United States</t>
         </is>
       </c>
-      <c r="C266" t="n">
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>OMA</t>
+        </is>
+      </c>
+      <c r="D266" t="n">
         <v>41.3031997681</v>
       </c>
-      <c r="D266" t="n">
+      <c r="E266" t="n">
         <v>-95.89409637449999</v>
       </c>
-      <c r="E266" t="inlineStr">
+      <c r="F266" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F266" t="inlineStr">
+      <c r="G266" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G266" t="inlineStr">
+      <c r="H266" t="inlineStr">
         <is>
           <t>Omaha</t>
         </is>
@@ -8826,23 +10056,28 @@
           <t>Ottawa, Canada</t>
         </is>
       </c>
-      <c r="C267" t="n">
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>YOW</t>
+        </is>
+      </c>
+      <c r="D267" t="n">
         <v>45.3224983215</v>
       </c>
-      <c r="D267" t="n">
+      <c r="E267" t="n">
         <v>-75.66919708250001</v>
       </c>
-      <c r="E267" t="inlineStr">
+      <c r="F267" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F267" t="inlineStr">
+      <c r="G267" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G267" t="inlineStr">
+      <c r="H267" t="inlineStr">
         <is>
           <t>Ottawa</t>
         </is>
@@ -8859,23 +10094,28 @@
           <t>Philadelphia, United States</t>
         </is>
       </c>
-      <c r="C268" t="n">
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>PHL</t>
+        </is>
+      </c>
+      <c r="D268" t="n">
         <v>39.8718986511</v>
       </c>
-      <c r="D268" t="n">
+      <c r="E268" t="n">
         <v>-75.24109649659999</v>
       </c>
-      <c r="E268" t="inlineStr">
+      <c r="F268" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F268" t="inlineStr">
+      <c r="G268" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G268" t="inlineStr">
+      <c r="H268" t="inlineStr">
         <is>
           <t>Philadelphia</t>
         </is>
@@ -8892,23 +10132,28 @@
           <t>Phoenix, AZ, United States</t>
         </is>
       </c>
-      <c r="C269" t="n">
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>PHX</t>
+        </is>
+      </c>
+      <c r="D269" t="n">
         <v>33.434299469</v>
       </c>
-      <c r="D269" t="n">
+      <c r="E269" t="n">
         <v>-112.012001038</v>
       </c>
-      <c r="E269" t="inlineStr">
+      <c r="F269" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F269" t="inlineStr">
+      <c r="G269" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G269" t="inlineStr">
+      <c r="H269" t="inlineStr">
         <is>
           <t>Phoenix</t>
         </is>
@@ -8925,23 +10170,28 @@
           <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
-      <c r="C270" t="n">
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>PIT</t>
+        </is>
+      </c>
+      <c r="D270" t="n">
         <v>40.49150085</v>
       </c>
-      <c r="D270" t="n">
+      <c r="E270" t="n">
         <v>-80.23290253</v>
       </c>
-      <c r="E270" t="inlineStr">
+      <c r="F270" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F270" t="inlineStr">
+      <c r="G270" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G270" t="inlineStr">
+      <c r="H270" t="inlineStr">
         <is>
           <t>Pittsburgh</t>
         </is>
@@ -8958,23 +10208,28 @@
           <t>Portland, OR, United States</t>
         </is>
       </c>
-      <c r="C271" t="n">
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>PDX</t>
+        </is>
+      </c>
+      <c r="D271" t="n">
         <v>45.58869934</v>
       </c>
-      <c r="D271" t="n">
+      <c r="E271" t="n">
         <v>-122.5979996</v>
       </c>
-      <c r="E271" t="inlineStr">
+      <c r="F271" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F271" t="inlineStr">
+      <c r="G271" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G271" t="inlineStr">
+      <c r="H271" t="inlineStr">
         <is>
           <t>Portland</t>
         </is>
@@ -8991,23 +10246,28 @@
           <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
-      <c r="C272" t="n">
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>QRO</t>
+        </is>
+      </c>
+      <c r="D272" t="n">
         <v>20.6173000336</v>
       </c>
-      <c r="D272" t="n">
+      <c r="E272" t="n">
         <v>-100.185997009</v>
       </c>
-      <c r="E272" t="inlineStr">
+      <c r="F272" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="F272" t="inlineStr">
+      <c r="G272" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G272" t="inlineStr">
+      <c r="H272" t="inlineStr">
         <is>
           <t>Queretaro</t>
         </is>
@@ -9024,23 +10284,28 @@
           <t>Richmond, VA, United States</t>
         </is>
       </c>
-      <c r="C273" t="n">
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>RIC</t>
+        </is>
+      </c>
+      <c r="D273" t="n">
         <v>37.5051994324</v>
       </c>
-      <c r="D273" t="n">
+      <c r="E273" t="n">
         <v>-77.3197021484</v>
       </c>
-      <c r="E273" t="inlineStr">
+      <c r="F273" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F273" t="inlineStr">
+      <c r="G273" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G273" t="inlineStr">
+      <c r="H273" t="inlineStr">
         <is>
           <t>Richmond</t>
         </is>
@@ -9057,23 +10322,28 @@
           <t>Sacramento, CA, United States</t>
         </is>
       </c>
-      <c r="C274" t="n">
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>SMF</t>
+        </is>
+      </c>
+      <c r="D274" t="n">
         <v>38.695400238</v>
       </c>
-      <c r="D274" t="n">
+      <c r="E274" t="n">
         <v>-121.591003418</v>
       </c>
-      <c r="E274" t="inlineStr">
+      <c r="F274" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F274" t="inlineStr">
+      <c r="G274" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G274" t="inlineStr">
+      <c r="H274" t="inlineStr">
         <is>
           <t>Sacramento</t>
         </is>
@@ -9090,23 +10360,28 @@
           <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
-      <c r="C275" t="n">
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>SLC</t>
+        </is>
+      </c>
+      <c r="D275" t="n">
         <v>40.7883987427</v>
       </c>
-      <c r="D275" t="n">
+      <c r="E275" t="n">
         <v>-111.977996826</v>
       </c>
-      <c r="E275" t="inlineStr">
+      <c r="F275" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F275" t="inlineStr">
+      <c r="G275" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G275" t="inlineStr">
+      <c r="H275" t="inlineStr">
         <is>
           <t>Salt Lake City</t>
         </is>
@@ -9123,23 +10398,28 @@
           <t>San Diego, CA, United States</t>
         </is>
       </c>
-      <c r="C276" t="n">
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>SAN</t>
+        </is>
+      </c>
+      <c r="D276" t="n">
         <v>32.7336006165</v>
       </c>
-      <c r="D276" t="n">
+      <c r="E276" t="n">
         <v>-117.190002441</v>
       </c>
-      <c r="E276" t="inlineStr">
+      <c r="F276" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F276" t="inlineStr">
+      <c r="G276" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G276" t="inlineStr">
+      <c r="H276" t="inlineStr">
         <is>
           <t>San Diego</t>
         </is>
@@ -9156,23 +10436,28 @@
           <t>San Jose, CA, United States</t>
         </is>
       </c>
-      <c r="C277" t="n">
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>SJC</t>
+        </is>
+      </c>
+      <c r="D277" t="n">
         <v>37.3625984192</v>
       </c>
-      <c r="D277" t="n">
+      <c r="E277" t="n">
         <v>-121.929000855</v>
       </c>
-      <c r="E277" t="inlineStr">
+      <c r="F277" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F277" t="inlineStr">
+      <c r="G277" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G277" t="inlineStr">
+      <c r="H277" t="inlineStr">
         <is>
           <t>San Jose</t>
         </is>
@@ -9189,23 +10474,28 @@
           <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
-      <c r="C278" t="n">
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>YXE</t>
+        </is>
+      </c>
+      <c r="D278" t="n">
         <v>52.1707992554</v>
       </c>
-      <c r="D278" t="n">
+      <c r="E278" t="n">
         <v>-106.699996948</v>
       </c>
-      <c r="E278" t="inlineStr">
+      <c r="F278" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F278" t="inlineStr">
+      <c r="G278" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G278" t="inlineStr">
+      <c r="H278" t="inlineStr">
         <is>
           <t>Saskatoon</t>
         </is>
@@ -9222,23 +10512,28 @@
           <t>Seattle, WA, United States</t>
         </is>
       </c>
-      <c r="C279" t="n">
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>SEA</t>
+        </is>
+      </c>
+      <c r="D279" t="n">
         <v>47.4490013123</v>
       </c>
-      <c r="D279" t="n">
+      <c r="E279" t="n">
         <v>-122.308998108</v>
       </c>
-      <c r="E279" t="inlineStr">
+      <c r="F279" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F279" t="inlineStr">
+      <c r="G279" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G279" t="inlineStr">
+      <c r="H279" t="inlineStr">
         <is>
           <t>Seattle</t>
         </is>
@@ -9255,23 +10550,28 @@
           <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
-      <c r="C280" t="n">
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>FSD</t>
+        </is>
+      </c>
+      <c r="D280" t="n">
         <v>43.540819819502</v>
       </c>
-      <c r="D280" t="n">
+      <c r="E280" t="n">
         <v>-96.65511577730963</v>
       </c>
-      <c r="E280" t="inlineStr">
+      <c r="F280" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F280" t="inlineStr">
+      <c r="G280" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G280" t="inlineStr">
+      <c r="H280" t="inlineStr">
         <is>
           <t>Sioux Falls</t>
         </is>
@@ -9288,23 +10588,28 @@
           <t>St. Louis, MO, United States</t>
         </is>
       </c>
-      <c r="C281" t="n">
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>STL</t>
+        </is>
+      </c>
+      <c r="D281" t="n">
         <v>38.7486991882</v>
       </c>
-      <c r="D281" t="n">
+      <c r="E281" t="n">
         <v>-90.37000274659999</v>
       </c>
-      <c r="E281" t="inlineStr">
+      <c r="F281" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F281" t="inlineStr">
+      <c r="G281" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G281" t="inlineStr">
+      <c r="H281" t="inlineStr">
         <is>
           <t>St. Louis</t>
         </is>
@@ -9321,23 +10626,28 @@
           <t>Tallahassee, FL, United States</t>
         </is>
       </c>
-      <c r="C282" t="n">
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>TLH</t>
+        </is>
+      </c>
+      <c r="D282" t="n">
         <v>30.3964996338</v>
       </c>
-      <c r="D282" t="n">
+      <c r="E282" t="n">
         <v>-84.3503036499</v>
       </c>
-      <c r="E282" t="inlineStr">
+      <c r="F282" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F282" t="inlineStr">
+      <c r="G282" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G282" t="inlineStr">
+      <c r="H282" t="inlineStr">
         <is>
           <t>Tallahassee</t>
         </is>
@@ -9354,23 +10664,28 @@
           <t>Toronto, ON, Canada</t>
         </is>
       </c>
-      <c r="C283" t="n">
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>YYZ</t>
+        </is>
+      </c>
+      <c r="D283" t="n">
         <v>43.6772003174</v>
       </c>
-      <c r="D283" t="n">
+      <c r="E283" t="n">
         <v>-79.63059997560001</v>
       </c>
-      <c r="E283" t="inlineStr">
+      <c r="F283" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F283" t="inlineStr">
+      <c r="G283" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G283" t="inlineStr">
+      <c r="H283" t="inlineStr">
         <is>
           <t>Toronto</t>
         </is>
@@ -9387,23 +10702,28 @@
           <t>Vancouver, BC, Canada</t>
         </is>
       </c>
-      <c r="C284" t="n">
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>YVR</t>
+        </is>
+      </c>
+      <c r="D284" t="n">
         <v>49.193901062</v>
       </c>
-      <c r="D284" t="n">
+      <c r="E284" t="n">
         <v>-123.183998108</v>
       </c>
-      <c r="E284" t="inlineStr">
+      <c r="F284" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F284" t="inlineStr">
+      <c r="G284" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G284" t="inlineStr">
+      <c r="H284" t="inlineStr">
         <is>
           <t>Vancouver</t>
         </is>
@@ -9420,23 +10740,28 @@
           <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
-      <c r="C285" t="n">
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>YWG</t>
+        </is>
+      </c>
+      <c r="D285" t="n">
         <v>49.9099998474</v>
       </c>
-      <c r="D285" t="n">
+      <c r="E285" t="n">
         <v>-97.2398986816</v>
       </c>
-      <c r="E285" t="inlineStr">
+      <c r="F285" t="inlineStr">
         <is>
           <t>CA</t>
         </is>
       </c>
-      <c r="F285" t="inlineStr">
+      <c r="G285" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G285" t="inlineStr">
+      <c r="H285" t="inlineStr">
         <is>
           <t>Winnipeg</t>
         </is>
@@ -9453,23 +10778,28 @@
           <t>San Francisco, United States</t>
         </is>
       </c>
-      <c r="C286" t="n">
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>SFO</t>
+        </is>
+      </c>
+      <c r="D286" t="n">
         <v>37.6189994812</v>
       </c>
-      <c r="D286" t="n">
+      <c r="E286" t="n">
         <v>-122.375</v>
       </c>
-      <c r="E286" t="inlineStr">
+      <c r="F286" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F286" t="inlineStr">
+      <c r="G286" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G286" t="inlineStr">
+      <c r="H286" t="inlineStr">
         <is>
           <t>San Francisco</t>
         </is>
@@ -9486,23 +10816,28 @@
           <t>Kingston, Jamaica</t>
         </is>
       </c>
-      <c r="C287" t="n">
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>KIN</t>
+        </is>
+      </c>
+      <c r="D287" t="n">
         <v>17.9951</v>
       </c>
-      <c r="D287" t="n">
+      <c r="E287" t="n">
         <v>-76.7846</v>
       </c>
-      <c r="E287" t="inlineStr">
+      <c r="F287" t="inlineStr">
         <is>
           <t>JM</t>
         </is>
       </c>
-      <c r="F287" t="inlineStr">
+      <c r="G287" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G287" t="inlineStr">
+      <c r="H287" t="inlineStr">
         <is>
           <t>Kingston</t>
         </is>
@@ -9519,23 +10854,28 @@
           <t>Bangor, United States</t>
         </is>
       </c>
-      <c r="C288" t="n">
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>BGR</t>
+        </is>
+      </c>
+      <c r="D288" t="n">
         <v>44.8081</v>
       </c>
-      <c r="D288" t="n">
+      <c r="E288" t="n">
         <v>-68.795</v>
       </c>
-      <c r="E288" t="inlineStr">
+      <c r="F288" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F288" t="inlineStr">
+      <c r="G288" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G288" t="inlineStr">
+      <c r="H288" t="inlineStr">
         <is>
           <t>Bangor</t>
         </is>
@@ -9552,23 +10892,28 @@
           <t>Austin, United States</t>
         </is>
       </c>
-      <c r="C289" t="n">
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>AUS</t>
+        </is>
+      </c>
+      <c r="D289" t="n">
         <v>30.1975</v>
       </c>
-      <c r="D289" t="n">
+      <c r="E289" t="n">
         <v>-97.6664</v>
       </c>
-      <c r="E289" t="inlineStr">
+      <c r="F289" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F289" t="inlineStr">
+      <c r="G289" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G289" t="inlineStr">
+      <c r="H289" t="inlineStr">
         <is>
           <t>Austin</t>
         </is>
@@ -9585,23 +10930,28 @@
           <t>Albuquerque, United States</t>
         </is>
       </c>
-      <c r="C290" t="n">
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>ABQ</t>
+        </is>
+      </c>
+      <c r="D290" t="n">
         <v>35.0844</v>
       </c>
-      <c r="D290" t="n">
+      <c r="E290" t="n">
         <v>-106.6504</v>
       </c>
-      <c r="E290" t="inlineStr">
+      <c r="F290" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F290" t="inlineStr">
+      <c r="G290" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G290" t="inlineStr">
+      <c r="H290" t="inlineStr">
         <is>
           <t>Albuquerque</t>
         </is>
@@ -9618,23 +10968,28 @@
           <t>Guadalajara, Mexico</t>
         </is>
       </c>
-      <c r="C291" t="n">
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>GDL</t>
+        </is>
+      </c>
+      <c r="D291" t="n">
         <v>20.5217990875</v>
       </c>
-      <c r="D291" t="n">
+      <c r="E291" t="n">
         <v>-103.3109970093</v>
       </c>
-      <c r="E291" t="inlineStr">
+      <c r="F291" t="inlineStr">
         <is>
           <t>MX</t>
         </is>
       </c>
-      <c r="F291" t="inlineStr">
+      <c r="G291" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G291" t="inlineStr">
+      <c r="H291" t="inlineStr">
         <is>
           <t>Guadalajara</t>
         </is>
@@ -9651,23 +11006,28 @@
           <t>San Antonio, United States</t>
         </is>
       </c>
-      <c r="C292" t="n">
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>SAT</t>
+        </is>
+      </c>
+      <c r="D292" t="n">
         <v>29.429461</v>
       </c>
-      <c r="D292" t="n">
+      <c r="E292" t="n">
         <v>-98.487061</v>
       </c>
-      <c r="E292" t="inlineStr">
+      <c r="F292" t="inlineStr">
         <is>
           <t>US</t>
         </is>
       </c>
-      <c r="F292" t="inlineStr">
+      <c r="G292" t="inlineStr">
         <is>
           <t>North America</t>
         </is>
       </c>
-      <c r="G292" t="inlineStr">
+      <c r="H292" t="inlineStr">
         <is>
           <t>San Antonio</t>
         </is>
@@ -9684,23 +11044,28 @@
           <t>Adelaide, SA, Australia</t>
         </is>
       </c>
-      <c r="C293" t="n">
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>ADL</t>
+        </is>
+      </c>
+      <c r="D293" t="n">
         <v>-34.9431729</v>
       </c>
-      <c r="D293" t="n">
+      <c r="E293" t="n">
         <v>138.5335637</v>
       </c>
-      <c r="E293" t="inlineStr">
+      <c r="F293" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F293" t="inlineStr">
+      <c r="G293" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G293" t="inlineStr">
+      <c r="H293" t="inlineStr">
         <is>
           <t>Adelaide</t>
         </is>
@@ -9717,23 +11082,28 @@
           <t>Auckland, New Zealand</t>
         </is>
       </c>
-      <c r="C294" t="n">
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>AKL</t>
+        </is>
+      </c>
+      <c r="D294" t="n">
         <v>-37.0080986023</v>
       </c>
-      <c r="D294" t="n">
+      <c r="E294" t="n">
         <v>174.792007446</v>
       </c>
-      <c r="E294" t="inlineStr">
+      <c r="F294" t="inlineStr">
         <is>
           <t>NZ</t>
         </is>
       </c>
-      <c r="F294" t="inlineStr">
+      <c r="G294" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G294" t="inlineStr">
+      <c r="H294" t="inlineStr">
         <is>
           <t>Auckland</t>
         </is>
@@ -9750,23 +11120,28 @@
           <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
-      <c r="C295" t="n">
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>BNE</t>
+        </is>
+      </c>
+      <c r="D295" t="n">
         <v>-27.3841991425</v>
       </c>
-      <c r="D295" t="n">
+      <c r="E295" t="n">
         <v>153.117004394</v>
       </c>
-      <c r="E295" t="inlineStr">
+      <c r="F295" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F295" t="inlineStr">
+      <c r="G295" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G295" t="inlineStr">
+      <c r="H295" t="inlineStr">
         <is>
           <t>Brisbane</t>
         </is>
@@ -9783,23 +11158,28 @@
           <t>Canberra, ACT, Australia</t>
         </is>
       </c>
-      <c r="C296" t="n">
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>CBR</t>
+        </is>
+      </c>
+      <c r="D296" t="n">
         <v>-35.3069000244</v>
       </c>
-      <c r="D296" t="n">
+      <c r="E296" t="n">
         <v>149.1950073242</v>
       </c>
-      <c r="E296" t="inlineStr">
+      <c r="F296" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F296" t="inlineStr">
+      <c r="G296" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G296" t="inlineStr">
+      <c r="H296" t="inlineStr">
         <is>
           <t>Canberra</t>
         </is>
@@ -9816,23 +11196,28 @@
           <t>Christchurch, New Zealand</t>
         </is>
       </c>
-      <c r="C297" t="n">
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>CHC</t>
+        </is>
+      </c>
+      <c r="D297" t="n">
         <v>-43.4893989563</v>
       </c>
-      <c r="D297" t="n">
+      <c r="E297" t="n">
         <v>172.5319976807</v>
       </c>
-      <c r="E297" t="inlineStr">
+      <c r="F297" t="inlineStr">
         <is>
           <t>NZ</t>
         </is>
       </c>
-      <c r="F297" t="inlineStr">
+      <c r="G297" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G297" t="inlineStr">
+      <c r="H297" t="inlineStr">
         <is>
           <t>Christchurch</t>
         </is>
@@ -9849,23 +11234,28 @@
           <t>Hagatna, Guam</t>
         </is>
       </c>
-      <c r="C298" t="n">
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>GUM</t>
+        </is>
+      </c>
+      <c r="D298" t="n">
         <v>13.4834003448</v>
       </c>
-      <c r="D298" t="n">
+      <c r="E298" t="n">
         <v>144.796005249</v>
       </c>
-      <c r="E298" t="inlineStr">
+      <c r="F298" t="inlineStr">
         <is>
           <t>GU</t>
         </is>
       </c>
-      <c r="F298" t="inlineStr">
+      <c r="G298" t="inlineStr">
         <is>
           <t>Asia Pacific</t>
         </is>
       </c>
-      <c r="G298" t="inlineStr">
+      <c r="H298" t="inlineStr">
         <is>
           <t>Hagatna</t>
         </is>
@@ -9882,23 +11272,28 @@
           <t>Hobart, Australia</t>
         </is>
       </c>
-      <c r="C299" t="n">
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>HBA</t>
+        </is>
+      </c>
+      <c r="D299" t="n">
         <v>-42.883209</v>
       </c>
-      <c r="D299" t="n">
+      <c r="E299" t="n">
         <v>147.331665</v>
       </c>
-      <c r="E299" t="inlineStr">
+      <c r="F299" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F299" t="inlineStr">
+      <c r="G299" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G299" t="inlineStr">
+      <c r="H299" t="inlineStr">
         <is>
           <t>Hobart</t>
         </is>
@@ -9915,23 +11310,28 @@
           <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
-      <c r="C300" t="n">
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>MEL</t>
+        </is>
+      </c>
+      <c r="D300" t="n">
         <v>-37.6733016968</v>
       </c>
-      <c r="D300" t="n">
+      <c r="E300" t="n">
         <v>144.843002319</v>
       </c>
-      <c r="E300" t="inlineStr">
+      <c r="F300" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F300" t="inlineStr">
+      <c r="G300" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G300" t="inlineStr">
+      <c r="H300" t="inlineStr">
         <is>
           <t>Melbourne</t>
         </is>
@@ -9948,23 +11348,28 @@
           <t>Noumea, New Caledonia</t>
         </is>
       </c>
-      <c r="C301" t="n">
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>NOU</t>
+        </is>
+      </c>
+      <c r="D301" t="n">
         <v>-22.0146007538</v>
       </c>
-      <c r="D301" t="n">
+      <c r="E301" t="n">
         <v>166.212997436</v>
       </c>
-      <c r="E301" t="inlineStr">
+      <c r="F301" t="inlineStr">
         <is>
           <t>NC</t>
         </is>
       </c>
-      <c r="F301" t="inlineStr">
+      <c r="G301" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G301" t="inlineStr">
+      <c r="H301" t="inlineStr">
         <is>
           <t>Noumea</t>
         </is>
@@ -9981,23 +11386,28 @@
           <t>Perth, WA, Australia</t>
         </is>
       </c>
-      <c r="C302" t="n">
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D302" t="n">
         <v>-31.9402999878</v>
       </c>
-      <c r="D302" t="n">
+      <c r="E302" t="n">
         <v>115.967002869</v>
       </c>
-      <c r="E302" t="inlineStr">
+      <c r="F302" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F302" t="inlineStr">
+      <c r="G302" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G302" t="inlineStr">
+      <c r="H302" t="inlineStr">
         <is>
           <t>Perth</t>
         </is>
@@ -10014,23 +11424,28 @@
           <t>Sydney, NSW, Australia</t>
         </is>
       </c>
-      <c r="C303" t="n">
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D303" t="n">
         <v>-33.9460983276</v>
       </c>
-      <c r="D303" t="n">
+      <c r="E303" t="n">
         <v>151.177001953</v>
       </c>
-      <c r="E303" t="inlineStr">
+      <c r="F303" t="inlineStr">
         <is>
           <t>AU</t>
         </is>
       </c>
-      <c r="F303" t="inlineStr">
+      <c r="G303" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G303" t="inlineStr">
+      <c r="H303" t="inlineStr">
         <is>
           <t>Sydney</t>
         </is>
@@ -10047,23 +11462,28 @@
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C304" t="n">
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>PPT</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="D304" t="n">
+      <c r="E304" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="E304" t="inlineStr">
+      <c r="F304" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="F304" t="inlineStr">
+      <c r="G304" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
+      <c r="H304" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H304"/>
+  <dimension ref="A1:H305"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8148,66 +8148,66 @@
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Chapeco, Brazil</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>31.7226009369</v>
+        <v>-27.1341991425</v>
       </c>
       <c r="E217" t="n">
-        <v>35.9931983948</v>
+        <v>-52.6566009521</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Chapeco</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Astara, Azerbaijan</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>38.7463989258</v>
+        <v>31.7226009369</v>
       </c>
       <c r="E218" t="n">
-        <v>48.8180007935</v>
+        <v>35.9931983948</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
@@ -8217,35 +8217,35 @@
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Astara</t>
+          <t>Amman</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Baghdad, Iraq</t>
+          <t>Astara, Azerbaijan</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>33.2625007629</v>
+        <v>38.7463989258</v>
       </c>
       <c r="E219" t="n">
-        <v>44.2346000671</v>
+        <v>48.8180007935</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8255,35 +8255,35 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Astara</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Baku, Azerbaijan</t>
+          <t>Baghdad, Iraq</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>40.4674987793</v>
+        <v>33.2625007629</v>
       </c>
       <c r="E220" t="n">
-        <v>50.0466995239</v>
+        <v>44.2346000671</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8293,35 +8293,35 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Baghdad</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Basra, Iraq</t>
+          <t>Baku, Azerbaijan</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>30.5491008759</v>
+        <v>40.4674987793</v>
       </c>
       <c r="E221" t="n">
-        <v>47.6621017456</v>
+        <v>50.0466995239</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8331,35 +8331,35 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Basra</t>
+          <t>Baku</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Beirut, Lebanon</t>
+          <t>Basra, Iraq</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>33.8208999634</v>
+        <v>30.5491008759</v>
       </c>
       <c r="E222" t="n">
-        <v>35.4883995056</v>
+        <v>47.6621017456</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8369,35 +8369,35 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Basra</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Dammam, Saudi Arabia</t>
+          <t>Beirut, Lebanon</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>26.471200943</v>
+        <v>33.8208999634</v>
       </c>
       <c r="E223" t="n">
-        <v>49.7979011536</v>
+        <v>35.4883995056</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8407,35 +8407,35 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Dammam</t>
+          <t>Beirut</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Doha, Qatar</t>
+          <t>Dammam, Saudi Arabia</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>25.2605946</v>
+        <v>26.471200943</v>
       </c>
       <c r="E224" t="n">
-        <v>51.6137665</v>
+        <v>49.7979011536</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8445,35 +8445,35 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Doha</t>
+          <t>Dammam</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Doha, Qatar</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>25.2527999878</v>
+        <v>25.2605946</v>
       </c>
       <c r="E225" t="n">
-        <v>55.3643989563</v>
+        <v>51.6137665</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8483,35 +8483,35 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Doha</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Erbil, Iraq</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>36.1901</v>
+        <v>25.2527999878</v>
       </c>
       <c r="E226" t="n">
-        <v>43.993</v>
+        <v>55.3643989563</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8521,35 +8521,35 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Dubai</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Haifa, Israel</t>
+          <t>Erbil, Iraq</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>32.78492</v>
+        <v>36.1901</v>
       </c>
       <c r="E227" t="n">
-        <v>34.96069</v>
+        <v>43.993</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8559,35 +8559,35 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Erbil</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Jeddah, Saudi Arabia</t>
+          <t>Haifa, Israel</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>21.679599762</v>
+        <v>32.78492</v>
       </c>
       <c r="E228" t="n">
-        <v>39.15650177</v>
+        <v>34.96069</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8597,35 +8597,35 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Haifa</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Kuwait City, Kuwait</t>
+          <t>Jeddah, Saudi Arabia</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>29.226600647</v>
+        <v>21.679599762</v>
       </c>
       <c r="E229" t="n">
-        <v>47.9688987732</v>
+        <v>39.15650177</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8635,35 +8635,35 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Kuwait City</t>
+          <t>Jeddah</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Manama, Bahrain</t>
+          <t>Kuwait City, Kuwait</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>26.2707996368</v>
+        <v>29.226600647</v>
       </c>
       <c r="E230" t="n">
-        <v>50.6335983276</v>
+        <v>47.9688987732</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8673,35 +8673,35 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Manama</t>
+          <t>Kuwait City</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Muscat, Oman</t>
+          <t>Manama, Bahrain</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>23.5932998657</v>
+        <v>26.2707996368</v>
       </c>
       <c r="E231" t="n">
-        <v>58.2844009399</v>
+        <v>50.6335983276</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8711,35 +8711,35 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Muscat</t>
+          <t>Manama</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Najaf, Iraq</t>
+          <t>Muscat, Oman</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>31.989722</v>
+        <v>23.5932998657</v>
       </c>
       <c r="E232" t="n">
-        <v>44.404167</v>
+        <v>58.2844009399</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8749,31 +8749,31 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Najaf</t>
+          <t>Muscat</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Nasiriyah, Iraq</t>
+          <t>Najaf, Iraq</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>30.9358005524</v>
+        <v>31.989722</v>
       </c>
       <c r="E233" t="n">
-        <v>46.0900993347</v>
+        <v>44.404167</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
@@ -8787,35 +8787,35 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Nasiriyah</t>
+          <t>Najaf</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah, Iraq</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>32.2719</v>
+        <v>30.9358005524</v>
       </c>
       <c r="E234" t="n">
-        <v>35.0194</v>
+        <v>46.0900993347</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8825,35 +8825,35 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Riyadh, Saudi Arabia</t>
+          <t>Ramallah</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>24.9575996399</v>
+        <v>32.2719</v>
       </c>
       <c r="E235" t="n">
-        <v>46.6987991333</v>
+        <v>35.0194</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8863,35 +8863,35 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Riyadh</t>
+          <t>Ramallah</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Sulaymaniyah, Iraq</t>
+          <t>Riyadh, Saudi Arabia</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>35.5668</v>
+        <v>24.9575996399</v>
       </c>
       <c r="E236" t="n">
-        <v>45.4161</v>
+        <v>46.6987991333</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8901,35 +8901,35 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Sulaymaniyah</t>
+          <t>Riyadh</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Tel Aviv, Israel</t>
+          <t>Sulaymaniyah, Iraq</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>32.0113983154</v>
+        <v>35.5668</v>
       </c>
       <c r="E237" t="n">
-        <v>34.8866996765</v>
+        <v>45.4161</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8939,69 +8939,69 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Tel Aviv</t>
+          <t>Sulaymaniyah</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Tel Aviv, Israel</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>38.94449997</v>
+        <v>32.0113983154</v>
       </c>
       <c r="E238" t="n">
-        <v>-77.45580292</v>
+        <v>34.8866996765</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>33.6366996765</v>
+        <v>38.94449997</v>
       </c>
       <c r="E239" t="n">
-        <v>-84.4281005859</v>
+        <v>-77.45580292</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
@@ -9015,31 +9015,31 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ashburn</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>42.36429977</v>
+        <v>33.6366996765</v>
       </c>
       <c r="E240" t="n">
-        <v>-71.00520324999999</v>
+        <v>-84.4281005859</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9053,31 +9053,31 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>42.94049835</v>
+        <v>42.36429977</v>
       </c>
       <c r="E241" t="n">
-        <v>-78.73220062</v>
+        <v>-71.00520324999999</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9091,35 +9091,35 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>51.113899231</v>
+        <v>42.94049835</v>
       </c>
       <c r="E242" t="n">
-        <v>-114.019996643</v>
+        <v>-78.73220062</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9129,35 +9129,35 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Buffalo</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>35.2140007019</v>
+        <v>51.113899231</v>
       </c>
       <c r="E243" t="n">
-        <v>-80.94309997560001</v>
+        <v>-114.019996643</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9167,31 +9167,31 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Calgary</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>41.97859955</v>
+        <v>35.2140007019</v>
       </c>
       <c r="E244" t="n">
-        <v>-87.90480042</v>
+        <v>-80.94309997560001</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9205,31 +9205,31 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>39.9980010986</v>
+        <v>41.97859955</v>
       </c>
       <c r="E245" t="n">
-        <v>-82.89189910890001</v>
+        <v>-87.90480042</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9243,31 +9243,31 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Chicago</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>32.8968009949</v>
+        <v>39.9980010986</v>
       </c>
       <c r="E246" t="n">
-        <v>-97.0380020142</v>
+        <v>-82.89189910890001</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -9281,31 +9281,31 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Columbus</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>39.8616981506</v>
+        <v>32.8968009949</v>
       </c>
       <c r="E247" t="n">
-        <v>-104.672996521</v>
+        <v>-97.0380020142</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -9319,31 +9319,31 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>42.2123985291</v>
+        <v>39.8616981506</v>
       </c>
       <c r="E248" t="n">
-        <v>-83.35340118409999</v>
+        <v>-104.672996521</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -9357,31 +9357,31 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>21.3187007904</v>
+        <v>42.2123985291</v>
       </c>
       <c r="E249" t="n">
-        <v>-157.9219970703</v>
+        <v>-83.35340118409999</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -9395,31 +9395,31 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>29.9843997955</v>
+        <v>21.3187007904</v>
       </c>
       <c r="E250" t="n">
-        <v>-95.34140014650001</v>
+        <v>-157.9219970703</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -9433,31 +9433,31 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Honolulu</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>39.717300415</v>
+        <v>29.9843997955</v>
       </c>
       <c r="E251" t="n">
-        <v>-86.2944030762</v>
+        <v>-95.34140014650001</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -9471,31 +9471,31 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>30.4941005707</v>
+        <v>39.717300415</v>
       </c>
       <c r="E252" t="n">
-        <v>-81.68789672849999</v>
+        <v>-86.2944030762</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -9509,31 +9509,31 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Indianapolis</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>39.2975997925</v>
+        <v>30.4941005707</v>
       </c>
       <c r="E253" t="n">
-        <v>-94.7138977051</v>
+        <v>-81.68789672849999</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9547,31 +9547,31 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Jacksonville</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>36.08010101</v>
+        <v>39.2975997925</v>
       </c>
       <c r="E254" t="n">
-        <v>-115.1520004</v>
+        <v>-94.7138977051</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -9585,31 +9585,31 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Kansas City</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>33.94250107</v>
+        <v>36.08010101</v>
       </c>
       <c r="E255" t="n">
-        <v>-118.4079971</v>
+        <v>-115.1520004</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9623,31 +9623,31 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Las Vegas</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>26.17580032</v>
+        <v>33.94250107</v>
       </c>
       <c r="E256" t="n">
-        <v>-98.23860168</v>
+        <v>-118.4079971</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -9661,31 +9661,31 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>35.0424003601</v>
+        <v>26.17580032</v>
       </c>
       <c r="E257" t="n">
-        <v>-89.9766998291</v>
+        <v>-98.23860168</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9699,35 +9699,35 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>McAllen</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>19.4363002777</v>
+        <v>35.0424003601</v>
       </c>
       <c r="E258" t="n">
-        <v>-99.07209777830001</v>
+        <v>-89.9766998291</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G258" t="inlineStr">
@@ -9737,35 +9737,35 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>25.7931995392</v>
+        <v>19.4363002777</v>
       </c>
       <c r="E259" t="n">
-        <v>-80.2906036377</v>
+        <v>-99.07209777830001</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9775,31 +9775,31 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mexico City</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>44.8819999695</v>
+        <v>25.7931995392</v>
       </c>
       <c r="E260" t="n">
-        <v>-93.22180175779999</v>
+        <v>-80.2906036377</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9813,31 +9813,31 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Miami</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Montgomery, AL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>32.30059814</v>
+        <v>44.8819999695</v>
       </c>
       <c r="E261" t="n">
-        <v>-86.39399718999999</v>
+        <v>-93.22180175779999</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9851,35 +9851,35 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Minneapolis</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Montgomery, AL, United States</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>45.4706001282</v>
+        <v>32.30059814</v>
       </c>
       <c r="E262" t="n">
-        <v>-73.7407989502</v>
+        <v>-86.39399718999999</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9889,35 +9889,35 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Montgomery</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>36.1245002747</v>
+        <v>45.4706001282</v>
       </c>
       <c r="E263" t="n">
-        <v>-86.6781997681</v>
+        <v>-73.7407989502</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9927,31 +9927,31 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>40.6925010681</v>
+        <v>36.1245002747</v>
       </c>
       <c r="E264" t="n">
-        <v>-74.1687011719</v>
+        <v>-86.6781997681</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -9965,31 +9965,31 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Nashville</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>36.8945999146</v>
+        <v>40.6925010681</v>
       </c>
       <c r="E265" t="n">
-        <v>-76.2012023926</v>
+        <v>-74.1687011719</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -10003,31 +10003,31 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>41.3031997681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="E266" t="n">
-        <v>-95.89409637449999</v>
+        <v>-76.2012023926</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -10041,35 +10041,35 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Norfolk</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>45.3224983215</v>
+        <v>41.3031997681</v>
       </c>
       <c r="E267" t="n">
-        <v>-75.66919708250001</v>
+        <v>-95.89409637449999</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10079,35 +10079,35 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>39.8718986511</v>
+        <v>45.3224983215</v>
       </c>
       <c r="E268" t="n">
-        <v>-75.24109649659999</v>
+        <v>-75.66919708250001</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10117,31 +10117,31 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>33.434299469</v>
+        <v>39.8718986511</v>
       </c>
       <c r="E269" t="n">
-        <v>-112.012001038</v>
+        <v>-75.24109649659999</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -10155,31 +10155,31 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>40.49150085</v>
+        <v>33.434299469</v>
       </c>
       <c r="E270" t="n">
-        <v>-80.23290253</v>
+        <v>-112.012001038</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10193,31 +10193,31 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>45.58869934</v>
+        <v>40.49150085</v>
       </c>
       <c r="E271" t="n">
-        <v>-122.5979996</v>
+        <v>-80.23290253</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -10231,35 +10231,35 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>20.6173000336</v>
+        <v>45.58869934</v>
       </c>
       <c r="E272" t="n">
-        <v>-100.185997009</v>
+        <v>-122.5979996</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10269,35 +10269,35 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Portland</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>37.5051994324</v>
+        <v>20.6173000336</v>
       </c>
       <c r="E273" t="n">
-        <v>-77.3197021484</v>
+        <v>-100.185997009</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10307,31 +10307,31 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Queretaro</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>38.695400238</v>
+        <v>37.5051994324</v>
       </c>
       <c r="E274" t="n">
-        <v>-121.591003418</v>
+        <v>-77.3197021484</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -10345,31 +10345,31 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Richmond</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>40.7883987427</v>
+        <v>38.695400238</v>
       </c>
       <c r="E275" t="n">
-        <v>-111.977996826</v>
+        <v>-121.591003418</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -10383,31 +10383,31 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Sacramento</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>32.7336006165</v>
+        <v>40.7883987427</v>
       </c>
       <c r="E276" t="n">
-        <v>-117.190002441</v>
+        <v>-111.977996826</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -10421,31 +10421,31 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>37.3625984192</v>
+        <v>32.7336006165</v>
       </c>
       <c r="E277" t="n">
-        <v>-121.929000855</v>
+        <v>-117.190002441</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -10459,35 +10459,35 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Diego</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>52.1707992554</v>
+        <v>37.3625984192</v>
       </c>
       <c r="E278" t="n">
-        <v>-106.699996948</v>
+        <v>-121.929000855</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10497,35 +10497,35 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>San Jose</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>47.4490013123</v>
+        <v>52.1707992554</v>
       </c>
       <c r="E279" t="n">
-        <v>-122.308998108</v>
+        <v>-106.699996948</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10535,31 +10535,31 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Saskatoon</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>43.540819819502</v>
+        <v>47.4490013123</v>
       </c>
       <c r="E280" t="n">
-        <v>-96.65511577730963</v>
+        <v>-122.308998108</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -10573,31 +10573,31 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>Seattle</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>38.7486991882</v>
+        <v>43.540819819502</v>
       </c>
       <c r="E281" t="n">
-        <v>-90.37000274659999</v>
+        <v>-96.65511577730963</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -10611,31 +10611,31 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>30.3964996338</v>
+        <v>38.7486991882</v>
       </c>
       <c r="E282" t="n">
-        <v>-84.3503036499</v>
+        <v>-90.37000274659999</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -10649,35 +10649,35 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>St. Louis</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>43.6772003174</v>
+        <v>30.3964996338</v>
       </c>
       <c r="E283" t="n">
-        <v>-79.63059997560001</v>
+        <v>-84.3503036499</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10687,31 +10687,31 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Tallahassee</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>49.193901062</v>
+        <v>43.6772003174</v>
       </c>
       <c r="E284" t="n">
-        <v>-123.183998108</v>
+        <v>-79.63059997560001</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -10725,31 +10725,31 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>49.9099998474</v>
+        <v>49.193901062</v>
       </c>
       <c r="E285" t="n">
-        <v>-97.2398986816</v>
+        <v>-123.183998108</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -10763,35 +10763,35 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Vancouver</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>37.6189994812</v>
+        <v>49.9099998474</v>
       </c>
       <c r="E286" t="n">
-        <v>-122.375</v>
+        <v>-97.2398986816</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G286" t="inlineStr">
@@ -10801,35 +10801,35 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>17.9951</v>
+        <v>37.6189994812</v>
       </c>
       <c r="E287" t="n">
-        <v>-76.7846</v>
+        <v>-122.375</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10839,35 +10839,35 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>44.8081</v>
+        <v>17.9951</v>
       </c>
       <c r="E288" t="n">
-        <v>-68.795</v>
+        <v>-76.7846</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10877,31 +10877,31 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>30.1975</v>
+        <v>44.8081</v>
       </c>
       <c r="E289" t="n">
-        <v>-97.6664</v>
+        <v>-68.795</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -10915,31 +10915,31 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>35.0844</v>
+        <v>30.1975</v>
       </c>
       <c r="E290" t="n">
-        <v>-106.6504</v>
+        <v>-97.6664</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -10953,35 +10953,35 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>20.5217990875</v>
+        <v>35.0844</v>
       </c>
       <c r="E291" t="n">
-        <v>-103.3109970093</v>
+        <v>-106.6504</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10991,35 +10991,35 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>29.429461</v>
+        <v>20.5217990875</v>
       </c>
       <c r="E292" t="n">
-        <v>-98.487061</v>
+        <v>-103.3109970093</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11029,73 +11029,73 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>-34.9431729</v>
+        <v>29.429461</v>
       </c>
       <c r="E293" t="n">
-        <v>138.5335637</v>
+        <v>-98.487061</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>San Antonio</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-37.0080986023</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E294" t="n">
-        <v>174.792007446</v>
+        <v>138.5335637</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
@@ -11105,35 +11105,35 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>-27.3841991425</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E295" t="n">
-        <v>153.117004394</v>
+        <v>174.792007446</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -11143,31 +11143,31 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-35.3069000244</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E296" t="n">
-        <v>149.1950073242</v>
+        <v>153.117004394</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
@@ -11181,35 +11181,35 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-43.4893989563</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E297" t="n">
-        <v>172.5319976807</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -11219,107 +11219,107 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>13.4834003448</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E298" t="n">
-        <v>144.796005249</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-42.883209</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E299" t="n">
-        <v>147.331665</v>
+        <v>144.796005249</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-37.6733016968</v>
+        <v>-42.883209</v>
       </c>
       <c r="E300" t="n">
-        <v>144.843002319</v>
+        <v>147.331665</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -11333,35 +11333,35 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-22.0146007538</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E301" t="n">
-        <v>166.212997436</v>
+        <v>144.843002319</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11371,35 +11371,35 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-31.9402999878</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E302" t="n">
-        <v>115.967002869</v>
+        <v>166.212997436</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11409,31 +11409,31 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-33.9460983276</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E303" t="n">
-        <v>151.177001953</v>
+        <v>115.967002869</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
@@ -11447,43 +11447,81 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D304" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E304" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F304" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B304" t="inlineStr">
+      <c r="B305" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C304" t="inlineStr">
+      <c r="C305" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D304" t="n">
+      <c r="D305" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E304" t="n">
+      <c r="E305" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F304" t="inlineStr">
+      <c r="F305" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G304" t="inlineStr">
+      <c r="G305" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
+      <c r="H305" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H305"/>
+  <dimension ref="A1:H306"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4082,66 +4082,46 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>WUX</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Amsterdam, Netherlands</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>AMS</t>
-        </is>
-      </c>
-      <c r="D110" t="n">
-        <v>52.3086013794</v>
-      </c>
-      <c r="E110" t="n">
-        <v>4.7638897896</v>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
+          <t>Wuxi, China</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr"/>
+      <c r="F110" t="inlineStr"/>
+      <c r="G110" t="inlineStr"/>
+      <c r="H110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="D111" t="n">
-        <v>37.9364013672</v>
+        <v>52.3086013794</v>
       </c>
       <c r="E111" t="n">
-        <v>23.9444999695</v>
+        <v>4.7638897896</v>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
@@ -4151,35 +4131,35 @@
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Amsterdam</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Barcelona, Spain</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="D112" t="n">
-        <v>41.2971000671</v>
+        <v>37.9364013672</v>
       </c>
       <c r="E112" t="n">
-        <v>2.0784599781</v>
+        <v>23.9444999695</v>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4189,35 +4169,35 @@
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Athens</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Barcelona, Spain</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>44.8184013367</v>
+        <v>41.2971000671</v>
       </c>
       <c r="E113" t="n">
-        <v>20.3090991974</v>
+        <v>2.0784599781</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4227,35 +4207,35 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>52.5597000122</v>
+        <v>44.8184013367</v>
       </c>
       <c r="E114" t="n">
-        <v>13.2876996994</v>
+        <v>20.3090991974</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4265,35 +4245,35 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Belgrade</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Bratislava, Slovakia</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>48.1486</v>
+        <v>52.5597000122</v>
       </c>
       <c r="E115" t="n">
-        <v>17.1077</v>
+        <v>13.2876996994</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4303,35 +4283,35 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bratislava, Slovakia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>50.9014015198</v>
+        <v>48.1486</v>
       </c>
       <c r="E116" t="n">
-        <v>4.4844398499</v>
+        <v>17.1077</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4341,35 +4321,35 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bratislava</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>44.5722007751</v>
+        <v>50.9014015198</v>
       </c>
       <c r="E117" t="n">
-        <v>26.1021995544</v>
+        <v>4.4844398499</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4379,35 +4359,35 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Brussels</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>47.4369010925</v>
+        <v>44.5722007751</v>
       </c>
       <c r="E118" t="n">
-        <v>19.2555999756</v>
+        <v>26.1021995544</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4417,35 +4397,35 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Bucharest</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Chișinău, Moldova</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>46.9277000427</v>
+        <v>47.4369010925</v>
       </c>
       <c r="E119" t="n">
-        <v>28.9309997559</v>
+        <v>19.2555999756</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4455,35 +4435,35 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Budapest</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Copenhagen, Denmark</t>
+          <t>Chișinău, Moldova</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>55.6179008484</v>
+        <v>46.9277000427</v>
       </c>
       <c r="E120" t="n">
-        <v>12.6560001373</v>
+        <v>28.9309997559</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4493,35 +4473,35 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Chișinău</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Cork, Ireland</t>
+          <t>Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>51.8413009644</v>
+        <v>55.6179008484</v>
       </c>
       <c r="E121" t="n">
-        <v>-8.491109848000001</v>
+        <v>12.6560001373</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4531,31 +4511,31 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Copenhagen</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Cork, Ireland</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>53.4212989807</v>
+        <v>51.8413009644</v>
       </c>
       <c r="E122" t="n">
-        <v>-6.270070076</v>
+        <v>-8.491109848000001</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
@@ -4569,35 +4549,35 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Cork</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Düsseldorf, Germany</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>51.2895011902</v>
+        <v>53.4212989807</v>
       </c>
       <c r="E123" t="n">
-        <v>6.7667798996</v>
+        <v>-6.270070076</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4607,35 +4587,35 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Dublin</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Edinburgh, United Kingdom</t>
+          <t>Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>55.9500007629</v>
+        <v>51.2895011902</v>
       </c>
       <c r="E124" t="n">
-        <v>-3.3724999428</v>
+        <v>6.7667798996</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4645,35 +4625,35 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Frankfurt, Germany</t>
+          <t>Edinburgh, United Kingdom</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>50.0264015198</v>
+        <v>55.9500007629</v>
       </c>
       <c r="E125" t="n">
-        <v>8.543129921</v>
+        <v>-3.3724999428</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4683,35 +4663,35 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Edinburgh</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Geneva, Switzerland</t>
+          <t>Frankfurt, Germany</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>46.2380981445</v>
+        <v>50.0264015198</v>
       </c>
       <c r="E126" t="n">
-        <v>6.1089501381</v>
+        <v>8.543129921</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4721,35 +4701,35 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Geneva</t>
+          <t>Frankfurt</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>57.6627998352</v>
+        <v>46.2380981445</v>
       </c>
       <c r="E127" t="n">
-        <v>12.279800415</v>
+        <v>6.1089501381</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4759,35 +4739,35 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Geneva</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Hamburg, Germany</t>
+          <t>Gothenburg, Sweden</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>53.6304016113</v>
+        <v>57.6627998352</v>
       </c>
       <c r="E128" t="n">
-        <v>9.9882297516</v>
+        <v>12.279800415</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4797,35 +4777,35 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Gothenburg</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Helsinki, Finland</t>
+          <t>Hamburg, Germany</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>60.317199707</v>
+        <v>53.6304016113</v>
       </c>
       <c r="E129" t="n">
-        <v>24.963300705</v>
+        <v>9.9882297516</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4835,35 +4815,35 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>40.9768981934</v>
+        <v>60.317199707</v>
       </c>
       <c r="E130" t="n">
-        <v>28.8145999908</v>
+        <v>24.963300705</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4873,31 +4853,31 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Helsinki</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Izmir, Turkey</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>38.32377</v>
+        <v>40.9768981934</v>
       </c>
       <c r="E131" t="n">
-        <v>27.14317</v>
+        <v>28.8145999908</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
@@ -4911,35 +4891,35 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Istanbul</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Kyiv, Ukraine</t>
+          <t>Izmir, Turkey</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>50.3450012207</v>
+        <v>38.32377</v>
       </c>
       <c r="E132" t="n">
-        <v>30.8946990967</v>
+        <v>27.14317</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4949,35 +4929,35 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Izmir</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Lisbon, Portugal</t>
+          <t>Kyiv, Ukraine</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>38.7812995911</v>
+        <v>50.3450012207</v>
       </c>
       <c r="E133" t="n">
-        <v>-9.135919570900001</v>
+        <v>30.8946990967</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4987,35 +4967,35 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Kyiv</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Lisbon, Portugal</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>51.4706001282</v>
+        <v>38.7812995911</v>
       </c>
       <c r="E134" t="n">
-        <v>-0.4619410038</v>
+        <v>-9.135919570900001</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5025,35 +5005,35 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Lisbon</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Luxembourg City, Luxembourg</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>49.6265983582</v>
+        <v>51.4706001282</v>
       </c>
       <c r="E135" t="n">
-        <v>6.211520195</v>
+        <v>-0.4619410038</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5063,35 +5043,35 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Luxembourg City</t>
+          <t>London</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>40.4936</v>
+        <v>49.6265983582</v>
       </c>
       <c r="E136" t="n">
-        <v>-3.56676</v>
+        <v>6.211520195</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5101,35 +5081,35 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Luxembourg City</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Manchester, United Kingdom</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>53.3536987305</v>
+        <v>40.4936</v>
       </c>
       <c r="E137" t="n">
-        <v>-2.2749500275</v>
+        <v>-3.56676</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5139,35 +5119,35 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Madrid</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Marseille, France</t>
+          <t>Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>43.439271922</v>
+        <v>53.3536987305</v>
       </c>
       <c r="E138" t="n">
-        <v>5.2214241028</v>
+        <v>-2.2749500275</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5177,35 +5157,35 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Manchester</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Marseille, France</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>45.6305999756</v>
+        <v>43.439271922</v>
       </c>
       <c r="E139" t="n">
-        <v>8.7281103134</v>
+        <v>5.2214241028</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5215,35 +5195,35 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Marseille</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Minsk, Belarus</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>53.9006</v>
+        <v>45.6305999756</v>
       </c>
       <c r="E140" t="n">
-        <v>27.599</v>
+        <v>8.7281103134</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5253,35 +5233,35 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Milan</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Minsk, Belarus</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>55.4087982178</v>
+        <v>53.9006</v>
       </c>
       <c r="E141" t="n">
-        <v>37.9062995911</v>
+        <v>27.599</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5291,35 +5271,35 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Minsk</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Munich, Germany</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>48.3538017273</v>
+        <v>55.4087982178</v>
       </c>
       <c r="E142" t="n">
-        <v>11.7861003876</v>
+        <v>37.9062995911</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5329,35 +5309,35 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Nicosia, Cyprus</t>
+          <t>Munich, Germany</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>34.8750991821</v>
+        <v>48.3538017273</v>
       </c>
       <c r="E143" t="n">
-        <v>33.6249008179</v>
+        <v>11.7861003876</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5367,35 +5347,35 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Oslo, Norway</t>
+          <t>Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>60.193901062</v>
+        <v>34.8750991821</v>
       </c>
       <c r="E144" t="n">
-        <v>11.100399971</v>
+        <v>33.6249008179</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5405,35 +5385,35 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Nicosia</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Palermo, Italy</t>
+          <t>Oslo, Norway</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>38.16114</v>
+        <v>60.193901062</v>
       </c>
       <c r="E145" t="n">
-        <v>13.31546</v>
+        <v>11.100399971</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5443,35 +5423,35 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Palermo, Italy</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>49.0127983093</v>
+        <v>38.16114</v>
       </c>
       <c r="E146" t="n">
-        <v>2.5499999523</v>
+        <v>13.31546</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5481,35 +5461,35 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Palermo</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>50.1007995605</v>
+        <v>49.0127983093</v>
       </c>
       <c r="E147" t="n">
-        <v>14.2600002289</v>
+        <v>2.5499999523</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5519,35 +5499,35 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Reykjavík, Iceland</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>63.9850006104</v>
+        <v>50.1007995605</v>
       </c>
       <c r="E148" t="n">
-        <v>-22.6056003571</v>
+        <v>14.2600002289</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5557,35 +5537,35 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>Prague</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Riga, Latvia</t>
+          <t>Reykjavík, Iceland</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>56.9235992432</v>
+        <v>63.9850006104</v>
       </c>
       <c r="E149" t="n">
-        <v>23.9710998535</v>
+        <v>-22.6056003571</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5595,35 +5575,35 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Reykjavík</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Rome, Italy</t>
+          <t>Riga, Latvia</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>41.8045005798</v>
+        <v>56.9235992432</v>
       </c>
       <c r="E150" t="n">
-        <v>12.2508001328</v>
+        <v>23.9710998535</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5633,35 +5613,35 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Riga</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>59.8003005981</v>
+        <v>41.8045005798</v>
       </c>
       <c r="E151" t="n">
-        <v>30.2625007629</v>
+        <v>12.2508001328</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5671,35 +5651,35 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Rome</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Sofia, Bulgaria</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>42.6966934204</v>
+        <v>59.8003005981</v>
       </c>
       <c r="E152" t="n">
-        <v>23.4114360809</v>
+        <v>30.2625007629</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5709,35 +5689,35 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>59.6519012451</v>
+        <v>42.6966934204</v>
       </c>
       <c r="E153" t="n">
-        <v>17.9186000824</v>
+        <v>23.4114360809</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5747,35 +5727,35 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Stuttgart, Germany</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>48.783333</v>
+        <v>59.6519012451</v>
       </c>
       <c r="E154" t="n">
-        <v>9.183332999999999</v>
+        <v>17.9186000824</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5785,35 +5765,35 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Tallinn, Estonia</t>
+          <t>Stuttgart, Germany</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>59.4132995605</v>
+        <v>48.783333</v>
       </c>
       <c r="E155" t="n">
-        <v>24.8327999115</v>
+        <v>9.183332999999999</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5823,35 +5803,35 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Stuttgart</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tbilisi, Georgia</t>
+          <t>Tallinn, Estonia</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>41.6692008972</v>
+        <v>59.4132995605</v>
       </c>
       <c r="E156" t="n">
-        <v>44.95470047</v>
+        <v>24.8327999115</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5861,35 +5841,35 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Tallinn</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Thessaloniki, Greece</t>
+          <t>Tbilisi, Georgia</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>40.5196990967</v>
+        <v>41.6692008972</v>
       </c>
       <c r="E157" t="n">
-        <v>22.9708995819</v>
+        <v>44.95470047</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5899,35 +5879,35 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tirana, Albania</t>
+          <t>Thessaloniki, Greece</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>41.4146995544</v>
+        <v>40.5196990967</v>
       </c>
       <c r="E158" t="n">
-        <v>19.7206001282</v>
+        <v>22.9708995819</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5937,35 +5917,35 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Thessaloniki</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tver, Russian Federation</t>
+          <t>Tirana, Albania</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>56.8587</v>
+        <v>41.4146995544</v>
       </c>
       <c r="E159" t="n">
-        <v>35.9176</v>
+        <v>19.7206001282</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5975,35 +5955,35 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tver</t>
+          <t>Tirana</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Vienna, Austria</t>
+          <t>Tver, Russian Federation</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>48.1102981567</v>
+        <v>56.8587</v>
       </c>
       <c r="E160" t="n">
-        <v>16.5697002411</v>
+        <v>35.9176</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6013,35 +5993,35 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Tver</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Vienna, Austria</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>54.6341018677</v>
+        <v>48.1102981567</v>
       </c>
       <c r="E161" t="n">
-        <v>25.2858009338</v>
+        <v>16.5697002411</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6051,35 +6031,35 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>52.1656990051</v>
+        <v>54.6341018677</v>
       </c>
       <c r="E162" t="n">
-        <v>20.9671001434</v>
+        <v>25.2858009338</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6089,111 +6069,111 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Vilnius</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Yekaterinburg, Russia</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>56.8431</v>
+        <v>52.1656990051</v>
       </c>
       <c r="E163" t="n">
-        <v>60.6454</v>
+        <v>20.9671001434</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Yekaterinburg</t>
+          <t>Warsaw</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Zagreb, Croatia</t>
+          <t>Yekaterinburg, Russia</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>45.7429008484</v>
+        <v>56.8431</v>
       </c>
       <c r="E164" t="n">
-        <v>16.0687999725</v>
+        <v>60.6454</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Yekaterinburg</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Zürich, Switzerland</t>
+          <t>Zagreb, Croatia</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>47.4646987915</v>
+        <v>45.7429008484</v>
       </c>
       <c r="E165" t="n">
-        <v>8.549169540399999</v>
+        <v>16.0687999725</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6203,35 +6183,35 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Zagreb</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lyon, France</t>
+          <t>Zürich, Switzerland</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>45.7263</v>
+        <v>47.4646987915</v>
       </c>
       <c r="E166" t="n">
-        <v>5.0908</v>
+        <v>8.549169540399999</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
@@ -6241,31 +6221,31 @@
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Zurich</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Bordeaux, France</t>
+          <t>Lyon, France</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>44.82946</v>
+        <v>45.7263</v>
       </c>
       <c r="E167" t="n">
-        <v>-0.58355</v>
+        <v>5.0908</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
@@ -6279,73 +6259,73 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Americana, Brazil</t>
+          <t>Bordeaux, France</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>-22.738</v>
+        <v>44.82946</v>
       </c>
       <c r="E168" t="n">
-        <v>-47.334</v>
+        <v>-0.58355</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Americana</t>
+          <t>Bordeaux</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Arica, Chile</t>
+          <t>Americana, Brazil</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>-18.348611</v>
+        <v>-22.738</v>
       </c>
       <c r="E169" t="n">
-        <v>-70.33888899999999</v>
+        <v>-47.334</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6355,35 +6335,35 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Americana</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Asunción, Paraguay</t>
+          <t>Arica, Chile</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-25.2399997711</v>
+        <v>-18.348611</v>
       </c>
       <c r="E170" t="n">
-        <v>-57.5200004578</v>
+        <v>-70.33888899999999</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
@@ -6393,35 +6373,35 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Asunción</t>
+          <t>Arica</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Belém, Brazil</t>
+          <t>Asunción, Paraguay</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-1.4563</v>
+        <v>-25.2399997711</v>
       </c>
       <c r="E171" t="n">
-        <v>-48.5013</v>
+        <v>-57.5200004578</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6431,31 +6411,31 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Belém</t>
+          <t>Asunción</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Belo Horizonte, Brazil</t>
+          <t>Belém, Brazil</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-19.624444</v>
+        <v>-1.4563</v>
       </c>
       <c r="E172" t="n">
-        <v>-43.971944</v>
+        <v>-48.5013</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
@@ -6469,31 +6449,31 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Belém</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Blumenau, Brazil</t>
+          <t>Belo Horizonte, Brazil</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-26.89245</v>
+        <v>-19.624444</v>
       </c>
       <c r="E173" t="n">
-        <v>-49.07696</v>
+        <v>-43.971944</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
@@ -6507,35 +6487,35 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Blumenau</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Bogotá, Colombia</t>
+          <t>Blumenau, Brazil</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>4.70159</v>
+        <v>-26.89245</v>
       </c>
       <c r="E174" t="n">
-        <v>-74.1469</v>
+        <v>-49.07696</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6545,35 +6525,35 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Blumenau</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Brasilia, Brazil</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-15.79824</v>
+        <v>4.70159</v>
       </c>
       <c r="E175" t="n">
-        <v>-47.90859</v>
+        <v>-74.1469</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6583,35 +6563,35 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Bogotá</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Buenos Aires, Argentina</t>
+          <t>Brasilia, Brazil</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-34.8222</v>
+        <v>-15.79824</v>
       </c>
       <c r="E176" t="n">
-        <v>-58.5358</v>
+        <v>-47.90859</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6621,35 +6601,35 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Brasilia</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Caçador, Brazil</t>
+          <t>Buenos Aires, Argentina</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-26.7762</v>
+        <v>-34.8222</v>
       </c>
       <c r="E177" t="n">
-        <v>-51.0125</v>
+        <v>-58.5358</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6659,31 +6639,31 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Cacador</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Campinas, Brazil</t>
+          <t>Caçador, Brazil</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-22.90662</v>
+        <v>-26.7762</v>
       </c>
       <c r="E178" t="n">
-        <v>-47.08576</v>
+        <v>-51.0125</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
@@ -6697,35 +6677,35 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Campinas</t>
+          <t>Cacador</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Córdoba, Argentina</t>
+          <t>Campinas, Brazil</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-31.31</v>
+        <v>-22.90662</v>
       </c>
       <c r="E179" t="n">
-        <v>-64.208333</v>
+        <v>-47.08576</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6735,35 +6715,35 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Córdoba</t>
+          <t>Campinas</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Cuiabá, Brazil</t>
+          <t>Córdoba, Argentina</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-15.59611</v>
+        <v>-31.31</v>
       </c>
       <c r="E180" t="n">
-        <v>-56.09667</v>
+        <v>-64.208333</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6773,31 +6753,31 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Córdoba</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Curitiba, Brazil</t>
+          <t>Cuiabá, Brazil</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-25.5284996033</v>
+        <v>-15.59611</v>
       </c>
       <c r="E181" t="n">
-        <v>-49.1758003235</v>
+        <v>-56.09667</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6811,31 +6791,31 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Florianopolis, Brazil</t>
+          <t>Curitiba, Brazil</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-27.6702785492</v>
+        <v>-25.5284996033</v>
       </c>
       <c r="E182" t="n">
-        <v>-48.5525016785</v>
+        <v>-49.1758003235</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
@@ -6849,31 +6829,31 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Curitiba</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Fortaleza, Brazil</t>
+          <t>Florianopolis, Brazil</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-3.7762799263</v>
+        <v>-27.6702785492</v>
       </c>
       <c r="E183" t="n">
-        <v>-38.5326004028</v>
+        <v>-48.5525016785</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6887,35 +6867,35 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Florianopolis</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Georgetown, Guyana</t>
+          <t>Fortaleza, Brazil</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>6.825648</v>
+        <v>-3.7762799263</v>
       </c>
       <c r="E184" t="n">
-        <v>-58.163756</v>
+        <v>-38.5326004028</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6925,35 +6905,35 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Goiânia, Brazil</t>
+          <t>Georgetown, Guyana</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-16.69727</v>
+        <v>6.825648</v>
       </c>
       <c r="E185" t="n">
-        <v>-49.26851</v>
+        <v>-58.163756</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="G185" t="inlineStr">
@@ -6963,111 +6943,111 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Goiania</t>
+          <t>Georgetown</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Guatemala City, Guatemala</t>
+          <t>Goiânia, Brazil</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>14.5832996368</v>
+        <v>-16.69727</v>
       </c>
       <c r="E186" t="n">
-        <v>-90.5274963379</v>
+        <v>-49.26851</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Guatemala City</t>
+          <t>Goiania</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Guayaquil, Ecuador</t>
+          <t>Guatemala City, Guatemala</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-2.1894</v>
+        <v>14.5832996368</v>
       </c>
       <c r="E187" t="n">
-        <v>-79.8891</v>
+        <v>-90.5274963379</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Guatemala City</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Itajaí, Brazil</t>
+          <t>Guayaquil, Ecuador</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-27.6116676331</v>
+        <v>-2.1894</v>
       </c>
       <c r="E188" t="n">
-        <v>-48.6727790833</v>
+        <v>-79.8891</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7077,31 +7057,31 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Itajai</t>
+          <t>Guayaquil</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Joinville, Brazil</t>
+          <t>Itajaí, Brazil</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-26.304408</v>
+        <v>-27.6116676331</v>
       </c>
       <c r="E189" t="n">
-        <v>-48.846383</v>
+        <v>-48.6727790833</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
@@ -7115,31 +7095,31 @@
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Joinville</t>
+          <t>Itajai</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, Brazil</t>
+          <t>Joinville, Brazil</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-7.2242</v>
+        <v>-26.304408</v>
       </c>
       <c r="E190" t="n">
-        <v>-39.313</v>
+        <v>-48.846383</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
@@ -7153,35 +7133,35 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte</t>
+          <t>Joinville</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Juazeiro do Norte, Brazil</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-12.021900177</v>
+        <v>-7.2242</v>
       </c>
       <c r="E191" t="n">
-        <v>-77.1143035889</v>
+        <v>-39.313</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7191,35 +7171,35 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Juazeiro do Norte</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Manaus, Brazil</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-3.11286</v>
+        <v>-12.021900177</v>
       </c>
       <c r="E192" t="n">
-        <v>-60.01949</v>
+        <v>-77.1143035889</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G192" t="inlineStr">
@@ -7229,35 +7209,35 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Lima</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Medellín, Colombia</t>
+          <t>Manaus, Brazil</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>6.16454</v>
+        <v>-3.11286</v>
       </c>
       <c r="E193" t="n">
-        <v>-75.42310000000001</v>
+        <v>-60.01949</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7267,35 +7247,35 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Manaus</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Neuquén, Argentina</t>
+          <t>Medellín, Colombia</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-38.9490013123</v>
+        <v>6.16454</v>
       </c>
       <c r="E194" t="n">
-        <v>-68.1557006836</v>
+        <v>-75.42310000000001</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7305,35 +7285,35 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Neuquen</t>
+          <t>Medellín</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Panama City, Panama</t>
+          <t>Neuquén, Argentina</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>9.0713596344</v>
+        <v>-38.9490013123</v>
       </c>
       <c r="E195" t="n">
-        <v>-79.3834991455</v>
+        <v>-68.1557006836</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7343,35 +7323,35 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Panama City</t>
+          <t>Neuquen</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Paramaribo, Suriname</t>
+          <t>Panama City, Panama</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>5.452831</v>
+        <v>9.0713596344</v>
       </c>
       <c r="E196" t="n">
-        <v>-55.187783</v>
+        <v>-79.3834991455</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7381,35 +7361,35 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Paramaribo</t>
+          <t>Panama City</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Porto Alegre, Brazil</t>
+          <t>Paramaribo, Suriname</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-29.9944000244</v>
+        <v>5.452831</v>
       </c>
       <c r="E197" t="n">
-        <v>-51.1713981628</v>
+        <v>-55.187783</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7419,35 +7399,35 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Paramaribo</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Quito, Ecuador</t>
+          <t>Porto Alegre, Brazil</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-0.1291666667</v>
+        <v>-29.9944000244</v>
       </c>
       <c r="E198" t="n">
-        <v>-78.3575</v>
+        <v>-51.1713981628</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7457,35 +7437,35 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Quito</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Recife, Brazil</t>
+          <t>Quito, Ecuador</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-8.126489639300001</v>
+        <v>-0.1291666667</v>
       </c>
       <c r="E199" t="n">
-        <v>-34.9235992432</v>
+        <v>-78.3575</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7495,31 +7475,31 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Quito</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Ribeirao Preto, Brazil</t>
+          <t>Recife, Brazil</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-21.1363887787</v>
+        <v>-8.126489639300001</v>
       </c>
       <c r="E200" t="n">
-        <v>-47.7766685486</v>
+        <v>-34.9235992432</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
@@ -7533,31 +7513,31 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Ribeirao Preto</t>
+          <t>Recife</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brazil</t>
+          <t>Ribeirao Preto, Brazil</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-22.8099994659</v>
+        <v>-21.1363887787</v>
       </c>
       <c r="E201" t="n">
-        <v>-43.2505569458</v>
+        <v>-47.7766685486</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
@@ -7571,31 +7551,31 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Ribeirao Preto</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Salvador, Brazil</t>
+          <t>Rio de Janeiro, Brazil</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-12.9086112976</v>
+        <v>-22.8099994659</v>
       </c>
       <c r="E202" t="n">
-        <v>-38.3224983215</v>
+        <v>-43.2505569458</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -7609,35 +7589,35 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>San José, Costa Rica</t>
+          <t>Salvador, Brazil</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>9.9938602448</v>
+        <v>-12.9086112976</v>
       </c>
       <c r="E203" t="n">
-        <v>-84.2088012695</v>
+        <v>-38.3224983215</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G203" t="inlineStr">
@@ -7647,35 +7627,35 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>San José</t>
+          <t>Salvador</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Santiago, Chile</t>
+          <t>San José, Costa Rica</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-33.3930015564</v>
+        <v>9.9938602448</v>
       </c>
       <c r="E204" t="n">
-        <v>-70.7857971191</v>
+        <v>-84.2088012695</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7685,107 +7665,107 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>San José</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Santo Domingo, Dominican Republic</t>
+          <t>Santiago, Chile</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>18.4297008514</v>
+        <v>-33.3930015564</v>
       </c>
       <c r="E205" t="n">
-        <v>-69.6688995361</v>
+        <v>-70.7857971191</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>Santiago</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, Brazil</t>
+          <t>Santo Domingo, Dominican Republic</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-20.807157</v>
+        <v>18.4297008514</v>
       </c>
       <c r="E206" t="n">
-        <v>-49.378994</v>
+        <v>-69.6688995361</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>São José do Rio Preto</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>São José dos Campos, Brazil</t>
+          <t>São José do Rio Preto, Brazil</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-23.1791</v>
+        <v>-20.807157</v>
       </c>
       <c r="E207" t="n">
-        <v>-45.8872</v>
+        <v>-49.378994</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
@@ -7799,31 +7779,31 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>São José dos Campos</t>
+          <t>São José do Rio Preto</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>São Paulo, Brazil</t>
+          <t>São José dos Campos, Brazil</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-23.4355564117</v>
+        <v>-23.1791</v>
       </c>
       <c r="E208" t="n">
-        <v>-46.4730567932</v>
+        <v>-45.8872</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
@@ -7837,31 +7817,31 @@
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>São José dos Campos</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Sorocaba, Brazil</t>
+          <t>São Paulo, Brazil</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-23.54389</v>
+        <v>-23.4355564117</v>
       </c>
       <c r="E209" t="n">
-        <v>-46.63445</v>
+        <v>-46.4730567932</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7875,35 +7855,35 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Sorocaba</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>St. George's, Grenada</t>
+          <t>Sorocaba, Brazil</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>12.007116</v>
+        <v>-23.54389</v>
       </c>
       <c r="E210" t="n">
-        <v>-61.7882288</v>
+        <v>-46.63445</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G210" t="inlineStr">
@@ -7913,35 +7893,35 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>St. George's</t>
+          <t>Sorocaba</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Tegucigalpa, Honduras</t>
+          <t>St. George's, Grenada</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>14.0608</v>
+        <v>12.007116</v>
       </c>
       <c r="E211" t="n">
-        <v>-87.21720000000001</v>
+        <v>-61.7882288</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="G211" t="inlineStr">
@@ -7951,35 +7931,35 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>St. George's</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Timbó, Brazil</t>
+          <t>Tegucigalpa, Honduras</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-26.8251</v>
+        <v>14.0608</v>
       </c>
       <c r="E212" t="n">
-        <v>-49.2695</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7989,31 +7969,31 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Timbo</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Uberlândia, Brazil</t>
+          <t>Timbó, Brazil</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-18.8836116791</v>
+        <v>-26.8251</v>
       </c>
       <c r="E213" t="n">
-        <v>-48.225276947</v>
+        <v>-49.2695</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
@@ -8027,31 +8007,31 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Uberlandia</t>
+          <t>Timbo</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Vitoria, Brazil</t>
+          <t>Uberlândia, Brazil</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-20.64871</v>
+        <v>-18.8836116791</v>
       </c>
       <c r="E214" t="n">
-        <v>-41.90857</v>
+        <v>-48.225276947</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
@@ -8065,35 +8045,35 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Uberlandia</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Willemstad, Curaçao</t>
+          <t>Vitoria, Brazil</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>12.1888999939</v>
+        <v>-20.64871</v>
       </c>
       <c r="E215" t="n">
-        <v>-68.95980072019999</v>
+        <v>-41.90857</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8103,35 +8083,35 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Willemstad</t>
+          <t>Vitoria</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes, Brazil</t>
+          <t>Willemstad, Curaçao</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-21.698299408</v>
+        <v>12.1888999939</v>
       </c>
       <c r="E216" t="n">
-        <v>-41.301700592</v>
+        <v>-68.95980072019999</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="G216" t="inlineStr">
@@ -8141,31 +8121,31 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Willemstad</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Chapeco, Brazil</t>
+          <t>Campos dos Goytacazes, Brazil</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-27.1341991425</v>
+        <v>-21.698299408</v>
       </c>
       <c r="E217" t="n">
-        <v>-52.6566009521</v>
+        <v>-41.301700592</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8179,73 +8159,73 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Chapeco</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Chapeco, Brazil</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>31.7226009369</v>
+        <v>-27.1341991425</v>
       </c>
       <c r="E218" t="n">
-        <v>35.9931983948</v>
+        <v>-52.6566009521</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Chapeco</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Astara, Azerbaijan</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>38.7463989258</v>
+        <v>31.7226009369</v>
       </c>
       <c r="E219" t="n">
-        <v>48.8180007935</v>
+        <v>35.9931983948</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
@@ -8255,35 +8235,35 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Astara</t>
+          <t>Amman</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Baghdad, Iraq</t>
+          <t>Astara, Azerbaijan</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>33.2625007629</v>
+        <v>38.7463989258</v>
       </c>
       <c r="E220" t="n">
-        <v>44.2346000671</v>
+        <v>48.8180007935</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8293,35 +8273,35 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Astara</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Baku, Azerbaijan</t>
+          <t>Baghdad, Iraq</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>40.4674987793</v>
+        <v>33.2625007629</v>
       </c>
       <c r="E221" t="n">
-        <v>50.0466995239</v>
+        <v>44.2346000671</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
@@ -8331,35 +8311,35 @@
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Baghdad</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Basra, Iraq</t>
+          <t>Baku, Azerbaijan</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>30.5491008759</v>
+        <v>40.4674987793</v>
       </c>
       <c r="E222" t="n">
-        <v>47.6621017456</v>
+        <v>50.0466995239</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8369,35 +8349,35 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Basra</t>
+          <t>Baku</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Beirut, Lebanon</t>
+          <t>Basra, Iraq</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33.8208999634</v>
+        <v>30.5491008759</v>
       </c>
       <c r="E223" t="n">
-        <v>35.4883995056</v>
+        <v>47.6621017456</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8407,35 +8387,35 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Basra</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Dammam, Saudi Arabia</t>
+          <t>Beirut, Lebanon</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>26.471200943</v>
+        <v>33.8208999634</v>
       </c>
       <c r="E224" t="n">
-        <v>49.7979011536</v>
+        <v>35.4883995056</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8445,35 +8425,35 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Dammam</t>
+          <t>Beirut</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Doha, Qatar</t>
+          <t>Dammam, Saudi Arabia</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>25.2605946</v>
+        <v>26.471200943</v>
       </c>
       <c r="E225" t="n">
-        <v>51.6137665</v>
+        <v>49.7979011536</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8483,35 +8463,35 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Doha</t>
+          <t>Dammam</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Doha, Qatar</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>25.2527999878</v>
+        <v>25.2605946</v>
       </c>
       <c r="E226" t="n">
-        <v>55.3643989563</v>
+        <v>51.6137665</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8521,35 +8501,35 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Doha</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Erbil, Iraq</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>36.1901</v>
+        <v>25.2527999878</v>
       </c>
       <c r="E227" t="n">
-        <v>43.993</v>
+        <v>55.3643989563</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8559,35 +8539,35 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Dubai</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Haifa, Israel</t>
+          <t>Erbil, Iraq</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>32.78492</v>
+        <v>36.1901</v>
       </c>
       <c r="E228" t="n">
-        <v>34.96069</v>
+        <v>43.993</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8597,35 +8577,35 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Erbil</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Jeddah, Saudi Arabia</t>
+          <t>Haifa, Israel</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>21.679599762</v>
+        <v>32.78492</v>
       </c>
       <c r="E229" t="n">
-        <v>39.15650177</v>
+        <v>34.96069</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8635,35 +8615,35 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Haifa</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Kuwait City, Kuwait</t>
+          <t>Jeddah, Saudi Arabia</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>29.226600647</v>
+        <v>21.679599762</v>
       </c>
       <c r="E230" t="n">
-        <v>47.9688987732</v>
+        <v>39.15650177</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8673,35 +8653,35 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Kuwait City</t>
+          <t>Jeddah</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Manama, Bahrain</t>
+          <t>Kuwait City, Kuwait</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>26.2707996368</v>
+        <v>29.226600647</v>
       </c>
       <c r="E231" t="n">
-        <v>50.6335983276</v>
+        <v>47.9688987732</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8711,35 +8691,35 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Manama</t>
+          <t>Kuwait City</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Muscat, Oman</t>
+          <t>Manama, Bahrain</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>23.5932998657</v>
+        <v>26.2707996368</v>
       </c>
       <c r="E232" t="n">
-        <v>58.2844009399</v>
+        <v>50.6335983276</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8749,35 +8729,35 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Muscat</t>
+          <t>Manama</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Najaf, Iraq</t>
+          <t>Muscat, Oman</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>31.989722</v>
+        <v>23.5932998657</v>
       </c>
       <c r="E233" t="n">
-        <v>44.404167</v>
+        <v>58.2844009399</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8787,31 +8767,31 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Najaf</t>
+          <t>Muscat</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Nasiriyah, Iraq</t>
+          <t>Najaf, Iraq</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>30.9358005524</v>
+        <v>31.989722</v>
       </c>
       <c r="E234" t="n">
-        <v>46.0900993347</v>
+        <v>44.404167</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
@@ -8825,35 +8805,35 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Nasiriyah</t>
+          <t>Najaf</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah, Iraq</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>32.2719</v>
+        <v>30.9358005524</v>
       </c>
       <c r="E235" t="n">
-        <v>35.0194</v>
+        <v>46.0900993347</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8863,35 +8843,35 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Riyadh, Saudi Arabia</t>
+          <t>Ramallah</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>24.9575996399</v>
+        <v>32.2719</v>
       </c>
       <c r="E236" t="n">
-        <v>46.6987991333</v>
+        <v>35.0194</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8901,35 +8881,35 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Riyadh</t>
+          <t>Ramallah</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Sulaymaniyah, Iraq</t>
+          <t>Riyadh, Saudi Arabia</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>35.5668</v>
+        <v>24.9575996399</v>
       </c>
       <c r="E237" t="n">
-        <v>45.4161</v>
+        <v>46.6987991333</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8939,35 +8919,35 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Sulaymaniyah</t>
+          <t>Riyadh</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Tel Aviv, Israel</t>
+          <t>Sulaymaniyah, Iraq</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>32.0113983154</v>
+        <v>35.5668</v>
       </c>
       <c r="E238" t="n">
-        <v>34.8866996765</v>
+        <v>45.4161</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8977,69 +8957,69 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Tel Aviv</t>
+          <t>Sulaymaniyah</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Tel Aviv, Israel</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>38.94449997</v>
+        <v>32.0113983154</v>
       </c>
       <c r="E239" t="n">
-        <v>-77.45580292</v>
+        <v>34.8866996765</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>33.6366996765</v>
+        <v>38.94449997</v>
       </c>
       <c r="E240" t="n">
-        <v>-84.4281005859</v>
+        <v>-77.45580292</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
@@ -9053,31 +9033,31 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ashburn</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>42.36429977</v>
+        <v>33.6366996765</v>
       </c>
       <c r="E241" t="n">
-        <v>-71.00520324999999</v>
+        <v>-84.4281005859</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
@@ -9091,31 +9071,31 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>42.94049835</v>
+        <v>42.36429977</v>
       </c>
       <c r="E242" t="n">
-        <v>-78.73220062</v>
+        <v>-71.00520324999999</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
@@ -9129,35 +9109,35 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>51.113899231</v>
+        <v>42.94049835</v>
       </c>
       <c r="E243" t="n">
-        <v>-114.019996643</v>
+        <v>-78.73220062</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
@@ -9167,35 +9147,35 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Buffalo</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>35.2140007019</v>
+        <v>51.113899231</v>
       </c>
       <c r="E244" t="n">
-        <v>-80.94309997560001</v>
+        <v>-114.019996643</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G244" t="inlineStr">
@@ -9205,31 +9185,31 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Calgary</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>41.97859955</v>
+        <v>35.2140007019</v>
       </c>
       <c r="E245" t="n">
-        <v>-87.90480042</v>
+        <v>-80.94309997560001</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9243,31 +9223,31 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>39.9980010986</v>
+        <v>41.97859955</v>
       </c>
       <c r="E246" t="n">
-        <v>-82.89189910890001</v>
+        <v>-87.90480042</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -9281,31 +9261,31 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Chicago</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>32.8968009949</v>
+        <v>39.9980010986</v>
       </c>
       <c r="E247" t="n">
-        <v>-97.0380020142</v>
+        <v>-82.89189910890001</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
@@ -9319,31 +9299,31 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Columbus</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>39.8616981506</v>
+        <v>32.8968009949</v>
       </c>
       <c r="E248" t="n">
-        <v>-104.672996521</v>
+        <v>-97.0380020142</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -9357,31 +9337,31 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>42.2123985291</v>
+        <v>39.8616981506</v>
       </c>
       <c r="E249" t="n">
-        <v>-83.35340118409999</v>
+        <v>-104.672996521</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -9395,31 +9375,31 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>21.3187007904</v>
+        <v>42.2123985291</v>
       </c>
       <c r="E250" t="n">
-        <v>-157.9219970703</v>
+        <v>-83.35340118409999</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -9433,31 +9413,31 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>29.9843997955</v>
+        <v>21.3187007904</v>
       </c>
       <c r="E251" t="n">
-        <v>-95.34140014650001</v>
+        <v>-157.9219970703</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -9471,31 +9451,31 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Honolulu</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>39.717300415</v>
+        <v>29.9843997955</v>
       </c>
       <c r="E252" t="n">
-        <v>-86.2944030762</v>
+        <v>-95.34140014650001</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -9509,31 +9489,31 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>30.4941005707</v>
+        <v>39.717300415</v>
       </c>
       <c r="E253" t="n">
-        <v>-81.68789672849999</v>
+        <v>-86.2944030762</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9547,31 +9527,31 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Indianapolis</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>39.2975997925</v>
+        <v>30.4941005707</v>
       </c>
       <c r="E254" t="n">
-        <v>-94.7138977051</v>
+        <v>-81.68789672849999</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -9585,31 +9565,31 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Jacksonville</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>36.08010101</v>
+        <v>39.2975997925</v>
       </c>
       <c r="E255" t="n">
-        <v>-115.1520004</v>
+        <v>-94.7138977051</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9623,31 +9603,31 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Kansas City</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>33.94250107</v>
+        <v>36.08010101</v>
       </c>
       <c r="E256" t="n">
-        <v>-118.4079971</v>
+        <v>-115.1520004</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -9661,31 +9641,31 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Las Vegas</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>26.17580032</v>
+        <v>33.94250107</v>
       </c>
       <c r="E257" t="n">
-        <v>-98.23860168</v>
+        <v>-118.4079971</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9699,31 +9679,31 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>35.0424003601</v>
+        <v>26.17580032</v>
       </c>
       <c r="E258" t="n">
-        <v>-89.9766998291</v>
+        <v>-98.23860168</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -9737,35 +9717,35 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>McAllen</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>19.4363002777</v>
+        <v>35.0424003601</v>
       </c>
       <c r="E259" t="n">
-        <v>-99.07209777830001</v>
+        <v>-89.9766998291</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G259" t="inlineStr">
@@ -9775,35 +9755,35 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>25.7931995392</v>
+        <v>19.4363002777</v>
       </c>
       <c r="E260" t="n">
-        <v>-80.2906036377</v>
+        <v>-99.07209777830001</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G260" t="inlineStr">
@@ -9813,31 +9793,31 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mexico City</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>44.8819999695</v>
+        <v>25.7931995392</v>
       </c>
       <c r="E261" t="n">
-        <v>-93.22180175779999</v>
+        <v>-80.2906036377</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9851,31 +9831,31 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Miami</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Montgomery, AL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>32.30059814</v>
+        <v>44.8819999695</v>
       </c>
       <c r="E262" t="n">
-        <v>-86.39399718999999</v>
+        <v>-93.22180175779999</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -9889,35 +9869,35 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Minneapolis</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Montgomery, AL, United States</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>45.4706001282</v>
+        <v>32.30059814</v>
       </c>
       <c r="E263" t="n">
-        <v>-73.7407989502</v>
+        <v>-86.39399718999999</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9927,35 +9907,35 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Montgomery</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>36.1245002747</v>
+        <v>45.4706001282</v>
       </c>
       <c r="E264" t="n">
-        <v>-86.6781997681</v>
+        <v>-73.7407989502</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9965,31 +9945,31 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>40.6925010681</v>
+        <v>36.1245002747</v>
       </c>
       <c r="E265" t="n">
-        <v>-74.1687011719</v>
+        <v>-86.6781997681</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -10003,31 +9983,31 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Nashville</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>36.8945999146</v>
+        <v>40.6925010681</v>
       </c>
       <c r="E266" t="n">
-        <v>-76.2012023926</v>
+        <v>-74.1687011719</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -10041,31 +10021,31 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>41.3031997681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="E267" t="n">
-        <v>-95.89409637449999</v>
+        <v>-76.2012023926</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
@@ -10079,35 +10059,35 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Norfolk</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>45.3224983215</v>
+        <v>41.3031997681</v>
       </c>
       <c r="E268" t="n">
-        <v>-75.66919708250001</v>
+        <v>-95.89409637449999</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10117,35 +10097,35 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>39.8718986511</v>
+        <v>45.3224983215</v>
       </c>
       <c r="E269" t="n">
-        <v>-75.24109649659999</v>
+        <v>-75.66919708250001</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G269" t="inlineStr">
@@ -10155,31 +10135,31 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>33.434299469</v>
+        <v>39.8718986511</v>
       </c>
       <c r="E270" t="n">
-        <v>-112.012001038</v>
+        <v>-75.24109649659999</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10193,31 +10173,31 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>40.49150085</v>
+        <v>33.434299469</v>
       </c>
       <c r="E271" t="n">
-        <v>-80.23290253</v>
+        <v>-112.012001038</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -10231,31 +10211,31 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>45.58869934</v>
+        <v>40.49150085</v>
       </c>
       <c r="E272" t="n">
-        <v>-122.5979996</v>
+        <v>-80.23290253</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
@@ -10269,35 +10249,35 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>20.6173000336</v>
+        <v>45.58869934</v>
       </c>
       <c r="E273" t="n">
-        <v>-100.185997009</v>
+        <v>-122.5979996</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10307,35 +10287,35 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Portland</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>37.5051994324</v>
+        <v>20.6173000336</v>
       </c>
       <c r="E274" t="n">
-        <v>-77.3197021484</v>
+        <v>-100.185997009</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G274" t="inlineStr">
@@ -10345,31 +10325,31 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Queretaro</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>38.695400238</v>
+        <v>37.5051994324</v>
       </c>
       <c r="E275" t="n">
-        <v>-121.591003418</v>
+        <v>-77.3197021484</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -10383,31 +10363,31 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Richmond</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>40.7883987427</v>
+        <v>38.695400238</v>
       </c>
       <c r="E276" t="n">
-        <v>-111.977996826</v>
+        <v>-121.591003418</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -10421,31 +10401,31 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Sacramento</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>32.7336006165</v>
+        <v>40.7883987427</v>
       </c>
       <c r="E277" t="n">
-        <v>-117.190002441</v>
+        <v>-111.977996826</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
@@ -10459,31 +10439,31 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>37.3625984192</v>
+        <v>32.7336006165</v>
       </c>
       <c r="E278" t="n">
-        <v>-121.929000855</v>
+        <v>-117.190002441</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -10497,35 +10477,35 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Diego</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>52.1707992554</v>
+        <v>37.3625984192</v>
       </c>
       <c r="E279" t="n">
-        <v>-106.699996948</v>
+        <v>-121.929000855</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G279" t="inlineStr">
@@ -10535,35 +10515,35 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>San Jose</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>47.4490013123</v>
+        <v>52.1707992554</v>
       </c>
       <c r="E280" t="n">
-        <v>-122.308998108</v>
+        <v>-106.699996948</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G280" t="inlineStr">
@@ -10573,31 +10553,31 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Saskatoon</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>43.540819819502</v>
+        <v>47.4490013123</v>
       </c>
       <c r="E281" t="n">
-        <v>-96.65511577730963</v>
+        <v>-122.308998108</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -10611,31 +10591,31 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>Seattle</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>38.7486991882</v>
+        <v>43.540819819502</v>
       </c>
       <c r="E282" t="n">
-        <v>-90.37000274659999</v>
+        <v>-96.65511577730963</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -10649,31 +10629,31 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>30.3964996338</v>
+        <v>38.7486991882</v>
       </c>
       <c r="E283" t="n">
-        <v>-84.3503036499</v>
+        <v>-90.37000274659999</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
@@ -10687,35 +10667,35 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>St. Louis</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>43.6772003174</v>
+        <v>30.3964996338</v>
       </c>
       <c r="E284" t="n">
-        <v>-79.63059997560001</v>
+        <v>-84.3503036499</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10725,31 +10705,31 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Tallahassee</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>49.193901062</v>
+        <v>43.6772003174</v>
       </c>
       <c r="E285" t="n">
-        <v>-123.183998108</v>
+        <v>-79.63059997560001</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -10763,31 +10743,31 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>49.9099998474</v>
+        <v>49.193901062</v>
       </c>
       <c r="E286" t="n">
-        <v>-97.2398986816</v>
+        <v>-123.183998108</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -10801,35 +10781,35 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Vancouver</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>37.6189994812</v>
+        <v>49.9099998474</v>
       </c>
       <c r="E287" t="n">
-        <v>-122.375</v>
+        <v>-97.2398986816</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10839,35 +10819,35 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>17.9951</v>
+        <v>37.6189994812</v>
       </c>
       <c r="E288" t="n">
-        <v>-76.7846</v>
+        <v>-122.375</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10877,35 +10857,35 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>44.8081</v>
+        <v>17.9951</v>
       </c>
       <c r="E289" t="n">
-        <v>-68.795</v>
+        <v>-76.7846</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G289" t="inlineStr">
@@ -10915,31 +10895,31 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>30.1975</v>
+        <v>44.8081</v>
       </c>
       <c r="E290" t="n">
-        <v>-97.6664</v>
+        <v>-68.795</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -10953,31 +10933,31 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>35.0844</v>
+        <v>30.1975</v>
       </c>
       <c r="E291" t="n">
-        <v>-106.6504</v>
+        <v>-97.6664</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
@@ -10991,35 +10971,35 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>20.5217990875</v>
+        <v>35.0844</v>
       </c>
       <c r="E292" t="n">
-        <v>-103.3109970093</v>
+        <v>-106.6504</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11029,35 +11009,35 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>29.429461</v>
+        <v>20.5217990875</v>
       </c>
       <c r="E293" t="n">
-        <v>-98.487061</v>
+        <v>-103.3109970093</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11067,73 +11047,73 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>-34.9431729</v>
+        <v>29.429461</v>
       </c>
       <c r="E294" t="n">
-        <v>138.5335637</v>
+        <v>-98.487061</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G294" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>San Antonio</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>-37.0080986023</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E295" t="n">
-        <v>174.792007446</v>
+        <v>138.5335637</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -11143,35 +11123,35 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-27.3841991425</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E296" t="n">
-        <v>153.117004394</v>
+        <v>174.792007446</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11181,31 +11161,31 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-35.3069000244</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E297" t="n">
-        <v>149.1950073242</v>
+        <v>153.117004394</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -11219,35 +11199,35 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-43.4893989563</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E298" t="n">
-        <v>172.5319976807</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G298" t="inlineStr">
@@ -11257,107 +11237,107 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>13.4834003448</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E299" t="n">
-        <v>144.796005249</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-42.883209</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E300" t="n">
-        <v>147.331665</v>
+        <v>144.796005249</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-37.6733016968</v>
+        <v>-42.883209</v>
       </c>
       <c r="E301" t="n">
-        <v>144.843002319</v>
+        <v>147.331665</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -11371,35 +11351,35 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-22.0146007538</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E302" t="n">
-        <v>166.212997436</v>
+        <v>144.843002319</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11409,35 +11389,35 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-31.9402999878</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E303" t="n">
-        <v>115.967002869</v>
+        <v>166.212997436</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11447,31 +11427,31 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-33.9460983276</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E304" t="n">
-        <v>151.177001953</v>
+        <v>115.967002869</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -11485,43 +11465,81 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D305" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E305" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F305" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B305" t="inlineStr">
+      <c r="B306" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C305" t="inlineStr">
+      <c r="C306" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D305" t="n">
+      <c r="D306" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E305" t="n">
+      <c r="E306" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F305" t="inlineStr">
+      <c r="F306" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G305" t="inlineStr">
+      <c r="G306" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
+      <c r="H306" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H306"/>
+  <dimension ref="A1:H307"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11092,66 +11092,66 @@
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>-34.9431729</v>
+        <v>41.50069</v>
       </c>
       <c r="E295" t="n">
-        <v>138.5335637</v>
+        <v>-81.68411999999999</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>-37.0080986023</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E296" t="n">
-        <v>174.792007446</v>
+        <v>138.5335637</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11161,35 +11161,35 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>-27.3841991425</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E297" t="n">
-        <v>153.117004394</v>
+        <v>174.792007446</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -11199,31 +11199,31 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>-35.3069000244</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E298" t="n">
-        <v>149.1950073242</v>
+        <v>153.117004394</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -11237,35 +11237,35 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-43.4893989563</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E299" t="n">
-        <v>172.5319976807</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
@@ -11275,107 +11275,107 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>13.4834003448</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E300" t="n">
-        <v>144.796005249</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-42.883209</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E301" t="n">
-        <v>147.331665</v>
+        <v>144.796005249</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-37.6733016968</v>
+        <v>-42.883209</v>
       </c>
       <c r="E302" t="n">
-        <v>144.843002319</v>
+        <v>147.331665</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -11389,35 +11389,35 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-22.0146007538</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E303" t="n">
-        <v>166.212997436</v>
+        <v>144.843002319</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11427,35 +11427,35 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-31.9402999878</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E304" t="n">
-        <v>115.967002869</v>
+        <v>166.212997436</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11465,31 +11465,31 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-33.9460983276</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E305" t="n">
-        <v>151.177001953</v>
+        <v>115.967002869</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -11503,43 +11503,81 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D306" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E306" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B306" t="inlineStr">
+      <c r="B307" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C306" t="inlineStr">
+      <c r="C307" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D306" t="n">
+      <c r="D307" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E306" t="n">
+      <c r="E307" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F306" t="inlineStr">
+      <c r="F307" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G306" t="inlineStr">
+      <c r="G307" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
+      <c r="H307" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -8190,7 +8190,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H311"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11204,66 +11204,66 @@
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-34.9431729</v>
+        <v>35.93543</v>
       </c>
       <c r="E299" t="n">
-        <v>138.5335637</v>
+        <v>-78.88075000000001</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Durham</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-37.0080986023</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E300" t="n">
-        <v>174.792007446</v>
+        <v>138.5335637</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
@@ -11273,35 +11273,35 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-27.3841991425</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E301" t="n">
-        <v>153.117004394</v>
+        <v>174.792007446</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
@@ -11311,31 +11311,31 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-35.3069000244</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E302" t="n">
-        <v>149.1950073242</v>
+        <v>153.117004394</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
@@ -11349,35 +11349,35 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-43.4893989563</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E303" t="n">
-        <v>172.5319976807</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11387,107 +11387,107 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>13.4834003448</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E304" t="n">
-        <v>144.796005249</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-42.883209</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E305" t="n">
-        <v>147.331665</v>
+        <v>144.796005249</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-37.6733016968</v>
+        <v>-42.883209</v>
       </c>
       <c r="E306" t="n">
-        <v>144.843002319</v>
+        <v>147.331665</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
@@ -11501,35 +11501,35 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-22.0146007538</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E307" t="n">
-        <v>166.212997436</v>
+        <v>144.843002319</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11539,35 +11539,35 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-31.9402999878</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E308" t="n">
-        <v>115.967002869</v>
+        <v>166.212997436</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
@@ -11577,31 +11577,31 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-33.9460983276</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E309" t="n">
-        <v>151.177001953</v>
+        <v>115.967002869</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -11615,43 +11615,81 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E310" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B311" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C311" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D311" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E310" t="n">
+      <c r="E311" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F310" t="inlineStr">
+      <c r="F311" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
+      <c r="G311" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
+      <c r="H311" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -4102,12 +4102,12 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>CZX</t>
+          <t>WUX</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Changzhou, China</t>
+          <t>Wuxi, China</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4120,12 +4120,12 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>WUX</t>
+          <t>YNJ</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Wuxi, China</t>
+          <t>Yanbian, China</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4138,12 +4138,12 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>YNJ</t>
+          <t>HGH</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Yanbian, China</t>
+          <t>Shaoxing, China</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4156,46 +4156,66 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>HGH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Shaoxing, China</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+          <t>Amsterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AMS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>52.3086013794</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.7638897896</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Amsterdam, Netherlands</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>52.3086013794</v>
+        <v>37.9364013672</v>
       </c>
       <c r="E114" t="n">
-        <v>4.7638897896</v>
+        <v>23.9444999695</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4205,35 +4225,35 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Athens</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Barcelona, Spain</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>37.9364013672</v>
+        <v>41.2971000671</v>
       </c>
       <c r="E115" t="n">
-        <v>23.9444999695</v>
+        <v>2.0784599781</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4243,35 +4263,35 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Barcelona, Spain</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>41.2971000671</v>
+        <v>44.8184013367</v>
       </c>
       <c r="E116" t="n">
-        <v>2.0784599781</v>
+        <v>20.3090991974</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4281,35 +4301,35 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Belgrade</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>44.8184013367</v>
+        <v>52.5597000122</v>
       </c>
       <c r="E117" t="n">
-        <v>20.3090991974</v>
+        <v>13.2876996994</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4319,35 +4339,35 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Bratislava, Slovakia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>52.5597000122</v>
+        <v>48.1486</v>
       </c>
       <c r="E118" t="n">
-        <v>13.2876996994</v>
+        <v>17.1077</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4357,35 +4377,35 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bratislava</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Bratislava, Slovakia</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>48.1486</v>
+        <v>50.9014015198</v>
       </c>
       <c r="E119" t="n">
-        <v>17.1077</v>
+        <v>4.4844398499</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4395,35 +4415,35 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Brussels</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>50.9014015198</v>
+        <v>44.5722007751</v>
       </c>
       <c r="E120" t="n">
-        <v>4.4844398499</v>
+        <v>26.1021995544</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4433,35 +4453,35 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bucharest</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>44.5722007751</v>
+        <v>47.4369010925</v>
       </c>
       <c r="E121" t="n">
-        <v>26.1021995544</v>
+        <v>19.2555999756</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4471,35 +4491,35 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Budapest</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Chișinău, Moldova</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>47.4369010925</v>
+        <v>46.9277000427</v>
       </c>
       <c r="E122" t="n">
-        <v>19.2555999756</v>
+        <v>28.9309997559</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4509,35 +4529,35 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Chișinău</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chișinău, Moldova</t>
+          <t>Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>46.9277000427</v>
+        <v>55.6179008484</v>
       </c>
       <c r="E123" t="n">
-        <v>28.9309997559</v>
+        <v>12.6560001373</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4547,35 +4567,35 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Copenhagen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Copenhagen, Denmark</t>
+          <t>Cork, Ireland</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>55.6179008484</v>
+        <v>51.8413009644</v>
       </c>
       <c r="E124" t="n">
-        <v>12.6560001373</v>
+        <v>-8.491109848000001</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4585,31 +4605,31 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Cork</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cork, Ireland</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>51.8413009644</v>
+        <v>53.4212989807</v>
       </c>
       <c r="E125" t="n">
-        <v>-8.491109848000001</v>
+        <v>-6.270070076</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4623,35 +4643,35 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Dublin</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>53.4212989807</v>
+        <v>51.2895011902</v>
       </c>
       <c r="E126" t="n">
-        <v>-6.270070076</v>
+        <v>6.7667798996</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4661,35 +4681,35 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Düsseldorf, Germany</t>
+          <t>Edinburgh, United Kingdom</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>51.2895011902</v>
+        <v>55.9500007629</v>
       </c>
       <c r="E127" t="n">
-        <v>6.7667798996</v>
+        <v>-3.3724999428</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4699,35 +4719,35 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Edinburgh</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Edinburgh, United Kingdom</t>
+          <t>Frankfurt, Germany</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>55.9500007629</v>
+        <v>50.0264015198</v>
       </c>
       <c r="E128" t="n">
-        <v>-3.3724999428</v>
+        <v>8.543129921</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4737,35 +4757,35 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Frankfurt</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Frankfurt, Germany</t>
+          <t>Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>50.0264015198</v>
+        <v>46.2380981445</v>
       </c>
       <c r="E129" t="n">
-        <v>8.543129921</v>
+        <v>6.1089501381</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4775,35 +4795,35 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Geneva</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Geneva, Switzerland</t>
+          <t>Gothenburg, Sweden</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>46.2380981445</v>
+        <v>57.6627998352</v>
       </c>
       <c r="E130" t="n">
-        <v>6.1089501381</v>
+        <v>12.279800415</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4813,35 +4833,35 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Geneva</t>
+          <t>Gothenburg</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>Hamburg, Germany</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>57.6627998352</v>
+        <v>53.6304016113</v>
       </c>
       <c r="E131" t="n">
-        <v>12.279800415</v>
+        <v>9.9882297516</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4851,35 +4871,35 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hamburg, Germany</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>53.6304016113</v>
+        <v>60.317199707</v>
       </c>
       <c r="E132" t="n">
-        <v>9.9882297516</v>
+        <v>24.963300705</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4889,35 +4909,35 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Helsinki</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Helsinki, Finland</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>60.317199707</v>
+        <v>40.9768981934</v>
       </c>
       <c r="E133" t="n">
-        <v>24.963300705</v>
+        <v>28.8145999908</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4927,31 +4947,31 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Istanbul</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Izmir, Turkey</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>40.9768981934</v>
+        <v>38.32377</v>
       </c>
       <c r="E134" t="n">
-        <v>28.8145999908</v>
+        <v>27.14317</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4965,35 +4985,35 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Izmir</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Izmir, Turkey</t>
+          <t>Kyiv, Ukraine</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>38.32377</v>
+        <v>50.3450012207</v>
       </c>
       <c r="E135" t="n">
-        <v>27.14317</v>
+        <v>30.8946990967</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5003,35 +5023,35 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Kyiv</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kyiv, Ukraine</t>
+          <t>Lisbon, Portugal</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>50.3450012207</v>
+        <v>38.7812995911</v>
       </c>
       <c r="E136" t="n">
-        <v>30.8946990967</v>
+        <v>-9.135919570900001</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5041,35 +5061,35 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Lisbon</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lisbon, Portugal</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>38.7812995911</v>
+        <v>51.4706001282</v>
       </c>
       <c r="E137" t="n">
-        <v>-9.135919570900001</v>
+        <v>-0.4619410038</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5079,35 +5099,35 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>London</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>51.4706001282</v>
+        <v>49.6265983582</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.4619410038</v>
+        <v>6.211520195</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5117,35 +5137,35 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Luxembourg City</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Luxembourg City, Luxembourg</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>49.6265983582</v>
+        <v>40.4936</v>
       </c>
       <c r="E139" t="n">
-        <v>6.211520195</v>
+        <v>-3.56676</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5155,35 +5175,35 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Luxembourg City</t>
+          <t>Madrid</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>40.4936</v>
+        <v>53.3536987305</v>
       </c>
       <c r="E140" t="n">
-        <v>-3.56676</v>
+        <v>-2.2749500275</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5193,35 +5213,35 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Manchester</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Manchester, United Kingdom</t>
+          <t>Marseille, France</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>53.3536987305</v>
+        <v>43.439271922</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.2749500275</v>
+        <v>5.2214241028</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5231,35 +5251,35 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Marseille</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Marseille, France</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>43.439271922</v>
+        <v>45.6305999756</v>
       </c>
       <c r="E142" t="n">
-        <v>5.2214241028</v>
+        <v>8.7281103134</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5269,35 +5289,35 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Milan</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Minsk, Belarus</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>45.6305999756</v>
+        <v>53.9006</v>
       </c>
       <c r="E143" t="n">
-        <v>8.7281103134</v>
+        <v>27.599</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5307,35 +5327,35 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Minsk</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Minsk, Belarus</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>53.9006</v>
+        <v>55.4087982178</v>
       </c>
       <c r="E144" t="n">
-        <v>27.599</v>
+        <v>37.9062995911</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5345,35 +5365,35 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Munich, Germany</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55.4087982178</v>
+        <v>48.3538017273</v>
       </c>
       <c r="E145" t="n">
-        <v>37.9062995911</v>
+        <v>11.7861003876</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5383,35 +5403,35 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Munich, Germany</t>
+          <t>Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>48.3538017273</v>
+        <v>34.8750991821</v>
       </c>
       <c r="E146" t="n">
-        <v>11.7861003876</v>
+        <v>33.6249008179</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5421,35 +5441,35 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Nicosia</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nicosia, Cyprus</t>
+          <t>Oslo, Norway</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>34.8750991821</v>
+        <v>60.193901062</v>
       </c>
       <c r="E147" t="n">
-        <v>33.6249008179</v>
+        <v>11.100399971</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5459,35 +5479,35 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Oslo, Norway</t>
+          <t>Palermo, Italy</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>60.193901062</v>
+        <v>38.16114</v>
       </c>
       <c r="E148" t="n">
-        <v>11.100399971</v>
+        <v>13.31546</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5497,35 +5517,35 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Palermo</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Palermo, Italy</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>38.16114</v>
+        <v>49.0127983093</v>
       </c>
       <c r="E149" t="n">
-        <v>13.31546</v>
+        <v>2.5499999523</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5535,35 +5555,35 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paris</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49.0127983093</v>
+        <v>50.1007995605</v>
       </c>
       <c r="E150" t="n">
-        <v>2.5499999523</v>
+        <v>14.2600002289</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5573,35 +5593,35 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Reykjavík, Iceland</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>50.1007995605</v>
+        <v>63.9850006104</v>
       </c>
       <c r="E151" t="n">
-        <v>14.2600002289</v>
+        <v>-22.6056003571</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5611,35 +5631,35 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Reykjavík</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Reykjavík, Iceland</t>
+          <t>Riga, Latvia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>63.9850006104</v>
+        <v>56.9235992432</v>
       </c>
       <c r="E152" t="n">
-        <v>-22.6056003571</v>
+        <v>23.9710998535</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5649,35 +5669,35 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>Riga</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Riga, Latvia</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>56.9235992432</v>
+        <v>41.8045005798</v>
       </c>
       <c r="E153" t="n">
-        <v>23.9710998535</v>
+        <v>12.2508001328</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5687,35 +5707,35 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Rome</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rome, Italy</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>41.8045005798</v>
+        <v>59.8003005981</v>
       </c>
       <c r="E154" t="n">
-        <v>12.2508001328</v>
+        <v>30.2625007629</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5725,35 +5745,35 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>59.8003005981</v>
+        <v>42.6966934204</v>
       </c>
       <c r="E155" t="n">
-        <v>30.2625007629</v>
+        <v>23.4114360809</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5763,35 +5783,35 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sofia, Bulgaria</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>42.6966934204</v>
+        <v>59.6519012451</v>
       </c>
       <c r="E156" t="n">
-        <v>23.4114360809</v>
+        <v>17.9186000824</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5801,35 +5821,35 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Stuttgart, Germany</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>59.6519012451</v>
+        <v>48.783333</v>
       </c>
       <c r="E157" t="n">
-        <v>17.9186000824</v>
+        <v>9.183332999999999</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5839,35 +5859,35 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Stuttgart</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Stuttgart, Germany</t>
+          <t>Tallinn, Estonia</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>48.783333</v>
+        <v>59.4132995605</v>
       </c>
       <c r="E158" t="n">
-        <v>9.183332999999999</v>
+        <v>24.8327999115</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5877,35 +5897,35 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Tallinn</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tallinn, Estonia</t>
+          <t>Tbilisi, Georgia</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>59.4132995605</v>
+        <v>41.6692008972</v>
       </c>
       <c r="E159" t="n">
-        <v>24.8327999115</v>
+        <v>44.95470047</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5915,35 +5935,35 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tbilisi, Georgia</t>
+          <t>Thessaloniki, Greece</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>41.6692008972</v>
+        <v>40.5196990967</v>
       </c>
       <c r="E160" t="n">
-        <v>44.95470047</v>
+        <v>22.9708995819</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5953,35 +5973,35 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Thessaloniki</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Thessaloniki, Greece</t>
+          <t>Tirana, Albania</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>40.5196990967</v>
+        <v>41.4146995544</v>
       </c>
       <c r="E161" t="n">
-        <v>22.9708995819</v>
+        <v>19.7206001282</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5991,35 +6011,35 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Tirana</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tirana, Albania</t>
+          <t>Tver, Russian Federation</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>41.4146995544</v>
+        <v>56.8587</v>
       </c>
       <c r="E162" t="n">
-        <v>19.7206001282</v>
+        <v>35.9176</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6029,35 +6049,35 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Tver</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tver, Russian Federation</t>
+          <t>Vienna, Austria</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>56.8587</v>
+        <v>48.1102981567</v>
       </c>
       <c r="E163" t="n">
-        <v>35.9176</v>
+        <v>16.5697002411</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6067,35 +6087,35 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Tver</t>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Vienna, Austria</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>48.1102981567</v>
+        <v>54.6341018677</v>
       </c>
       <c r="E164" t="n">
-        <v>16.5697002411</v>
+        <v>25.2858009338</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6105,35 +6125,35 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Vilnius</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>54.6341018677</v>
+        <v>52.1656990051</v>
       </c>
       <c r="E165" t="n">
-        <v>25.2858009338</v>
+        <v>20.9671001434</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6143,111 +6163,111 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Warsaw</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Yekaterinburg, Russia</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>52.1656990051</v>
+        <v>56.8431</v>
       </c>
       <c r="E166" t="n">
-        <v>20.9671001434</v>
+        <v>60.6454</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Yekaterinburg</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Yekaterinburg, Russia</t>
+          <t>Zagreb, Croatia</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>56.8431</v>
+        <v>45.7429008484</v>
       </c>
       <c r="E167" t="n">
-        <v>60.6454</v>
+        <v>16.0687999725</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Yekaterinburg</t>
+          <t>Zagreb</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Zagreb, Croatia</t>
+          <t>Zürich, Switzerland</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>45.7429008484</v>
+        <v>47.4646987915</v>
       </c>
       <c r="E168" t="n">
-        <v>16.0687999725</v>
+        <v>8.549169540399999</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6257,35 +6277,35 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Zurich</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Zürich, Switzerland</t>
+          <t>Lyon, France</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>47.4646987915</v>
+        <v>45.7263</v>
       </c>
       <c r="E169" t="n">
-        <v>8.549169540399999</v>
+        <v>5.0908</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6295,31 +6315,31 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lyon, France</t>
+          <t>Bordeaux, France</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>45.7263</v>
+        <v>44.82946</v>
       </c>
       <c r="E170" t="n">
-        <v>5.0908</v>
+        <v>-0.58355</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6333,73 +6353,73 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Bordeaux</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bordeaux, France</t>
+          <t>Americana, Brazil</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>44.82946</v>
+        <v>-22.738</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.58355</v>
+        <v>-47.334</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Americana</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Americana, Brazil</t>
+          <t>Arica, Chile</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-22.738</v>
+        <v>-18.348611</v>
       </c>
       <c r="E172" t="n">
-        <v>-47.334</v>
+        <v>-70.33888899999999</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6409,35 +6429,35 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Americana</t>
+          <t>Arica</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Arica, Chile</t>
+          <t>Asunción, Paraguay</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-18.348611</v>
+        <v>-25.2399997711</v>
       </c>
       <c r="E173" t="n">
-        <v>-70.33888899999999</v>
+        <v>-57.5200004578</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6447,35 +6467,35 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Asunción</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Asunción, Paraguay</t>
+          <t>Belém, Brazil</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-25.2399997711</v>
+        <v>-1.4563</v>
       </c>
       <c r="E174" t="n">
-        <v>-57.5200004578</v>
+        <v>-48.5013</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6485,31 +6505,31 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Asunción</t>
+          <t>Belém</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Belém, Brazil</t>
+          <t>Belo Horizonte, Brazil</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-1.4563</v>
+        <v>-19.624444</v>
       </c>
       <c r="E175" t="n">
-        <v>-48.5013</v>
+        <v>-43.971944</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6523,31 +6543,31 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Belém</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Belo Horizonte, Brazil</t>
+          <t>Blumenau, Brazil</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-19.624444</v>
+        <v>-26.89245</v>
       </c>
       <c r="E176" t="n">
-        <v>-43.971944</v>
+        <v>-49.07696</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6561,35 +6581,35 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Blumenau</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Blumenau, Brazil</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-26.89245</v>
+        <v>4.70159</v>
       </c>
       <c r="E177" t="n">
-        <v>-49.07696</v>
+        <v>-74.1469</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6599,35 +6619,35 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Blumenau</t>
+          <t>Bogotá</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bogotá, Colombia</t>
+          <t>Brasilia, Brazil</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4.70159</v>
+        <v>-15.79824</v>
       </c>
       <c r="E178" t="n">
-        <v>-74.1469</v>
+        <v>-47.90859</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6637,35 +6657,35 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Brasilia</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Brasilia, Brazil</t>
+          <t>Buenos Aires, Argentina</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-15.79824</v>
+        <v>-34.8222</v>
       </c>
       <c r="E179" t="n">
-        <v>-47.90859</v>
+        <v>-58.5358</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6675,35 +6695,35 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Buenos Aires, Argentina</t>
+          <t>Caçador, Brazil</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-34.8222</v>
+        <v>-26.7762</v>
       </c>
       <c r="E180" t="n">
-        <v>-58.5358</v>
+        <v>-51.0125</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6713,31 +6733,31 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Cacador</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Caçador, Brazil</t>
+          <t>Campinas, Brazil</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-26.7762</v>
+        <v>-22.90662</v>
       </c>
       <c r="E181" t="n">
-        <v>-51.0125</v>
+        <v>-47.08576</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6751,35 +6771,35 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Cacador</t>
+          <t>Campinas</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Campinas, Brazil</t>
+          <t>Córdoba, Argentina</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-22.90662</v>
+        <v>-31.31</v>
       </c>
       <c r="E182" t="n">
-        <v>-47.08576</v>
+        <v>-64.208333</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6789,35 +6809,35 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Campinas</t>
+          <t>Córdoba</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Córdoba, Argentina</t>
+          <t>Cuiabá, Brazil</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-31.31</v>
+        <v>-15.59611</v>
       </c>
       <c r="E183" t="n">
-        <v>-64.208333</v>
+        <v>-56.09667</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6827,31 +6847,31 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Córdoba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Cuiabá, Brazil</t>
+          <t>Curitiba, Brazil</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-15.59611</v>
+        <v>-25.5284996033</v>
       </c>
       <c r="E184" t="n">
-        <v>-56.09667</v>
+        <v>-49.1758003235</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6865,31 +6885,31 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Curitiba</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Curitiba, Brazil</t>
+          <t>Florianopolis, Brazil</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-25.5284996033</v>
+        <v>-27.6702785492</v>
       </c>
       <c r="E185" t="n">
-        <v>-49.1758003235</v>
+        <v>-48.5525016785</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6903,31 +6923,31 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Florianopolis</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Florianopolis, Brazil</t>
+          <t>Fortaleza, Brazil</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-27.6702785492</v>
+        <v>-3.7762799263</v>
       </c>
       <c r="E186" t="n">
-        <v>-48.5525016785</v>
+        <v>-38.5326004028</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -6941,35 +6961,35 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Fortaleza, Brazil</t>
+          <t>Georgetown, Guyana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-3.7762799263</v>
+        <v>6.825648</v>
       </c>
       <c r="E187" t="n">
-        <v>-38.5326004028</v>
+        <v>-58.163756</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6979,35 +6999,35 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Georgetown</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Georgetown, Guyana</t>
+          <t>Goiânia, Brazil</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>6.825648</v>
+        <v>-16.69727</v>
       </c>
       <c r="E188" t="n">
-        <v>-58.163756</v>
+        <v>-49.26851</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7017,111 +7037,111 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Goiania</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Goiânia, Brazil</t>
+          <t>Guatemala City, Guatemala</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-16.69727</v>
+        <v>14.5832996368</v>
       </c>
       <c r="E189" t="n">
-        <v>-49.26851</v>
+        <v>-90.5274963379</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Goiania</t>
+          <t>Guatemala City</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Guatemala City, Guatemala</t>
+          <t>Guayaquil, Ecuador</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>14.5832996368</v>
+        <v>-2.1894</v>
       </c>
       <c r="E190" t="n">
-        <v>-90.5274963379</v>
+        <v>-79.8891</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Guatemala City</t>
+          <t>Guayaquil</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Guayaquil, Ecuador</t>
+          <t>Itajaí, Brazil</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-2.1894</v>
+        <v>-27.6116676331</v>
       </c>
       <c r="E191" t="n">
-        <v>-79.8891</v>
+        <v>-48.6727790833</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7131,31 +7151,31 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Itajai</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Itajaí, Brazil</t>
+          <t>Joinville, Brazil</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-27.6116676331</v>
+        <v>-26.304408</v>
       </c>
       <c r="E192" t="n">
-        <v>-48.6727790833</v>
+        <v>-48.846383</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7169,31 +7189,31 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Itajai</t>
+          <t>Joinville</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Joinville, Brazil</t>
+          <t>Juazeiro do Norte, Brazil</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-26.304408</v>
+        <v>-7.2242</v>
       </c>
       <c r="E193" t="n">
-        <v>-48.846383</v>
+        <v>-39.313</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7207,35 +7227,35 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Joinville</t>
+          <t>Juazeiro do Norte</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, Brazil</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-7.2242</v>
+        <v>-12.021900177</v>
       </c>
       <c r="E194" t="n">
-        <v>-39.313</v>
+        <v>-77.1143035889</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7245,35 +7265,35 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte</t>
+          <t>Lima</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Manaus, Brazil</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-12.021900177</v>
+        <v>-3.11286</v>
       </c>
       <c r="E195" t="n">
-        <v>-77.1143035889</v>
+        <v>-60.01949</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7283,35 +7303,35 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Manaus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Manaus, Brazil</t>
+          <t>Medellín, Colombia</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-3.11286</v>
+        <v>6.16454</v>
       </c>
       <c r="E196" t="n">
-        <v>-60.01949</v>
+        <v>-75.42310000000001</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7321,35 +7341,35 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Medellín</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Medellín, Colombia</t>
+          <t>Neuquén, Argentina</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6.16454</v>
+        <v>-38.9490013123</v>
       </c>
       <c r="E197" t="n">
-        <v>-75.42310000000001</v>
+        <v>-68.1557006836</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7359,35 +7379,35 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Neuquen</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Neuquén, Argentina</t>
+          <t>Panama City, Panama</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-38.9490013123</v>
+        <v>9.0713596344</v>
       </c>
       <c r="E198" t="n">
-        <v>-68.1557006836</v>
+        <v>-79.3834991455</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7397,35 +7417,35 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Neuquen</t>
+          <t>Panama City</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Panama City, Panama</t>
+          <t>Paramaribo, Suriname</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>9.0713596344</v>
+        <v>5.452831</v>
       </c>
       <c r="E199" t="n">
-        <v>-79.3834991455</v>
+        <v>-55.187783</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7435,35 +7455,35 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Panama City</t>
+          <t>Paramaribo</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Paramaribo, Suriname</t>
+          <t>Porto Alegre, Brazil</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>5.452831</v>
+        <v>-29.9944000244</v>
       </c>
       <c r="E200" t="n">
-        <v>-55.187783</v>
+        <v>-51.1713981628</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7473,35 +7493,35 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Paramaribo</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Porto Alegre, Brazil</t>
+          <t>Quito, Ecuador</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-29.9944000244</v>
+        <v>-0.1291666667</v>
       </c>
       <c r="E201" t="n">
-        <v>-51.1713981628</v>
+        <v>-78.3575</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7511,35 +7531,35 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Quito</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Quito, Ecuador</t>
+          <t>Recife, Brazil</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-0.1291666667</v>
+        <v>-8.126489639300001</v>
       </c>
       <c r="E202" t="n">
-        <v>-78.3575</v>
+        <v>-34.9235992432</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7549,31 +7569,31 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Quito</t>
+          <t>Recife</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Recife, Brazil</t>
+          <t>Ribeirao Preto, Brazil</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-8.126489639300001</v>
+        <v>-21.1363887787</v>
       </c>
       <c r="E203" t="n">
-        <v>-34.9235992432</v>
+        <v>-47.7766685486</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -7587,31 +7607,31 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Ribeirao Preto</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ribeirao Preto, Brazil</t>
+          <t>Rio de Janeiro, Brazil</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-21.1363887787</v>
+        <v>-22.8099994659</v>
       </c>
       <c r="E204" t="n">
-        <v>-47.7766685486</v>
+        <v>-43.2505569458</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7625,31 +7645,31 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ribeirao Preto</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brazil</t>
+          <t>Salvador, Brazil</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-22.8099994659</v>
+        <v>-12.9086112976</v>
       </c>
       <c r="E205" t="n">
-        <v>-43.2505569458</v>
+        <v>-38.3224983215</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -7663,35 +7683,35 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Salvador</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Salvador, Brazil</t>
+          <t>San José, Costa Rica</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-12.9086112976</v>
+        <v>9.9938602448</v>
       </c>
       <c r="E206" t="n">
-        <v>-38.3224983215</v>
+        <v>-84.2088012695</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7701,35 +7721,35 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>San José</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>San José, Costa Rica</t>
+          <t>Santiago, Chile</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>9.9938602448</v>
+        <v>-33.3930015564</v>
       </c>
       <c r="E207" t="n">
-        <v>-84.2088012695</v>
+        <v>-70.7857971191</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7739,107 +7759,107 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>San José</t>
+          <t>Santiago</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Santiago, Chile</t>
+          <t>Santo Domingo, Dominican Republic</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-33.3930015564</v>
+        <v>18.4297008514</v>
       </c>
       <c r="E208" t="n">
-        <v>-70.7857971191</v>
+        <v>-69.6688995361</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Santo Domingo, Dominican Republic</t>
+          <t>São José do Rio Preto, Brazil</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>18.4297008514</v>
+        <v>-20.807157</v>
       </c>
       <c r="E209" t="n">
-        <v>-69.6688995361</v>
+        <v>-49.378994</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>São José do Rio Preto</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, Brazil</t>
+          <t>São José dos Campos, Brazil</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-20.807157</v>
+        <v>-23.1791</v>
       </c>
       <c r="E210" t="n">
-        <v>-49.378994</v>
+        <v>-45.8872</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7853,31 +7873,31 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>São José do Rio Preto</t>
+          <t>São José dos Campos</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>São José dos Campos, Brazil</t>
+          <t>São Paulo, Brazil</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-23.1791</v>
+        <v>-23.4355564117</v>
       </c>
       <c r="E211" t="n">
-        <v>-45.8872</v>
+        <v>-46.4730567932</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7891,31 +7911,31 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>São José dos Campos</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>São Paulo, Brazil</t>
+          <t>Sorocaba, Brazil</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-23.4355564117</v>
+        <v>-23.54389</v>
       </c>
       <c r="E212" t="n">
-        <v>-46.4730567932</v>
+        <v>-46.63445</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -7929,35 +7949,35 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sorocaba</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sorocaba, Brazil</t>
+          <t>St. George's, Grenada</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-23.54389</v>
+        <v>12.007116</v>
       </c>
       <c r="E213" t="n">
-        <v>-46.63445</v>
+        <v>-61.7882288</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7967,35 +7987,35 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sorocaba</t>
+          <t>St. George's</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>St. George's, Grenada</t>
+          <t>Tegucigalpa, Honduras</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>12.007116</v>
+        <v>14.0608</v>
       </c>
       <c r="E214" t="n">
-        <v>-61.7882288</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8005,35 +8025,35 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>St. George's</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tegucigalpa, Honduras</t>
+          <t>Timbó, Brazil</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>14.0608</v>
+        <v>-26.8251</v>
       </c>
       <c r="E215" t="n">
-        <v>-87.21720000000001</v>
+        <v>-49.2695</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8043,31 +8063,31 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>Timbo</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Timbó, Brazil</t>
+          <t>Uberlândia, Brazil</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-26.8251</v>
+        <v>-18.8836116791</v>
       </c>
       <c r="E216" t="n">
-        <v>-49.2695</v>
+        <v>-48.225276947</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8081,31 +8101,31 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Timbo</t>
+          <t>Uberlandia</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Uberlândia, Brazil</t>
+          <t>Vitoria, Brazil</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-18.8836116791</v>
+        <v>-20.64871</v>
       </c>
       <c r="E217" t="n">
-        <v>-48.225276947</v>
+        <v>-41.90857</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8119,107 +8139,107 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Uberlandia</t>
+          <t>Vitoria</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Vitoria, Brazil</t>
+          <t>Willemstad, Curaçao</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-20.64871</v>
+        <v>12.1888999939</v>
       </c>
       <c r="E218" t="n">
-        <v>-41.90857</v>
+        <v>-68.95980072019999</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Willemstad</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Willemstad, Curaçao</t>
+          <t>Campos dos Goytacazes, Brazil</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>12.1888999939</v>
+        <v>-21.698299408</v>
       </c>
       <c r="E219" t="n">
-        <v>-68.95980072019999</v>
+        <v>-41.301700592</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Willemstad</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes, Brazil</t>
+          <t>Chapeco, Brazil</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-21.698299408</v>
+        <v>-27.1341991425</v>
       </c>
       <c r="E220" t="n">
-        <v>-41.301700592</v>
+        <v>-52.6566009521</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8233,45 +8253,45 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Chapeco</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Chapeco, Brazil</t>
+          <t>Bridgetown, Barbados</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-27.1341991425</v>
+        <v>13.103562</v>
       </c>
       <c r="E221" t="n">
-        <v>-52.6566009521</v>
+        <v>-59.603226</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Chapeco</t>
+          <t>Bridgetown</t>
         </is>
       </c>
     </row>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H310"/>
+  <dimension ref="A1:H312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4138,66 +4138,46 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>CZX</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Amsterdam, Netherlands</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>AMS</t>
-        </is>
-      </c>
-      <c r="D112" t="n">
-        <v>52.3086013794</v>
-      </c>
-      <c r="E112" t="n">
-        <v>4.7638897896</v>
-      </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="G112" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
+          <t>Changzhou, China</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr"/>
+      <c r="F112" t="inlineStr"/>
+      <c r="G112" t="inlineStr"/>
+      <c r="H112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="D113" t="n">
-        <v>37.9364013672</v>
+        <v>52.3086013794</v>
       </c>
       <c r="E113" t="n">
-        <v>23.9444999695</v>
+        <v>4.7638897896</v>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4207,35 +4187,35 @@
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Amsterdam</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Barcelona, Spain</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>41.2971000671</v>
+        <v>37.9364013672</v>
       </c>
       <c r="E114" t="n">
-        <v>2.0784599781</v>
+        <v>23.9444999695</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4245,35 +4225,35 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Athens</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Barcelona, Spain</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>44.8184013367</v>
+        <v>41.2971000671</v>
       </c>
       <c r="E115" t="n">
-        <v>20.3090991974</v>
+        <v>2.0784599781</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4283,35 +4263,35 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>52.5597000122</v>
+        <v>44.8184013367</v>
       </c>
       <c r="E116" t="n">
-        <v>13.2876996994</v>
+        <v>20.3090991974</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4321,35 +4301,35 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Belgrade</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Bratislava, Slovakia</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>48.1486</v>
+        <v>52.5597000122</v>
       </c>
       <c r="E117" t="n">
-        <v>17.1077</v>
+        <v>13.2876996994</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4359,35 +4339,35 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bratislava, Slovakia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>50.9014015198</v>
+        <v>48.1486</v>
       </c>
       <c r="E118" t="n">
-        <v>4.4844398499</v>
+        <v>17.1077</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4397,35 +4377,35 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bratislava</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>44.5722007751</v>
+        <v>50.9014015198</v>
       </c>
       <c r="E119" t="n">
-        <v>26.1021995544</v>
+        <v>4.4844398499</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4435,35 +4415,35 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Brussels</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>47.4369010925</v>
+        <v>44.5722007751</v>
       </c>
       <c r="E120" t="n">
-        <v>19.2555999756</v>
+        <v>26.1021995544</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4473,35 +4453,35 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Bucharest</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Chișinău, Moldova</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>46.9277000427</v>
+        <v>47.4369010925</v>
       </c>
       <c r="E121" t="n">
-        <v>28.9309997559</v>
+        <v>19.2555999756</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4511,35 +4491,35 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Budapest</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Copenhagen, Denmark</t>
+          <t>Chișinău, Moldova</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>55.6179008484</v>
+        <v>46.9277000427</v>
       </c>
       <c r="E122" t="n">
-        <v>12.6560001373</v>
+        <v>28.9309997559</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4549,35 +4529,35 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Chișinău</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Cork, Ireland</t>
+          <t>Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>51.8413009644</v>
+        <v>55.6179008484</v>
       </c>
       <c r="E123" t="n">
-        <v>-8.491109848000001</v>
+        <v>12.6560001373</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4587,31 +4567,31 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Copenhagen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Cork, Ireland</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>53.4212989807</v>
+        <v>51.8413009644</v>
       </c>
       <c r="E124" t="n">
-        <v>-6.270070076</v>
+        <v>-8.491109848000001</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
@@ -4625,35 +4605,35 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Cork</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Düsseldorf, Germany</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>51.2895011902</v>
+        <v>53.4212989807</v>
       </c>
       <c r="E125" t="n">
-        <v>6.7667798996</v>
+        <v>-6.270070076</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4663,35 +4643,35 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Dublin</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Edinburgh, United Kingdom</t>
+          <t>Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>55.9500007629</v>
+        <v>51.2895011902</v>
       </c>
       <c r="E126" t="n">
-        <v>-3.3724999428</v>
+        <v>6.7667798996</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4701,35 +4681,35 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Frankfurt, Germany</t>
+          <t>Edinburgh, United Kingdom</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>50.0264015198</v>
+        <v>55.9500007629</v>
       </c>
       <c r="E127" t="n">
-        <v>8.543129921</v>
+        <v>-3.3724999428</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4739,35 +4719,35 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Edinburgh</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Geneva, Switzerland</t>
+          <t>Frankfurt, Germany</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>46.2380981445</v>
+        <v>50.0264015198</v>
       </c>
       <c r="E128" t="n">
-        <v>6.1089501381</v>
+        <v>8.543129921</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4777,35 +4757,35 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Geneva</t>
+          <t>Frankfurt</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>57.6627998352</v>
+        <v>46.2380981445</v>
       </c>
       <c r="E129" t="n">
-        <v>12.279800415</v>
+        <v>6.1089501381</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4815,35 +4795,35 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Geneva</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Hamburg, Germany</t>
+          <t>Gothenburg, Sweden</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>53.6304016113</v>
+        <v>57.6627998352</v>
       </c>
       <c r="E130" t="n">
-        <v>9.9882297516</v>
+        <v>12.279800415</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4853,35 +4833,35 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Gothenburg</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Helsinki, Finland</t>
+          <t>Hamburg, Germany</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>60.317199707</v>
+        <v>53.6304016113</v>
       </c>
       <c r="E131" t="n">
-        <v>24.963300705</v>
+        <v>9.9882297516</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4891,35 +4871,35 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>40.9768981934</v>
+        <v>60.317199707</v>
       </c>
       <c r="E132" t="n">
-        <v>28.8145999908</v>
+        <v>24.963300705</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4929,31 +4909,31 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Helsinki</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Izmir, Turkey</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>38.32377</v>
+        <v>40.9768981934</v>
       </c>
       <c r="E133" t="n">
-        <v>27.14317</v>
+        <v>28.8145999908</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
@@ -4967,35 +4947,35 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Istanbul</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Kyiv, Ukraine</t>
+          <t>Izmir, Turkey</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>50.3450012207</v>
+        <v>38.32377</v>
       </c>
       <c r="E134" t="n">
-        <v>30.8946990967</v>
+        <v>27.14317</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
@@ -5005,35 +4985,35 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Izmir</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Lisbon, Portugal</t>
+          <t>Kyiv, Ukraine</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>38.7812995911</v>
+        <v>50.3450012207</v>
       </c>
       <c r="E135" t="n">
-        <v>-9.135919570900001</v>
+        <v>30.8946990967</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5043,35 +5023,35 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Kyiv</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Lisbon, Portugal</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>51.4706001282</v>
+        <v>38.7812995911</v>
       </c>
       <c r="E136" t="n">
-        <v>-0.4619410038</v>
+        <v>-9.135919570900001</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5081,35 +5061,35 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Lisbon</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Luxembourg City, Luxembourg</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>49.6265983582</v>
+        <v>51.4706001282</v>
       </c>
       <c r="E137" t="n">
-        <v>6.211520195</v>
+        <v>-0.4619410038</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5119,35 +5099,35 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Luxembourg City</t>
+          <t>London</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>40.4936</v>
+        <v>49.6265983582</v>
       </c>
       <c r="E138" t="n">
-        <v>-3.56676</v>
+        <v>6.211520195</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5157,35 +5137,35 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Luxembourg City</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Manchester, United Kingdom</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>53.3536987305</v>
+        <v>40.4936</v>
       </c>
       <c r="E139" t="n">
-        <v>-2.2749500275</v>
+        <v>-3.56676</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5195,35 +5175,35 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Madrid</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Marseille, France</t>
+          <t>Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>43.439271922</v>
+        <v>53.3536987305</v>
       </c>
       <c r="E140" t="n">
-        <v>5.2214241028</v>
+        <v>-2.2749500275</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5233,35 +5213,35 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Manchester</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Marseille, France</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>45.6305999756</v>
+        <v>43.439271922</v>
       </c>
       <c r="E141" t="n">
-        <v>8.7281103134</v>
+        <v>5.2214241028</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5271,35 +5251,35 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Marseille</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Minsk, Belarus</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>53.9006</v>
+        <v>45.6305999756</v>
       </c>
       <c r="E142" t="n">
-        <v>27.599</v>
+        <v>8.7281103134</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5309,35 +5289,35 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Milan</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Minsk, Belarus</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>55.4087982178</v>
+        <v>53.9006</v>
       </c>
       <c r="E143" t="n">
-        <v>37.9062995911</v>
+        <v>27.599</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5347,35 +5327,35 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Minsk</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Munich, Germany</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>48.3538017273</v>
+        <v>55.4087982178</v>
       </c>
       <c r="E144" t="n">
-        <v>11.7861003876</v>
+        <v>37.9062995911</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5385,35 +5365,35 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Nicosia, Cyprus</t>
+          <t>Munich, Germany</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>34.8750991821</v>
+        <v>48.3538017273</v>
       </c>
       <c r="E145" t="n">
-        <v>33.6249008179</v>
+        <v>11.7861003876</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5423,35 +5403,35 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Oslo, Norway</t>
+          <t>Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>60.193901062</v>
+        <v>34.8750991821</v>
       </c>
       <c r="E146" t="n">
-        <v>11.100399971</v>
+        <v>33.6249008179</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5461,35 +5441,35 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Nicosia</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Palermo, Italy</t>
+          <t>Oslo, Norway</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>38.16114</v>
+        <v>60.193901062</v>
       </c>
       <c r="E147" t="n">
-        <v>13.31546</v>
+        <v>11.100399971</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5499,35 +5479,35 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Palermo, Italy</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>49.0127983093</v>
+        <v>38.16114</v>
       </c>
       <c r="E148" t="n">
-        <v>2.5499999523</v>
+        <v>13.31546</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5537,35 +5517,35 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Palermo</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>50.1007995605</v>
+        <v>49.0127983093</v>
       </c>
       <c r="E149" t="n">
-        <v>14.2600002289</v>
+        <v>2.5499999523</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5575,35 +5555,35 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Reykjavík, Iceland</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>63.9850006104</v>
+        <v>50.1007995605</v>
       </c>
       <c r="E150" t="n">
-        <v>-22.6056003571</v>
+        <v>14.2600002289</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5613,35 +5593,35 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>Prague</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Riga, Latvia</t>
+          <t>Reykjavík, Iceland</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>56.9235992432</v>
+        <v>63.9850006104</v>
       </c>
       <c r="E151" t="n">
-        <v>23.9710998535</v>
+        <v>-22.6056003571</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5651,35 +5631,35 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Reykjavík</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Rome, Italy</t>
+          <t>Riga, Latvia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>41.8045005798</v>
+        <v>56.9235992432</v>
       </c>
       <c r="E152" t="n">
-        <v>12.2508001328</v>
+        <v>23.9710998535</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5689,35 +5669,35 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Riga</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>59.8003005981</v>
+        <v>41.8045005798</v>
       </c>
       <c r="E153" t="n">
-        <v>30.2625007629</v>
+        <v>12.2508001328</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5727,35 +5707,35 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Rome</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Sofia, Bulgaria</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>42.6966934204</v>
+        <v>59.8003005981</v>
       </c>
       <c r="E154" t="n">
-        <v>23.4114360809</v>
+        <v>30.2625007629</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5765,35 +5745,35 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>59.6519012451</v>
+        <v>42.6966934204</v>
       </c>
       <c r="E155" t="n">
-        <v>17.9186000824</v>
+        <v>23.4114360809</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5803,35 +5783,35 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Stuttgart, Germany</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>48.783333</v>
+        <v>59.6519012451</v>
       </c>
       <c r="E156" t="n">
-        <v>9.183332999999999</v>
+        <v>17.9186000824</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5841,35 +5821,35 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Tallinn, Estonia</t>
+          <t>Stuttgart, Germany</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>59.4132995605</v>
+        <v>48.783333</v>
       </c>
       <c r="E157" t="n">
-        <v>24.8327999115</v>
+        <v>9.183332999999999</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5879,35 +5859,35 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Stuttgart</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tbilisi, Georgia</t>
+          <t>Tallinn, Estonia</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>41.6692008972</v>
+        <v>59.4132995605</v>
       </c>
       <c r="E158" t="n">
-        <v>44.95470047</v>
+        <v>24.8327999115</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5917,35 +5897,35 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Tallinn</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Thessaloniki, Greece</t>
+          <t>Tbilisi, Georgia</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>40.5196990967</v>
+        <v>41.6692008972</v>
       </c>
       <c r="E159" t="n">
-        <v>22.9708995819</v>
+        <v>44.95470047</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5955,35 +5935,35 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tirana, Albania</t>
+          <t>Thessaloniki, Greece</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>41.4146995544</v>
+        <v>40.5196990967</v>
       </c>
       <c r="E160" t="n">
-        <v>19.7206001282</v>
+        <v>22.9708995819</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5993,35 +5973,35 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Thessaloniki</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tver, Russian Federation</t>
+          <t>Tirana, Albania</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>56.8587</v>
+        <v>41.4146995544</v>
       </c>
       <c r="E161" t="n">
-        <v>35.9176</v>
+        <v>19.7206001282</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6031,35 +6011,35 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Tver</t>
+          <t>Tirana</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Vienna, Austria</t>
+          <t>Tver, Russian Federation</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>48.1102981567</v>
+        <v>56.8587</v>
       </c>
       <c r="E162" t="n">
-        <v>16.5697002411</v>
+        <v>35.9176</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6069,35 +6049,35 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Tver</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Vienna, Austria</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>54.6341018677</v>
+        <v>48.1102981567</v>
       </c>
       <c r="E163" t="n">
-        <v>25.2858009338</v>
+        <v>16.5697002411</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6107,35 +6087,35 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>52.1656990051</v>
+        <v>54.6341018677</v>
       </c>
       <c r="E164" t="n">
-        <v>20.9671001434</v>
+        <v>25.2858009338</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6145,111 +6125,111 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Vilnius</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Yekaterinburg, Russia</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>56.8431</v>
+        <v>52.1656990051</v>
       </c>
       <c r="E165" t="n">
-        <v>60.6454</v>
+        <v>20.9671001434</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Yekaterinburg</t>
+          <t>Warsaw</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Zagreb, Croatia</t>
+          <t>Yekaterinburg, Russia</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>45.7429008484</v>
+        <v>56.8431</v>
       </c>
       <c r="E166" t="n">
-        <v>16.0687999725</v>
+        <v>60.6454</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Yekaterinburg</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Zürich, Switzerland</t>
+          <t>Zagreb, Croatia</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>47.4646987915</v>
+        <v>45.7429008484</v>
       </c>
       <c r="E167" t="n">
-        <v>8.549169540399999</v>
+        <v>16.0687999725</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
@@ -6259,35 +6239,35 @@
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Zagreb</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Lyon, France</t>
+          <t>Zürich, Switzerland</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>45.7263</v>
+        <v>47.4646987915</v>
       </c>
       <c r="E168" t="n">
-        <v>5.0908</v>
+        <v>8.549169540399999</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6297,31 +6277,31 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Zurich</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Bordeaux, France</t>
+          <t>Lyon, France</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>44.82946</v>
+        <v>45.7263</v>
       </c>
       <c r="E169" t="n">
-        <v>-0.58355</v>
+        <v>5.0908</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
@@ -6335,73 +6315,73 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Americana, Brazil</t>
+          <t>Bordeaux, France</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>-22.738</v>
+        <v>44.82946</v>
       </c>
       <c r="E170" t="n">
-        <v>-47.334</v>
+        <v>-0.58355</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Americana</t>
+          <t>Bordeaux</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Arica, Chile</t>
+          <t>Americana, Brazil</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-18.348611</v>
+        <v>-22.738</v>
       </c>
       <c r="E171" t="n">
-        <v>-70.33888899999999</v>
+        <v>-47.334</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6411,35 +6391,35 @@
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Americana</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Asunción, Paraguay</t>
+          <t>Arica, Chile</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-25.2399997711</v>
+        <v>-18.348611</v>
       </c>
       <c r="E172" t="n">
-        <v>-57.5200004578</v>
+        <v>-70.33888899999999</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6449,35 +6429,35 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Asunción</t>
+          <t>Arica</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Belém, Brazil</t>
+          <t>Asunción, Paraguay</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-1.4563</v>
+        <v>-25.2399997711</v>
       </c>
       <c r="E173" t="n">
-        <v>-48.5013</v>
+        <v>-57.5200004578</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6487,31 +6467,31 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Belém</t>
+          <t>Asunción</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Belo Horizonte, Brazil</t>
+          <t>Belém, Brazil</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-19.624444</v>
+        <v>-1.4563</v>
       </c>
       <c r="E174" t="n">
-        <v>-43.971944</v>
+        <v>-48.5013</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
@@ -6525,31 +6505,31 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Belém</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Blumenau, Brazil</t>
+          <t>Belo Horizonte, Brazil</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-26.89245</v>
+        <v>-19.624444</v>
       </c>
       <c r="E175" t="n">
-        <v>-49.07696</v>
+        <v>-43.971944</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6563,35 +6543,35 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Blumenau</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Bogotá, Colombia</t>
+          <t>Blumenau, Brazil</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>4.70159</v>
+        <v>-26.89245</v>
       </c>
       <c r="E176" t="n">
-        <v>-74.1469</v>
+        <v>-49.07696</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6601,35 +6581,35 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Blumenau</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Brasilia, Brazil</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-15.79824</v>
+        <v>4.70159</v>
       </c>
       <c r="E177" t="n">
-        <v>-47.90859</v>
+        <v>-74.1469</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6639,35 +6619,35 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Bogotá</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Buenos Aires, Argentina</t>
+          <t>Brasilia, Brazil</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-34.8222</v>
+        <v>-15.79824</v>
       </c>
       <c r="E178" t="n">
-        <v>-58.5358</v>
+        <v>-47.90859</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6677,35 +6657,35 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Brasilia</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Caçador, Brazil</t>
+          <t>Buenos Aires, Argentina</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-26.7762</v>
+        <v>-34.8222</v>
       </c>
       <c r="E179" t="n">
-        <v>-51.0125</v>
+        <v>-58.5358</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6715,31 +6695,31 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Cacador</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Campinas, Brazil</t>
+          <t>Caçador, Brazil</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-22.90662</v>
+        <v>-26.7762</v>
       </c>
       <c r="E180" t="n">
-        <v>-47.08576</v>
+        <v>-51.0125</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
@@ -6753,35 +6733,35 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Campinas</t>
+          <t>Cacador</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Córdoba, Argentina</t>
+          <t>Campinas, Brazil</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-31.31</v>
+        <v>-22.90662</v>
       </c>
       <c r="E181" t="n">
-        <v>-64.208333</v>
+        <v>-47.08576</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G181" t="inlineStr">
@@ -6791,35 +6771,35 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Córdoba</t>
+          <t>Campinas</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Cuiabá, Brazil</t>
+          <t>Córdoba, Argentina</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-15.59611</v>
+        <v>-31.31</v>
       </c>
       <c r="E182" t="n">
-        <v>-56.09667</v>
+        <v>-64.208333</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6829,31 +6809,31 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Córdoba</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Curitiba, Brazil</t>
+          <t>Cuiabá, Brazil</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-25.5284996033</v>
+        <v>-15.59611</v>
       </c>
       <c r="E183" t="n">
-        <v>-49.1758003235</v>
+        <v>-56.09667</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
@@ -6867,31 +6847,31 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Florianopolis, Brazil</t>
+          <t>Curitiba, Brazil</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-27.6702785492</v>
+        <v>-25.5284996033</v>
       </c>
       <c r="E184" t="n">
-        <v>-48.5525016785</v>
+        <v>-49.1758003235</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6905,31 +6885,31 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Curitiba</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Fortaleza, Brazil</t>
+          <t>Florianopolis, Brazil</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-3.7762799263</v>
+        <v>-27.6702785492</v>
       </c>
       <c r="E185" t="n">
-        <v>-38.5326004028</v>
+        <v>-48.5525016785</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6943,35 +6923,35 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Florianopolis</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Georgetown, Guyana</t>
+          <t>Fortaleza, Brazil</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>6.825648</v>
+        <v>-3.7762799263</v>
       </c>
       <c r="E186" t="n">
-        <v>-58.163756</v>
+        <v>-38.5326004028</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G186" t="inlineStr">
@@ -6981,35 +6961,35 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Goiânia, Brazil</t>
+          <t>Georgetown, Guyana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-16.69727</v>
+        <v>6.825648</v>
       </c>
       <c r="E187" t="n">
-        <v>-49.26851</v>
+        <v>-58.163756</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -7019,111 +6999,111 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Goiania</t>
+          <t>Georgetown</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Guatemala City, Guatemala</t>
+          <t>Goiânia, Brazil</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>14.5832996368</v>
+        <v>-16.69727</v>
       </c>
       <c r="E188" t="n">
-        <v>-90.5274963379</v>
+        <v>-49.26851</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Guatemala City</t>
+          <t>Goiania</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Guayaquil, Ecuador</t>
+          <t>Guatemala City, Guatemala</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-2.1894</v>
+        <v>14.5832996368</v>
       </c>
       <c r="E189" t="n">
-        <v>-79.8891</v>
+        <v>-90.5274963379</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Guatemala City</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Itajaí, Brazil</t>
+          <t>Guayaquil, Ecuador</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-27.6116676331</v>
+        <v>-2.1894</v>
       </c>
       <c r="E190" t="n">
-        <v>-48.6727790833</v>
+        <v>-79.8891</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
@@ -7133,31 +7113,31 @@
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Itajai</t>
+          <t>Guayaquil</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Joinville, Brazil</t>
+          <t>Itajaí, Brazil</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-26.304408</v>
+        <v>-27.6116676331</v>
       </c>
       <c r="E191" t="n">
-        <v>-48.846383</v>
+        <v>-48.6727790833</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
@@ -7171,31 +7151,31 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Joinville</t>
+          <t>Itajai</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, Brazil</t>
+          <t>Joinville, Brazil</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-7.2242</v>
+        <v>-26.304408</v>
       </c>
       <c r="E192" t="n">
-        <v>-39.313</v>
+        <v>-48.846383</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7209,35 +7189,35 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte</t>
+          <t>Joinville</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Juazeiro do Norte, Brazil</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-12.021900177</v>
+        <v>-7.2242</v>
       </c>
       <c r="E193" t="n">
-        <v>-77.1143035889</v>
+        <v>-39.313</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G193" t="inlineStr">
@@ -7247,35 +7227,35 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Juazeiro do Norte</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Manaus, Brazil</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-3.11286</v>
+        <v>-12.021900177</v>
       </c>
       <c r="E194" t="n">
-        <v>-60.01949</v>
+        <v>-77.1143035889</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7285,35 +7265,35 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Lima</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Medellín, Colombia</t>
+          <t>Manaus, Brazil</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>6.16454</v>
+        <v>-3.11286</v>
       </c>
       <c r="E195" t="n">
-        <v>-75.42310000000001</v>
+        <v>-60.01949</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7323,35 +7303,35 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Manaus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Neuquén, Argentina</t>
+          <t>Medellín, Colombia</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-38.9490013123</v>
+        <v>6.16454</v>
       </c>
       <c r="E196" t="n">
-        <v>-68.1557006836</v>
+        <v>-75.42310000000001</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7361,35 +7341,35 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Neuquen</t>
+          <t>Medellín</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Panama City, Panama</t>
+          <t>Neuquén, Argentina</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>9.0713596344</v>
+        <v>-38.9490013123</v>
       </c>
       <c r="E197" t="n">
-        <v>-79.3834991455</v>
+        <v>-68.1557006836</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7399,35 +7379,35 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Panama City</t>
+          <t>Neuquen</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Paramaribo, Suriname</t>
+          <t>Panama City, Panama</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>5.452831</v>
+        <v>9.0713596344</v>
       </c>
       <c r="E198" t="n">
-        <v>-55.187783</v>
+        <v>-79.3834991455</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7437,35 +7417,35 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Paramaribo</t>
+          <t>Panama City</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Porto Alegre, Brazil</t>
+          <t>Paramaribo, Suriname</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>-29.9944000244</v>
+        <v>5.452831</v>
       </c>
       <c r="E199" t="n">
-        <v>-51.1713981628</v>
+        <v>-55.187783</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7475,35 +7455,35 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Paramaribo</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Quito, Ecuador</t>
+          <t>Porto Alegre, Brazil</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-0.1291666667</v>
+        <v>-29.9944000244</v>
       </c>
       <c r="E200" t="n">
-        <v>-78.3575</v>
+        <v>-51.1713981628</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7513,35 +7493,35 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Quito</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Recife, Brazil</t>
+          <t>Quito, Ecuador</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-8.126489639300001</v>
+        <v>-0.1291666667</v>
       </c>
       <c r="E201" t="n">
-        <v>-34.9235992432</v>
+        <v>-78.3575</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7551,31 +7531,31 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Quito</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Ribeirao Preto, Brazil</t>
+          <t>Recife, Brazil</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-21.1363887787</v>
+        <v>-8.126489639300001</v>
       </c>
       <c r="E202" t="n">
-        <v>-47.7766685486</v>
+        <v>-34.9235992432</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
@@ -7589,31 +7569,31 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Ribeirao Preto</t>
+          <t>Recife</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brazil</t>
+          <t>Ribeirao Preto, Brazil</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-22.8099994659</v>
+        <v>-21.1363887787</v>
       </c>
       <c r="E203" t="n">
-        <v>-43.2505569458</v>
+        <v>-47.7766685486</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -7627,31 +7607,31 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Ribeirao Preto</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Salvador, Brazil</t>
+          <t>Rio de Janeiro, Brazil</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-12.9086112976</v>
+        <v>-22.8099994659</v>
       </c>
       <c r="E204" t="n">
-        <v>-38.3224983215</v>
+        <v>-43.2505569458</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7665,35 +7645,35 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>San José, Costa Rica</t>
+          <t>Salvador, Brazil</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>9.9938602448</v>
+        <v>-12.9086112976</v>
       </c>
       <c r="E205" t="n">
-        <v>-84.2088012695</v>
+        <v>-38.3224983215</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
@@ -7703,35 +7683,35 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>San José</t>
+          <t>Salvador</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Santiago, Chile</t>
+          <t>San José, Costa Rica</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-33.3930015564</v>
+        <v>9.9938602448</v>
       </c>
       <c r="E206" t="n">
-        <v>-70.7857971191</v>
+        <v>-84.2088012695</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7741,107 +7721,107 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>San José</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Santo Domingo, Dominican Republic</t>
+          <t>Santiago, Chile</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>18.4297008514</v>
+        <v>-33.3930015564</v>
       </c>
       <c r="E207" t="n">
-        <v>-69.6688995361</v>
+        <v>-70.7857971191</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>Santiago</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, Brazil</t>
+          <t>Santo Domingo, Dominican Republic</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-20.807157</v>
+        <v>18.4297008514</v>
       </c>
       <c r="E208" t="n">
-        <v>-49.378994</v>
+        <v>-69.6688995361</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>São José do Rio Preto</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>São José dos Campos, Brazil</t>
+          <t>São José do Rio Preto, Brazil</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-23.1791</v>
+        <v>-20.807157</v>
       </c>
       <c r="E209" t="n">
-        <v>-45.8872</v>
+        <v>-49.378994</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
@@ -7855,31 +7835,31 @@
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>São José dos Campos</t>
+          <t>São José do Rio Preto</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>São Paulo, Brazil</t>
+          <t>São José dos Campos, Brazil</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-23.4355564117</v>
+        <v>-23.1791</v>
       </c>
       <c r="E210" t="n">
-        <v>-46.4730567932</v>
+        <v>-45.8872</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7893,31 +7873,31 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>São José dos Campos</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Sorocaba, Brazil</t>
+          <t>São Paulo, Brazil</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-23.54389</v>
+        <v>-23.4355564117</v>
       </c>
       <c r="E211" t="n">
-        <v>-46.63445</v>
+        <v>-46.4730567932</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7931,35 +7911,35 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>Sorocaba</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>St. George's, Grenada</t>
+          <t>Sorocaba, Brazil</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>12.007116</v>
+        <v>-23.54389</v>
       </c>
       <c r="E212" t="n">
-        <v>-61.7882288</v>
+        <v>-46.63445</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G212" t="inlineStr">
@@ -7969,35 +7949,35 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>St. George's</t>
+          <t>Sorocaba</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Tegucigalpa, Honduras</t>
+          <t>St. George's, Grenada</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>14.0608</v>
+        <v>12.007116</v>
       </c>
       <c r="E213" t="n">
-        <v>-87.21720000000001</v>
+        <v>-61.7882288</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -8007,35 +7987,35 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>St. George's</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Timbó, Brazil</t>
+          <t>Tegucigalpa, Honduras</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>-26.8251</v>
+        <v>14.0608</v>
       </c>
       <c r="E214" t="n">
-        <v>-49.2695</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8045,31 +8025,31 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Timbo</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Uberlândia, Brazil</t>
+          <t>Timbó, Brazil</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-18.8836116791</v>
+        <v>-26.8251</v>
       </c>
       <c r="E215" t="n">
-        <v>-48.225276947</v>
+        <v>-49.2695</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
@@ -8083,31 +8063,31 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Uberlandia</t>
+          <t>Timbo</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Vitoria, Brazil</t>
+          <t>Uberlândia, Brazil</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-20.64871</v>
+        <v>-18.8836116791</v>
       </c>
       <c r="E216" t="n">
-        <v>-41.90857</v>
+        <v>-48.225276947</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8121,107 +8101,107 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Uberlandia</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Willemstad, Curaçao</t>
+          <t>Vitoria, Brazil</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>12.1888999939</v>
+        <v>-20.64871</v>
       </c>
       <c r="E217" t="n">
-        <v>-68.95980072019999</v>
+        <v>-41.90857</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Willemstad</t>
+          <t>Vitoria</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes, Brazil</t>
+          <t>Willemstad, Curaçao</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-21.698299408</v>
+        <v>12.1888999939</v>
       </c>
       <c r="E218" t="n">
-        <v>-41.301700592</v>
+        <v>-68.95980072019999</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Willemstad</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Chapeco, Brazil</t>
+          <t>Campos dos Goytacazes, Brazil</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-27.1341991425</v>
+        <v>-21.698299408</v>
       </c>
       <c r="E219" t="n">
-        <v>-52.6566009521</v>
+        <v>-41.301700592</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
@@ -8235,111 +8215,111 @@
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Chapeco</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Bridgetown, Barbados</t>
+          <t>Chapeco, Brazil</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>13.103562</v>
+        <v>-27.1341991425</v>
       </c>
       <c r="E220" t="n">
-        <v>-59.603226</v>
+        <v>-52.6566009521</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Bridgetown</t>
+          <t>Chapeco</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Bridgetown, Barbados</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>31.7226009369</v>
+        <v>13.103562</v>
       </c>
       <c r="E221" t="n">
-        <v>35.9931983948</v>
+        <v>-59.603226</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Bridgetown</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Astara, Azerbaijan</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>38.7463989258</v>
+        <v>31.7226009369</v>
       </c>
       <c r="E222" t="n">
-        <v>48.8180007935</v>
+        <v>35.9931983948</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8349,35 +8329,35 @@
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Astara</t>
+          <t>Amman</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Baghdad, Iraq</t>
+          <t>Astara, Azerbaijan</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>33.2625007629</v>
+        <v>38.7463989258</v>
       </c>
       <c r="E223" t="n">
-        <v>44.2346000671</v>
+        <v>48.8180007935</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8387,35 +8367,35 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Astara</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Baku, Azerbaijan</t>
+          <t>Baghdad, Iraq</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>40.4674987793</v>
+        <v>33.2625007629</v>
       </c>
       <c r="E224" t="n">
-        <v>50.0466995239</v>
+        <v>44.2346000671</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8425,35 +8405,35 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Baghdad</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Basra, Iraq</t>
+          <t>Baku, Azerbaijan</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>30.5491008759</v>
+        <v>40.4674987793</v>
       </c>
       <c r="E225" t="n">
-        <v>47.6621017456</v>
+        <v>50.0466995239</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8463,35 +8443,35 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Basra</t>
+          <t>Baku</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Beirut, Lebanon</t>
+          <t>Basra, Iraq</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>33.8208999634</v>
+        <v>30.5491008759</v>
       </c>
       <c r="E226" t="n">
-        <v>35.4883995056</v>
+        <v>47.6621017456</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8501,35 +8481,35 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Basra</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Dammam, Saudi Arabia</t>
+          <t>Beirut, Lebanon</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>26.471200943</v>
+        <v>33.8208999634</v>
       </c>
       <c r="E227" t="n">
-        <v>49.7979011536</v>
+        <v>35.4883995056</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8539,35 +8519,35 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Dammam</t>
+          <t>Beirut</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Doha, Qatar</t>
+          <t>Dammam, Saudi Arabia</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>25.2605946</v>
+        <v>26.471200943</v>
       </c>
       <c r="E228" t="n">
-        <v>51.6137665</v>
+        <v>49.7979011536</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8577,35 +8557,35 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Doha</t>
+          <t>Dammam</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Doha, Qatar</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>25.2527999878</v>
+        <v>25.2605946</v>
       </c>
       <c r="E229" t="n">
-        <v>55.3643989563</v>
+        <v>51.6137665</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8615,35 +8595,35 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Doha</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Erbil, Iraq</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>36.1901</v>
+        <v>25.2527999878</v>
       </c>
       <c r="E230" t="n">
-        <v>43.993</v>
+        <v>55.3643989563</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8653,35 +8633,35 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Dubai</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Haifa, Israel</t>
+          <t>Erbil, Iraq</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>32.78492</v>
+        <v>36.1901</v>
       </c>
       <c r="E231" t="n">
-        <v>34.96069</v>
+        <v>43.993</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8691,35 +8671,35 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Erbil</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Jeddah, Saudi Arabia</t>
+          <t>Haifa, Israel</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>21.679599762</v>
+        <v>32.78492</v>
       </c>
       <c r="E232" t="n">
-        <v>39.15650177</v>
+        <v>34.96069</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8729,35 +8709,35 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Haifa</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Kuwait City, Kuwait</t>
+          <t>Jeddah, Saudi Arabia</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>29.226600647</v>
+        <v>21.679599762</v>
       </c>
       <c r="E233" t="n">
-        <v>47.9688987732</v>
+        <v>39.15650177</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8767,35 +8747,35 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Kuwait City</t>
+          <t>Jeddah</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Manama, Bahrain</t>
+          <t>Kuwait City, Kuwait</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>26.2707996368</v>
+        <v>29.226600647</v>
       </c>
       <c r="E234" t="n">
-        <v>50.6335983276</v>
+        <v>47.9688987732</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8805,35 +8785,35 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Manama</t>
+          <t>Kuwait City</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Muscat, Oman</t>
+          <t>Manama, Bahrain</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>23.5932998657</v>
+        <v>26.2707996368</v>
       </c>
       <c r="E235" t="n">
-        <v>58.2844009399</v>
+        <v>50.6335983276</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8843,35 +8823,35 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Muscat</t>
+          <t>Manama</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Najaf, Iraq</t>
+          <t>Muscat, Oman</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>31.989722</v>
+        <v>23.5932998657</v>
       </c>
       <c r="E236" t="n">
-        <v>44.404167</v>
+        <v>58.2844009399</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8881,31 +8861,31 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Najaf</t>
+          <t>Muscat</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Nasiriyah, Iraq</t>
+          <t>Najaf, Iraq</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>30.9358005524</v>
+        <v>31.989722</v>
       </c>
       <c r="E237" t="n">
-        <v>46.0900993347</v>
+        <v>44.404167</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
@@ -8919,35 +8899,35 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Nasiriyah</t>
+          <t>Najaf</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah, Iraq</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>32.2719</v>
+        <v>30.9358005524</v>
       </c>
       <c r="E238" t="n">
-        <v>35.0194</v>
+        <v>46.0900993347</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G238" t="inlineStr">
@@ -8957,35 +8937,35 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Riyadh, Saudi Arabia</t>
+          <t>Ramallah</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>24.9575996399</v>
+        <v>32.2719</v>
       </c>
       <c r="E239" t="n">
-        <v>46.6987991333</v>
+        <v>35.0194</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8995,35 +8975,35 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Riyadh</t>
+          <t>Ramallah</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Sulaymaniyah, Iraq</t>
+          <t>Riyadh, Saudi Arabia</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>35.5668</v>
+        <v>24.9575996399</v>
       </c>
       <c r="E240" t="n">
-        <v>45.4161</v>
+        <v>46.6987991333</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9033,35 +9013,35 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Sulaymaniyah</t>
+          <t>Riyadh</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Tel Aviv, Israel</t>
+          <t>Sulaymaniyah, Iraq</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>32.0113983154</v>
+        <v>35.5668</v>
       </c>
       <c r="E241" t="n">
-        <v>34.8866996765</v>
+        <v>45.4161</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9071,69 +9051,69 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Tel Aviv</t>
+          <t>Sulaymaniyah</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Tel Aviv, Israel</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>38.94449997</v>
+        <v>32.0113983154</v>
       </c>
       <c r="E242" t="n">
-        <v>-77.45580292</v>
+        <v>34.8866996765</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>33.6366996765</v>
+        <v>38.94449997</v>
       </c>
       <c r="E243" t="n">
-        <v>-84.4281005859</v>
+        <v>-77.45580292</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
@@ -9147,31 +9127,31 @@
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ashburn</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>42.36429977</v>
+        <v>33.6366996765</v>
       </c>
       <c r="E244" t="n">
-        <v>-71.00520324999999</v>
+        <v>-84.4281005859</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9185,31 +9165,31 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>42.94049835</v>
+        <v>42.36429977</v>
       </c>
       <c r="E245" t="n">
-        <v>-78.73220062</v>
+        <v>-71.00520324999999</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9223,35 +9203,35 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>51.113899231</v>
+        <v>42.94049835</v>
       </c>
       <c r="E246" t="n">
-        <v>-114.019996643</v>
+        <v>-78.73220062</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G246" t="inlineStr">
@@ -9261,35 +9241,35 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Buffalo</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>35.2140007019</v>
+        <v>51.113899231</v>
       </c>
       <c r="E247" t="n">
-        <v>-80.94309997560001</v>
+        <v>-114.019996643</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9299,31 +9279,31 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Calgary</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>41.97859955</v>
+        <v>35.2140007019</v>
       </c>
       <c r="E248" t="n">
-        <v>-87.90480042</v>
+        <v>-80.94309997560001</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
@@ -9337,31 +9317,31 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>39.9980010986</v>
+        <v>41.97859955</v>
       </c>
       <c r="E249" t="n">
-        <v>-82.89189910890001</v>
+        <v>-87.90480042</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -9375,31 +9355,31 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Chicago</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>32.8968009949</v>
+        <v>39.9980010986</v>
       </c>
       <c r="E250" t="n">
-        <v>-97.0380020142</v>
+        <v>-82.89189910890001</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -9413,31 +9393,31 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Columbus</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>39.8616981506</v>
+        <v>32.8968009949</v>
       </c>
       <c r="E251" t="n">
-        <v>-104.672996521</v>
+        <v>-97.0380020142</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -9451,31 +9431,31 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>42.2123985291</v>
+        <v>39.8616981506</v>
       </c>
       <c r="E252" t="n">
-        <v>-83.35340118409999</v>
+        <v>-104.672996521</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -9489,31 +9469,31 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>21.3187007904</v>
+        <v>42.2123985291</v>
       </c>
       <c r="E253" t="n">
-        <v>-157.9219970703</v>
+        <v>-83.35340118409999</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9527,31 +9507,31 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>29.9843997955</v>
+        <v>21.3187007904</v>
       </c>
       <c r="E254" t="n">
-        <v>-95.34140014650001</v>
+        <v>-157.9219970703</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -9565,31 +9545,31 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Honolulu</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>39.717300415</v>
+        <v>29.9843997955</v>
       </c>
       <c r="E255" t="n">
-        <v>-86.2944030762</v>
+        <v>-95.34140014650001</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9603,31 +9583,31 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>30.4941005707</v>
+        <v>39.717300415</v>
       </c>
       <c r="E256" t="n">
-        <v>-81.68789672849999</v>
+        <v>-86.2944030762</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -9641,31 +9621,31 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Indianapolis</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39.2975997925</v>
+        <v>30.4941005707</v>
       </c>
       <c r="E257" t="n">
-        <v>-94.7138977051</v>
+        <v>-81.68789672849999</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9679,31 +9659,31 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Jacksonville</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>36.08010101</v>
+        <v>39.2975997925</v>
       </c>
       <c r="E258" t="n">
-        <v>-115.1520004</v>
+        <v>-94.7138977051</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -9717,31 +9697,31 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Kansas City</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>33.94250107</v>
+        <v>36.08010101</v>
       </c>
       <c r="E259" t="n">
-        <v>-118.4079971</v>
+        <v>-115.1520004</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -9755,31 +9735,31 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Las Vegas</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>26.17580032</v>
+        <v>33.94250107</v>
       </c>
       <c r="E260" t="n">
-        <v>-98.23860168</v>
+        <v>-118.4079971</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9793,31 +9773,31 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>35.0424003601</v>
+        <v>26.17580032</v>
       </c>
       <c r="E261" t="n">
-        <v>-89.9766998291</v>
+        <v>-98.23860168</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9831,35 +9811,35 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>McAllen</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>19.4363002777</v>
+        <v>35.0424003601</v>
       </c>
       <c r="E262" t="n">
-        <v>-99.07209777830001</v>
+        <v>-89.9766998291</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G262" t="inlineStr">
@@ -9869,35 +9849,35 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>25.7931995392</v>
+        <v>19.4363002777</v>
       </c>
       <c r="E263" t="n">
-        <v>-80.2906036377</v>
+        <v>-99.07209777830001</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9907,31 +9887,31 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mexico City</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>44.8819999695</v>
+        <v>25.7931995392</v>
       </c>
       <c r="E264" t="n">
-        <v>-93.22180175779999</v>
+        <v>-80.2906036377</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
@@ -9945,31 +9925,31 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Miami</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Montgomery, AL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>32.30059814</v>
+        <v>44.8819999695</v>
       </c>
       <c r="E265" t="n">
-        <v>-86.39399718999999</v>
+        <v>-93.22180175779999</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -9983,35 +9963,35 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Minneapolis</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Montgomery, AL, United States</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>45.4706001282</v>
+        <v>32.30059814</v>
       </c>
       <c r="E266" t="n">
-        <v>-73.7407989502</v>
+        <v>-86.39399718999999</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G266" t="inlineStr">
@@ -10021,35 +10001,35 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Montgomery</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>36.1245002747</v>
+        <v>45.4706001282</v>
       </c>
       <c r="E267" t="n">
-        <v>-86.6781997681</v>
+        <v>-73.7407989502</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10059,31 +10039,31 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>40.6925010681</v>
+        <v>36.1245002747</v>
       </c>
       <c r="E268" t="n">
-        <v>-74.1687011719</v>
+        <v>-86.6781997681</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
@@ -10097,31 +10077,31 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Nashville</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>36.8945999146</v>
+        <v>40.6925010681</v>
       </c>
       <c r="E269" t="n">
-        <v>-76.2012023926</v>
+        <v>-74.1687011719</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -10135,31 +10115,31 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>41.3031997681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="E270" t="n">
-        <v>-95.89409637449999</v>
+        <v>-76.2012023926</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10173,35 +10153,35 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Norfolk</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>45.3224983215</v>
+        <v>41.3031997681</v>
       </c>
       <c r="E271" t="n">
-        <v>-75.66919708250001</v>
+        <v>-95.89409637449999</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G271" t="inlineStr">
@@ -10211,35 +10191,35 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>39.8718986511</v>
+        <v>45.3224983215</v>
       </c>
       <c r="E272" t="n">
-        <v>-75.24109649659999</v>
+        <v>-75.66919708250001</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10249,31 +10229,31 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>33.434299469</v>
+        <v>39.8718986511</v>
       </c>
       <c r="E273" t="n">
-        <v>-112.012001038</v>
+        <v>-75.24109649659999</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
@@ -10287,31 +10267,31 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>40.49150085</v>
+        <v>33.434299469</v>
       </c>
       <c r="E274" t="n">
-        <v>-80.23290253</v>
+        <v>-112.012001038</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -10325,31 +10305,31 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>45.58869934</v>
+        <v>40.49150085</v>
       </c>
       <c r="E275" t="n">
-        <v>-122.5979996</v>
+        <v>-80.23290253</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -10363,35 +10343,35 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>20.6173000336</v>
+        <v>45.58869934</v>
       </c>
       <c r="E276" t="n">
-        <v>-100.185997009</v>
+        <v>-122.5979996</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G276" t="inlineStr">
@@ -10401,35 +10381,35 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Portland</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>37.5051994324</v>
+        <v>20.6173000336</v>
       </c>
       <c r="E277" t="n">
-        <v>-77.3197021484</v>
+        <v>-100.185997009</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10439,31 +10419,31 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Queretaro</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>38.695400238</v>
+        <v>37.5051994324</v>
       </c>
       <c r="E278" t="n">
-        <v>-121.591003418</v>
+        <v>-77.3197021484</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
@@ -10477,31 +10457,31 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Richmond</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>40.7883987427</v>
+        <v>38.695400238</v>
       </c>
       <c r="E279" t="n">
-        <v>-111.977996826</v>
+        <v>-121.591003418</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -10515,31 +10495,31 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Sacramento</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>32.7336006165</v>
+        <v>40.7883987427</v>
       </c>
       <c r="E280" t="n">
-        <v>-117.190002441</v>
+        <v>-111.977996826</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -10553,31 +10533,31 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>37.3625984192</v>
+        <v>32.7336006165</v>
       </c>
       <c r="E281" t="n">
-        <v>-121.929000855</v>
+        <v>-117.190002441</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -10591,35 +10571,35 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Diego</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>52.1707992554</v>
+        <v>37.3625984192</v>
       </c>
       <c r="E282" t="n">
-        <v>-106.699996948</v>
+        <v>-121.929000855</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G282" t="inlineStr">
@@ -10629,35 +10609,35 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>San Jose</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>47.4490013123</v>
+        <v>52.1707992554</v>
       </c>
       <c r="E283" t="n">
-        <v>-122.308998108</v>
+        <v>-106.699996948</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10667,31 +10647,31 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Saskatoon</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>43.540819819502</v>
+        <v>47.4490013123</v>
       </c>
       <c r="E284" t="n">
-        <v>-96.65511577730963</v>
+        <v>-122.308998108</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
@@ -10705,31 +10685,31 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>Seattle</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>38.7486991882</v>
+        <v>43.540819819502</v>
       </c>
       <c r="E285" t="n">
-        <v>-90.37000274659999</v>
+        <v>-96.65511577730963</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -10743,31 +10723,31 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>30.3964996338</v>
+        <v>38.7486991882</v>
       </c>
       <c r="E286" t="n">
-        <v>-84.3503036499</v>
+        <v>-90.37000274659999</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -10781,35 +10761,35 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>St. Louis</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>43.6772003174</v>
+        <v>30.3964996338</v>
       </c>
       <c r="E287" t="n">
-        <v>-79.63059997560001</v>
+        <v>-84.3503036499</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G287" t="inlineStr">
@@ -10819,31 +10799,31 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Tallahassee</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>49.193901062</v>
+        <v>43.6772003174</v>
       </c>
       <c r="E288" t="n">
-        <v>-123.183998108</v>
+        <v>-79.63059997560001</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
@@ -10857,31 +10837,31 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>49.9099998474</v>
+        <v>49.193901062</v>
       </c>
       <c r="E289" t="n">
-        <v>-97.2398986816</v>
+        <v>-123.183998108</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -10895,35 +10875,35 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Vancouver</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>37.6189994812</v>
+        <v>49.9099998474</v>
       </c>
       <c r="E290" t="n">
-        <v>-122.375</v>
+        <v>-97.2398986816</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G290" t="inlineStr">
@@ -10933,35 +10913,35 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>17.9951</v>
+        <v>37.6189994812</v>
       </c>
       <c r="E291" t="n">
-        <v>-76.7846</v>
+        <v>-122.375</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10971,35 +10951,35 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>44.8081</v>
+        <v>17.9951</v>
       </c>
       <c r="E292" t="n">
-        <v>-68.795</v>
+        <v>-76.7846</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -11009,31 +10989,31 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>30.1975</v>
+        <v>44.8081</v>
       </c>
       <c r="E293" t="n">
-        <v>-97.6664</v>
+        <v>-68.795</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
@@ -11047,31 +11027,31 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>35.0844</v>
+        <v>30.1975</v>
       </c>
       <c r="E294" t="n">
-        <v>-106.6504</v>
+        <v>-97.6664</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -11085,35 +11065,35 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>20.5217990875</v>
+        <v>35.0844</v>
       </c>
       <c r="E295" t="n">
-        <v>-103.3109970093</v>
+        <v>-106.6504</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G295" t="inlineStr">
@@ -11123,35 +11103,35 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>29.429461</v>
+        <v>20.5217990875</v>
       </c>
       <c r="E296" t="n">
-        <v>-98.487061</v>
+        <v>-103.3109970093</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11161,31 +11141,31 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>41.50069</v>
+        <v>29.429461</v>
       </c>
       <c r="E297" t="n">
-        <v>-81.68411999999999</v>
+        <v>-98.487061</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
@@ -11199,31 +11179,31 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>San Antonio</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>35.93543</v>
+        <v>41.50069</v>
       </c>
       <c r="E298" t="n">
-        <v>-78.88075000000001</v>
+        <v>-81.68411999999999</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -11237,107 +11217,107 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>-34.9431729</v>
+        <v>35.93543</v>
       </c>
       <c r="E299" t="n">
-        <v>138.5335637</v>
+        <v>-78.88075000000001</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Durham</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>-37.0080986023</v>
+        <v>35.46655</v>
       </c>
       <c r="E300" t="n">
-        <v>174.792007446</v>
+        <v>-97.65373</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-27.3841991425</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E301" t="n">
-        <v>153.117004394</v>
+        <v>138.5335637</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -11351,35 +11331,35 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-35.3069000244</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E302" t="n">
-        <v>149.1950073242</v>
+        <v>174.792007446</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11389,35 +11369,35 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-43.4893989563</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E303" t="n">
-        <v>172.5319976807</v>
+        <v>153.117004394</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11427,73 +11407,73 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>13.4834003448</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E304" t="n">
-        <v>144.796005249</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-42.883209</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E305" t="n">
-        <v>147.331665</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -11503,73 +11483,73 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-37.6733016968</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E306" t="n">
-        <v>144.843002319</v>
+        <v>144.796005249</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-22.0146007538</v>
+        <v>-42.883209</v>
       </c>
       <c r="E307" t="n">
-        <v>166.212997436</v>
+        <v>147.331665</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
@@ -11579,31 +11559,31 @@
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-31.9402999878</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E308" t="n">
-        <v>115.967002869</v>
+        <v>144.843002319</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -11617,35 +11597,35 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-33.9460983276</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E309" t="n">
-        <v>151.177001953</v>
+        <v>166.212997436</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11655,43 +11635,119 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Perth, WA, Australia</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>PER</t>
+        </is>
+      </c>
+      <c r="D310" t="n">
+        <v>-31.9402999878</v>
+      </c>
+      <c r="E310" t="n">
+        <v>115.967002869</v>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr">
+        <is>
+          <t>Perth</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D311" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E311" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F311" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B310" t="inlineStr">
+      <c r="B312" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C310" t="inlineStr">
+      <c r="C312" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D310" t="n">
+      <c r="D312" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E310" t="n">
+      <c r="E312" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F310" t="inlineStr">
+      <c r="F312" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G310" t="inlineStr">
+      <c r="G312" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
+      <c r="H312" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H312"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4156,66 +4156,46 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>KMG</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Amsterdam, Netherlands</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr">
-        <is>
-          <t>AMS</t>
-        </is>
-      </c>
-      <c r="D113" t="n">
-        <v>52.3086013794</v>
-      </c>
-      <c r="E113" t="n">
-        <v>4.7638897896</v>
-      </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="G113" t="inlineStr">
-        <is>
-          <t>Europe</t>
-        </is>
-      </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Amsterdam</t>
-        </is>
-      </c>
+          <t>Kunming, China</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr"/>
+      <c r="F113" t="inlineStr"/>
+      <c r="G113" t="inlineStr"/>
+      <c r="H113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Amsterdam, Netherlands</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>37.9364013672</v>
+        <v>52.3086013794</v>
       </c>
       <c r="E114" t="n">
-        <v>23.9444999695</v>
+        <v>4.7638897896</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4225,35 +4205,35 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Amsterdam</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Barcelona, Spain</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>41.2971000671</v>
+        <v>37.9364013672</v>
       </c>
       <c r="E115" t="n">
-        <v>2.0784599781</v>
+        <v>23.9444999695</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4263,35 +4243,35 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Athens</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Barcelona, Spain</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>44.8184013367</v>
+        <v>41.2971000671</v>
       </c>
       <c r="E116" t="n">
-        <v>20.3090991974</v>
+        <v>2.0784599781</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4301,35 +4281,35 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>52.5597000122</v>
+        <v>44.8184013367</v>
       </c>
       <c r="E117" t="n">
-        <v>13.2876996994</v>
+        <v>20.3090991974</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4339,35 +4319,35 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Belgrade</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Bratislava, Slovakia</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>48.1486</v>
+        <v>52.5597000122</v>
       </c>
       <c r="E118" t="n">
-        <v>17.1077</v>
+        <v>13.2876996994</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4377,35 +4357,35 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bratislava, Slovakia</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>50.9014015198</v>
+        <v>48.1486</v>
       </c>
       <c r="E119" t="n">
-        <v>4.4844398499</v>
+        <v>17.1077</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4415,35 +4395,35 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bratislava</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>44.5722007751</v>
+        <v>50.9014015198</v>
       </c>
       <c r="E120" t="n">
-        <v>26.1021995544</v>
+        <v>4.4844398499</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4453,35 +4433,35 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Brussels</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>47.4369010925</v>
+        <v>44.5722007751</v>
       </c>
       <c r="E121" t="n">
-        <v>19.2555999756</v>
+        <v>26.1021995544</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4491,35 +4471,35 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Bucharest</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Chișinău, Moldova</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>46.9277000427</v>
+        <v>47.4369010925</v>
       </c>
       <c r="E122" t="n">
-        <v>28.9309997559</v>
+        <v>19.2555999756</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4529,35 +4509,35 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Budapest</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Copenhagen, Denmark</t>
+          <t>Chișinău, Moldova</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>55.6179008484</v>
+        <v>46.9277000427</v>
       </c>
       <c r="E123" t="n">
-        <v>12.6560001373</v>
+        <v>28.9309997559</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4567,35 +4547,35 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Chișinău</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Cork, Ireland</t>
+          <t>Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>51.8413009644</v>
+        <v>55.6179008484</v>
       </c>
       <c r="E124" t="n">
-        <v>-8.491109848000001</v>
+        <v>12.6560001373</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4605,31 +4585,31 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Copenhagen</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Cork, Ireland</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>53.4212989807</v>
+        <v>51.8413009644</v>
       </c>
       <c r="E125" t="n">
-        <v>-6.270070076</v>
+        <v>-8.491109848000001</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4643,35 +4623,35 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Cork</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Düsseldorf, Germany</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>51.2895011902</v>
+        <v>53.4212989807</v>
       </c>
       <c r="E126" t="n">
-        <v>6.7667798996</v>
+        <v>-6.270070076</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4681,35 +4661,35 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Dublin</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Edinburgh, United Kingdom</t>
+          <t>Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>55.9500007629</v>
+        <v>51.2895011902</v>
       </c>
       <c r="E127" t="n">
-        <v>-3.3724999428</v>
+        <v>6.7667798996</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4719,35 +4699,35 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Frankfurt, Germany</t>
+          <t>Edinburgh, United Kingdom</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>50.0264015198</v>
+        <v>55.9500007629</v>
       </c>
       <c r="E128" t="n">
-        <v>8.543129921</v>
+        <v>-3.3724999428</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4757,35 +4737,35 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Edinburgh</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Geneva, Switzerland</t>
+          <t>Frankfurt, Germany</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>46.2380981445</v>
+        <v>50.0264015198</v>
       </c>
       <c r="E129" t="n">
-        <v>6.1089501381</v>
+        <v>8.543129921</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4795,35 +4775,35 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Geneva</t>
+          <t>Frankfurt</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>57.6627998352</v>
+        <v>46.2380981445</v>
       </c>
       <c r="E130" t="n">
-        <v>12.279800415</v>
+        <v>6.1089501381</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4833,35 +4813,35 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Geneva</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Hamburg, Germany</t>
+          <t>Gothenburg, Sweden</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>53.6304016113</v>
+        <v>57.6627998352</v>
       </c>
       <c r="E131" t="n">
-        <v>9.9882297516</v>
+        <v>12.279800415</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4871,35 +4851,35 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Gothenburg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Helsinki, Finland</t>
+          <t>Hamburg, Germany</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>60.317199707</v>
+        <v>53.6304016113</v>
       </c>
       <c r="E132" t="n">
-        <v>24.963300705</v>
+        <v>9.9882297516</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4909,35 +4889,35 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>40.9768981934</v>
+        <v>60.317199707</v>
       </c>
       <c r="E133" t="n">
-        <v>28.8145999908</v>
+        <v>24.963300705</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4947,31 +4927,31 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Helsinki</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Izmir, Turkey</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>38.32377</v>
+        <v>40.9768981934</v>
       </c>
       <c r="E134" t="n">
-        <v>27.14317</v>
+        <v>28.8145999908</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4985,35 +4965,35 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Istanbul</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Kyiv, Ukraine</t>
+          <t>Izmir, Turkey</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>50.3450012207</v>
+        <v>38.32377</v>
       </c>
       <c r="E135" t="n">
-        <v>30.8946990967</v>
+        <v>27.14317</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5023,35 +5003,35 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Izmir</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Lisbon, Portugal</t>
+          <t>Kyiv, Ukraine</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>38.7812995911</v>
+        <v>50.3450012207</v>
       </c>
       <c r="E136" t="n">
-        <v>-9.135919570900001</v>
+        <v>30.8946990967</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5061,35 +5041,35 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>Kyiv</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Lisbon, Portugal</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>51.4706001282</v>
+        <v>38.7812995911</v>
       </c>
       <c r="E137" t="n">
-        <v>-0.4619410038</v>
+        <v>-9.135919570900001</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5099,35 +5079,35 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Lisbon</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Luxembourg City, Luxembourg</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>49.6265983582</v>
+        <v>51.4706001282</v>
       </c>
       <c r="E138" t="n">
-        <v>6.211520195</v>
+        <v>-0.4619410038</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5137,35 +5117,35 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Luxembourg City</t>
+          <t>London</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>40.4936</v>
+        <v>49.6265983582</v>
       </c>
       <c r="E139" t="n">
-        <v>-3.56676</v>
+        <v>6.211520195</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5175,35 +5155,35 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Luxembourg City</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Manchester, United Kingdom</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>53.3536987305</v>
+        <v>40.4936</v>
       </c>
       <c r="E140" t="n">
-        <v>-2.2749500275</v>
+        <v>-3.56676</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5213,35 +5193,35 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Madrid</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Marseille, France</t>
+          <t>Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>43.439271922</v>
+        <v>53.3536987305</v>
       </c>
       <c r="E141" t="n">
-        <v>5.2214241028</v>
+        <v>-2.2749500275</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5251,35 +5231,35 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Manchester</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Marseille, France</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>45.6305999756</v>
+        <v>43.439271922</v>
       </c>
       <c r="E142" t="n">
-        <v>8.7281103134</v>
+        <v>5.2214241028</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5289,35 +5269,35 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Marseille</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Minsk, Belarus</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>53.9006</v>
+        <v>45.6305999756</v>
       </c>
       <c r="E143" t="n">
-        <v>27.599</v>
+        <v>8.7281103134</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5327,35 +5307,35 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Milan</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Minsk, Belarus</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>55.4087982178</v>
+        <v>53.9006</v>
       </c>
       <c r="E144" t="n">
-        <v>37.9062995911</v>
+        <v>27.599</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5365,35 +5345,35 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Minsk</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Munich, Germany</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>48.3538017273</v>
+        <v>55.4087982178</v>
       </c>
       <c r="E145" t="n">
-        <v>11.7861003876</v>
+        <v>37.9062995911</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5403,35 +5383,35 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Nicosia, Cyprus</t>
+          <t>Munich, Germany</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>34.8750991821</v>
+        <v>48.3538017273</v>
       </c>
       <c r="E146" t="n">
-        <v>33.6249008179</v>
+        <v>11.7861003876</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5441,35 +5421,35 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Oslo, Norway</t>
+          <t>Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>60.193901062</v>
+        <v>34.8750991821</v>
       </c>
       <c r="E147" t="n">
-        <v>11.100399971</v>
+        <v>33.6249008179</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5479,35 +5459,35 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Nicosia</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Palermo, Italy</t>
+          <t>Oslo, Norway</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>38.16114</v>
+        <v>60.193901062</v>
       </c>
       <c r="E148" t="n">
-        <v>13.31546</v>
+        <v>11.100399971</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5517,35 +5497,35 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Palermo, Italy</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>49.0127983093</v>
+        <v>38.16114</v>
       </c>
       <c r="E149" t="n">
-        <v>2.5499999523</v>
+        <v>13.31546</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5555,35 +5535,35 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Palermo</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>50.1007995605</v>
+        <v>49.0127983093</v>
       </c>
       <c r="E150" t="n">
-        <v>14.2600002289</v>
+        <v>2.5499999523</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5593,35 +5573,35 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Paris</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Reykjavík, Iceland</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>63.9850006104</v>
+        <v>50.1007995605</v>
       </c>
       <c r="E151" t="n">
-        <v>-22.6056003571</v>
+        <v>14.2600002289</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5631,35 +5611,35 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>Prague</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Riga, Latvia</t>
+          <t>Reykjavík, Iceland</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>56.9235992432</v>
+        <v>63.9850006104</v>
       </c>
       <c r="E152" t="n">
-        <v>23.9710998535</v>
+        <v>-22.6056003571</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5669,35 +5649,35 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Reykjavík</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Rome, Italy</t>
+          <t>Riga, Latvia</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>41.8045005798</v>
+        <v>56.9235992432</v>
       </c>
       <c r="E153" t="n">
-        <v>12.2508001328</v>
+        <v>23.9710998535</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5707,35 +5687,35 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Riga</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>59.8003005981</v>
+        <v>41.8045005798</v>
       </c>
       <c r="E154" t="n">
-        <v>30.2625007629</v>
+        <v>12.2508001328</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5745,35 +5725,35 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Rome</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Sofia, Bulgaria</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>42.6966934204</v>
+        <v>59.8003005981</v>
       </c>
       <c r="E155" t="n">
-        <v>23.4114360809</v>
+        <v>30.2625007629</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5783,35 +5763,35 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>59.6519012451</v>
+        <v>42.6966934204</v>
       </c>
       <c r="E156" t="n">
-        <v>17.9186000824</v>
+        <v>23.4114360809</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5821,35 +5801,35 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Stuttgart, Germany</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>48.783333</v>
+        <v>59.6519012451</v>
       </c>
       <c r="E157" t="n">
-        <v>9.183332999999999</v>
+        <v>17.9186000824</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5859,35 +5839,35 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Tallinn, Estonia</t>
+          <t>Stuttgart, Germany</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>59.4132995605</v>
+        <v>48.783333</v>
       </c>
       <c r="E158" t="n">
-        <v>24.8327999115</v>
+        <v>9.183332999999999</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5897,35 +5877,35 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Stuttgart</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tbilisi, Georgia</t>
+          <t>Tallinn, Estonia</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>41.6692008972</v>
+        <v>59.4132995605</v>
       </c>
       <c r="E159" t="n">
-        <v>44.95470047</v>
+        <v>24.8327999115</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5935,35 +5915,35 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Tallinn</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Thessaloniki, Greece</t>
+          <t>Tbilisi, Georgia</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>40.5196990967</v>
+        <v>41.6692008972</v>
       </c>
       <c r="E160" t="n">
-        <v>22.9708995819</v>
+        <v>44.95470047</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5973,35 +5953,35 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Tirana, Albania</t>
+          <t>Thessaloniki, Greece</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>41.4146995544</v>
+        <v>40.5196990967</v>
       </c>
       <c r="E161" t="n">
-        <v>19.7206001282</v>
+        <v>22.9708995819</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -6011,35 +5991,35 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Thessaloniki</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tver, Russian Federation</t>
+          <t>Tirana, Albania</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>56.8587</v>
+        <v>41.4146995544</v>
       </c>
       <c r="E162" t="n">
-        <v>35.9176</v>
+        <v>19.7206001282</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6049,35 +6029,35 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Tver</t>
+          <t>Tirana</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Vienna, Austria</t>
+          <t>Tver, Russian Federation</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>48.1102981567</v>
+        <v>56.8587</v>
       </c>
       <c r="E163" t="n">
-        <v>16.5697002411</v>
+        <v>35.9176</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6087,35 +6067,35 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Tver</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Vienna, Austria</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>54.6341018677</v>
+        <v>48.1102981567</v>
       </c>
       <c r="E164" t="n">
-        <v>25.2858009338</v>
+        <v>16.5697002411</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6125,35 +6105,35 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>52.1656990051</v>
+        <v>54.6341018677</v>
       </c>
       <c r="E165" t="n">
-        <v>20.9671001434</v>
+        <v>25.2858009338</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6163,111 +6143,111 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Vilnius</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Yekaterinburg, Russia</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>56.8431</v>
+        <v>52.1656990051</v>
       </c>
       <c r="E166" t="n">
-        <v>60.6454</v>
+        <v>20.9671001434</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Yekaterinburg</t>
+          <t>Warsaw</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Zagreb, Croatia</t>
+          <t>Yekaterinburg, Russia</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>45.7429008484</v>
+        <v>56.8431</v>
       </c>
       <c r="E167" t="n">
-        <v>16.0687999725</v>
+        <v>60.6454</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Yekaterinburg</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Zürich, Switzerland</t>
+          <t>Zagreb, Croatia</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>47.4646987915</v>
+        <v>45.7429008484</v>
       </c>
       <c r="E168" t="n">
-        <v>8.549169540399999</v>
+        <v>16.0687999725</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6277,35 +6257,35 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Zagreb</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Lyon, France</t>
+          <t>Zürich, Switzerland</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>45.7263</v>
+        <v>47.4646987915</v>
       </c>
       <c r="E169" t="n">
-        <v>5.0908</v>
+        <v>8.549169540399999</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6315,31 +6295,31 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Zurich</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Bordeaux, France</t>
+          <t>Lyon, France</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>44.82946</v>
+        <v>45.7263</v>
       </c>
       <c r="E170" t="n">
-        <v>-0.58355</v>
+        <v>5.0908</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6353,73 +6333,73 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Americana, Brazil</t>
+          <t>Bordeaux, France</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>-22.738</v>
+        <v>44.82946</v>
       </c>
       <c r="E171" t="n">
-        <v>-47.334</v>
+        <v>-0.58355</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Americana</t>
+          <t>Bordeaux</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Arica, Chile</t>
+          <t>Americana, Brazil</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-18.348611</v>
+        <v>-22.738</v>
       </c>
       <c r="E172" t="n">
-        <v>-70.33888899999999</v>
+        <v>-47.334</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6429,35 +6409,35 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Americana</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Asunción, Paraguay</t>
+          <t>Arica, Chile</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-25.2399997711</v>
+        <v>-18.348611</v>
       </c>
       <c r="E173" t="n">
-        <v>-57.5200004578</v>
+        <v>-70.33888899999999</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6467,35 +6447,35 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Asunción</t>
+          <t>Arica</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Belém, Brazil</t>
+          <t>Asunción, Paraguay</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-1.4563</v>
+        <v>-25.2399997711</v>
       </c>
       <c r="E174" t="n">
-        <v>-48.5013</v>
+        <v>-57.5200004578</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6505,31 +6485,31 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Belém</t>
+          <t>Asunción</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Belo Horizonte, Brazil</t>
+          <t>Belém, Brazil</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-19.624444</v>
+        <v>-1.4563</v>
       </c>
       <c r="E175" t="n">
-        <v>-43.971944</v>
+        <v>-48.5013</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6543,31 +6523,31 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Belém</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Blumenau, Brazil</t>
+          <t>Belo Horizonte, Brazil</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-26.89245</v>
+        <v>-19.624444</v>
       </c>
       <c r="E176" t="n">
-        <v>-49.07696</v>
+        <v>-43.971944</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6581,35 +6561,35 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Blumenau</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Bogotá, Colombia</t>
+          <t>Blumenau, Brazil</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>4.70159</v>
+        <v>-26.89245</v>
       </c>
       <c r="E177" t="n">
-        <v>-74.1469</v>
+        <v>-49.07696</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6619,35 +6599,35 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Blumenau</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Brasilia, Brazil</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>-15.79824</v>
+        <v>4.70159</v>
       </c>
       <c r="E178" t="n">
-        <v>-47.90859</v>
+        <v>-74.1469</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6657,35 +6637,35 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Bogotá</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Buenos Aires, Argentina</t>
+          <t>Brasilia, Brazil</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-34.8222</v>
+        <v>-15.79824</v>
       </c>
       <c r="E179" t="n">
-        <v>-58.5358</v>
+        <v>-47.90859</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6695,35 +6675,35 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Brasilia</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Caçador, Brazil</t>
+          <t>Buenos Aires, Argentina</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-26.7762</v>
+        <v>-34.8222</v>
       </c>
       <c r="E180" t="n">
-        <v>-51.0125</v>
+        <v>-58.5358</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6733,31 +6713,31 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Cacador</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Campinas, Brazil</t>
+          <t>Caçador, Brazil</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-22.90662</v>
+        <v>-26.7762</v>
       </c>
       <c r="E181" t="n">
-        <v>-47.08576</v>
+        <v>-51.0125</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6771,35 +6751,35 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Campinas</t>
+          <t>Cacador</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Córdoba, Argentina</t>
+          <t>Campinas, Brazil</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-31.31</v>
+        <v>-22.90662</v>
       </c>
       <c r="E182" t="n">
-        <v>-64.208333</v>
+        <v>-47.08576</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6809,35 +6789,35 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Córdoba</t>
+          <t>Campinas</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cuiabá, Brazil</t>
+          <t>Córdoba, Argentina</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-15.59611</v>
+        <v>-31.31</v>
       </c>
       <c r="E183" t="n">
-        <v>-56.09667</v>
+        <v>-64.208333</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6847,31 +6827,31 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Córdoba</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Curitiba, Brazil</t>
+          <t>Cuiabá, Brazil</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-25.5284996033</v>
+        <v>-15.59611</v>
       </c>
       <c r="E184" t="n">
-        <v>-49.1758003235</v>
+        <v>-56.09667</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6885,31 +6865,31 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Florianopolis, Brazil</t>
+          <t>Curitiba, Brazil</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-27.6702785492</v>
+        <v>-25.5284996033</v>
       </c>
       <c r="E185" t="n">
-        <v>-48.5525016785</v>
+        <v>-49.1758003235</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6923,31 +6903,31 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Curitiba</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Fortaleza, Brazil</t>
+          <t>Florianopolis, Brazil</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-3.7762799263</v>
+        <v>-27.6702785492</v>
       </c>
       <c r="E186" t="n">
-        <v>-38.5326004028</v>
+        <v>-48.5525016785</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -6961,35 +6941,35 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Florianopolis</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Georgetown, Guyana</t>
+          <t>Fortaleza, Brazil</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>6.825648</v>
+        <v>-3.7762799263</v>
       </c>
       <c r="E187" t="n">
-        <v>-58.163756</v>
+        <v>-38.5326004028</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6999,35 +6979,35 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Goiânia, Brazil</t>
+          <t>Georgetown, Guyana</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>-16.69727</v>
+        <v>6.825648</v>
       </c>
       <c r="E188" t="n">
-        <v>-49.26851</v>
+        <v>-58.163756</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7037,111 +7017,111 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Goiania</t>
+          <t>Georgetown</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Guatemala City, Guatemala</t>
+          <t>Goiânia, Brazil</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>14.5832996368</v>
+        <v>-16.69727</v>
       </c>
       <c r="E189" t="n">
-        <v>-90.5274963379</v>
+        <v>-49.26851</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Guatemala City</t>
+          <t>Goiania</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Guayaquil, Ecuador</t>
+          <t>Guatemala City, Guatemala</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>-2.1894</v>
+        <v>14.5832996368</v>
       </c>
       <c r="E190" t="n">
-        <v>-79.8891</v>
+        <v>-90.5274963379</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Guatemala City</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Itajaí, Brazil</t>
+          <t>Guayaquil, Ecuador</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-27.6116676331</v>
+        <v>-2.1894</v>
       </c>
       <c r="E191" t="n">
-        <v>-48.6727790833</v>
+        <v>-79.8891</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7151,31 +7131,31 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Itajai</t>
+          <t>Guayaquil</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Joinville, Brazil</t>
+          <t>Itajaí, Brazil</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-26.304408</v>
+        <v>-27.6116676331</v>
       </c>
       <c r="E192" t="n">
-        <v>-48.846383</v>
+        <v>-48.6727790833</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7189,31 +7169,31 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Joinville</t>
+          <t>Itajai</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, Brazil</t>
+          <t>Joinville, Brazil</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-7.2242</v>
+        <v>-26.304408</v>
       </c>
       <c r="E193" t="n">
-        <v>-39.313</v>
+        <v>-48.846383</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7227,35 +7207,35 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte</t>
+          <t>Joinville</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Juazeiro do Norte, Brazil</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-12.021900177</v>
+        <v>-7.2242</v>
       </c>
       <c r="E194" t="n">
-        <v>-77.1143035889</v>
+        <v>-39.313</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7265,35 +7245,35 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Juazeiro do Norte</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Manaus, Brazil</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-3.11286</v>
+        <v>-12.021900177</v>
       </c>
       <c r="E195" t="n">
-        <v>-60.01949</v>
+        <v>-77.1143035889</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7303,35 +7283,35 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Lima</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Medellín, Colombia</t>
+          <t>Manaus, Brazil</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>6.16454</v>
+        <v>-3.11286</v>
       </c>
       <c r="E196" t="n">
-        <v>-75.42310000000001</v>
+        <v>-60.01949</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7341,35 +7321,35 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Manaus</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Neuquén, Argentina</t>
+          <t>Medellín, Colombia</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>-38.9490013123</v>
+        <v>6.16454</v>
       </c>
       <c r="E197" t="n">
-        <v>-68.1557006836</v>
+        <v>-75.42310000000001</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7379,35 +7359,35 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Neuquen</t>
+          <t>Medellín</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Panama City, Panama</t>
+          <t>Neuquén, Argentina</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>9.0713596344</v>
+        <v>-38.9490013123</v>
       </c>
       <c r="E198" t="n">
-        <v>-79.3834991455</v>
+        <v>-68.1557006836</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7417,35 +7397,35 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Panama City</t>
+          <t>Neuquen</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Paramaribo, Suriname</t>
+          <t>Panama City, Panama</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>5.452831</v>
+        <v>9.0713596344</v>
       </c>
       <c r="E199" t="n">
-        <v>-55.187783</v>
+        <v>-79.3834991455</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7455,35 +7435,35 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Paramaribo</t>
+          <t>Panama City</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Porto Alegre, Brazil</t>
+          <t>Paramaribo, Suriname</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>-29.9944000244</v>
+        <v>5.452831</v>
       </c>
       <c r="E200" t="n">
-        <v>-51.1713981628</v>
+        <v>-55.187783</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7493,35 +7473,35 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Paramaribo</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Quito, Ecuador</t>
+          <t>Porto Alegre, Brazil</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-0.1291666667</v>
+        <v>-29.9944000244</v>
       </c>
       <c r="E201" t="n">
-        <v>-78.3575</v>
+        <v>-51.1713981628</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7531,35 +7511,35 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Quito</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Recife, Brazil</t>
+          <t>Quito, Ecuador</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-8.126489639300001</v>
+        <v>-0.1291666667</v>
       </c>
       <c r="E202" t="n">
-        <v>-34.9235992432</v>
+        <v>-78.3575</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7569,31 +7549,31 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Quito</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Ribeirao Preto, Brazil</t>
+          <t>Recife, Brazil</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-21.1363887787</v>
+        <v>-8.126489639300001</v>
       </c>
       <c r="E203" t="n">
-        <v>-47.7766685486</v>
+        <v>-34.9235992432</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -7607,31 +7587,31 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Ribeirao Preto</t>
+          <t>Recife</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brazil</t>
+          <t>Ribeirao Preto, Brazil</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-22.8099994659</v>
+        <v>-21.1363887787</v>
       </c>
       <c r="E204" t="n">
-        <v>-43.2505569458</v>
+        <v>-47.7766685486</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7645,31 +7625,31 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Ribeirao Preto</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Salvador, Brazil</t>
+          <t>Rio de Janeiro, Brazil</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-12.9086112976</v>
+        <v>-22.8099994659</v>
       </c>
       <c r="E205" t="n">
-        <v>-38.3224983215</v>
+        <v>-43.2505569458</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -7683,35 +7663,35 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>San José, Costa Rica</t>
+          <t>Salvador, Brazil</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>9.9938602448</v>
+        <v>-12.9086112976</v>
       </c>
       <c r="E206" t="n">
-        <v>-84.2088012695</v>
+        <v>-38.3224983215</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7721,35 +7701,35 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>San José</t>
+          <t>Salvador</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Santiago, Chile</t>
+          <t>San José, Costa Rica</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>-33.3930015564</v>
+        <v>9.9938602448</v>
       </c>
       <c r="E207" t="n">
-        <v>-70.7857971191</v>
+        <v>-84.2088012695</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7759,107 +7739,107 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>San José</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Santo Domingo, Dominican Republic</t>
+          <t>Santiago, Chile</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>18.4297008514</v>
+        <v>-33.3930015564</v>
       </c>
       <c r="E208" t="n">
-        <v>-69.6688995361</v>
+        <v>-70.7857971191</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>Santiago</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, Brazil</t>
+          <t>Santo Domingo, Dominican Republic</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>-20.807157</v>
+        <v>18.4297008514</v>
       </c>
       <c r="E209" t="n">
-        <v>-49.378994</v>
+        <v>-69.6688995361</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>São José do Rio Preto</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>São José dos Campos, Brazil</t>
+          <t>São José do Rio Preto, Brazil</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-23.1791</v>
+        <v>-20.807157</v>
       </c>
       <c r="E210" t="n">
-        <v>-45.8872</v>
+        <v>-49.378994</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7873,31 +7853,31 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>São José dos Campos</t>
+          <t>São José do Rio Preto</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>São Paulo, Brazil</t>
+          <t>São José dos Campos, Brazil</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-23.4355564117</v>
+        <v>-23.1791</v>
       </c>
       <c r="E211" t="n">
-        <v>-46.4730567932</v>
+        <v>-45.8872</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7911,31 +7891,31 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>São José dos Campos</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Sorocaba, Brazil</t>
+          <t>São Paulo, Brazil</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-23.54389</v>
+        <v>-23.4355564117</v>
       </c>
       <c r="E212" t="n">
-        <v>-46.63445</v>
+        <v>-46.4730567932</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -7949,35 +7929,35 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>Sorocaba</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>St. George's, Grenada</t>
+          <t>Sorocaba, Brazil</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>12.007116</v>
+        <v>-23.54389</v>
       </c>
       <c r="E213" t="n">
-        <v>-61.7882288</v>
+        <v>-46.63445</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7987,35 +7967,35 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>St. George's</t>
+          <t>Sorocaba</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Tegucigalpa, Honduras</t>
+          <t>St. George's, Grenada</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>14.0608</v>
+        <v>12.007116</v>
       </c>
       <c r="E214" t="n">
-        <v>-87.21720000000001</v>
+        <v>-61.7882288</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8025,35 +8005,35 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>St. George's</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Timbó, Brazil</t>
+          <t>Tegucigalpa, Honduras</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>-26.8251</v>
+        <v>14.0608</v>
       </c>
       <c r="E215" t="n">
-        <v>-49.2695</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8063,31 +8043,31 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Timbo</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Uberlândia, Brazil</t>
+          <t>Timbó, Brazil</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-18.8836116791</v>
+        <v>-26.8251</v>
       </c>
       <c r="E216" t="n">
-        <v>-48.225276947</v>
+        <v>-49.2695</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8101,31 +8081,31 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Uberlandia</t>
+          <t>Timbo</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Vitoria, Brazil</t>
+          <t>Uberlândia, Brazil</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-20.64871</v>
+        <v>-18.8836116791</v>
       </c>
       <c r="E217" t="n">
-        <v>-41.90857</v>
+        <v>-48.225276947</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8139,107 +8119,107 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Uberlandia</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Willemstad, Curaçao</t>
+          <t>Vitoria, Brazil</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>12.1888999939</v>
+        <v>-20.64871</v>
       </c>
       <c r="E218" t="n">
-        <v>-68.95980072019999</v>
+        <v>-41.90857</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Willemstad</t>
+          <t>Vitoria</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes, Brazil</t>
+          <t>Willemstad, Curaçao</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>-21.698299408</v>
+        <v>12.1888999939</v>
       </c>
       <c r="E219" t="n">
-        <v>-41.301700592</v>
+        <v>-68.95980072019999</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Willemstad</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Chapeco, Brazil</t>
+          <t>Campos dos Goytacazes, Brazil</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-27.1341991425</v>
+        <v>-21.698299408</v>
       </c>
       <c r="E220" t="n">
-        <v>-52.6566009521</v>
+        <v>-41.301700592</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8253,111 +8233,111 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Chapeco</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Bridgetown, Barbados</t>
+          <t>Chapeco, Brazil</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>13.103562</v>
+        <v>-27.1341991425</v>
       </c>
       <c r="E221" t="n">
-        <v>-59.603226</v>
+        <v>-52.6566009521</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Bridgetown</t>
+          <t>Chapeco</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Bridgetown, Barbados</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>31.7226009369</v>
+        <v>13.103562</v>
       </c>
       <c r="E222" t="n">
-        <v>35.9931983948</v>
+        <v>-59.603226</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Bridgetown</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Astara, Azerbaijan</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>38.7463989258</v>
+        <v>31.7226009369</v>
       </c>
       <c r="E223" t="n">
-        <v>48.8180007935</v>
+        <v>35.9931983948</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8367,35 +8347,35 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Astara</t>
+          <t>Amman</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Baghdad, Iraq</t>
+          <t>Astara, Azerbaijan</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>33.2625007629</v>
+        <v>38.7463989258</v>
       </c>
       <c r="E224" t="n">
-        <v>44.2346000671</v>
+        <v>48.8180007935</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8405,35 +8385,35 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Astara</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Baku, Azerbaijan</t>
+          <t>Baghdad, Iraq</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>40.4674987793</v>
+        <v>33.2625007629</v>
       </c>
       <c r="E225" t="n">
-        <v>50.0466995239</v>
+        <v>44.2346000671</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8443,35 +8423,35 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Baghdad</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Basra, Iraq</t>
+          <t>Baku, Azerbaijan</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>30.5491008759</v>
+        <v>40.4674987793</v>
       </c>
       <c r="E226" t="n">
-        <v>47.6621017456</v>
+        <v>50.0466995239</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8481,35 +8461,35 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Basra</t>
+          <t>Baku</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Beirut, Lebanon</t>
+          <t>Basra, Iraq</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>33.8208999634</v>
+        <v>30.5491008759</v>
       </c>
       <c r="E227" t="n">
-        <v>35.4883995056</v>
+        <v>47.6621017456</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8519,35 +8499,35 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Basra</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Dammam, Saudi Arabia</t>
+          <t>Beirut, Lebanon</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>26.471200943</v>
+        <v>33.8208999634</v>
       </c>
       <c r="E228" t="n">
-        <v>49.7979011536</v>
+        <v>35.4883995056</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8557,35 +8537,35 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Dammam</t>
+          <t>Beirut</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Doha, Qatar</t>
+          <t>Dammam, Saudi Arabia</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>25.2605946</v>
+        <v>26.471200943</v>
       </c>
       <c r="E229" t="n">
-        <v>51.6137665</v>
+        <v>49.7979011536</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8595,35 +8575,35 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Doha</t>
+          <t>Dammam</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Doha, Qatar</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>25.2527999878</v>
+        <v>25.2605946</v>
       </c>
       <c r="E230" t="n">
-        <v>55.3643989563</v>
+        <v>51.6137665</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8633,35 +8613,35 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Doha</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Erbil, Iraq</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>36.1901</v>
+        <v>25.2527999878</v>
       </c>
       <c r="E231" t="n">
-        <v>43.993</v>
+        <v>55.3643989563</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8671,35 +8651,35 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Dubai</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Haifa, Israel</t>
+          <t>Erbil, Iraq</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>32.78492</v>
+        <v>36.1901</v>
       </c>
       <c r="E232" t="n">
-        <v>34.96069</v>
+        <v>43.993</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8709,35 +8689,35 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Erbil</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Jeddah, Saudi Arabia</t>
+          <t>Haifa, Israel</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>21.679599762</v>
+        <v>32.78492</v>
       </c>
       <c r="E233" t="n">
-        <v>39.15650177</v>
+        <v>34.96069</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8747,35 +8727,35 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Haifa</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Kuwait City, Kuwait</t>
+          <t>Jeddah, Saudi Arabia</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>29.226600647</v>
+        <v>21.679599762</v>
       </c>
       <c r="E234" t="n">
-        <v>47.9688987732</v>
+        <v>39.15650177</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8785,35 +8765,35 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Kuwait City</t>
+          <t>Jeddah</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Manama, Bahrain</t>
+          <t>Kuwait City, Kuwait</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>26.2707996368</v>
+        <v>29.226600647</v>
       </c>
       <c r="E235" t="n">
-        <v>50.6335983276</v>
+        <v>47.9688987732</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8823,35 +8803,35 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Manama</t>
+          <t>Kuwait City</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Muscat, Oman</t>
+          <t>Manama, Bahrain</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>23.5932998657</v>
+        <v>26.2707996368</v>
       </c>
       <c r="E236" t="n">
-        <v>58.2844009399</v>
+        <v>50.6335983276</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8861,35 +8841,35 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Muscat</t>
+          <t>Manama</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Najaf, Iraq</t>
+          <t>Muscat, Oman</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>31.989722</v>
+        <v>23.5932998657</v>
       </c>
       <c r="E237" t="n">
-        <v>44.404167</v>
+        <v>58.2844009399</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8899,31 +8879,31 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Najaf</t>
+          <t>Muscat</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Nasiriyah, Iraq</t>
+          <t>Najaf, Iraq</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>30.9358005524</v>
+        <v>31.989722</v>
       </c>
       <c r="E238" t="n">
-        <v>46.0900993347</v>
+        <v>44.404167</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -8937,35 +8917,35 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Nasiriyah</t>
+          <t>Najaf</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah, Iraq</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>32.2719</v>
+        <v>30.9358005524</v>
       </c>
       <c r="E239" t="n">
-        <v>35.0194</v>
+        <v>46.0900993347</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8975,35 +8955,35 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Nasiriyah</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Riyadh, Saudi Arabia</t>
+          <t>Ramallah</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>24.9575996399</v>
+        <v>32.2719</v>
       </c>
       <c r="E240" t="n">
-        <v>46.6987991333</v>
+        <v>35.0194</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -9013,35 +8993,35 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Riyadh</t>
+          <t>Ramallah</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Sulaymaniyah, Iraq</t>
+          <t>Riyadh, Saudi Arabia</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>35.5668</v>
+        <v>24.9575996399</v>
       </c>
       <c r="E241" t="n">
-        <v>45.4161</v>
+        <v>46.6987991333</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9051,35 +9031,35 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Sulaymaniyah</t>
+          <t>Riyadh</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Tel Aviv, Israel</t>
+          <t>Sulaymaniyah, Iraq</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>32.0113983154</v>
+        <v>35.5668</v>
       </c>
       <c r="E242" t="n">
-        <v>34.8866996765</v>
+        <v>45.4161</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9089,69 +9069,69 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Tel Aviv</t>
+          <t>Sulaymaniyah</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Tel Aviv, Israel</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>38.94449997</v>
+        <v>32.0113983154</v>
       </c>
       <c r="E243" t="n">
-        <v>-77.45580292</v>
+        <v>34.8866996765</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>33.6366996765</v>
+        <v>38.94449997</v>
       </c>
       <c r="E244" t="n">
-        <v>-84.4281005859</v>
+        <v>-77.45580292</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9165,31 +9145,31 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Ashburn</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>42.36429977</v>
+        <v>33.6366996765</v>
       </c>
       <c r="E245" t="n">
-        <v>-71.00520324999999</v>
+        <v>-84.4281005859</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9203,31 +9183,31 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>42.94049835</v>
+        <v>42.36429977</v>
       </c>
       <c r="E246" t="n">
-        <v>-78.73220062</v>
+        <v>-71.00520324999999</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -9241,35 +9221,35 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>51.113899231</v>
+        <v>42.94049835</v>
       </c>
       <c r="E247" t="n">
-        <v>-114.019996643</v>
+        <v>-78.73220062</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9279,35 +9259,35 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Buffalo</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>35.2140007019</v>
+        <v>51.113899231</v>
       </c>
       <c r="E248" t="n">
-        <v>-80.94309997560001</v>
+        <v>-114.019996643</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9317,31 +9297,31 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Calgary</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>41.97859955</v>
+        <v>35.2140007019</v>
       </c>
       <c r="E249" t="n">
-        <v>-87.90480042</v>
+        <v>-80.94309997560001</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -9355,31 +9335,31 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>39.9980010986</v>
+        <v>41.97859955</v>
       </c>
       <c r="E250" t="n">
-        <v>-82.89189910890001</v>
+        <v>-87.90480042</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -9393,31 +9373,31 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Chicago</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>32.8968009949</v>
+        <v>39.9980010986</v>
       </c>
       <c r="E251" t="n">
-        <v>-97.0380020142</v>
+        <v>-82.89189910890001</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -9431,31 +9411,31 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Columbus</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>39.8616981506</v>
+        <v>32.8968009949</v>
       </c>
       <c r="E252" t="n">
-        <v>-104.672996521</v>
+        <v>-97.0380020142</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -9469,31 +9449,31 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>42.2123985291</v>
+        <v>39.8616981506</v>
       </c>
       <c r="E253" t="n">
-        <v>-83.35340118409999</v>
+        <v>-104.672996521</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9507,31 +9487,31 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>21.3187007904</v>
+        <v>42.2123985291</v>
       </c>
       <c r="E254" t="n">
-        <v>-157.9219970703</v>
+        <v>-83.35340118409999</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -9545,31 +9525,31 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>29.9843997955</v>
+        <v>21.3187007904</v>
       </c>
       <c r="E255" t="n">
-        <v>-95.34140014650001</v>
+        <v>-157.9219970703</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9583,31 +9563,31 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Honolulu</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>39.717300415</v>
+        <v>29.9843997955</v>
       </c>
       <c r="E256" t="n">
-        <v>-86.2944030762</v>
+        <v>-95.34140014650001</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -9621,31 +9601,31 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>30.4941005707</v>
+        <v>39.717300415</v>
       </c>
       <c r="E257" t="n">
-        <v>-81.68789672849999</v>
+        <v>-86.2944030762</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9659,31 +9639,31 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Indianapolis</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>39.2975997925</v>
+        <v>30.4941005707</v>
       </c>
       <c r="E258" t="n">
-        <v>-94.7138977051</v>
+        <v>-81.68789672849999</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -9697,31 +9677,31 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Jacksonville</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>36.08010101</v>
+        <v>39.2975997925</v>
       </c>
       <c r="E259" t="n">
-        <v>-115.1520004</v>
+        <v>-94.7138977051</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -9735,31 +9715,31 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Kansas City</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>33.94250107</v>
+        <v>36.08010101</v>
       </c>
       <c r="E260" t="n">
-        <v>-118.4079971</v>
+        <v>-115.1520004</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9773,31 +9753,31 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>Las Vegas</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>26.17580032</v>
+        <v>33.94250107</v>
       </c>
       <c r="E261" t="n">
-        <v>-98.23860168</v>
+        <v>-118.4079971</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9811,31 +9791,31 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>35.0424003601</v>
+        <v>26.17580032</v>
       </c>
       <c r="E262" t="n">
-        <v>-89.9766998291</v>
+        <v>-98.23860168</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -9849,35 +9829,35 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>McAllen</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>19.4363002777</v>
+        <v>35.0424003601</v>
       </c>
       <c r="E263" t="n">
-        <v>-99.07209777830001</v>
+        <v>-89.9766998291</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9887,35 +9867,35 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>25.7931995392</v>
+        <v>19.4363002777</v>
       </c>
       <c r="E264" t="n">
-        <v>-80.2906036377</v>
+        <v>-99.07209777830001</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9925,31 +9905,31 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Mexico City</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>44.8819999695</v>
+        <v>25.7931995392</v>
       </c>
       <c r="E265" t="n">
-        <v>-93.22180175779999</v>
+        <v>-80.2906036377</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -9963,31 +9943,31 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Miami</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Montgomery, AL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>32.30059814</v>
+        <v>44.8819999695</v>
       </c>
       <c r="E266" t="n">
-        <v>-86.39399718999999</v>
+        <v>-93.22180175779999</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -10001,35 +9981,35 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Minneapolis</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Montgomery, AL, United States</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>45.4706001282</v>
+        <v>32.30059814</v>
       </c>
       <c r="E267" t="n">
-        <v>-73.7407989502</v>
+        <v>-86.39399718999999</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10039,35 +10019,35 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Montgomery</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>36.1245002747</v>
+        <v>45.4706001282</v>
       </c>
       <c r="E268" t="n">
-        <v>-86.6781997681</v>
+        <v>-73.7407989502</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10077,31 +10057,31 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Montréal</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>40.6925010681</v>
+        <v>36.1245002747</v>
       </c>
       <c r="E269" t="n">
-        <v>-74.1687011719</v>
+        <v>-86.6781997681</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -10115,31 +10095,31 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Nashville</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>36.8945999146</v>
+        <v>40.6925010681</v>
       </c>
       <c r="E270" t="n">
-        <v>-76.2012023926</v>
+        <v>-74.1687011719</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10153,31 +10133,31 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Newark</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>41.3031997681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="E271" t="n">
-        <v>-95.89409637449999</v>
+        <v>-76.2012023926</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -10191,35 +10171,35 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Norfolk</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>45.3224983215</v>
+        <v>41.3031997681</v>
       </c>
       <c r="E272" t="n">
-        <v>-75.66919708250001</v>
+        <v>-95.89409637449999</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10229,35 +10209,35 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Omaha</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>39.8718986511</v>
+        <v>45.3224983215</v>
       </c>
       <c r="E273" t="n">
-        <v>-75.24109649659999</v>
+        <v>-75.66919708250001</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10267,31 +10247,31 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Ottawa</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>33.434299469</v>
+        <v>39.8718986511</v>
       </c>
       <c r="E274" t="n">
-        <v>-112.012001038</v>
+        <v>-75.24109649659999</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -10305,31 +10285,31 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Philadelphia</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>40.49150085</v>
+        <v>33.434299469</v>
       </c>
       <c r="E275" t="n">
-        <v>-80.23290253</v>
+        <v>-112.012001038</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -10343,31 +10323,31 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>45.58869934</v>
+        <v>40.49150085</v>
       </c>
       <c r="E276" t="n">
-        <v>-122.5979996</v>
+        <v>-80.23290253</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -10381,35 +10361,35 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>20.6173000336</v>
+        <v>45.58869934</v>
       </c>
       <c r="E277" t="n">
-        <v>-100.185997009</v>
+        <v>-122.5979996</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10419,35 +10399,35 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Portland</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>37.5051994324</v>
+        <v>20.6173000336</v>
       </c>
       <c r="E278" t="n">
-        <v>-77.3197021484</v>
+        <v>-100.185997009</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10457,31 +10437,31 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Queretaro</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>38.695400238</v>
+        <v>37.5051994324</v>
       </c>
       <c r="E279" t="n">
-        <v>-121.591003418</v>
+        <v>-77.3197021484</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -10495,31 +10475,31 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Richmond</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>40.7883987427</v>
+        <v>38.695400238</v>
       </c>
       <c r="E280" t="n">
-        <v>-111.977996826</v>
+        <v>-121.591003418</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -10533,31 +10513,31 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>Sacramento</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>32.7336006165</v>
+        <v>40.7883987427</v>
       </c>
       <c r="E281" t="n">
-        <v>-117.190002441</v>
+        <v>-111.977996826</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -10571,31 +10551,31 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>37.3625984192</v>
+        <v>32.7336006165</v>
       </c>
       <c r="E282" t="n">
-        <v>-121.929000855</v>
+        <v>-117.190002441</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -10609,35 +10589,35 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>San Diego</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>52.1707992554</v>
+        <v>37.3625984192</v>
       </c>
       <c r="E283" t="n">
-        <v>-106.699996948</v>
+        <v>-121.929000855</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10647,35 +10627,35 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>San Jose</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>47.4490013123</v>
+        <v>52.1707992554</v>
       </c>
       <c r="E284" t="n">
-        <v>-122.308998108</v>
+        <v>-106.699996948</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10685,31 +10665,31 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Saskatoon</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>43.540819819502</v>
+        <v>47.4490013123</v>
       </c>
       <c r="E285" t="n">
-        <v>-96.65511577730963</v>
+        <v>-122.308998108</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -10723,31 +10703,31 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>Seattle</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>38.7486991882</v>
+        <v>43.540819819502</v>
       </c>
       <c r="E286" t="n">
-        <v>-90.37000274659999</v>
+        <v>-96.65511577730963</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -10761,31 +10741,31 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>30.3964996338</v>
+        <v>38.7486991882</v>
       </c>
       <c r="E287" t="n">
-        <v>-84.3503036499</v>
+        <v>-90.37000274659999</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -10799,35 +10779,35 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>St. Louis</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>43.6772003174</v>
+        <v>30.3964996338</v>
       </c>
       <c r="E288" t="n">
-        <v>-79.63059997560001</v>
+        <v>-84.3503036499</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10837,31 +10817,31 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Tallahassee</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>49.193901062</v>
+        <v>43.6772003174</v>
       </c>
       <c r="E289" t="n">
-        <v>-123.183998108</v>
+        <v>-79.63059997560001</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -10875,31 +10855,31 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>49.9099998474</v>
+        <v>49.193901062</v>
       </c>
       <c r="E290" t="n">
-        <v>-97.2398986816</v>
+        <v>-123.183998108</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -10913,35 +10893,35 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>Vancouver</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>37.6189994812</v>
+        <v>49.9099998474</v>
       </c>
       <c r="E291" t="n">
-        <v>-122.375</v>
+        <v>-97.2398986816</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10951,35 +10931,35 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Winnipeg</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>17.9951</v>
+        <v>37.6189994812</v>
       </c>
       <c r="E292" t="n">
-        <v>-76.7846</v>
+        <v>-122.375</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10989,35 +10969,35 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>44.8081</v>
+        <v>17.9951</v>
       </c>
       <c r="E293" t="n">
-        <v>-68.795</v>
+        <v>-76.7846</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11027,31 +11007,31 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Kingston</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>30.1975</v>
+        <v>44.8081</v>
       </c>
       <c r="E294" t="n">
-        <v>-97.6664</v>
+        <v>-68.795</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -11065,31 +11045,31 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Bangor</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>35.0844</v>
+        <v>30.1975</v>
       </c>
       <c r="E295" t="n">
-        <v>-106.6504</v>
+        <v>-97.6664</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -11103,35 +11083,35 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>20.5217990875</v>
+        <v>35.0844</v>
       </c>
       <c r="E296" t="n">
-        <v>-103.3109970093</v>
+        <v>-106.6504</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11141,35 +11121,35 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>Albuquerque</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>29.429461</v>
+        <v>20.5217990875</v>
       </c>
       <c r="E297" t="n">
-        <v>-98.487061</v>
+        <v>-103.3109970093</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -11179,31 +11159,31 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Guadalajara</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>41.50069</v>
+        <v>29.429461</v>
       </c>
       <c r="E298" t="n">
-        <v>-81.68411999999999</v>
+        <v>-98.487061</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -11217,31 +11197,31 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>San Antonio</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>35.93543</v>
+        <v>41.50069</v>
       </c>
       <c r="E299" t="n">
-        <v>-78.88075000000001</v>
+        <v>-81.68411999999999</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -11255,31 +11235,31 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>35.46655</v>
+        <v>35.93543</v>
       </c>
       <c r="E300" t="n">
-        <v>-97.65373</v>
+        <v>-78.88075000000001</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -11293,73 +11273,73 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Durham</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>-34.9431729</v>
+        <v>35.46655</v>
       </c>
       <c r="E301" t="n">
-        <v>138.5335637</v>
+        <v>-97.65373</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-37.0080986023</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E302" t="n">
-        <v>174.792007446</v>
+        <v>138.5335637</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
@@ -11369,35 +11349,35 @@
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-27.3841991425</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E303" t="n">
-        <v>153.117004394</v>
+        <v>174.792007446</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11407,31 +11387,31 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-35.3069000244</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E304" t="n">
-        <v>149.1950073242</v>
+        <v>153.117004394</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
@@ -11445,35 +11425,35 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-43.4893989563</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E305" t="n">
-        <v>172.5319976807</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G305" t="inlineStr">
@@ -11483,107 +11463,107 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>13.4834003448</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E306" t="n">
-        <v>144.796005249</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-42.883209</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E307" t="n">
-        <v>147.331665</v>
+        <v>144.796005249</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-37.6733016968</v>
+        <v>-42.883209</v>
       </c>
       <c r="E308" t="n">
-        <v>144.843002319</v>
+        <v>147.331665</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
@@ -11597,35 +11577,35 @@
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-22.0146007538</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E309" t="n">
-        <v>166.212997436</v>
+        <v>144.843002319</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G309" t="inlineStr">
@@ -11635,35 +11615,35 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-31.9402999878</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E310" t="n">
-        <v>115.967002869</v>
+        <v>166.212997436</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11673,31 +11653,31 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-33.9460983276</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E311" t="n">
-        <v>151.177001953</v>
+        <v>115.967002869</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
@@ -11711,43 +11691,81 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D312" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E312" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B312" t="inlineStr">
+      <c r="B313" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C312" t="inlineStr">
+      <c r="C313" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D312" t="n">
+      <c r="D313" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E312" t="n">
+      <c r="E313" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F312" t="inlineStr">
+      <c r="F313" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G312" t="inlineStr">
+      <c r="G313" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
+      <c r="H313" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -3397,7 +3397,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Taipei</t>
+          <t>Taipei, Taiwan</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H313"/>
+  <dimension ref="A1:H314"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11318,66 +11318,66 @@
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>Tampa, United States</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>-34.9431729</v>
+        <v>27.9755001068</v>
       </c>
       <c r="E302" t="n">
-        <v>138.5335637</v>
+        <v>-82.533203125</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Tampa</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-37.0080986023</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E303" t="n">
-        <v>174.792007446</v>
+        <v>138.5335637</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11387,35 +11387,35 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-27.3841991425</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E304" t="n">
-        <v>153.117004394</v>
+        <v>174.792007446</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11425,31 +11425,31 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-35.3069000244</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E305" t="n">
-        <v>149.1950073242</v>
+        <v>153.117004394</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -11463,35 +11463,35 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-43.4893989563</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E306" t="n">
-        <v>172.5319976807</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11501,107 +11501,107 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>13.4834003448</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E307" t="n">
-        <v>144.796005249</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>-42.883209</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E308" t="n">
-        <v>147.331665</v>
+        <v>144.796005249</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-37.6733016968</v>
+        <v>-42.883209</v>
       </c>
       <c r="E309" t="n">
-        <v>144.843002319</v>
+        <v>147.331665</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -11615,35 +11615,35 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-22.0146007538</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E310" t="n">
-        <v>166.212997436</v>
+        <v>144.843002319</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11653,35 +11653,35 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-31.9402999878</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E311" t="n">
-        <v>115.967002869</v>
+        <v>166.212997436</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11691,31 +11691,31 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-33.9460983276</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E312" t="n">
-        <v>151.177001953</v>
+        <v>115.967002869</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -11729,43 +11729,81 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Sydney, NSW, Australia</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>SYD</t>
+        </is>
+      </c>
+      <c r="D313" t="n">
+        <v>-33.9460983276</v>
+      </c>
+      <c r="E313" t="n">
+        <v>151.177001953</v>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>AU</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>Oceania</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>Sydney</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="inlineStr">
+        <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="B313" t="inlineStr">
+      <c r="B314" t="inlineStr">
         <is>
           <t>Tahiti, French Polynesia</t>
         </is>
       </c>
-      <c r="C313" t="inlineStr">
+      <c r="C314" t="inlineStr">
         <is>
           <t>PPT</t>
         </is>
       </c>
-      <c r="D313" t="n">
+      <c r="D314" t="n">
         <v>-17.5536994934</v>
       </c>
-      <c r="E313" t="n">
+      <c r="E314" t="n">
         <v>-149.606994629</v>
       </c>
-      <c r="F313" t="inlineStr">
+      <c r="F314" t="inlineStr">
         <is>
           <t>PF</t>
         </is>
       </c>
-      <c r="G313" t="inlineStr">
+      <c r="G314" t="inlineStr">
         <is>
           <t>Oceania</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
+      <c r="H314" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>

--- a/DC-Colos.xlsx
+++ b/DC-Colos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H314"/>
+  <dimension ref="A1:H313"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4102,12 +4102,12 @@
     <row r="110">
       <c r="A110" s="1" t="inlineStr">
         <is>
-          <t>YNJ</t>
+          <t>HGH</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Yanbian, China</t>
+          <t>Shaoxing, China</t>
         </is>
       </c>
       <c r="C110" t="inlineStr"/>
@@ -4120,12 +4120,12 @@
     <row r="111">
       <c r="A111" s="1" t="inlineStr">
         <is>
-          <t>HGH</t>
+          <t>CZX</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Shaoxing, China</t>
+          <t>Changzhou, China</t>
         </is>
       </c>
       <c r="C111" t="inlineStr"/>
@@ -4138,12 +4138,12 @@
     <row r="112">
       <c r="A112" s="1" t="inlineStr">
         <is>
-          <t>CZX</t>
+          <t>KMG</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Changzhou, China</t>
+          <t>Kunming, China</t>
         </is>
       </c>
       <c r="C112" t="inlineStr"/>
@@ -4156,46 +4156,66 @@
     <row r="113">
       <c r="A113" s="1" t="inlineStr">
         <is>
-          <t>KMG</t>
+          <t>AMS</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Kunming, China</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
+          <t>Amsterdam, Netherlands</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>AMS</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>52.3086013794</v>
+      </c>
+      <c r="E113" t="n">
+        <v>4.7638897896</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>NL</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Europe</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Amsterdam</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Amsterdam, Netherlands</t>
+          <t>Athens, Greece</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>AMS</t>
+          <t>ATH</t>
         </is>
       </c>
       <c r="D114" t="n">
-        <v>52.3086013794</v>
+        <v>37.9364013672</v>
       </c>
       <c r="E114" t="n">
-        <v>4.7638897896</v>
+        <v>23.9444999695</v>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
@@ -4205,35 +4225,35 @@
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Amsterdam</t>
+          <t>Athens</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Athens, Greece</t>
+          <t>Barcelona, Spain</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>ATH</t>
+          <t>BCN</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>37.9364013672</v>
+        <v>41.2971000671</v>
       </c>
       <c r="E115" t="n">
-        <v>23.9444999695</v>
+        <v>2.0784599781</v>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4243,35 +4263,35 @@
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Athens</t>
+          <t>Barcelona</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Barcelona, Spain</t>
+          <t>Belgrade, Serbia</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>BCN</t>
+          <t>BEG</t>
         </is>
       </c>
       <c r="D116" t="n">
-        <v>41.2971000671</v>
+        <v>44.8184013367</v>
       </c>
       <c r="E116" t="n">
-        <v>2.0784599781</v>
+        <v>20.3090991974</v>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4281,35 +4301,35 @@
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Belgrade</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Belgrade, Serbia</t>
+          <t>Berlin, Germany</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>BEG</t>
+          <t>TXL</t>
         </is>
       </c>
       <c r="D117" t="n">
-        <v>44.8184013367</v>
+        <v>52.5597000122</v>
       </c>
       <c r="E117" t="n">
-        <v>20.3090991974</v>
+        <v>13.2876996994</v>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
@@ -4319,35 +4339,35 @@
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Belgrade</t>
+          <t>Berlin</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Berlin, Germany</t>
+          <t>Bratislava, Slovakia</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>TXL</t>
+          <t>BTS</t>
         </is>
       </c>
       <c r="D118" t="n">
-        <v>52.5597000122</v>
+        <v>48.1486</v>
       </c>
       <c r="E118" t="n">
-        <v>13.2876996994</v>
+        <v>17.1077</v>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
@@ -4357,35 +4377,35 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Berlin</t>
+          <t>Bratislava</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Bratislava, Slovakia</t>
+          <t>Brussels, Belgium</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>BTS</t>
+          <t>BRU</t>
         </is>
       </c>
       <c r="D119" t="n">
-        <v>48.1486</v>
+        <v>50.9014015198</v>
       </c>
       <c r="E119" t="n">
-        <v>17.1077</v>
+        <v>4.4844398499</v>
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4395,35 +4415,35 @@
       </c>
       <c r="H119" t="inlineStr">
         <is>
-          <t>Bratislava</t>
+          <t>Brussels</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Brussels, Belgium</t>
+          <t>Bucharest, Romania</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>BRU</t>
+          <t>OTP</t>
         </is>
       </c>
       <c r="D120" t="n">
-        <v>50.9014015198</v>
+        <v>44.5722007751</v>
       </c>
       <c r="E120" t="n">
-        <v>4.4844398499</v>
+        <v>26.1021995544</v>
       </c>
       <c r="F120" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="G120" t="inlineStr">
@@ -4433,35 +4453,35 @@
       </c>
       <c r="H120" t="inlineStr">
         <is>
-          <t>Brussels</t>
+          <t>Bucharest</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Bucharest, Romania</t>
+          <t>Budapest, Hungary</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>OTP</t>
+          <t>BUD</t>
         </is>
       </c>
       <c r="D121" t="n">
-        <v>44.5722007751</v>
+        <v>47.4369010925</v>
       </c>
       <c r="E121" t="n">
-        <v>26.1021995544</v>
+        <v>19.2555999756</v>
       </c>
       <c r="F121" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="G121" t="inlineStr">
@@ -4471,35 +4491,35 @@
       </c>
       <c r="H121" t="inlineStr">
         <is>
-          <t>Bucharest</t>
+          <t>Budapest</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Budapest, Hungary</t>
+          <t>Chișinău, Moldova</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>BUD</t>
+          <t>KIV</t>
         </is>
       </c>
       <c r="D122" t="n">
-        <v>47.4369010925</v>
+        <v>46.9277000427</v>
       </c>
       <c r="E122" t="n">
-        <v>19.2555999756</v>
+        <v>28.9309997559</v>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>MD</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
@@ -4509,35 +4529,35 @@
       </c>
       <c r="H122" t="inlineStr">
         <is>
-          <t>Budapest</t>
+          <t>Chișinău</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Chișinău, Moldova</t>
+          <t>Copenhagen, Denmark</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>KIV</t>
+          <t>CPH</t>
         </is>
       </c>
       <c r="D123" t="n">
-        <v>46.9277000427</v>
+        <v>55.6179008484</v>
       </c>
       <c r="E123" t="n">
-        <v>28.9309997559</v>
+        <v>12.6560001373</v>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>MD</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
@@ -4547,35 +4567,35 @@
       </c>
       <c r="H123" t="inlineStr">
         <is>
-          <t>Chișinău</t>
+          <t>Copenhagen</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Copenhagen, Denmark</t>
+          <t>Cork, Ireland</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>CPH</t>
+          <t>ORK</t>
         </is>
       </c>
       <c r="D124" t="n">
-        <v>55.6179008484</v>
+        <v>51.8413009644</v>
       </c>
       <c r="E124" t="n">
-        <v>12.6560001373</v>
+        <v>-8.491109848000001</v>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
@@ -4585,31 +4605,31 @@
       </c>
       <c r="H124" t="inlineStr">
         <is>
-          <t>Copenhagen</t>
+          <t>Cork</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Cork, Ireland</t>
+          <t>Dublin, Ireland</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>ORK</t>
+          <t>DUB</t>
         </is>
       </c>
       <c r="D125" t="n">
-        <v>51.8413009644</v>
+        <v>53.4212989807</v>
       </c>
       <c r="E125" t="n">
-        <v>-8.491109848000001</v>
+        <v>-6.270070076</v>
       </c>
       <c r="F125" t="inlineStr">
         <is>
@@ -4623,35 +4643,35 @@
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Cork</t>
+          <t>Dublin</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Dublin, Ireland</t>
+          <t>Düsseldorf, Germany</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>DUB</t>
+          <t>DUS</t>
         </is>
       </c>
       <c r="D126" t="n">
-        <v>53.4212989807</v>
+        <v>51.2895011902</v>
       </c>
       <c r="E126" t="n">
-        <v>-6.270070076</v>
+        <v>6.7667798996</v>
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G126" t="inlineStr">
@@ -4661,35 +4681,35 @@
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Dublin</t>
+          <t>Düsseldorf</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Düsseldorf, Germany</t>
+          <t>Edinburgh, United Kingdom</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>DUS</t>
+          <t>EDI</t>
         </is>
       </c>
       <c r="D127" t="n">
-        <v>51.2895011902</v>
+        <v>55.9500007629</v>
       </c>
       <c r="E127" t="n">
-        <v>6.7667798996</v>
+        <v>-3.3724999428</v>
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4699,35 +4719,35 @@
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Düsseldorf</t>
+          <t>Edinburgh</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Edinburgh, United Kingdom</t>
+          <t>Frankfurt, Germany</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>EDI</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="D128" t="n">
-        <v>55.9500007629</v>
+        <v>50.0264015198</v>
       </c>
       <c r="E128" t="n">
-        <v>-3.3724999428</v>
+        <v>8.543129921</v>
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -4737,35 +4757,35 @@
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Edinburgh</t>
+          <t>Frankfurt</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Frankfurt, Germany</t>
+          <t>Geneva, Switzerland</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>GVA</t>
         </is>
       </c>
       <c r="D129" t="n">
-        <v>50.0264015198</v>
+        <v>46.2380981445</v>
       </c>
       <c r="E129" t="n">
-        <v>8.543129921</v>
+        <v>6.1089501381</v>
       </c>
       <c r="F129" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G129" t="inlineStr">
@@ -4775,35 +4795,35 @@
       </c>
       <c r="H129" t="inlineStr">
         <is>
-          <t>Frankfurt</t>
+          <t>Geneva</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Geneva, Switzerland</t>
+          <t>Gothenburg, Sweden</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>GVA</t>
+          <t>GOT</t>
         </is>
       </c>
       <c r="D130" t="n">
-        <v>46.2380981445</v>
+        <v>57.6627998352</v>
       </c>
       <c r="E130" t="n">
-        <v>6.1089501381</v>
+        <v>12.279800415</v>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
@@ -4813,35 +4833,35 @@
       </c>
       <c r="H130" t="inlineStr">
         <is>
-          <t>Geneva</t>
+          <t>Gothenburg</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Gothenburg, Sweden</t>
+          <t>Hamburg, Germany</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>GOT</t>
+          <t>HAM</t>
         </is>
       </c>
       <c r="D131" t="n">
-        <v>57.6627998352</v>
+        <v>53.6304016113</v>
       </c>
       <c r="E131" t="n">
-        <v>12.279800415</v>
+        <v>9.9882297516</v>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
@@ -4851,35 +4871,35 @@
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Gothenburg</t>
+          <t>Hamburg</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Hamburg, Germany</t>
+          <t>Helsinki, Finland</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>HAM</t>
+          <t>HEL</t>
         </is>
       </c>
       <c r="D132" t="n">
-        <v>53.6304016113</v>
+        <v>60.317199707</v>
       </c>
       <c r="E132" t="n">
-        <v>9.9882297516</v>
+        <v>24.963300705</v>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
@@ -4889,35 +4909,35 @@
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Hamburg</t>
+          <t>Helsinki</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Helsinki, Finland</t>
+          <t>Istanbul, Turkey</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>HEL</t>
+          <t>IST</t>
         </is>
       </c>
       <c r="D133" t="n">
-        <v>60.317199707</v>
+        <v>40.9768981934</v>
       </c>
       <c r="E133" t="n">
-        <v>24.963300705</v>
+        <v>28.8145999908</v>
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -4927,31 +4947,31 @@
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Helsinki</t>
+          <t>Istanbul</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Istanbul, Turkey</t>
+          <t>Izmir, Turkey</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>IST</t>
+          <t>ADB</t>
         </is>
       </c>
       <c r="D134" t="n">
-        <v>40.9768981934</v>
+        <v>38.32377</v>
       </c>
       <c r="E134" t="n">
-        <v>28.8145999908</v>
+        <v>27.14317</v>
       </c>
       <c r="F134" t="inlineStr">
         <is>
@@ -4965,35 +4985,35 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Istanbul</t>
+          <t>Izmir</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Izmir, Turkey</t>
+          <t>Kyiv, Ukraine</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>ADB</t>
+          <t>KBP</t>
         </is>
       </c>
       <c r="D135" t="n">
-        <v>38.32377</v>
+        <v>50.3450012207</v>
       </c>
       <c r="E135" t="n">
-        <v>27.14317</v>
+        <v>30.8946990967</v>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>UA</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
@@ -5003,35 +5023,35 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Izmir</t>
+          <t>Kyiv</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Kyiv, Ukraine</t>
+          <t>Lisbon, Portugal</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>KBP</t>
+          <t>LIS</t>
         </is>
       </c>
       <c r="D136" t="n">
-        <v>50.3450012207</v>
+        <v>38.7812995911</v>
       </c>
       <c r="E136" t="n">
-        <v>30.8946990967</v>
+        <v>-9.135919570900001</v>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>UA</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
@@ -5041,35 +5061,35 @@
       </c>
       <c r="H136" t="inlineStr">
         <is>
-          <t>Kyiv</t>
+          <t>Lisbon</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Lisbon, Portugal</t>
+          <t>London, United Kingdom</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>LIS</t>
+          <t>LHR</t>
         </is>
       </c>
       <c r="D137" t="n">
-        <v>38.7812995911</v>
+        <v>51.4706001282</v>
       </c>
       <c r="E137" t="n">
-        <v>-9.135919570900001</v>
+        <v>-0.4619410038</v>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5079,35 +5099,35 @@
       </c>
       <c r="H137" t="inlineStr">
         <is>
-          <t>Lisbon</t>
+          <t>London</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>London, United Kingdom</t>
+          <t>Luxembourg City, Luxembourg</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>LHR</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="D138" t="n">
-        <v>51.4706001282</v>
+        <v>49.6265983582</v>
       </c>
       <c r="E138" t="n">
-        <v>-0.4619410038</v>
+        <v>6.211520195</v>
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
@@ -5117,35 +5137,35 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>London</t>
+          <t>Luxembourg City</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Luxembourg City, Luxembourg</t>
+          <t>Madrid, Spain</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>MAD</t>
         </is>
       </c>
       <c r="D139" t="n">
-        <v>49.6265983582</v>
+        <v>40.4936</v>
       </c>
       <c r="E139" t="n">
-        <v>6.211520195</v>
+        <v>-3.56676</v>
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5155,35 +5175,35 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Luxembourg City</t>
+          <t>Madrid</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Madrid, Spain</t>
+          <t>Manchester, United Kingdom</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>MAD</t>
+          <t>MAN</t>
         </is>
       </c>
       <c r="D140" t="n">
-        <v>40.4936</v>
+        <v>53.3536987305</v>
       </c>
       <c r="E140" t="n">
-        <v>-3.56676</v>
+        <v>-2.2749500275</v>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>GB</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
@@ -5193,35 +5213,35 @@
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Madrid</t>
+          <t>Manchester</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Manchester, United Kingdom</t>
+          <t>Marseille, France</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>MAN</t>
+          <t>MRS</t>
         </is>
       </c>
       <c r="D141" t="n">
-        <v>53.3536987305</v>
+        <v>43.439271922</v>
       </c>
       <c r="E141" t="n">
-        <v>-2.2749500275</v>
+        <v>5.2214241028</v>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>GB</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
@@ -5231,35 +5251,35 @@
       </c>
       <c r="H141" t="inlineStr">
         <is>
-          <t>Manchester</t>
+          <t>Marseille</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Marseille, France</t>
+          <t>Milan, Italy</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>MRS</t>
+          <t>MXP</t>
         </is>
       </c>
       <c r="D142" t="n">
-        <v>43.439271922</v>
+        <v>45.6305999756</v>
       </c>
       <c r="E142" t="n">
-        <v>5.2214241028</v>
+        <v>8.7281103134</v>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
@@ -5269,35 +5289,35 @@
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Marseille</t>
+          <t>Milan</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Milan, Italy</t>
+          <t>Minsk, Belarus</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>MXP</t>
+          <t>MSQ</t>
         </is>
       </c>
       <c r="D143" t="n">
-        <v>45.6305999756</v>
+        <v>53.9006</v>
       </c>
       <c r="E143" t="n">
-        <v>8.7281103134</v>
+        <v>27.599</v>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>BY</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5307,35 +5327,35 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Milan</t>
+          <t>Minsk</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Minsk, Belarus</t>
+          <t>Moscow, Russia</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>MSQ</t>
+          <t>DME</t>
         </is>
       </c>
       <c r="D144" t="n">
-        <v>53.9006</v>
+        <v>55.4087982178</v>
       </c>
       <c r="E144" t="n">
-        <v>27.599</v>
+        <v>37.9062995911</v>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>BY</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
@@ -5345,35 +5365,35 @@
       </c>
       <c r="H144" t="inlineStr">
         <is>
-          <t>Minsk</t>
+          <t>Moscow</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Moscow, Russia</t>
+          <t>Munich, Germany</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>DME</t>
+          <t>MUC</t>
         </is>
       </c>
       <c r="D145" t="n">
-        <v>55.4087982178</v>
+        <v>48.3538017273</v>
       </c>
       <c r="E145" t="n">
-        <v>37.9062995911</v>
+        <v>11.7861003876</v>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
@@ -5383,35 +5403,35 @@
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Moscow</t>
+          <t>Munich</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Munich, Germany</t>
+          <t>Nicosia, Cyprus</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>MUC</t>
+          <t>LCA</t>
         </is>
       </c>
       <c r="D146" t="n">
-        <v>48.3538017273</v>
+        <v>34.8750991821</v>
       </c>
       <c r="E146" t="n">
-        <v>11.7861003876</v>
+        <v>33.6249008179</v>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
@@ -5421,35 +5441,35 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Munich</t>
+          <t>Nicosia</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Nicosia, Cyprus</t>
+          <t>Oslo, Norway</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>LCA</t>
+          <t>OSL</t>
         </is>
       </c>
       <c r="D147" t="n">
-        <v>34.8750991821</v>
+        <v>60.193901062</v>
       </c>
       <c r="E147" t="n">
-        <v>33.6249008179</v>
+        <v>11.100399971</v>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="G147" t="inlineStr">
@@ -5459,35 +5479,35 @@
       </c>
       <c r="H147" t="inlineStr">
         <is>
-          <t>Nicosia</t>
+          <t>Oslo</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Oslo, Norway</t>
+          <t>Palermo, Italy</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>OSL</t>
+          <t>PMO</t>
         </is>
       </c>
       <c r="D148" t="n">
-        <v>60.193901062</v>
+        <v>38.16114</v>
       </c>
       <c r="E148" t="n">
-        <v>11.100399971</v>
+        <v>13.31546</v>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5497,35 +5517,35 @@
       </c>
       <c r="H148" t="inlineStr">
         <is>
-          <t>Oslo</t>
+          <t>Palermo</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Palermo, Italy</t>
+          <t>Paris, France</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>PMO</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="D149" t="n">
-        <v>38.16114</v>
+        <v>49.0127983093</v>
       </c>
       <c r="E149" t="n">
-        <v>13.31546</v>
+        <v>2.5499999523</v>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5535,35 +5555,35 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>Palermo</t>
+          <t>Paris</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Paris, France</t>
+          <t>Prague, Czech Republic</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>CDG</t>
+          <t>PRG</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>49.0127983093</v>
+        <v>50.1007995605</v>
       </c>
       <c r="E150" t="n">
-        <v>2.5499999523</v>
+        <v>14.2600002289</v>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5573,35 +5593,35 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>Paris</t>
+          <t>Prague</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Prague, Czech Republic</t>
+          <t>Reykjavík, Iceland</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>PRG</t>
+          <t>KEF</t>
         </is>
       </c>
       <c r="D151" t="n">
-        <v>50.1007995605</v>
+        <v>63.9850006104</v>
       </c>
       <c r="E151" t="n">
-        <v>14.2600002289</v>
+        <v>-22.6056003571</v>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
@@ -5611,35 +5631,35 @@
       </c>
       <c r="H151" t="inlineStr">
         <is>
-          <t>Prague</t>
+          <t>Reykjavík</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Reykjavík, Iceland</t>
+          <t>Riga, Latvia</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>KEF</t>
+          <t>RIX</t>
         </is>
       </c>
       <c r="D152" t="n">
-        <v>63.9850006104</v>
+        <v>56.9235992432</v>
       </c>
       <c r="E152" t="n">
-        <v>-22.6056003571</v>
+        <v>23.9710998535</v>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5649,35 +5669,35 @@
       </c>
       <c r="H152" t="inlineStr">
         <is>
-          <t>Reykjavík</t>
+          <t>Riga</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Riga, Latvia</t>
+          <t>Rome, Italy</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>RIX</t>
+          <t>FCO</t>
         </is>
       </c>
       <c r="D153" t="n">
-        <v>56.9235992432</v>
+        <v>41.8045005798</v>
       </c>
       <c r="E153" t="n">
-        <v>23.9710998535</v>
+        <v>12.2508001328</v>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5687,35 +5707,35 @@
       </c>
       <c r="H153" t="inlineStr">
         <is>
-          <t>Riga</t>
+          <t>Rome</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Rome, Italy</t>
+          <t>Saint Petersburg, Russia</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>FCO</t>
+          <t>LED</t>
         </is>
       </c>
       <c r="D154" t="n">
-        <v>41.8045005798</v>
+        <v>59.8003005981</v>
       </c>
       <c r="E154" t="n">
-        <v>12.2508001328</v>
+        <v>30.2625007629</v>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
@@ -5725,35 +5745,35 @@
       </c>
       <c r="H154" t="inlineStr">
         <is>
-          <t>Rome</t>
+          <t>Saint Petersburg</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Saint Petersburg, Russia</t>
+          <t>Sofia, Bulgaria</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>LED</t>
+          <t>SOF</t>
         </is>
       </c>
       <c r="D155" t="n">
-        <v>59.8003005981</v>
+        <v>42.6966934204</v>
       </c>
       <c r="E155" t="n">
-        <v>30.2625007629</v>
+        <v>23.4114360809</v>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5763,35 +5783,35 @@
       </c>
       <c r="H155" t="inlineStr">
         <is>
-          <t>Saint Petersburg</t>
+          <t>Sofia</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Sofia, Bulgaria</t>
+          <t>Stockholm, Sweden</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>SOF</t>
+          <t>ARN</t>
         </is>
       </c>
       <c r="D156" t="n">
-        <v>42.6966934204</v>
+        <v>59.6519012451</v>
       </c>
       <c r="E156" t="n">
-        <v>23.4114360809</v>
+        <v>17.9186000824</v>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -5801,35 +5821,35 @@
       </c>
       <c r="H156" t="inlineStr">
         <is>
-          <t>Sofia</t>
+          <t>Stockholm</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Stockholm, Sweden</t>
+          <t>Stuttgart, Germany</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ARN</t>
+          <t>STR</t>
         </is>
       </c>
       <c r="D157" t="n">
-        <v>59.6519012451</v>
+        <v>48.783333</v>
       </c>
       <c r="E157" t="n">
-        <v>17.9186000824</v>
+        <v>9.183332999999999</v>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
@@ -5839,35 +5859,35 @@
       </c>
       <c r="H157" t="inlineStr">
         <is>
-          <t>Stockholm</t>
+          <t>Stuttgart</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Stuttgart, Germany</t>
+          <t>Tallinn, Estonia</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>STR</t>
+          <t>TLL</t>
         </is>
       </c>
       <c r="D158" t="n">
-        <v>48.783333</v>
+        <v>59.4132995605</v>
       </c>
       <c r="E158" t="n">
-        <v>9.183332999999999</v>
+        <v>24.8327999115</v>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -5877,35 +5897,35 @@
       </c>
       <c r="H158" t="inlineStr">
         <is>
-          <t>Stuttgart</t>
+          <t>Tallinn</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Tallinn, Estonia</t>
+          <t>Tbilisi, Georgia</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>TLL</t>
+          <t>TBS</t>
         </is>
       </c>
       <c r="D159" t="n">
-        <v>59.4132995605</v>
+        <v>41.6692008972</v>
       </c>
       <c r="E159" t="n">
-        <v>24.8327999115</v>
+        <v>44.95470047</v>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>GE</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
@@ -5915,35 +5935,35 @@
       </c>
       <c r="H159" t="inlineStr">
         <is>
-          <t>Tallinn</t>
+          <t>Tbilisi</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Tbilisi, Georgia</t>
+          <t>Thessaloniki, Greece</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>TBS</t>
+          <t>SKG</t>
         </is>
       </c>
       <c r="D160" t="n">
-        <v>41.6692008972</v>
+        <v>40.5196990967</v>
       </c>
       <c r="E160" t="n">
-        <v>44.95470047</v>
+        <v>22.9708995819</v>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>GE</t>
+          <t>GR</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -5953,35 +5973,35 @@
       </c>
       <c r="H160" t="inlineStr">
         <is>
-          <t>Tbilisi</t>
+          <t>Thessaloniki</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Thessaloniki, Greece</t>
+          <t>Tirana, Albania</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>SKG</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D161" t="n">
-        <v>40.5196990967</v>
+        <v>41.4146995544</v>
       </c>
       <c r="E161" t="n">
-        <v>22.9708995819</v>
+        <v>19.7206001282</v>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>GR</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="G161" t="inlineStr">
@@ -5991,35 +6011,35 @@
       </c>
       <c r="H161" t="inlineStr">
         <is>
-          <t>Thessaloniki</t>
+          <t>Tirana</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Tirana, Albania</t>
+          <t>Tver, Russian Federation</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>KLD</t>
         </is>
       </c>
       <c r="D162" t="n">
-        <v>41.4146995544</v>
+        <v>56.8587</v>
       </c>
       <c r="E162" t="n">
-        <v>19.7206001282</v>
+        <v>35.9176</v>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
@@ -6029,35 +6049,35 @@
       </c>
       <c r="H162" t="inlineStr">
         <is>
-          <t>Tirana</t>
+          <t>Tver</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Tver, Russian Federation</t>
+          <t>Vienna, Austria</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>KLD</t>
+          <t>VIE</t>
         </is>
       </c>
       <c r="D163" t="n">
-        <v>56.8587</v>
+        <v>48.1102981567</v>
       </c>
       <c r="E163" t="n">
-        <v>35.9176</v>
+        <v>16.5697002411</v>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6067,35 +6087,35 @@
       </c>
       <c r="H163" t="inlineStr">
         <is>
-          <t>Tver</t>
+          <t>Vienna</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Vienna, Austria</t>
+          <t>Vilnius, Lithuania</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>VIE</t>
+          <t>VNO</t>
         </is>
       </c>
       <c r="D164" t="n">
-        <v>48.1102981567</v>
+        <v>54.6341018677</v>
       </c>
       <c r="E164" t="n">
-        <v>16.5697002411</v>
+        <v>25.2858009338</v>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
@@ -6105,35 +6125,35 @@
       </c>
       <c r="H164" t="inlineStr">
         <is>
-          <t>Vienna</t>
+          <t>Vilnius</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Vilnius, Lithuania</t>
+          <t>Warsaw, Poland</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>VNO</t>
+          <t>WAW</t>
         </is>
       </c>
       <c r="D165" t="n">
-        <v>54.6341018677</v>
+        <v>52.1656990051</v>
       </c>
       <c r="E165" t="n">
-        <v>25.2858009338</v>
+        <v>20.9671001434</v>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="G165" t="inlineStr">
@@ -6143,111 +6163,111 @@
       </c>
       <c r="H165" t="inlineStr">
         <is>
-          <t>Vilnius</t>
+          <t>Warsaw</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Warsaw, Poland</t>
+          <t>Yekaterinburg, Russia</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>WAW</t>
+          <t>SVX</t>
         </is>
       </c>
       <c r="D166" t="n">
-        <v>52.1656990051</v>
+        <v>56.8431</v>
       </c>
       <c r="E166" t="n">
-        <v>20.9671001434</v>
+        <v>60.6454</v>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H166" t="inlineStr">
         <is>
-          <t>Warsaw</t>
+          <t>Yekaterinburg</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Yekaterinburg, Russia</t>
+          <t>Zagreb, Croatia</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>SVX</t>
+          <t>ZAG</t>
         </is>
       </c>
       <c r="D167" t="n">
-        <v>56.8431</v>
+        <v>45.7429008484</v>
       </c>
       <c r="E167" t="n">
-        <v>60.6454</v>
+        <v>16.0687999725</v>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Europe</t>
         </is>
       </c>
       <c r="H167" t="inlineStr">
         <is>
-          <t>Yekaterinburg</t>
+          <t>Zagreb</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Zagreb, Croatia</t>
+          <t>Zürich, Switzerland</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>ZAG</t>
+          <t>ZRH</t>
         </is>
       </c>
       <c r="D168" t="n">
-        <v>45.7429008484</v>
+        <v>47.4646987915</v>
       </c>
       <c r="E168" t="n">
-        <v>16.0687999725</v>
+        <v>8.549169540399999</v>
       </c>
       <c r="F168" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="G168" t="inlineStr">
@@ -6257,35 +6277,35 @@
       </c>
       <c r="H168" t="inlineStr">
         <is>
-          <t>Zagreb</t>
+          <t>Zurich</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Zürich, Switzerland</t>
+          <t>Lyon, France</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>ZRH</t>
+          <t>LYS</t>
         </is>
       </c>
       <c r="D169" t="n">
-        <v>47.4646987915</v>
+        <v>45.7263</v>
       </c>
       <c r="E169" t="n">
-        <v>8.549169540399999</v>
+        <v>5.0908</v>
       </c>
       <c r="F169" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="G169" t="inlineStr">
@@ -6295,31 +6315,31 @@
       </c>
       <c r="H169" t="inlineStr">
         <is>
-          <t>Zurich</t>
+          <t>Lyon</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Lyon, France</t>
+          <t>Bordeaux, France</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>LYS</t>
+          <t>BOD</t>
         </is>
       </c>
       <c r="D170" t="n">
-        <v>45.7263</v>
+        <v>44.82946</v>
       </c>
       <c r="E170" t="n">
-        <v>5.0908</v>
+        <v>-0.58355</v>
       </c>
       <c r="F170" t="inlineStr">
         <is>
@@ -6333,73 +6353,73 @@
       </c>
       <c r="H170" t="inlineStr">
         <is>
-          <t>Lyon</t>
+          <t>Bordeaux</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Bordeaux, France</t>
+          <t>Americana, Brazil</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>BOD</t>
+          <t>QWJ</t>
         </is>
       </c>
       <c r="D171" t="n">
-        <v>44.82946</v>
+        <v>-22.738</v>
       </c>
       <c r="E171" t="n">
-        <v>-0.58355</v>
+        <v>-47.334</v>
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Europe</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H171" t="inlineStr">
         <is>
-          <t>Bordeaux</t>
+          <t>Americana</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Americana, Brazil</t>
+          <t>Arica, Chile</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>QWJ</t>
+          <t>ARI</t>
         </is>
       </c>
       <c r="D172" t="n">
-        <v>-22.738</v>
+        <v>-18.348611</v>
       </c>
       <c r="E172" t="n">
-        <v>-47.334</v>
+        <v>-70.33888899999999</v>
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6409,35 +6429,35 @@
       </c>
       <c r="H172" t="inlineStr">
         <is>
-          <t>Americana</t>
+          <t>Arica</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Arica, Chile</t>
+          <t>Asunción, Paraguay</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ARI</t>
+          <t>ASU</t>
         </is>
       </c>
       <c r="D173" t="n">
-        <v>-18.348611</v>
+        <v>-25.2399997711</v>
       </c>
       <c r="E173" t="n">
-        <v>-70.33888899999999</v>
+        <v>-57.5200004578</v>
       </c>
       <c r="F173" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>PY</t>
         </is>
       </c>
       <c r="G173" t="inlineStr">
@@ -6447,35 +6467,35 @@
       </c>
       <c r="H173" t="inlineStr">
         <is>
-          <t>Arica</t>
+          <t>Asunción</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Asunción, Paraguay</t>
+          <t>Belém, Brazil</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>ASU</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="D174" t="n">
-        <v>-25.2399997711</v>
+        <v>-1.4563</v>
       </c>
       <c r="E174" t="n">
-        <v>-57.5200004578</v>
+        <v>-48.5013</v>
       </c>
       <c r="F174" t="inlineStr">
         <is>
-          <t>PY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G174" t="inlineStr">
@@ -6485,31 +6505,31 @@
       </c>
       <c r="H174" t="inlineStr">
         <is>
-          <t>Asunción</t>
+          <t>Belém</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Belém, Brazil</t>
+          <t>Belo Horizonte, Brazil</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>CNF</t>
         </is>
       </c>
       <c r="D175" t="n">
-        <v>-1.4563</v>
+        <v>-19.624444</v>
       </c>
       <c r="E175" t="n">
-        <v>-48.5013</v>
+        <v>-43.971944</v>
       </c>
       <c r="F175" t="inlineStr">
         <is>
@@ -6523,31 +6543,31 @@
       </c>
       <c r="H175" t="inlineStr">
         <is>
-          <t>Belém</t>
+          <t>Belo Horizonte</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Belo Horizonte, Brazil</t>
+          <t>Blumenau, Brazil</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>CNF</t>
+          <t>BNU</t>
         </is>
       </c>
       <c r="D176" t="n">
-        <v>-19.624444</v>
+        <v>-26.89245</v>
       </c>
       <c r="E176" t="n">
-        <v>-43.971944</v>
+        <v>-49.07696</v>
       </c>
       <c r="F176" t="inlineStr">
         <is>
@@ -6561,35 +6581,35 @@
       </c>
       <c r="H176" t="inlineStr">
         <is>
-          <t>Belo Horizonte</t>
+          <t>Blumenau</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Blumenau, Brazil</t>
+          <t>Bogotá, Colombia</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>BNU</t>
+          <t>BOG</t>
         </is>
       </c>
       <c r="D177" t="n">
-        <v>-26.89245</v>
+        <v>4.70159</v>
       </c>
       <c r="E177" t="n">
-        <v>-49.07696</v>
+        <v>-74.1469</v>
       </c>
       <c r="F177" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G177" t="inlineStr">
@@ -6599,35 +6619,35 @@
       </c>
       <c r="H177" t="inlineStr">
         <is>
-          <t>Blumenau</t>
+          <t>Bogotá</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Bogotá, Colombia</t>
+          <t>Brasilia, Brazil</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>BOG</t>
+          <t>BSB</t>
         </is>
       </c>
       <c r="D178" t="n">
-        <v>4.70159</v>
+        <v>-15.79824</v>
       </c>
       <c r="E178" t="n">
-        <v>-74.1469</v>
+        <v>-47.90859</v>
       </c>
       <c r="F178" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G178" t="inlineStr">
@@ -6637,35 +6657,35 @@
       </c>
       <c r="H178" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>Brasilia</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Brasilia, Brazil</t>
+          <t>Buenos Aires, Argentina</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>BSB</t>
+          <t>EZE</t>
         </is>
       </c>
       <c r="D179" t="n">
-        <v>-15.79824</v>
+        <v>-34.8222</v>
       </c>
       <c r="E179" t="n">
-        <v>-47.90859</v>
+        <v>-58.5358</v>
       </c>
       <c r="F179" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G179" t="inlineStr">
@@ -6675,35 +6695,35 @@
       </c>
       <c r="H179" t="inlineStr">
         <is>
-          <t>Brasilia</t>
+          <t>Buenos Aires</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Buenos Aires, Argentina</t>
+          <t>Caçador, Brazil</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>EZE</t>
+          <t>CFC</t>
         </is>
       </c>
       <c r="D180" t="n">
-        <v>-34.8222</v>
+        <v>-26.7762</v>
       </c>
       <c r="E180" t="n">
-        <v>-58.5358</v>
+        <v>-51.0125</v>
       </c>
       <c r="F180" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G180" t="inlineStr">
@@ -6713,31 +6733,31 @@
       </c>
       <c r="H180" t="inlineStr">
         <is>
-          <t>Buenos Aires</t>
+          <t>Cacador</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Caçador, Brazil</t>
+          <t>Campinas, Brazil</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>CFC</t>
+          <t>VCP</t>
         </is>
       </c>
       <c r="D181" t="n">
-        <v>-26.7762</v>
+        <v>-22.90662</v>
       </c>
       <c r="E181" t="n">
-        <v>-51.0125</v>
+        <v>-47.08576</v>
       </c>
       <c r="F181" t="inlineStr">
         <is>
@@ -6751,35 +6771,35 @@
       </c>
       <c r="H181" t="inlineStr">
         <is>
-          <t>Cacador</t>
+          <t>Campinas</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Campinas, Brazil</t>
+          <t>Córdoba, Argentina</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>VCP</t>
+          <t>COR</t>
         </is>
       </c>
       <c r="D182" t="n">
-        <v>-22.90662</v>
+        <v>-31.31</v>
       </c>
       <c r="E182" t="n">
-        <v>-47.08576</v>
+        <v>-64.208333</v>
       </c>
       <c r="F182" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G182" t="inlineStr">
@@ -6789,35 +6809,35 @@
       </c>
       <c r="H182" t="inlineStr">
         <is>
-          <t>Campinas</t>
+          <t>Córdoba</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Córdoba, Argentina</t>
+          <t>Cuiabá, Brazil</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>COR</t>
+          <t>CGB</t>
         </is>
       </c>
       <c r="D183" t="n">
-        <v>-31.31</v>
+        <v>-15.59611</v>
       </c>
       <c r="E183" t="n">
-        <v>-64.208333</v>
+        <v>-56.09667</v>
       </c>
       <c r="F183" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G183" t="inlineStr">
@@ -6827,31 +6847,31 @@
       </c>
       <c r="H183" t="inlineStr">
         <is>
-          <t>Córdoba</t>
+          <t>Cuiaba</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Cuiabá, Brazil</t>
+          <t>Curitiba, Brazil</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>CGB</t>
+          <t>CWB</t>
         </is>
       </c>
       <c r="D184" t="n">
-        <v>-15.59611</v>
+        <v>-25.5284996033</v>
       </c>
       <c r="E184" t="n">
-        <v>-56.09667</v>
+        <v>-49.1758003235</v>
       </c>
       <c r="F184" t="inlineStr">
         <is>
@@ -6865,31 +6885,31 @@
       </c>
       <c r="H184" t="inlineStr">
         <is>
-          <t>Cuiaba</t>
+          <t>Curitiba</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Curitiba, Brazil</t>
+          <t>Florianopolis, Brazil</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>CWB</t>
+          <t>FLN</t>
         </is>
       </c>
       <c r="D185" t="n">
-        <v>-25.5284996033</v>
+        <v>-27.6702785492</v>
       </c>
       <c r="E185" t="n">
-        <v>-49.1758003235</v>
+        <v>-48.5525016785</v>
       </c>
       <c r="F185" t="inlineStr">
         <is>
@@ -6903,31 +6923,31 @@
       </c>
       <c r="H185" t="inlineStr">
         <is>
-          <t>Curitiba</t>
+          <t>Florianopolis</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Florianopolis, Brazil</t>
+          <t>Fortaleza, Brazil</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>FOR</t>
         </is>
       </c>
       <c r="D186" t="n">
-        <v>-27.6702785492</v>
+        <v>-3.7762799263</v>
       </c>
       <c r="E186" t="n">
-        <v>-48.5525016785</v>
+        <v>-38.5326004028</v>
       </c>
       <c r="F186" t="inlineStr">
         <is>
@@ -6941,35 +6961,35 @@
       </c>
       <c r="H186" t="inlineStr">
         <is>
-          <t>Florianopolis</t>
+          <t>Fortaleza</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Fortaleza, Brazil</t>
+          <t>Georgetown, Guyana</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>FOR</t>
+          <t>GEO</t>
         </is>
       </c>
       <c r="D187" t="n">
-        <v>-3.7762799263</v>
+        <v>6.825648</v>
       </c>
       <c r="E187" t="n">
-        <v>-38.5326004028</v>
+        <v>-58.163756</v>
       </c>
       <c r="F187" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GY</t>
         </is>
       </c>
       <c r="G187" t="inlineStr">
@@ -6979,35 +6999,35 @@
       </c>
       <c r="H187" t="inlineStr">
         <is>
-          <t>Fortaleza</t>
+          <t>Georgetown</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Georgetown, Guyana</t>
+          <t>Goiânia, Brazil</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>GEO</t>
+          <t>GYN</t>
         </is>
       </c>
       <c r="D188" t="n">
-        <v>6.825648</v>
+        <v>-16.69727</v>
       </c>
       <c r="E188" t="n">
-        <v>-58.163756</v>
+        <v>-49.26851</v>
       </c>
       <c r="F188" t="inlineStr">
         <is>
-          <t>GY</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G188" t="inlineStr">
@@ -7017,111 +7037,111 @@
       </c>
       <c r="H188" t="inlineStr">
         <is>
-          <t>Georgetown</t>
+          <t>Goiania</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Goiânia, Brazil</t>
+          <t>Guatemala City, Guatemala</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>GYN</t>
+          <t>GUA</t>
         </is>
       </c>
       <c r="D189" t="n">
-        <v>-16.69727</v>
+        <v>14.5832996368</v>
       </c>
       <c r="E189" t="n">
-        <v>-49.26851</v>
+        <v>-90.5274963379</v>
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H189" t="inlineStr">
         <is>
-          <t>Goiania</t>
+          <t>Guatemala City</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Guatemala City, Guatemala</t>
+          <t>Guayaquil, Ecuador</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>GUA</t>
+          <t>GYE</t>
         </is>
       </c>
       <c r="D190" t="n">
-        <v>14.5832996368</v>
+        <v>-2.1894</v>
       </c>
       <c r="E190" t="n">
-        <v>-90.5274963379</v>
+        <v>-79.8891</v>
       </c>
       <c r="F190" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H190" t="inlineStr">
         <is>
-          <t>Guatemala City</t>
+          <t>Guayaquil</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Guayaquil, Ecuador</t>
+          <t>Itajaí, Brazil</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>GYE</t>
+          <t>ITJ</t>
         </is>
       </c>
       <c r="D191" t="n">
-        <v>-2.1894</v>
+        <v>-27.6116676331</v>
       </c>
       <c r="E191" t="n">
-        <v>-79.8891</v>
+        <v>-48.6727790833</v>
       </c>
       <c r="F191" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G191" t="inlineStr">
@@ -7131,31 +7151,31 @@
       </c>
       <c r="H191" t="inlineStr">
         <is>
-          <t>Guayaquil</t>
+          <t>Itajai</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Itajaí, Brazil</t>
+          <t>Joinville, Brazil</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>ITJ</t>
+          <t>JOI</t>
         </is>
       </c>
       <c r="D192" t="n">
-        <v>-27.6116676331</v>
+        <v>-26.304408</v>
       </c>
       <c r="E192" t="n">
-        <v>-48.6727790833</v>
+        <v>-48.846383</v>
       </c>
       <c r="F192" t="inlineStr">
         <is>
@@ -7169,31 +7189,31 @@
       </c>
       <c r="H192" t="inlineStr">
         <is>
-          <t>Itajai</t>
+          <t>Joinville</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Joinville, Brazil</t>
+          <t>Juazeiro do Norte, Brazil</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>JOI</t>
+          <t>JDO</t>
         </is>
       </c>
       <c r="D193" t="n">
-        <v>-26.304408</v>
+        <v>-7.2242</v>
       </c>
       <c r="E193" t="n">
-        <v>-48.846383</v>
+        <v>-39.313</v>
       </c>
       <c r="F193" t="inlineStr">
         <is>
@@ -7207,35 +7227,35 @@
       </c>
       <c r="H193" t="inlineStr">
         <is>
-          <t>Joinville</t>
+          <t>Juazeiro do Norte</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte, Brazil</t>
+          <t>Lima, Peru</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>JDO</t>
+          <t>LIM</t>
         </is>
       </c>
       <c r="D194" t="n">
-        <v>-7.2242</v>
+        <v>-12.021900177</v>
       </c>
       <c r="E194" t="n">
-        <v>-39.313</v>
+        <v>-77.1143035889</v>
       </c>
       <c r="F194" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>PE</t>
         </is>
       </c>
       <c r="G194" t="inlineStr">
@@ -7245,35 +7265,35 @@
       </c>
       <c r="H194" t="inlineStr">
         <is>
-          <t>Juazeiro do Norte</t>
+          <t>Lima</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Lima, Peru</t>
+          <t>Manaus, Brazil</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>LIM</t>
+          <t>MAO</t>
         </is>
       </c>
       <c r="D195" t="n">
-        <v>-12.021900177</v>
+        <v>-3.11286</v>
       </c>
       <c r="E195" t="n">
-        <v>-77.1143035889</v>
+        <v>-60.01949</v>
       </c>
       <c r="F195" t="inlineStr">
         <is>
-          <t>PE</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G195" t="inlineStr">
@@ -7283,35 +7303,35 @@
       </c>
       <c r="H195" t="inlineStr">
         <is>
-          <t>Lima</t>
+          <t>Manaus</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Manaus, Brazil</t>
+          <t>Medellín, Colombia</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>MAO</t>
+          <t>MDE</t>
         </is>
       </c>
       <c r="D196" t="n">
-        <v>-3.11286</v>
+        <v>6.16454</v>
       </c>
       <c r="E196" t="n">
-        <v>-60.01949</v>
+        <v>-75.42310000000001</v>
       </c>
       <c r="F196" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CO</t>
         </is>
       </c>
       <c r="G196" t="inlineStr">
@@ -7321,35 +7341,35 @@
       </c>
       <c r="H196" t="inlineStr">
         <is>
-          <t>Manaus</t>
+          <t>Medellín</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Medellín, Colombia</t>
+          <t>Neuquén, Argentina</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>MDE</t>
+          <t>NQN</t>
         </is>
       </c>
       <c r="D197" t="n">
-        <v>6.16454</v>
+        <v>-38.9490013123</v>
       </c>
       <c r="E197" t="n">
-        <v>-75.42310000000001</v>
+        <v>-68.1557006836</v>
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>CO</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7359,35 +7379,35 @@
       </c>
       <c r="H197" t="inlineStr">
         <is>
-          <t>Medellín</t>
+          <t>Neuquen</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Neuquén, Argentina</t>
+          <t>Panama City, Panama</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>NQN</t>
+          <t>PTY</t>
         </is>
       </c>
       <c r="D198" t="n">
-        <v>-38.9490013123</v>
+        <v>9.0713596344</v>
       </c>
       <c r="E198" t="n">
-        <v>-68.1557006836</v>
+        <v>-79.3834991455</v>
       </c>
       <c r="F198" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>PA</t>
         </is>
       </c>
       <c r="G198" t="inlineStr">
@@ -7397,35 +7417,35 @@
       </c>
       <c r="H198" t="inlineStr">
         <is>
-          <t>Neuquen</t>
+          <t>Panama City</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Panama City, Panama</t>
+          <t>Paramaribo, Suriname</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>PTY</t>
+          <t>PBM</t>
         </is>
       </c>
       <c r="D199" t="n">
-        <v>9.0713596344</v>
+        <v>5.452831</v>
       </c>
       <c r="E199" t="n">
-        <v>-79.3834991455</v>
+        <v>-55.187783</v>
       </c>
       <c r="F199" t="inlineStr">
         <is>
-          <t>PA</t>
+          <t>SR</t>
         </is>
       </c>
       <c r="G199" t="inlineStr">
@@ -7435,35 +7455,35 @@
       </c>
       <c r="H199" t="inlineStr">
         <is>
-          <t>Panama City</t>
+          <t>Paramaribo</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Paramaribo, Suriname</t>
+          <t>Porto Alegre, Brazil</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>PBM</t>
+          <t>POA</t>
         </is>
       </c>
       <c r="D200" t="n">
-        <v>5.452831</v>
+        <v>-29.9944000244</v>
       </c>
       <c r="E200" t="n">
-        <v>-55.187783</v>
+        <v>-51.1713981628</v>
       </c>
       <c r="F200" t="inlineStr">
         <is>
-          <t>SR</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G200" t="inlineStr">
@@ -7473,35 +7493,35 @@
       </c>
       <c r="H200" t="inlineStr">
         <is>
-          <t>Paramaribo</t>
+          <t>Porto Alegre</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Porto Alegre, Brazil</t>
+          <t>Quito, Ecuador</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>POA</t>
+          <t>UIO</t>
         </is>
       </c>
       <c r="D201" t="n">
-        <v>-29.9944000244</v>
+        <v>-0.1291666667</v>
       </c>
       <c r="E201" t="n">
-        <v>-51.1713981628</v>
+        <v>-78.3575</v>
       </c>
       <c r="F201" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>EC</t>
         </is>
       </c>
       <c r="G201" t="inlineStr">
@@ -7511,35 +7531,35 @@
       </c>
       <c r="H201" t="inlineStr">
         <is>
-          <t>Porto Alegre</t>
+          <t>Quito</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Quito, Ecuador</t>
+          <t>Recife, Brazil</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>UIO</t>
+          <t>REC</t>
         </is>
       </c>
       <c r="D202" t="n">
-        <v>-0.1291666667</v>
+        <v>-8.126489639300001</v>
       </c>
       <c r="E202" t="n">
-        <v>-78.3575</v>
+        <v>-34.9235992432</v>
       </c>
       <c r="F202" t="inlineStr">
         <is>
-          <t>EC</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G202" t="inlineStr">
@@ -7549,31 +7569,31 @@
       </c>
       <c r="H202" t="inlineStr">
         <is>
-          <t>Quito</t>
+          <t>Recife</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Recife, Brazil</t>
+          <t>Ribeirao Preto, Brazil</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>REC</t>
+          <t>RAO</t>
         </is>
       </c>
       <c r="D203" t="n">
-        <v>-8.126489639300001</v>
+        <v>-21.1363887787</v>
       </c>
       <c r="E203" t="n">
-        <v>-34.9235992432</v>
+        <v>-47.7766685486</v>
       </c>
       <c r="F203" t="inlineStr">
         <is>
@@ -7587,31 +7607,31 @@
       </c>
       <c r="H203" t="inlineStr">
         <is>
-          <t>Recife</t>
+          <t>Ribeirao Preto</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Ribeirao Preto, Brazil</t>
+          <t>Rio de Janeiro, Brazil</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>RAO</t>
+          <t>GIG</t>
         </is>
       </c>
       <c r="D204" t="n">
-        <v>-21.1363887787</v>
+        <v>-22.8099994659</v>
       </c>
       <c r="E204" t="n">
-        <v>-47.7766685486</v>
+        <v>-43.2505569458</v>
       </c>
       <c r="F204" t="inlineStr">
         <is>
@@ -7625,31 +7645,31 @@
       </c>
       <c r="H204" t="inlineStr">
         <is>
-          <t>Ribeirao Preto</t>
+          <t>Rio de Janeiro</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Rio de Janeiro, Brazil</t>
+          <t>Salvador, Brazil</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>GIG</t>
+          <t>SSA</t>
         </is>
       </c>
       <c r="D205" t="n">
-        <v>-22.8099994659</v>
+        <v>-12.9086112976</v>
       </c>
       <c r="E205" t="n">
-        <v>-43.2505569458</v>
+        <v>-38.3224983215</v>
       </c>
       <c r="F205" t="inlineStr">
         <is>
@@ -7663,35 +7683,35 @@
       </c>
       <c r="H205" t="inlineStr">
         <is>
-          <t>Rio de Janeiro</t>
+          <t>Salvador</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Salvador, Brazil</t>
+          <t>San José, Costa Rica</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>SSA</t>
+          <t>SJO</t>
         </is>
       </c>
       <c r="D206" t="n">
-        <v>-12.9086112976</v>
+        <v>9.9938602448</v>
       </c>
       <c r="E206" t="n">
-        <v>-38.3224983215</v>
+        <v>-84.2088012695</v>
       </c>
       <c r="F206" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CR</t>
         </is>
       </c>
       <c r="G206" t="inlineStr">
@@ -7701,35 +7721,35 @@
       </c>
       <c r="H206" t="inlineStr">
         <is>
-          <t>Salvador</t>
+          <t>San José</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>San José, Costa Rica</t>
+          <t>Santiago, Chile</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SJO</t>
+          <t>SCL</t>
         </is>
       </c>
       <c r="D207" t="n">
-        <v>9.9938602448</v>
+        <v>-33.3930015564</v>
       </c>
       <c r="E207" t="n">
-        <v>-84.2088012695</v>
+        <v>-70.7857971191</v>
       </c>
       <c r="F207" t="inlineStr">
         <is>
-          <t>CR</t>
+          <t>CL</t>
         </is>
       </c>
       <c r="G207" t="inlineStr">
@@ -7739,107 +7759,107 @@
       </c>
       <c r="H207" t="inlineStr">
         <is>
-          <t>San José</t>
+          <t>Santiago</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Santiago, Chile</t>
+          <t>Santo Domingo, Dominican Republic</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>SCL</t>
+          <t>SDQ</t>
         </is>
       </c>
       <c r="D208" t="n">
-        <v>-33.3930015564</v>
+        <v>18.4297008514</v>
       </c>
       <c r="E208" t="n">
-        <v>-70.7857971191</v>
+        <v>-69.6688995361</v>
       </c>
       <c r="F208" t="inlineStr">
         <is>
-          <t>CL</t>
+          <t>DO</t>
         </is>
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H208" t="inlineStr">
         <is>
-          <t>Santiago</t>
+          <t>Santo Domingo</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Santo Domingo, Dominican Republic</t>
+          <t>São José do Rio Preto, Brazil</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>SDQ</t>
+          <t>SJP</t>
         </is>
       </c>
       <c r="D209" t="n">
-        <v>18.4297008514</v>
+        <v>-20.807157</v>
       </c>
       <c r="E209" t="n">
-        <v>-69.6688995361</v>
+        <v>-49.378994</v>
       </c>
       <c r="F209" t="inlineStr">
         <is>
-          <t>DO</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H209" t="inlineStr">
         <is>
-          <t>Santo Domingo</t>
+          <t>São José do Rio Preto</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>São José do Rio Preto, Brazil</t>
+          <t>São José dos Campos, Brazil</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>SJP</t>
+          <t>SJK</t>
         </is>
       </c>
       <c r="D210" t="n">
-        <v>-20.807157</v>
+        <v>-23.1791</v>
       </c>
       <c r="E210" t="n">
-        <v>-49.378994</v>
+        <v>-45.8872</v>
       </c>
       <c r="F210" t="inlineStr">
         <is>
@@ -7853,31 +7873,31 @@
       </c>
       <c r="H210" t="inlineStr">
         <is>
-          <t>São José do Rio Preto</t>
+          <t>São José dos Campos</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>São José dos Campos, Brazil</t>
+          <t>São Paulo, Brazil</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>SJK</t>
+          <t>GRU</t>
         </is>
       </c>
       <c r="D211" t="n">
-        <v>-23.1791</v>
+        <v>-23.4355564117</v>
       </c>
       <c r="E211" t="n">
-        <v>-45.8872</v>
+        <v>-46.4730567932</v>
       </c>
       <c r="F211" t="inlineStr">
         <is>
@@ -7891,31 +7911,31 @@
       </c>
       <c r="H211" t="inlineStr">
         <is>
-          <t>São José dos Campos</t>
+          <t>São Paulo</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>São Paulo, Brazil</t>
+          <t>Sorocaba, Brazil</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>GRU</t>
+          <t>SOD</t>
         </is>
       </c>
       <c r="D212" t="n">
-        <v>-23.4355564117</v>
+        <v>-23.54389</v>
       </c>
       <c r="E212" t="n">
-        <v>-46.4730567932</v>
+        <v>-46.63445</v>
       </c>
       <c r="F212" t="inlineStr">
         <is>
@@ -7929,35 +7949,35 @@
       </c>
       <c r="H212" t="inlineStr">
         <is>
-          <t>São Paulo</t>
+          <t>Sorocaba</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Sorocaba, Brazil</t>
+          <t>St. George's, Grenada</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>SOD</t>
+          <t>GND</t>
         </is>
       </c>
       <c r="D213" t="n">
-        <v>-23.54389</v>
+        <v>12.007116</v>
       </c>
       <c r="E213" t="n">
-        <v>-46.63445</v>
+        <v>-61.7882288</v>
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>GD</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7967,35 +7987,35 @@
       </c>
       <c r="H213" t="inlineStr">
         <is>
-          <t>Sorocaba</t>
+          <t>St. George's</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>St. George's, Grenada</t>
+          <t>Tegucigalpa, Honduras</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>GND</t>
+          <t>TGU</t>
         </is>
       </c>
       <c r="D214" t="n">
-        <v>12.007116</v>
+        <v>14.0608</v>
       </c>
       <c r="E214" t="n">
-        <v>-61.7882288</v>
+        <v>-87.21720000000001</v>
       </c>
       <c r="F214" t="inlineStr">
         <is>
-          <t>GD</t>
+          <t>HN</t>
         </is>
       </c>
       <c r="G214" t="inlineStr">
@@ -8005,35 +8025,35 @@
       </c>
       <c r="H214" t="inlineStr">
         <is>
-          <t>St. George's</t>
+          <t>Tegucigalpa</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Tegucigalpa, Honduras</t>
+          <t>Timbó, Brazil</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>TGU</t>
+          <t>NVT</t>
         </is>
       </c>
       <c r="D215" t="n">
-        <v>14.0608</v>
+        <v>-26.8251</v>
       </c>
       <c r="E215" t="n">
-        <v>-87.21720000000001</v>
+        <v>-49.2695</v>
       </c>
       <c r="F215" t="inlineStr">
         <is>
-          <t>HN</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G215" t="inlineStr">
@@ -8043,31 +8063,31 @@
       </c>
       <c r="H215" t="inlineStr">
         <is>
-          <t>Tegucigalpa</t>
+          <t>Timbo</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Timbó, Brazil</t>
+          <t>Uberlândia, Brazil</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>NVT</t>
+          <t>UDI</t>
         </is>
       </c>
       <c r="D216" t="n">
-        <v>-26.8251</v>
+        <v>-18.8836116791</v>
       </c>
       <c r="E216" t="n">
-        <v>-49.2695</v>
+        <v>-48.225276947</v>
       </c>
       <c r="F216" t="inlineStr">
         <is>
@@ -8081,31 +8101,31 @@
       </c>
       <c r="H216" t="inlineStr">
         <is>
-          <t>Timbo</t>
+          <t>Uberlandia</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Uberlândia, Brazil</t>
+          <t>Vitoria, Brazil</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>UDI</t>
+          <t>VIX</t>
         </is>
       </c>
       <c r="D217" t="n">
-        <v>-18.8836116791</v>
+        <v>-20.64871</v>
       </c>
       <c r="E217" t="n">
-        <v>-48.225276947</v>
+        <v>-41.90857</v>
       </c>
       <c r="F217" t="inlineStr">
         <is>
@@ -8119,107 +8139,107 @@
       </c>
       <c r="H217" t="inlineStr">
         <is>
-          <t>Uberlandia</t>
+          <t>Vitoria</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Vitoria, Brazil</t>
+          <t>Willemstad, Curaçao</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>VIX</t>
+          <t>CUR</t>
         </is>
       </c>
       <c r="D218" t="n">
-        <v>-20.64871</v>
+        <v>12.1888999939</v>
       </c>
       <c r="E218" t="n">
-        <v>-41.90857</v>
+        <v>-68.95980072019999</v>
       </c>
       <c r="F218" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>CW</t>
         </is>
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H218" t="inlineStr">
         <is>
-          <t>Vitoria</t>
+          <t>Willemstad</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Willemstad, Curaçao</t>
+          <t>Campos dos Goytacazes, Brazil</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>CUR</t>
+          <t>CAW</t>
         </is>
       </c>
       <c r="D219" t="n">
-        <v>12.1888999939</v>
+        <v>-21.698299408</v>
       </c>
       <c r="E219" t="n">
-        <v>-68.95980072019999</v>
+        <v>-41.301700592</v>
       </c>
       <c r="F219" t="inlineStr">
         <is>
-          <t>CW</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>South America</t>
         </is>
       </c>
       <c r="H219" t="inlineStr">
         <is>
-          <t>Willemstad</t>
+          <t>Campos dos Goytacazes</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes, Brazil</t>
+          <t>Chapeco, Brazil</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>CAW</t>
+          <t>XAP</t>
         </is>
       </c>
       <c r="D220" t="n">
-        <v>-21.698299408</v>
+        <v>-27.1341991425</v>
       </c>
       <c r="E220" t="n">
-        <v>-41.301700592</v>
+        <v>-52.6566009521</v>
       </c>
       <c r="F220" t="inlineStr">
         <is>
@@ -8233,111 +8253,111 @@
       </c>
       <c r="H220" t="inlineStr">
         <is>
-          <t>Campos dos Goytacazes</t>
+          <t>Chapeco</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Chapeco, Brazil</t>
+          <t>Bridgetown, Barbados</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>XAP</t>
+          <t>BGI</t>
         </is>
       </c>
       <c r="D221" t="n">
-        <v>-27.1341991425</v>
+        <v>13.103562</v>
       </c>
       <c r="E221" t="n">
-        <v>-52.6566009521</v>
+        <v>-59.603226</v>
       </c>
       <c r="F221" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>BB</t>
         </is>
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>South America</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H221" t="inlineStr">
         <is>
-          <t>Chapeco</t>
+          <t>Bridgetown</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Bridgetown, Barbados</t>
+          <t>Amman, Jordan</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>BGI</t>
+          <t>AMM</t>
         </is>
       </c>
       <c r="D222" t="n">
-        <v>13.103562</v>
+        <v>31.7226009369</v>
       </c>
       <c r="E222" t="n">
-        <v>-59.603226</v>
+        <v>35.9931983948</v>
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>BB</t>
+          <t>JO</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Middle East</t>
         </is>
       </c>
       <c r="H222" t="inlineStr">
         <is>
-          <t>Bridgetown</t>
+          <t>Amman</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Amman, Jordan</t>
+          <t>Astara, Azerbaijan</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>AMM</t>
+          <t>LLK</t>
         </is>
       </c>
       <c r="D223" t="n">
-        <v>31.7226009369</v>
+        <v>38.7463989258</v>
       </c>
       <c r="E223" t="n">
-        <v>35.9931983948</v>
+        <v>48.8180007935</v>
       </c>
       <c r="F223" t="inlineStr">
         <is>
-          <t>JO</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G223" t="inlineStr">
@@ -8347,35 +8367,35 @@
       </c>
       <c r="H223" t="inlineStr">
         <is>
-          <t>Amman</t>
+          <t>Astara</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Astara, Azerbaijan</t>
+          <t>Baghdad, Iraq</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>LLK</t>
+          <t>BGW</t>
         </is>
       </c>
       <c r="D224" t="n">
-        <v>38.7463989258</v>
+        <v>33.2625007629</v>
       </c>
       <c r="E224" t="n">
-        <v>48.8180007935</v>
+        <v>44.2346000671</v>
       </c>
       <c r="F224" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G224" t="inlineStr">
@@ -8385,35 +8405,35 @@
       </c>
       <c r="H224" t="inlineStr">
         <is>
-          <t>Astara</t>
+          <t>Baghdad</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Baghdad, Iraq</t>
+          <t>Baku, Azerbaijan</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>BGW</t>
+          <t>GYD</t>
         </is>
       </c>
       <c r="D225" t="n">
-        <v>33.2625007629</v>
+        <v>40.4674987793</v>
       </c>
       <c r="E225" t="n">
-        <v>44.2346000671</v>
+        <v>50.0466995239</v>
       </c>
       <c r="F225" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>AZ</t>
         </is>
       </c>
       <c r="G225" t="inlineStr">
@@ -8423,35 +8443,35 @@
       </c>
       <c r="H225" t="inlineStr">
         <is>
-          <t>Baghdad</t>
+          <t>Baku</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Baku, Azerbaijan</t>
+          <t>Basra, Iraq</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>GYD</t>
+          <t>BSR</t>
         </is>
       </c>
       <c r="D226" t="n">
-        <v>40.4674987793</v>
+        <v>30.5491008759</v>
       </c>
       <c r="E226" t="n">
-        <v>50.0466995239</v>
+        <v>47.6621017456</v>
       </c>
       <c r="F226" t="inlineStr">
         <is>
-          <t>AZ</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G226" t="inlineStr">
@@ -8461,35 +8481,35 @@
       </c>
       <c r="H226" t="inlineStr">
         <is>
-          <t>Baku</t>
+          <t>Basra</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Basra, Iraq</t>
+          <t>Beirut, Lebanon</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>BSR</t>
+          <t>BEY</t>
         </is>
       </c>
       <c r="D227" t="n">
-        <v>30.5491008759</v>
+        <v>33.8208999634</v>
       </c>
       <c r="E227" t="n">
-        <v>47.6621017456</v>
+        <v>35.4883995056</v>
       </c>
       <c r="F227" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>LB</t>
         </is>
       </c>
       <c r="G227" t="inlineStr">
@@ -8499,35 +8519,35 @@
       </c>
       <c r="H227" t="inlineStr">
         <is>
-          <t>Basra</t>
+          <t>Beirut</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Beirut, Lebanon</t>
+          <t>Dammam, Saudi Arabia</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>BEY</t>
+          <t>DMM</t>
         </is>
       </c>
       <c r="D228" t="n">
-        <v>33.8208999634</v>
+        <v>26.471200943</v>
       </c>
       <c r="E228" t="n">
-        <v>35.4883995056</v>
+        <v>49.7979011536</v>
       </c>
       <c r="F228" t="inlineStr">
         <is>
-          <t>LB</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G228" t="inlineStr">
@@ -8537,35 +8557,35 @@
       </c>
       <c r="H228" t="inlineStr">
         <is>
-          <t>Beirut</t>
+          <t>Dammam</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Dammam, Saudi Arabia</t>
+          <t>Doha, Qatar</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>DMM</t>
+          <t>DOH</t>
         </is>
       </c>
       <c r="D229" t="n">
-        <v>26.471200943</v>
+        <v>25.2605946</v>
       </c>
       <c r="E229" t="n">
-        <v>49.7979011536</v>
+        <v>51.6137665</v>
       </c>
       <c r="F229" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>QA</t>
         </is>
       </c>
       <c r="G229" t="inlineStr">
@@ -8575,35 +8595,35 @@
       </c>
       <c r="H229" t="inlineStr">
         <is>
-          <t>Dammam</t>
+          <t>Doha</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Doha, Qatar</t>
+          <t>Dubai, United Arab Emirates</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>DOH</t>
+          <t>DXB</t>
         </is>
       </c>
       <c r="D230" t="n">
-        <v>25.2605946</v>
+        <v>25.2527999878</v>
       </c>
       <c r="E230" t="n">
-        <v>51.6137665</v>
+        <v>55.3643989563</v>
       </c>
       <c r="F230" t="inlineStr">
         <is>
-          <t>QA</t>
+          <t>AE</t>
         </is>
       </c>
       <c r="G230" t="inlineStr">
@@ -8613,35 +8633,35 @@
       </c>
       <c r="H230" t="inlineStr">
         <is>
-          <t>Doha</t>
+          <t>Dubai</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Dubai, United Arab Emirates</t>
+          <t>Erbil, Iraq</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>DXB</t>
+          <t>EBL</t>
         </is>
       </c>
       <c r="D231" t="n">
-        <v>25.2527999878</v>
+        <v>36.1901</v>
       </c>
       <c r="E231" t="n">
-        <v>55.3643989563</v>
+        <v>43.993</v>
       </c>
       <c r="F231" t="inlineStr">
         <is>
-          <t>AE</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G231" t="inlineStr">
@@ -8651,35 +8671,35 @@
       </c>
       <c r="H231" t="inlineStr">
         <is>
-          <t>Dubai</t>
+          <t>Erbil</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Erbil, Iraq</t>
+          <t>Haifa, Israel</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>EBL</t>
+          <t>HFA</t>
         </is>
       </c>
       <c r="D232" t="n">
-        <v>36.1901</v>
+        <v>32.78492</v>
       </c>
       <c r="E232" t="n">
-        <v>43.993</v>
+        <v>34.96069</v>
       </c>
       <c r="F232" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G232" t="inlineStr">
@@ -8689,35 +8709,35 @@
       </c>
       <c r="H232" t="inlineStr">
         <is>
-          <t>Erbil</t>
+          <t>Haifa</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Haifa, Israel</t>
+          <t>Jeddah, Saudi Arabia</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>HFA</t>
+          <t>JED</t>
         </is>
       </c>
       <c r="D233" t="n">
-        <v>32.78492</v>
+        <v>21.679599762</v>
       </c>
       <c r="E233" t="n">
-        <v>34.96069</v>
+        <v>39.15650177</v>
       </c>
       <c r="F233" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G233" t="inlineStr">
@@ -8727,35 +8747,35 @@
       </c>
       <c r="H233" t="inlineStr">
         <is>
-          <t>Haifa</t>
+          <t>Jeddah</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Jeddah, Saudi Arabia</t>
+          <t>Kuwait City, Kuwait</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>JED</t>
+          <t>KWI</t>
         </is>
       </c>
       <c r="D234" t="n">
-        <v>21.679599762</v>
+        <v>29.226600647</v>
       </c>
       <c r="E234" t="n">
-        <v>39.15650177</v>
+        <v>47.9688987732</v>
       </c>
       <c r="F234" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>KW</t>
         </is>
       </c>
       <c r="G234" t="inlineStr">
@@ -8765,35 +8785,35 @@
       </c>
       <c r="H234" t="inlineStr">
         <is>
-          <t>Jeddah</t>
+          <t>Kuwait City</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Kuwait City, Kuwait</t>
+          <t>Manama, Bahrain</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>KWI</t>
+          <t>BAH</t>
         </is>
       </c>
       <c r="D235" t="n">
-        <v>29.226600647</v>
+        <v>26.2707996368</v>
       </c>
       <c r="E235" t="n">
-        <v>47.9688987732</v>
+        <v>50.6335983276</v>
       </c>
       <c r="F235" t="inlineStr">
         <is>
-          <t>KW</t>
+          <t>BH</t>
         </is>
       </c>
       <c r="G235" t="inlineStr">
@@ -8803,35 +8823,35 @@
       </c>
       <c r="H235" t="inlineStr">
         <is>
-          <t>Kuwait City</t>
+          <t>Manama</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Manama, Bahrain</t>
+          <t>Muscat, Oman</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>BAH</t>
+          <t>MCT</t>
         </is>
       </c>
       <c r="D236" t="n">
-        <v>26.2707996368</v>
+        <v>23.5932998657</v>
       </c>
       <c r="E236" t="n">
-        <v>50.6335983276</v>
+        <v>58.2844009399</v>
       </c>
       <c r="F236" t="inlineStr">
         <is>
-          <t>BH</t>
+          <t>OM</t>
         </is>
       </c>
       <c r="G236" t="inlineStr">
@@ -8841,35 +8861,35 @@
       </c>
       <c r="H236" t="inlineStr">
         <is>
-          <t>Manama</t>
+          <t>Muscat</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Muscat, Oman</t>
+          <t>Najaf, Iraq</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>MCT</t>
+          <t>NJF</t>
         </is>
       </c>
       <c r="D237" t="n">
-        <v>23.5932998657</v>
+        <v>31.989722</v>
       </c>
       <c r="E237" t="n">
-        <v>58.2844009399</v>
+        <v>44.404167</v>
       </c>
       <c r="F237" t="inlineStr">
         <is>
-          <t>OM</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G237" t="inlineStr">
@@ -8879,31 +8899,31 @@
       </c>
       <c r="H237" t="inlineStr">
         <is>
-          <t>Muscat</t>
+          <t>Najaf</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Najaf, Iraq</t>
+          <t>Nasiriyah, Iraq</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>NJF</t>
+          <t>XNH</t>
         </is>
       </c>
       <c r="D238" t="n">
-        <v>31.989722</v>
+        <v>30.9358005524</v>
       </c>
       <c r="E238" t="n">
-        <v>44.404167</v>
+        <v>46.0900993347</v>
       </c>
       <c r="F238" t="inlineStr">
         <is>
@@ -8917,35 +8937,35 @@
       </c>
       <c r="H238" t="inlineStr">
         <is>
-          <t>Najaf</t>
+          <t>Nasiriyah</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Nasiriyah, Iraq</t>
+          <t>Ramallah</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>XNH</t>
+          <t>ZDM</t>
         </is>
       </c>
       <c r="D239" t="n">
-        <v>30.9358005524</v>
+        <v>32.2719</v>
       </c>
       <c r="E239" t="n">
-        <v>46.0900993347</v>
+        <v>35.0194</v>
       </c>
       <c r="F239" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>PS</t>
         </is>
       </c>
       <c r="G239" t="inlineStr">
@@ -8955,35 +8975,35 @@
       </c>
       <c r="H239" t="inlineStr">
         <is>
-          <t>Nasiriyah</t>
+          <t>Ramallah</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Riyadh, Saudi Arabia</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>ZDM</t>
+          <t>RUH</t>
         </is>
       </c>
       <c r="D240" t="n">
-        <v>32.2719</v>
+        <v>24.9575996399</v>
       </c>
       <c r="E240" t="n">
-        <v>35.0194</v>
+        <v>46.6987991333</v>
       </c>
       <c r="F240" t="inlineStr">
         <is>
-          <t>PS</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="G240" t="inlineStr">
@@ -8993,35 +9013,35 @@
       </c>
       <c r="H240" t="inlineStr">
         <is>
-          <t>Ramallah</t>
+          <t>Riyadh</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Riyadh, Saudi Arabia</t>
+          <t>Sulaymaniyah, Iraq</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>RUH</t>
+          <t>ISU</t>
         </is>
       </c>
       <c r="D241" t="n">
-        <v>24.9575996399</v>
+        <v>35.5668</v>
       </c>
       <c r="E241" t="n">
-        <v>46.6987991333</v>
+        <v>45.4161</v>
       </c>
       <c r="F241" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>IQ</t>
         </is>
       </c>
       <c r="G241" t="inlineStr">
@@ -9031,35 +9051,35 @@
       </c>
       <c r="H241" t="inlineStr">
         <is>
-          <t>Riyadh</t>
+          <t>Sulaymaniyah</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Sulaymaniyah, Iraq</t>
+          <t>Tel Aviv, Israel</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>ISU</t>
+          <t>TLV</t>
         </is>
       </c>
       <c r="D242" t="n">
-        <v>35.5668</v>
+        <v>32.0113983154</v>
       </c>
       <c r="E242" t="n">
-        <v>45.4161</v>
+        <v>34.8866996765</v>
       </c>
       <c r="F242" t="inlineStr">
         <is>
-          <t>IQ</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="G242" t="inlineStr">
@@ -9069,69 +9089,69 @@
       </c>
       <c r="H242" t="inlineStr">
         <is>
-          <t>Sulaymaniyah</t>
+          <t>Tel Aviv</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Tel Aviv, Israel</t>
+          <t>Ashburn, VA, United States</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>TLV</t>
+          <t>IAD</t>
         </is>
       </c>
       <c r="D243" t="n">
-        <v>32.0113983154</v>
+        <v>38.94449997</v>
       </c>
       <c r="E243" t="n">
-        <v>34.8866996765</v>
+        <v>-77.45580292</v>
       </c>
       <c r="F243" t="inlineStr">
         <is>
-          <t>IL</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Middle East</t>
+          <t>North America</t>
         </is>
       </c>
       <c r="H243" t="inlineStr">
         <is>
-          <t>Tel Aviv</t>
+          <t>Ashburn</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Ashburn, VA, United States</t>
+          <t>Atlanta, GA, United States</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>IAD</t>
+          <t>ATL</t>
         </is>
       </c>
       <c r="D244" t="n">
-        <v>38.94449997</v>
+        <v>33.6366996765</v>
       </c>
       <c r="E244" t="n">
-        <v>-77.45580292</v>
+        <v>-84.4281005859</v>
       </c>
       <c r="F244" t="inlineStr">
         <is>
@@ -9145,31 +9165,31 @@
       </c>
       <c r="H244" t="inlineStr">
         <is>
-          <t>Ashburn</t>
+          <t>Atlanta</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Atlanta, GA, United States</t>
+          <t>Boston, MA, United States</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>ATL</t>
+          <t>BOS</t>
         </is>
       </c>
       <c r="D245" t="n">
-        <v>33.6366996765</v>
+        <v>42.36429977</v>
       </c>
       <c r="E245" t="n">
-        <v>-84.4281005859</v>
+        <v>-71.00520324999999</v>
       </c>
       <c r="F245" t="inlineStr">
         <is>
@@ -9183,31 +9203,31 @@
       </c>
       <c r="H245" t="inlineStr">
         <is>
-          <t>Atlanta</t>
+          <t>Boston</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Boston, MA, United States</t>
+          <t>Buffalo, NY, United States</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>BOS</t>
+          <t>BUF</t>
         </is>
       </c>
       <c r="D246" t="n">
-        <v>42.36429977</v>
+        <v>42.94049835</v>
       </c>
       <c r="E246" t="n">
-        <v>-71.00520324999999</v>
+        <v>-78.73220062</v>
       </c>
       <c r="F246" t="inlineStr">
         <is>
@@ -9221,35 +9241,35 @@
       </c>
       <c r="H246" t="inlineStr">
         <is>
-          <t>Boston</t>
+          <t>Buffalo</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Buffalo, NY, United States</t>
+          <t>Calgary, AB, Canada</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>BUF</t>
+          <t>YYC</t>
         </is>
       </c>
       <c r="D247" t="n">
-        <v>42.94049835</v>
+        <v>51.113899231</v>
       </c>
       <c r="E247" t="n">
-        <v>-78.73220062</v>
+        <v>-114.019996643</v>
       </c>
       <c r="F247" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G247" t="inlineStr">
@@ -9259,35 +9279,35 @@
       </c>
       <c r="H247" t="inlineStr">
         <is>
-          <t>Buffalo</t>
+          <t>Calgary</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Calgary, AB, Canada</t>
+          <t>Charlotte, NC, United States</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>YYC</t>
+          <t>CLT</t>
         </is>
       </c>
       <c r="D248" t="n">
-        <v>51.113899231</v>
+        <v>35.2140007019</v>
       </c>
       <c r="E248" t="n">
-        <v>-114.019996643</v>
+        <v>-80.94309997560001</v>
       </c>
       <c r="F248" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G248" t="inlineStr">
@@ -9297,31 +9317,31 @@
       </c>
       <c r="H248" t="inlineStr">
         <is>
-          <t>Calgary</t>
+          <t>Charlotte</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Charlotte, NC, United States</t>
+          <t>Chicago, IL, United States</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>CLT</t>
+          <t>ORD</t>
         </is>
       </c>
       <c r="D249" t="n">
-        <v>35.2140007019</v>
+        <v>41.97859955</v>
       </c>
       <c r="E249" t="n">
-        <v>-80.94309997560001</v>
+        <v>-87.90480042</v>
       </c>
       <c r="F249" t="inlineStr">
         <is>
@@ -9335,31 +9355,31 @@
       </c>
       <c r="H249" t="inlineStr">
         <is>
-          <t>Charlotte</t>
+          <t>Chicago</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Chicago, IL, United States</t>
+          <t>Columbus, OH, United States</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>ORD</t>
+          <t>CMH</t>
         </is>
       </c>
       <c r="D250" t="n">
-        <v>41.97859955</v>
+        <v>39.9980010986</v>
       </c>
       <c r="E250" t="n">
-        <v>-87.90480042</v>
+        <v>-82.89189910890001</v>
       </c>
       <c r="F250" t="inlineStr">
         <is>
@@ -9373,31 +9393,31 @@
       </c>
       <c r="H250" t="inlineStr">
         <is>
-          <t>Chicago</t>
+          <t>Columbus</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Columbus, OH, United States</t>
+          <t>Dallas, TX, United States</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>CMH</t>
+          <t>DFW</t>
         </is>
       </c>
       <c r="D251" t="n">
-        <v>39.9980010986</v>
+        <v>32.8968009949</v>
       </c>
       <c r="E251" t="n">
-        <v>-82.89189910890001</v>
+        <v>-97.0380020142</v>
       </c>
       <c r="F251" t="inlineStr">
         <is>
@@ -9411,31 +9431,31 @@
       </c>
       <c r="H251" t="inlineStr">
         <is>
-          <t>Columbus</t>
+          <t>Dallas</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Dallas, TX, United States</t>
+          <t>Denver, CO, United States</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>DFW</t>
+          <t>DEN</t>
         </is>
       </c>
       <c r="D252" t="n">
-        <v>32.8968009949</v>
+        <v>39.8616981506</v>
       </c>
       <c r="E252" t="n">
-        <v>-97.0380020142</v>
+        <v>-104.672996521</v>
       </c>
       <c r="F252" t="inlineStr">
         <is>
@@ -9449,31 +9469,31 @@
       </c>
       <c r="H252" t="inlineStr">
         <is>
-          <t>Dallas</t>
+          <t>Denver</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Denver, CO, United States</t>
+          <t>Detroit, MI, United States</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>DEN</t>
+          <t>DTW</t>
         </is>
       </c>
       <c r="D253" t="n">
-        <v>39.8616981506</v>
+        <v>42.2123985291</v>
       </c>
       <c r="E253" t="n">
-        <v>-104.672996521</v>
+        <v>-83.35340118409999</v>
       </c>
       <c r="F253" t="inlineStr">
         <is>
@@ -9487,31 +9507,31 @@
       </c>
       <c r="H253" t="inlineStr">
         <is>
-          <t>Denver</t>
+          <t>Detroit</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Detroit, MI, United States</t>
+          <t>Honolulu, HI, United States</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>DTW</t>
+          <t>HNL</t>
         </is>
       </c>
       <c r="D254" t="n">
-        <v>42.2123985291</v>
+        <v>21.3187007904</v>
       </c>
       <c r="E254" t="n">
-        <v>-83.35340118409999</v>
+        <v>-157.9219970703</v>
       </c>
       <c r="F254" t="inlineStr">
         <is>
@@ -9525,31 +9545,31 @@
       </c>
       <c r="H254" t="inlineStr">
         <is>
-          <t>Detroit</t>
+          <t>Honolulu</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Honolulu, HI, United States</t>
+          <t>Houston, TX, United States</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>HNL</t>
+          <t>IAH</t>
         </is>
       </c>
       <c r="D255" t="n">
-        <v>21.3187007904</v>
+        <v>29.9843997955</v>
       </c>
       <c r="E255" t="n">
-        <v>-157.9219970703</v>
+        <v>-95.34140014650001</v>
       </c>
       <c r="F255" t="inlineStr">
         <is>
@@ -9563,31 +9583,31 @@
       </c>
       <c r="H255" t="inlineStr">
         <is>
-          <t>Honolulu</t>
+          <t>Houston</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Houston, TX, United States</t>
+          <t>Indianapolis, IN, United States</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>IAH</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="D256" t="n">
-        <v>29.9843997955</v>
+        <v>39.717300415</v>
       </c>
       <c r="E256" t="n">
-        <v>-95.34140014650001</v>
+        <v>-86.2944030762</v>
       </c>
       <c r="F256" t="inlineStr">
         <is>
@@ -9601,31 +9621,31 @@
       </c>
       <c r="H256" t="inlineStr">
         <is>
-          <t>Houston</t>
+          <t>Indianapolis</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Indianapolis, IN, United States</t>
+          <t>Jacksonville, FL, United States</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>JAX</t>
         </is>
       </c>
       <c r="D257" t="n">
-        <v>39.717300415</v>
+        <v>30.4941005707</v>
       </c>
       <c r="E257" t="n">
-        <v>-86.2944030762</v>
+        <v>-81.68789672849999</v>
       </c>
       <c r="F257" t="inlineStr">
         <is>
@@ -9639,31 +9659,31 @@
       </c>
       <c r="H257" t="inlineStr">
         <is>
-          <t>Indianapolis</t>
+          <t>Jacksonville</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Jacksonville, FL, United States</t>
+          <t>Kansas City, MO, United States</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>JAX</t>
+          <t>MCI</t>
         </is>
       </c>
       <c r="D258" t="n">
-        <v>30.4941005707</v>
+        <v>39.2975997925</v>
       </c>
       <c r="E258" t="n">
-        <v>-81.68789672849999</v>
+        <v>-94.7138977051</v>
       </c>
       <c r="F258" t="inlineStr">
         <is>
@@ -9677,31 +9697,31 @@
       </c>
       <c r="H258" t="inlineStr">
         <is>
-          <t>Jacksonville</t>
+          <t>Kansas City</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Kansas City, MO, United States</t>
+          <t>Las Vegas, NV, United States</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>MCI</t>
+          <t>LAS</t>
         </is>
       </c>
       <c r="D259" t="n">
-        <v>39.2975997925</v>
+        <v>36.08010101</v>
       </c>
       <c r="E259" t="n">
-        <v>-94.7138977051</v>
+        <v>-115.1520004</v>
       </c>
       <c r="F259" t="inlineStr">
         <is>
@@ -9715,31 +9735,31 @@
       </c>
       <c r="H259" t="inlineStr">
         <is>
-          <t>Kansas City</t>
+          <t>Las Vegas</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Las Vegas, NV, United States</t>
+          <t>Los Angeles, CA, United States</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>LAS</t>
+          <t>LAX</t>
         </is>
       </c>
       <c r="D260" t="n">
-        <v>36.08010101</v>
+        <v>33.94250107</v>
       </c>
       <c r="E260" t="n">
-        <v>-115.1520004</v>
+        <v>-118.4079971</v>
       </c>
       <c r="F260" t="inlineStr">
         <is>
@@ -9753,31 +9773,31 @@
       </c>
       <c r="H260" t="inlineStr">
         <is>
-          <t>Las Vegas</t>
+          <t>Los Angeles</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Los Angeles, CA, United States</t>
+          <t>McAllen, TX, United States</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>LAX</t>
+          <t>MFE</t>
         </is>
       </c>
       <c r="D261" t="n">
-        <v>33.94250107</v>
+        <v>26.17580032</v>
       </c>
       <c r="E261" t="n">
-        <v>-118.4079971</v>
+        <v>-98.23860168</v>
       </c>
       <c r="F261" t="inlineStr">
         <is>
@@ -9791,31 +9811,31 @@
       </c>
       <c r="H261" t="inlineStr">
         <is>
-          <t>Los Angeles</t>
+          <t>McAllen</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>McAllen, TX, United States</t>
+          <t>Memphis, TN, United States</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>MFE</t>
+          <t>MEM</t>
         </is>
       </c>
       <c r="D262" t="n">
-        <v>26.17580032</v>
+        <v>35.0424003601</v>
       </c>
       <c r="E262" t="n">
-        <v>-98.23860168</v>
+        <v>-89.9766998291</v>
       </c>
       <c r="F262" t="inlineStr">
         <is>
@@ -9829,35 +9849,35 @@
       </c>
       <c r="H262" t="inlineStr">
         <is>
-          <t>McAllen</t>
+          <t>Memphis</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Memphis, TN, United States</t>
+          <t>Mexico City, Mexico</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>MEM</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="D263" t="n">
-        <v>35.0424003601</v>
+        <v>19.4363002777</v>
       </c>
       <c r="E263" t="n">
-        <v>-89.9766998291</v>
+        <v>-99.07209777830001</v>
       </c>
       <c r="F263" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G263" t="inlineStr">
@@ -9867,35 +9887,35 @@
       </c>
       <c r="H263" t="inlineStr">
         <is>
-          <t>Memphis</t>
+          <t>Mexico City</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Mexico City, Mexico</t>
+          <t>Miami, FL, United States</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>MIA</t>
         </is>
       </c>
       <c r="D264" t="n">
-        <v>19.4363002777</v>
+        <v>25.7931995392</v>
       </c>
       <c r="E264" t="n">
-        <v>-99.07209777830001</v>
+        <v>-80.2906036377</v>
       </c>
       <c r="F264" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G264" t="inlineStr">
@@ -9905,31 +9925,31 @@
       </c>
       <c r="H264" t="inlineStr">
         <is>
-          <t>Mexico City</t>
+          <t>Miami</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Miami, FL, United States</t>
+          <t>Minneapolis, MN, United States</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>MIA</t>
+          <t>MSP</t>
         </is>
       </c>
       <c r="D265" t="n">
-        <v>25.7931995392</v>
+        <v>44.8819999695</v>
       </c>
       <c r="E265" t="n">
-        <v>-80.2906036377</v>
+        <v>-93.22180175779999</v>
       </c>
       <c r="F265" t="inlineStr">
         <is>
@@ -9943,31 +9963,31 @@
       </c>
       <c r="H265" t="inlineStr">
         <is>
-          <t>Miami</t>
+          <t>Minneapolis</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Minneapolis, MN, United States</t>
+          <t>Montgomery, AL, United States</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>MSP</t>
+          <t>MGM</t>
         </is>
       </c>
       <c r="D266" t="n">
-        <v>44.8819999695</v>
+        <v>32.30059814</v>
       </c>
       <c r="E266" t="n">
-        <v>-93.22180175779999</v>
+        <v>-86.39399718999999</v>
       </c>
       <c r="F266" t="inlineStr">
         <is>
@@ -9981,35 +10001,35 @@
       </c>
       <c r="H266" t="inlineStr">
         <is>
-          <t>Minneapolis</t>
+          <t>Montgomery</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Montgomery, AL, United States</t>
+          <t>Montréal, QC, Canada</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>MGM</t>
+          <t>YUL</t>
         </is>
       </c>
       <c r="D267" t="n">
-        <v>32.30059814</v>
+        <v>45.4706001282</v>
       </c>
       <c r="E267" t="n">
-        <v>-86.39399718999999</v>
+        <v>-73.7407989502</v>
       </c>
       <c r="F267" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G267" t="inlineStr">
@@ -10019,35 +10039,35 @@
       </c>
       <c r="H267" t="inlineStr">
         <is>
-          <t>Montgomery</t>
+          <t>Montréal</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Montréal, QC, Canada</t>
+          <t>Nashville, United States</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>YUL</t>
+          <t>BNA</t>
         </is>
       </c>
       <c r="D268" t="n">
-        <v>45.4706001282</v>
+        <v>36.1245002747</v>
       </c>
       <c r="E268" t="n">
-        <v>-73.7407989502</v>
+        <v>-86.6781997681</v>
       </c>
       <c r="F268" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G268" t="inlineStr">
@@ -10057,31 +10077,31 @@
       </c>
       <c r="H268" t="inlineStr">
         <is>
-          <t>Montréal</t>
+          <t>Nashville</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Nashville, United States</t>
+          <t>Newark, NJ, United States</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>BNA</t>
+          <t>EWR</t>
         </is>
       </c>
       <c r="D269" t="n">
-        <v>36.1245002747</v>
+        <v>40.6925010681</v>
       </c>
       <c r="E269" t="n">
-        <v>-86.6781997681</v>
+        <v>-74.1687011719</v>
       </c>
       <c r="F269" t="inlineStr">
         <is>
@@ -10095,31 +10115,31 @@
       </c>
       <c r="H269" t="inlineStr">
         <is>
-          <t>Nashville</t>
+          <t>Newark</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Newark, NJ, United States</t>
+          <t>Norfolk, VA, United States</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>EWR</t>
+          <t>ORF</t>
         </is>
       </c>
       <c r="D270" t="n">
-        <v>40.6925010681</v>
+        <v>36.8945999146</v>
       </c>
       <c r="E270" t="n">
-        <v>-74.1687011719</v>
+        <v>-76.2012023926</v>
       </c>
       <c r="F270" t="inlineStr">
         <is>
@@ -10133,31 +10153,31 @@
       </c>
       <c r="H270" t="inlineStr">
         <is>
-          <t>Newark</t>
+          <t>Norfolk</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Norfolk, VA, United States</t>
+          <t>Omaha, NE, United States</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>ORF</t>
+          <t>OMA</t>
         </is>
       </c>
       <c r="D271" t="n">
-        <v>36.8945999146</v>
+        <v>41.3031997681</v>
       </c>
       <c r="E271" t="n">
-        <v>-76.2012023926</v>
+        <v>-95.89409637449999</v>
       </c>
       <c r="F271" t="inlineStr">
         <is>
@@ -10171,35 +10191,35 @@
       </c>
       <c r="H271" t="inlineStr">
         <is>
-          <t>Norfolk</t>
+          <t>Omaha</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Omaha, NE, United States</t>
+          <t>Ottawa, Canada</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>OMA</t>
+          <t>YOW</t>
         </is>
       </c>
       <c r="D272" t="n">
-        <v>41.3031997681</v>
+        <v>45.3224983215</v>
       </c>
       <c r="E272" t="n">
-        <v>-95.89409637449999</v>
+        <v>-75.66919708250001</v>
       </c>
       <c r="F272" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G272" t="inlineStr">
@@ -10209,35 +10229,35 @@
       </c>
       <c r="H272" t="inlineStr">
         <is>
-          <t>Omaha</t>
+          <t>Ottawa</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Ottawa, Canada</t>
+          <t>Philadelphia, United States</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>YOW</t>
+          <t>PHL</t>
         </is>
       </c>
       <c r="D273" t="n">
-        <v>45.3224983215</v>
+        <v>39.8718986511</v>
       </c>
       <c r="E273" t="n">
-        <v>-75.66919708250001</v>
+        <v>-75.24109649659999</v>
       </c>
       <c r="F273" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G273" t="inlineStr">
@@ -10247,31 +10267,31 @@
       </c>
       <c r="H273" t="inlineStr">
         <is>
-          <t>Ottawa</t>
+          <t>Philadelphia</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Philadelphia, United States</t>
+          <t>Phoenix, AZ, United States</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>PHL</t>
+          <t>PHX</t>
         </is>
       </c>
       <c r="D274" t="n">
-        <v>39.8718986511</v>
+        <v>33.434299469</v>
       </c>
       <c r="E274" t="n">
-        <v>-75.24109649659999</v>
+        <v>-112.012001038</v>
       </c>
       <c r="F274" t="inlineStr">
         <is>
@@ -10285,31 +10305,31 @@
       </c>
       <c r="H274" t="inlineStr">
         <is>
-          <t>Philadelphia</t>
+          <t>Phoenix</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Phoenix, AZ, United States</t>
+          <t>Pittsburgh, PA, United States</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>PHX</t>
+          <t>PIT</t>
         </is>
       </c>
       <c r="D275" t="n">
-        <v>33.434299469</v>
+        <v>40.49150085</v>
       </c>
       <c r="E275" t="n">
-        <v>-112.012001038</v>
+        <v>-80.23290253</v>
       </c>
       <c r="F275" t="inlineStr">
         <is>
@@ -10323,31 +10343,31 @@
       </c>
       <c r="H275" t="inlineStr">
         <is>
-          <t>Phoenix</t>
+          <t>Pittsburgh</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Pittsburgh, PA, United States</t>
+          <t>Portland, OR, United States</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>PIT</t>
+          <t>PDX</t>
         </is>
       </c>
       <c r="D276" t="n">
-        <v>40.49150085</v>
+        <v>45.58869934</v>
       </c>
       <c r="E276" t="n">
-        <v>-80.23290253</v>
+        <v>-122.5979996</v>
       </c>
       <c r="F276" t="inlineStr">
         <is>
@@ -10361,35 +10381,35 @@
       </c>
       <c r="H276" t="inlineStr">
         <is>
-          <t>Pittsburgh</t>
+          <t>Portland</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Portland, OR, United States</t>
+          <t>Queretaro, MX, Mexico</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>PDX</t>
+          <t>QRO</t>
         </is>
       </c>
       <c r="D277" t="n">
-        <v>45.58869934</v>
+        <v>20.6173000336</v>
       </c>
       <c r="E277" t="n">
-        <v>-122.5979996</v>
+        <v>-100.185997009</v>
       </c>
       <c r="F277" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G277" t="inlineStr">
@@ -10399,35 +10419,35 @@
       </c>
       <c r="H277" t="inlineStr">
         <is>
-          <t>Portland</t>
+          <t>Queretaro</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Queretaro, MX, Mexico</t>
+          <t>Richmond, VA, United States</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>QRO</t>
+          <t>RIC</t>
         </is>
       </c>
       <c r="D278" t="n">
-        <v>20.6173000336</v>
+        <v>37.5051994324</v>
       </c>
       <c r="E278" t="n">
-        <v>-100.185997009</v>
+        <v>-77.3197021484</v>
       </c>
       <c r="F278" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G278" t="inlineStr">
@@ -10437,31 +10457,31 @@
       </c>
       <c r="H278" t="inlineStr">
         <is>
-          <t>Queretaro</t>
+          <t>Richmond</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Richmond, VA, United States</t>
+          <t>Sacramento, CA, United States</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>RIC</t>
+          <t>SMF</t>
         </is>
       </c>
       <c r="D279" t="n">
-        <v>37.5051994324</v>
+        <v>38.695400238</v>
       </c>
       <c r="E279" t="n">
-        <v>-77.3197021484</v>
+        <v>-121.591003418</v>
       </c>
       <c r="F279" t="inlineStr">
         <is>
@@ -10475,31 +10495,31 @@
       </c>
       <c r="H279" t="inlineStr">
         <is>
-          <t>Richmond</t>
+          <t>Sacramento</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Sacramento, CA, United States</t>
+          <t>Salt Lake City, UT, United States</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>SMF</t>
+          <t>SLC</t>
         </is>
       </c>
       <c r="D280" t="n">
-        <v>38.695400238</v>
+        <v>40.7883987427</v>
       </c>
       <c r="E280" t="n">
-        <v>-121.591003418</v>
+        <v>-111.977996826</v>
       </c>
       <c r="F280" t="inlineStr">
         <is>
@@ -10513,31 +10533,31 @@
       </c>
       <c r="H280" t="inlineStr">
         <is>
-          <t>Sacramento</t>
+          <t>Salt Lake City</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Salt Lake City, UT, United States</t>
+          <t>San Diego, CA, United States</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>SLC</t>
+          <t>SAN</t>
         </is>
       </c>
       <c r="D281" t="n">
-        <v>40.7883987427</v>
+        <v>32.7336006165</v>
       </c>
       <c r="E281" t="n">
-        <v>-111.977996826</v>
+        <v>-117.190002441</v>
       </c>
       <c r="F281" t="inlineStr">
         <is>
@@ -10551,31 +10571,31 @@
       </c>
       <c r="H281" t="inlineStr">
         <is>
-          <t>Salt Lake City</t>
+          <t>San Diego</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>San Diego, CA, United States</t>
+          <t>San Jose, CA, United States</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>SAN</t>
+          <t>SJC</t>
         </is>
       </c>
       <c r="D282" t="n">
-        <v>32.7336006165</v>
+        <v>37.3625984192</v>
       </c>
       <c r="E282" t="n">
-        <v>-117.190002441</v>
+        <v>-121.929000855</v>
       </c>
       <c r="F282" t="inlineStr">
         <is>
@@ -10589,35 +10609,35 @@
       </c>
       <c r="H282" t="inlineStr">
         <is>
-          <t>San Diego</t>
+          <t>San Jose</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>San Jose, CA, United States</t>
+          <t>Saskatoon, SK, Canada</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>SJC</t>
+          <t>YXE</t>
         </is>
       </c>
       <c r="D283" t="n">
-        <v>37.3625984192</v>
+        <v>52.1707992554</v>
       </c>
       <c r="E283" t="n">
-        <v>-121.929000855</v>
+        <v>-106.699996948</v>
       </c>
       <c r="F283" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G283" t="inlineStr">
@@ -10627,35 +10647,35 @@
       </c>
       <c r="H283" t="inlineStr">
         <is>
-          <t>San Jose</t>
+          <t>Saskatoon</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Saskatoon, SK, Canada</t>
+          <t>Seattle, WA, United States</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>YXE</t>
+          <t>SEA</t>
         </is>
       </c>
       <c r="D284" t="n">
-        <v>52.1707992554</v>
+        <v>47.4490013123</v>
       </c>
       <c r="E284" t="n">
-        <v>-106.699996948</v>
+        <v>-122.308998108</v>
       </c>
       <c r="F284" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G284" t="inlineStr">
@@ -10665,31 +10685,31 @@
       </c>
       <c r="H284" t="inlineStr">
         <is>
-          <t>Saskatoon</t>
+          <t>Seattle</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Seattle, WA, United States</t>
+          <t>Sioux Falls, South Dakota</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>SEA</t>
+          <t>FSD</t>
         </is>
       </c>
       <c r="D285" t="n">
-        <v>47.4490013123</v>
+        <v>43.540819819502</v>
       </c>
       <c r="E285" t="n">
-        <v>-122.308998108</v>
+        <v>-96.65511577730963</v>
       </c>
       <c r="F285" t="inlineStr">
         <is>
@@ -10703,31 +10723,31 @@
       </c>
       <c r="H285" t="inlineStr">
         <is>
-          <t>Seattle</t>
+          <t>Sioux Falls</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Sioux Falls, South Dakota</t>
+          <t>St. Louis, MO, United States</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>FSD</t>
+          <t>STL</t>
         </is>
       </c>
       <c r="D286" t="n">
-        <v>43.540819819502</v>
+        <v>38.7486991882</v>
       </c>
       <c r="E286" t="n">
-        <v>-96.65511577730963</v>
+        <v>-90.37000274659999</v>
       </c>
       <c r="F286" t="inlineStr">
         <is>
@@ -10741,31 +10761,31 @@
       </c>
       <c r="H286" t="inlineStr">
         <is>
-          <t>Sioux Falls</t>
+          <t>St. Louis</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>St. Louis, MO, United States</t>
+          <t>Tallahassee, FL, United States</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>STL</t>
+          <t>TLH</t>
         </is>
       </c>
       <c r="D287" t="n">
-        <v>38.7486991882</v>
+        <v>30.3964996338</v>
       </c>
       <c r="E287" t="n">
-        <v>-90.37000274659999</v>
+        <v>-84.3503036499</v>
       </c>
       <c r="F287" t="inlineStr">
         <is>
@@ -10779,35 +10799,35 @@
       </c>
       <c r="H287" t="inlineStr">
         <is>
-          <t>St. Louis</t>
+          <t>Tallahassee</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Tallahassee, FL, United States</t>
+          <t>Toronto, ON, Canada</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>TLH</t>
+          <t>YYZ</t>
         </is>
       </c>
       <c r="D288" t="n">
-        <v>30.3964996338</v>
+        <v>43.6772003174</v>
       </c>
       <c r="E288" t="n">
-        <v>-84.3503036499</v>
+        <v>-79.63059997560001</v>
       </c>
       <c r="F288" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="G288" t="inlineStr">
@@ -10817,31 +10837,31 @@
       </c>
       <c r="H288" t="inlineStr">
         <is>
-          <t>Tallahassee</t>
+          <t>Toronto</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Toronto, ON, Canada</t>
+          <t>Vancouver, BC, Canada</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>YYZ</t>
+          <t>YVR</t>
         </is>
       </c>
       <c r="D289" t="n">
-        <v>43.6772003174</v>
+        <v>49.193901062</v>
       </c>
       <c r="E289" t="n">
-        <v>-79.63059997560001</v>
+        <v>-123.183998108</v>
       </c>
       <c r="F289" t="inlineStr">
         <is>
@@ -10855,31 +10875,31 @@
       </c>
       <c r="H289" t="inlineStr">
         <is>
-          <t>Toronto</t>
+          <t>Vancouver</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Vancouver, BC, Canada</t>
+          <t>Winnipeg, MB, Canada</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>YVR</t>
+          <t>YWG</t>
         </is>
       </c>
       <c r="D290" t="n">
-        <v>49.193901062</v>
+        <v>49.9099998474</v>
       </c>
       <c r="E290" t="n">
-        <v>-123.183998108</v>
+        <v>-97.2398986816</v>
       </c>
       <c r="F290" t="inlineStr">
         <is>
@@ -10893,35 +10913,35 @@
       </c>
       <c r="H290" t="inlineStr">
         <is>
-          <t>Vancouver</t>
+          <t>Winnipeg</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Winnipeg, MB, Canada</t>
+          <t>San Francisco, United States</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>YWG</t>
+          <t>SFO</t>
         </is>
       </c>
       <c r="D291" t="n">
-        <v>49.9099998474</v>
+        <v>37.6189994812</v>
       </c>
       <c r="E291" t="n">
-        <v>-97.2398986816</v>
+        <v>-122.375</v>
       </c>
       <c r="F291" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G291" t="inlineStr">
@@ -10931,35 +10951,35 @@
       </c>
       <c r="H291" t="inlineStr">
         <is>
-          <t>Winnipeg</t>
+          <t>San Francisco</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>San Francisco, United States</t>
+          <t>Kingston, Jamaica</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>SFO</t>
+          <t>KIN</t>
         </is>
       </c>
       <c r="D292" t="n">
-        <v>37.6189994812</v>
+        <v>17.9951</v>
       </c>
       <c r="E292" t="n">
-        <v>-122.375</v>
+        <v>-76.7846</v>
       </c>
       <c r="F292" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>JM</t>
         </is>
       </c>
       <c r="G292" t="inlineStr">
@@ -10969,35 +10989,35 @@
       </c>
       <c r="H292" t="inlineStr">
         <is>
-          <t>San Francisco</t>
+          <t>Kingston</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Kingston, Jamaica</t>
+          <t>Bangor, United States</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>KIN</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="D293" t="n">
-        <v>17.9951</v>
+        <v>44.8081</v>
       </c>
       <c r="E293" t="n">
-        <v>-76.7846</v>
+        <v>-68.795</v>
       </c>
       <c r="F293" t="inlineStr">
         <is>
-          <t>JM</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G293" t="inlineStr">
@@ -11007,31 +11027,31 @@
       </c>
       <c r="H293" t="inlineStr">
         <is>
-          <t>Kingston</t>
+          <t>Bangor</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bangor, United States</t>
+          <t>Austin, United States</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="D294" t="n">
-        <v>44.8081</v>
+        <v>30.1975</v>
       </c>
       <c r="E294" t="n">
-        <v>-68.795</v>
+        <v>-97.6664</v>
       </c>
       <c r="F294" t="inlineStr">
         <is>
@@ -11045,31 +11065,31 @@
       </c>
       <c r="H294" t="inlineStr">
         <is>
-          <t>Bangor</t>
+          <t>Austin</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Austin, United States</t>
+          <t>Albuquerque, United States</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ABQ</t>
         </is>
       </c>
       <c r="D295" t="n">
-        <v>30.1975</v>
+        <v>35.0844</v>
       </c>
       <c r="E295" t="n">
-        <v>-97.6664</v>
+        <v>-106.6504</v>
       </c>
       <c r="F295" t="inlineStr">
         <is>
@@ -11083,35 +11103,35 @@
       </c>
       <c r="H295" t="inlineStr">
         <is>
-          <t>Austin</t>
+          <t>Albuquerque</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Albuquerque, United States</t>
+          <t>Guadalajara, Mexico</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>ABQ</t>
+          <t>GDL</t>
         </is>
       </c>
       <c r="D296" t="n">
-        <v>35.0844</v>
+        <v>20.5217990875</v>
       </c>
       <c r="E296" t="n">
-        <v>-106.6504</v>
+        <v>-103.3109970093</v>
       </c>
       <c r="F296" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="G296" t="inlineStr">
@@ -11121,35 +11141,35 @@
       </c>
       <c r="H296" t="inlineStr">
         <is>
-          <t>Albuquerque</t>
+          <t>Guadalajara</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Guadalajara, Mexico</t>
+          <t>San Antonio, United States</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>GDL</t>
+          <t>SAT</t>
         </is>
       </c>
       <c r="D297" t="n">
-        <v>20.5217990875</v>
+        <v>29.429461</v>
       </c>
       <c r="E297" t="n">
-        <v>-103.3109970093</v>
+        <v>-98.487061</v>
       </c>
       <c r="F297" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>US</t>
         </is>
       </c>
       <c r="G297" t="inlineStr">
@@ -11159,31 +11179,31 @@
       </c>
       <c r="H297" t="inlineStr">
         <is>
-          <t>Guadalajara</t>
+          <t>San Antonio</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>San Antonio, United States</t>
+          <t>Cleveland, United States</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>SAT</t>
+          <t>CLE</t>
         </is>
       </c>
       <c r="D298" t="n">
-        <v>29.429461</v>
+        <v>41.50069</v>
       </c>
       <c r="E298" t="n">
-        <v>-98.487061</v>
+        <v>-81.68411999999999</v>
       </c>
       <c r="F298" t="inlineStr">
         <is>
@@ -11197,31 +11217,31 @@
       </c>
       <c r="H298" t="inlineStr">
         <is>
-          <t>San Antonio</t>
+          <t>Cleveland</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Cleveland, United States</t>
+          <t>Durham, United States</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>CLE</t>
+          <t>RDU</t>
         </is>
       </c>
       <c r="D299" t="n">
-        <v>41.50069</v>
+        <v>35.93543</v>
       </c>
       <c r="E299" t="n">
-        <v>-81.68411999999999</v>
+        <v>-78.88075000000001</v>
       </c>
       <c r="F299" t="inlineStr">
         <is>
@@ -11235,31 +11255,31 @@
       </c>
       <c r="H299" t="inlineStr">
         <is>
-          <t>Cleveland</t>
+          <t>Durham</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Durham, United States</t>
+          <t>Oklahoma City, United States</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>RDU</t>
+          <t>OKC</t>
         </is>
       </c>
       <c r="D300" t="n">
-        <v>35.93543</v>
+        <v>35.46655</v>
       </c>
       <c r="E300" t="n">
-        <v>-78.88075000000001</v>
+        <v>-97.65373</v>
       </c>
       <c r="F300" t="inlineStr">
         <is>
@@ -11273,31 +11293,31 @@
       </c>
       <c r="H300" t="inlineStr">
         <is>
-          <t>Durham</t>
+          <t>Oklahoma City</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Oklahoma City, United States</t>
+          <t>Tampa, United States</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>OKC</t>
+          <t>TPA</t>
         </is>
       </c>
       <c r="D301" t="n">
-        <v>35.46655</v>
+        <v>27.9755001068</v>
       </c>
       <c r="E301" t="n">
-        <v>-97.65373</v>
+        <v>-82.533203125</v>
       </c>
       <c r="F301" t="inlineStr">
         <is>
@@ -11311,73 +11331,73 @@
       </c>
       <c r="H301" t="inlineStr">
         <is>
-          <t>Oklahoma City</t>
+          <t>Tampa</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Tampa, United States</t>
+          <t>Adelaide, SA, Australia</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>TPA</t>
+          <t>ADL</t>
         </is>
       </c>
       <c r="D302" t="n">
-        <v>27.9755001068</v>
+        <v>-34.9431729</v>
       </c>
       <c r="E302" t="n">
-        <v>-82.533203125</v>
+        <v>138.5335637</v>
       </c>
       <c r="F302" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>North America</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H302" t="inlineStr">
         <is>
-          <t>Tampa</t>
+          <t>Adelaide</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Adelaide, SA, Australia</t>
+          <t>Auckland, New Zealand</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>ADL</t>
+          <t>AKL</t>
         </is>
       </c>
       <c r="D303" t="n">
-        <v>-34.9431729</v>
+        <v>-37.0080986023</v>
       </c>
       <c r="E303" t="n">
-        <v>138.5335637</v>
+        <v>174.792007446</v>
       </c>
       <c r="F303" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G303" t="inlineStr">
@@ -11387,35 +11407,35 @@
       </c>
       <c r="H303" t="inlineStr">
         <is>
-          <t>Adelaide</t>
+          <t>Auckland</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Auckland, New Zealand</t>
+          <t>Brisbane, QLD, Australia</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>AKL</t>
+          <t>BNE</t>
         </is>
       </c>
       <c r="D304" t="n">
-        <v>-37.0080986023</v>
+        <v>-27.3841991425</v>
       </c>
       <c r="E304" t="n">
-        <v>174.792007446</v>
+        <v>153.117004394</v>
       </c>
       <c r="F304" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G304" t="inlineStr">
@@ -11425,31 +11445,31 @@
       </c>
       <c r="H304" t="inlineStr">
         <is>
-          <t>Auckland</t>
+          <t>Brisbane</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Brisbane, QLD, Australia</t>
+          <t>Canberra, ACT, Australia</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>BNE</t>
+          <t>CBR</t>
         </is>
       </c>
       <c r="D305" t="n">
-        <v>-27.3841991425</v>
+        <v>-35.3069000244</v>
       </c>
       <c r="E305" t="n">
-        <v>153.117004394</v>
+        <v>149.1950073242</v>
       </c>
       <c r="F305" t="inlineStr">
         <is>
@@ -11463,35 +11483,35 @@
       </c>
       <c r="H305" t="inlineStr">
         <is>
-          <t>Brisbane</t>
+          <t>Canberra</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Canberra, ACT, Australia</t>
+          <t>Christchurch, New Zealand</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>CBR</t>
+          <t>CHC</t>
         </is>
       </c>
       <c r="D306" t="n">
-        <v>-35.3069000244</v>
+        <v>-43.4893989563</v>
       </c>
       <c r="E306" t="n">
-        <v>149.1950073242</v>
+        <v>172.5319976807</v>
       </c>
       <c r="F306" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="G306" t="inlineStr">
@@ -11501,107 +11521,107 @@
       </c>
       <c r="H306" t="inlineStr">
         <is>
-          <t>Canberra</t>
+          <t>Christchurch</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Christchurch, New Zealand</t>
+          <t>Hagatna, Guam</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>CHC</t>
+          <t>GUM</t>
         </is>
       </c>
       <c r="D307" t="n">
-        <v>-43.4893989563</v>
+        <v>13.4834003448</v>
       </c>
       <c r="E307" t="n">
-        <v>172.5319976807</v>
+        <v>144.796005249</v>
       </c>
       <c r="F307" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>GU</t>
         </is>
       </c>
       <c r="G307" t="inlineStr">
         <is>
-          <t>Oceania</t>
+          <t>Asia Pacific</t>
         </is>
       </c>
       <c r="H307" t="inlineStr">
         <is>
-          <t>Christchurch</t>
+          <t>Hagatna</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Hagatna, Guam</t>
+          <t>Hobart, Australia</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>GUM</t>
+          <t>HBA</t>
         </is>
       </c>
       <c r="D308" t="n">
-        <v>13.4834003448</v>
+        <v>-42.883209</v>
       </c>
       <c r="E308" t="n">
-        <v>144.796005249</v>
+        <v>147.331665</v>
       </c>
       <c r="F308" t="inlineStr">
         <is>
-          <t>GU</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G308" t="inlineStr">
         <is>
-          <t>Asia Pacific</t>
+          <t>Oceania</t>
         </is>
       </c>
       <c r="H308" t="inlineStr">
         <is>
-          <t>Hagatna</t>
+          <t>Hobart</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Hobart, Australia</t>
+          <t>Melbourne, VIC, Australia</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>HBA</t>
+          <t>MEL</t>
         </is>
       </c>
       <c r="D309" t="n">
-        <v>-42.883209</v>
+        <v>-37.6733016968</v>
       </c>
       <c r="E309" t="n">
-        <v>147.331665</v>
+        <v>144.843002319</v>
       </c>
       <c r="F309" t="inlineStr">
         <is>
@@ -11615,35 +11635,35 @@
       </c>
       <c r="H309" t="inlineStr">
         <is>
-          <t>Hobart</t>
+          <t>Melbourne</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Melbourne, VIC, Australia</t>
+          <t>Noumea, New Caledonia</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>MEL</t>
+          <t>NOU</t>
         </is>
       </c>
       <c r="D310" t="n">
-        <v>-37.6733016968</v>
+        <v>-22.0146007538</v>
       </c>
       <c r="E310" t="n">
-        <v>144.843002319</v>
+        <v>166.212997436</v>
       </c>
       <c r="F310" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>NC</t>
         </is>
       </c>
       <c r="G310" t="inlineStr">
@@ -11653,35 +11673,35 @@
       </c>
       <c r="H310" t="inlineStr">
         <is>
-          <t>Melbourne</t>
+          <t>Noumea</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Noumea, New Caledonia</t>
+          <t>Perth, WA, Australia</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>NOU</t>
+          <t>PER</t>
         </is>
       </c>
       <c r="D311" t="n">
-        <v>-22.0146007538</v>
+        <v>-31.9402999878</v>
       </c>
       <c r="E311" t="n">
-        <v>166.212997436</v>
+        <v>115.967002869</v>
       </c>
       <c r="F311" t="inlineStr">
         <is>
-          <t>NC</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="G311" t="inlineStr">
@@ -11691,31 +11711,31 @@
       </c>
       <c r="H311" t="inlineStr">
         <is>
-          <t>Noumea</t>
+          <t>Perth</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>SYD</t>
         </is>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Perth, WA, Australia</t>
+          <t>Sydney, NSW, Australia</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>PER</t>
+          <t>SYD</t>
         </is>
       </c>
       <c r="D312" t="n">
-        <v>-31.9402999878</v>
+        <v>-33.9460983276</v>
       </c>
       <c r="E312" t="n">
-        <v>115.967002869</v>
+        <v>151.177001953</v>
       </c>
       <c r="F312" t="inlineStr">
         <is>
@@ -11729,35 +11749,35 @@
       </c>
       <c r="H312" t="inlineStr">
         <is>
-          <t>Perth</t>
+          <t>Sydney</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Sydney, NSW, Australia</t>
+          <t>Tahiti, French Polynesia</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>SYD</t>
+          <t>PPT</t>
         </is>
       </c>
       <c r="D313" t="n">
-        <v>-33.9460983276</v>
+        <v>-17.5536994934</v>
       </c>
       <c r="E313" t="n">
-        <v>151.177001953</v>
+        <v>-149.606994629</v>
       </c>
       <c r="F313" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>PF</t>
         </is>
       </c>
       <c r="G313" t="inlineStr">
@@ -11766,44 +11786,6 @@
         </is>
       </c>
       <c r="H313" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" s="1" t="inlineStr">
-        <is>
-          <t>PPT</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>Tahiti, French Polynesia</t>
-        </is>
-      </c>
-      <c r="C314" t="inlineStr">
-        <is>
-          <t>PPT</t>
-        </is>
-      </c>
-      <c r="D314" t="n">
-        <v>-17.5536994934</v>
-      </c>
-      <c r="E314" t="n">
-        <v>-149.606994629</v>
-      </c>
-      <c r="F314" t="inlineStr">
-        <is>
-          <t>PF</t>
-        </is>
-      </c>
-      <c r="G314" t="inlineStr">
-        <is>
-          <t>Oceania</t>
-        </is>
-      </c>
-      <c r="H314" t="inlineStr">
         <is>
           <t>Tahiti</t>
         </is>
